--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -514,14 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -531,7 +531,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -554,13 +554,13 @@
       <c r="C2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -591,1147 +591,1147 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>70</v>
+        <v>640</v>
       </c>
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>80</v>
+        <v>1280</v>
       </c>
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>90</v>
+        <v>2560</v>
       </c>
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>100</v>
+        <v>5120</v>
       </c>
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>110</v>
+        <v>10240</v>
       </c>
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>120</v>
+        <v>20480</v>
       </c>
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>130</v>
+        <v>40960</v>
       </c>
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>140</v>
+        <v>81920</v>
       </c>
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>150</v>
+        <v>163840</v>
       </c>
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>160</v>
+        <v>327680</v>
       </c>
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>170</v>
+        <v>655360</v>
       </c>
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>180</v>
+        <v>1310720</v>
       </c>
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>190</v>
+        <v>2621440</v>
       </c>
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1747,26 +1747,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -156,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +176,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -577,7 +583,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>10</v>
       </c>
       <c r="C5" s="6"/>
@@ -586,8 +592,9 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
-        <v>20</v>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B11" si="0">B5*1.5</f>
+        <v>15</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -595,8 +602,9 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
-        <v>40</v>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -604,8 +612,9 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
-        <v>80</v>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -613,8 +622,9 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
-        <v>160</v>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>50.625</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -622,8 +632,9 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
-        <v>320</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>75.9375</v>
       </c>
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
@@ -632,8 +643,9 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
-        <v>640</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>113.90625</v>
       </c>
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
@@ -642,8 +654,9 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="7">
-        <v>1280</v>
+      <c r="B12" s="8">
+        <f t="shared" ref="B12:B43" si="1">B11*1.5</f>
+        <v>170.859375</v>
       </c>
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
@@ -652,8 +665,9 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
-        <v>2560</v>
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
+        <v>256.2890625</v>
       </c>
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
@@ -662,8 +676,9 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="7">
-        <v>5120</v>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>384.43359375</v>
       </c>
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
@@ -672,8 +687,9 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
-        <v>10240</v>
+      <c r="B15" s="8">
+        <f>B14*1.5</f>
+        <v>576.650390625</v>
       </c>
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
@@ -682,8 +698,9 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="7">
-        <v>20480</v>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
+        <v>864.9755859375</v>
       </c>
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
@@ -692,8 +709,9 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="7">
-        <v>40960</v>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>1297.46337890625</v>
       </c>
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
@@ -702,8 +720,9 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="7">
-        <v>81920</v>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
+        <v>1946.195068359375</v>
       </c>
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
@@ -712,8 +731,9 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
-        <v>163840</v>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
+        <v>2919.2926025390625</v>
       </c>
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
@@ -722,8 +742,9 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
-        <v>327680</v>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
+        <v>4378.9389038085937</v>
       </c>
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
@@ -732,8 +753,9 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="7">
-        <v>655360</v>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>6568.4083557128906</v>
       </c>
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
@@ -742,8 +764,9 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="7">
-        <v>1310720</v>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
+        <v>9852.6125335693359</v>
       </c>
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
@@ -752,81 +775,188 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="7">
-        <v>2621440</v>
+      <c r="B23" s="8">
+        <f>B22*1.5</f>
+        <v>14778.918800354004</v>
       </c>
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
+        <v>22168.378200531006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="1"/>
+        <v>33252.567300796509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="1"/>
+        <v>49878.850951194763</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27"/>
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="1"/>
+        <v>74818.276426792145</v>
+      </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="1"/>
+        <v>112227.41464018822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
+        <v>168341.12196028233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="1"/>
+        <v>252511.68294042349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="1"/>
+        <v>378767.52441063523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="1"/>
+        <v>568151.28661595285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="1"/>
+        <v>852226.92992392927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="1"/>
+        <v>1278340.3948858939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="1"/>
+        <v>1917510.5923288409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="1"/>
+        <v>2876265.8884932613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="1"/>
+        <v>4314398.8327398915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="1"/>
+        <v>6471598.2491098372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="1"/>
+        <v>9707397.3736647554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="1"/>
+        <v>14561096.060497133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="1"/>
+        <v>21841644.090745699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="1"/>
+        <v>32762466.136118546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>TableName: "TMaidShop" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,7 +548,7 @@
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
@@ -544,9 +560,15 @@
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -573,9 +595,15 @@
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -586,57 +614,111 @@
       <c r="B5" s="8">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5">
+        <f>ROUNDUP(C5,0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B11" si="0">B5*1.5</f>
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <f>C5*D5</f>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E42" si="0">ROUNDUP(C6,0)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <f>C6*D6</f>
         <v>22.5</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:C42" si="1">C7*D7</f>
         <v>33.75</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
         <v>50.625</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="8">
-        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
         <v>75.9375</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -644,10 +726,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
         <v>113.90625</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="D11">
+        <v>1.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -655,10 +746,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" ref="B12:B43" si="1">B11*1.5</f>
+        <v>171</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
         <v>170.859375</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -666,10 +766,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
+        <v>257</v>
+      </c>
+      <c r="C13" s="6">
         <f t="shared" si="1"/>
         <v>256.2890625</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -677,10 +786,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="8">
+        <v>385</v>
+      </c>
+      <c r="C14" s="6">
         <f t="shared" si="1"/>
         <v>384.43359375</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -688,10 +806,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="8">
-        <f>B14*1.5</f>
+        <v>577</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
         <v>576.650390625</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -699,10 +826,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="8">
+        <v>865</v>
+      </c>
+      <c r="C16" s="6">
         <f t="shared" si="1"/>
         <v>864.9755859375</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -710,10 +846,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="8">
+        <v>1298</v>
+      </c>
+      <c r="C17" s="6">
         <f t="shared" si="1"/>
         <v>1297.46337890625</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1298</v>
+      </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -721,10 +866,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="8">
+        <v>1947</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="1"/>
         <v>1946.195068359375</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="D18">
+        <v>1.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1947</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -732,10 +886,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
+        <v>2920</v>
+      </c>
+      <c r="C19" s="6">
         <f t="shared" si="1"/>
         <v>2919.2926025390625</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2920</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -743,10 +906,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="8">
+        <v>4379</v>
+      </c>
+      <c r="C20" s="6">
         <f t="shared" si="1"/>
         <v>4378.9389038085937</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="D20">
+        <v>1.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4379</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -754,10 +926,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="8">
+        <v>6569</v>
+      </c>
+      <c r="C21" s="6">
         <f t="shared" si="1"/>
         <v>6568.4083557128906</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>6569</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -765,10 +946,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="8">
+        <v>9853</v>
+      </c>
+      <c r="C22" s="6">
         <f t="shared" si="1"/>
         <v>9852.6125335693359</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="D22">
+        <v>1.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>9853</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -776,10 +966,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="8">
-        <f>B22*1.5</f>
+        <v>14779</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
         <v>14778.918800354004</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="D23">
+        <v>1.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>14779</v>
+      </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -787,8 +986,18 @@
         <v>20</v>
       </c>
       <c r="B24" s="8">
+        <v>22169</v>
+      </c>
+      <c r="C24" s="6">
         <f t="shared" si="1"/>
         <v>22168.378200531006</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>22169</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -796,8 +1005,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="8">
+        <v>33253</v>
+      </c>
+      <c r="C25" s="6">
         <f t="shared" si="1"/>
         <v>33252.567300796509</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>33253</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -805,8 +1024,18 @@
         <v>22</v>
       </c>
       <c r="B26" s="8">
+        <v>49879</v>
+      </c>
+      <c r="C26" s="6">
         <f t="shared" si="1"/>
         <v>49878.850951194763</v>
+      </c>
+      <c r="D26">
+        <v>1.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>49879</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -814,8 +1043,18 @@
         <v>23</v>
       </c>
       <c r="B27" s="8">
+        <v>74819</v>
+      </c>
+      <c r="C27" s="6">
         <f t="shared" si="1"/>
         <v>74818.276426792145</v>
+      </c>
+      <c r="D27">
+        <v>1.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>74819</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -824,8 +1063,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
+        <v>112228</v>
+      </c>
+      <c r="C28" s="6">
         <f t="shared" si="1"/>
         <v>112227.41464018822</v>
+      </c>
+      <c r="D28">
+        <v>1.5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>112228</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -833,8 +1082,18 @@
         <v>25</v>
       </c>
       <c r="B29" s="8">
+        <v>168342</v>
+      </c>
+      <c r="C29" s="6">
         <f t="shared" si="1"/>
         <v>168341.12196028233</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>168342</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -842,8 +1101,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="8">
+        <v>252512</v>
+      </c>
+      <c r="C30" s="6">
         <f t="shared" si="1"/>
         <v>252511.68294042349</v>
+      </c>
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>252512</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -851,8 +1120,18 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
+        <v>378768</v>
+      </c>
+      <c r="C31" s="6">
         <f t="shared" si="1"/>
         <v>378767.52441063523</v>
+      </c>
+      <c r="D31">
+        <v>1.5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>378768</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -860,119 +1139,229 @@
         <v>28</v>
       </c>
       <c r="B32" s="8">
+        <v>568152</v>
+      </c>
+      <c r="C32" s="6">
         <f t="shared" si="1"/>
         <v>568151.28661595285</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>1.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>568152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" s="8">
+        <v>852227</v>
+      </c>
+      <c r="C33" s="6">
         <f t="shared" si="1"/>
         <v>852226.92992392927</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1.5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>852227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" s="8">
+        <v>1278341</v>
+      </c>
+      <c r="C34" s="6">
         <f t="shared" si="1"/>
         <v>1278340.3948858939</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1.5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1278341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" s="8">
+        <v>1917511</v>
+      </c>
+      <c r="C35" s="6">
         <f t="shared" si="1"/>
         <v>1917510.5923288409</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1917511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" s="8">
+        <v>2876266</v>
+      </c>
+      <c r="C36" s="6">
         <f t="shared" si="1"/>
         <v>2876265.8884932613</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2876266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" s="8">
+        <v>4314399</v>
+      </c>
+      <c r="C37" s="6">
         <f t="shared" si="1"/>
         <v>4314398.8327398915</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1.5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>4314399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" s="8">
+        <v>6471599</v>
+      </c>
+      <c r="C38" s="6">
         <f t="shared" si="1"/>
         <v>6471598.2491098372</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>1.5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>6471599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" s="8">
+        <v>9707398</v>
+      </c>
+      <c r="C39" s="6">
         <f t="shared" si="1"/>
         <v>9707397.3736647554</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>9707398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" s="8">
+        <v>14561097</v>
+      </c>
+      <c r="C40" s="6">
         <f t="shared" si="1"/>
         <v>14561096.060497133</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>14561097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" s="8">
+        <v>21841645</v>
+      </c>
+      <c r="C41" s="6">
         <f t="shared" si="1"/>
         <v>21841644.090745699</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1.5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>21841645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" s="8">
+        <v>32762467</v>
+      </c>
+      <c r="C42" s="6">
         <f t="shared" si="1"/>
         <v>32762466.136118546</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1.5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>32762467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -111,8 +111,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -175,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,8 +195,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -549,7 +553,7 @@
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,433 +611,433 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>10</v>
       </c>
       <c r="D5">
         <v>1.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <f>ROUNDUP(C5,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <f>C5*D5</f>
         <v>15</v>
       </c>
       <c r="D6">
         <v>1.5</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E42" si="0">ROUNDUP(C6,0)</f>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6:E69" si="0">ROUNDUP(C6,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <f>C6*D6</f>
         <v>22.5</v>
       </c>
       <c r="D7">
         <v>1.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>34</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:C42" si="1">C7*D7</f>
+      <c r="C8" s="8">
+        <f t="shared" ref="C8:C71" si="1">C7*D7</f>
         <v>33.75</v>
       </c>
       <c r="D8">
         <v>1.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>51</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>50.625</v>
       </c>
       <c r="D9">
         <v>1.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>76</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>75.9375</v>
       </c>
       <c r="D10">
         <v>1.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>114</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>113.90625</v>
       </c>
       <c r="D11">
         <v>1.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>171</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>170.859375</v>
       </c>
       <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>257</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
         <v>256.2890625</v>
       </c>
       <c r="D13">
         <v>1.5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>385</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <f t="shared" si="1"/>
         <v>384.43359375</v>
       </c>
       <c r="D14">
         <v>1.5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>577</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <f t="shared" si="1"/>
         <v>576.650390625</v>
       </c>
       <c r="D15">
         <v>1.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>865</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <f t="shared" si="1"/>
         <v>864.9755859375</v>
       </c>
       <c r="D16">
         <v>1.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>1298</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <f t="shared" si="1"/>
         <v>1297.46337890625</v>
       </c>
       <c r="D17">
         <v>1.5</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>1298</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>1947</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>1946.195068359375</v>
       </c>
       <c r="D18">
         <v>1.5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>1947</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>2920</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <f t="shared" si="1"/>
         <v>2919.2926025390625</v>
       </c>
       <c r="D19">
         <v>1.5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>2920</v>
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>4379</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <f t="shared" si="1"/>
         <v>4378.9389038085937</v>
       </c>
       <c r="D20">
         <v>1.5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>4379</v>
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>6569</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <f t="shared" si="1"/>
         <v>6568.4083557128906</v>
       </c>
       <c r="D21">
         <v>1.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>6569</v>
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>9853</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <f t="shared" si="1"/>
         <v>9852.6125335693359</v>
       </c>
       <c r="D22">
         <v>1.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>9853</v>
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>14779</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="8">
         <f t="shared" si="1"/>
         <v>14778.918800354004</v>
       </c>
       <c r="D23">
         <v>1.5</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>14779</v>
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>22169</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <f t="shared" si="1"/>
         <v>22168.378200531006</v>
       </c>
       <c r="D24">
         <v>1.5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>22169</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>33253</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="8">
         <f t="shared" si="1"/>
         <v>33252.567300796509</v>
       </c>
       <c r="D25">
         <v>1.5</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>33253</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>49879</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="8">
         <f t="shared" si="1"/>
         <v>49878.850951194763</v>
       </c>
       <c r="D26">
         <v>1.5</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <f t="shared" si="0"/>
         <v>49879</v>
       </c>
@@ -1042,431 +1046,1011 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>74819</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="8">
         <f t="shared" si="1"/>
         <v>74818.276426792145</v>
       </c>
       <c r="D27">
         <v>1.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>74819</v>
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>112228</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <f t="shared" si="1"/>
         <v>112227.41464018822</v>
       </c>
       <c r="D28">
         <v>1.5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>112228</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>168342</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="8">
         <f t="shared" si="1"/>
         <v>168341.12196028233</v>
       </c>
       <c r="D29">
         <v>1.5</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>168342</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>252512</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="8">
         <f t="shared" si="1"/>
         <v>252511.68294042349</v>
       </c>
       <c r="D30">
         <v>1.5</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>252512</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>378768</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="8">
         <f t="shared" si="1"/>
         <v>378767.52441063523</v>
       </c>
       <c r="D31">
         <v>1.5</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>378768</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>568152</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="8">
         <f t="shared" si="1"/>
         <v>568151.28661595285</v>
       </c>
       <c r="D32">
         <v>1.5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>568152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>852227</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="8">
         <f t="shared" si="1"/>
         <v>852226.92992392927</v>
       </c>
       <c r="D33">
         <v>1.5</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>852227</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="9">
         <v>1278341</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="8">
         <f t="shared" si="1"/>
         <v>1278340.3948858939</v>
       </c>
       <c r="D34">
         <v>1.5</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>1278341</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>1917511</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="8">
         <f t="shared" si="1"/>
         <v>1917510.5923288409</v>
       </c>
       <c r="D35">
         <v>1.5</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>1917511</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="9">
         <v>2876266</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="8">
         <f t="shared" si="1"/>
         <v>2876265.8884932613</v>
       </c>
       <c r="D36">
         <v>1.5</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>2876266</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="9">
         <v>4314399</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="8">
         <f t="shared" si="1"/>
         <v>4314398.8327398915</v>
       </c>
       <c r="D37">
         <v>1.5</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>4314399</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>6471599</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="8">
         <f t="shared" si="1"/>
         <v>6471598.2491098372</v>
       </c>
       <c r="D38">
         <v>1.5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>6471599</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>9707398</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="8">
         <f t="shared" si="1"/>
         <v>9707397.3736647554</v>
       </c>
       <c r="D39">
         <v>1.5</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>9707398</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>14561097</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="8">
         <f t="shared" si="1"/>
         <v>14561096.060497133</v>
       </c>
       <c r="D40">
         <v>1.5</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>14561097</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>21841645</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="8">
         <f t="shared" si="1"/>
         <v>21841644.090745699</v>
       </c>
       <c r="D41">
         <v>1.5</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>21841645</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>32762467</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="8">
         <f t="shared" si="1"/>
         <v>32762466.136118546</v>
       </c>
       <c r="D42">
         <v>1.5</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="9">
         <f t="shared" si="0"/>
         <v>32762467</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-      <c r="B43" s="8"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>49143700</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="1"/>
+        <v>49143699.204177819</v>
+      </c>
+      <c r="D43">
+        <v>1.5</v>
+      </c>
+      <c r="E43" s="9">
+        <f>ROUNDUP(C43,0)</f>
+        <v>49143700</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44"/>
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>73715549</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="1"/>
+        <v>73715548.806266725</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>73715549</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-      <c r="B45"/>
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9">
+        <v>110573324</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" si="1"/>
+        <v>110573323.20940009</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>110573324</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46"/>
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9">
+        <v>165859985</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" si="1"/>
+        <v>165859984.81410015</v>
+      </c>
+      <c r="D46">
+        <v>1.5</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>165859985</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="B47"/>
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9">
+        <v>248789978</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" si="1"/>
+        <v>248789977.22115022</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>248789978</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9">
+        <v>373184966</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" si="1"/>
+        <v>373184965.83172536</v>
+      </c>
+      <c r="D48">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>373184966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9">
+        <v>559777449</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" si="1"/>
+        <v>559777448.74758804</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>559777449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9">
+        <v>839666174</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" si="1"/>
+        <v>839666173.121382</v>
+      </c>
+      <c r="D50">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>839666174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1259499260</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" si="1"/>
+        <v>1259499259.6820731</v>
+      </c>
+      <c r="D51">
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>1259499260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1889248890</v>
+      </c>
+      <c r="C52" s="8">
+        <f t="shared" si="1"/>
+        <v>1889248889.5231097</v>
+      </c>
+      <c r="D52">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>1889248890</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2833873335</v>
+      </c>
+      <c r="C53" s="8">
+        <f t="shared" si="1"/>
+        <v>2833873334.2846646</v>
+      </c>
+      <c r="D53">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>2833873335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9">
+        <v>4250810002</v>
+      </c>
+      <c r="C54" s="8">
+        <f t="shared" si="1"/>
+        <v>4250810001.4269972</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>4250810002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9">
+        <v>6376215003</v>
+      </c>
+      <c r="C55" s="8">
+        <f t="shared" si="1"/>
+        <v>6376215002.1404953</v>
+      </c>
+      <c r="D55">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>6376215003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9">
+        <v>9564322504</v>
+      </c>
+      <c r="C56" s="8">
+        <f t="shared" si="1"/>
+        <v>9564322503.210743</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>9564322504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9">
+        <v>14346483755</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" si="1"/>
+        <v>14346483754.816114</v>
+      </c>
+      <c r="D57">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>14346483755</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9">
+        <v>21519725633</v>
+      </c>
+      <c r="C58" s="8">
+        <f t="shared" si="1"/>
+        <v>21519725632.224171</v>
+      </c>
+      <c r="D58">
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>21519725633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9">
+        <v>32279588449</v>
+      </c>
+      <c r="C59" s="8">
+        <f t="shared" si="1"/>
+        <v>32279588448.336258</v>
+      </c>
+      <c r="D59">
+        <v>1.5</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>32279588449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9">
+        <v>48419382673</v>
+      </c>
+      <c r="C60" s="8">
+        <f t="shared" si="1"/>
+        <v>48419382672.504387</v>
+      </c>
+      <c r="D60">
+        <v>1.5</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>48419382673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9">
+        <v>72629074009</v>
+      </c>
+      <c r="C61" s="8">
+        <f t="shared" si="1"/>
+        <v>72629074008.756577</v>
+      </c>
+      <c r="D61">
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>72629074009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9">
+        <v>108943611014</v>
+      </c>
+      <c r="C62" s="8">
+        <f t="shared" si="1"/>
+        <v>108943611013.13486</v>
+      </c>
+      <c r="D62">
+        <v>1.5</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="0"/>
+        <v>108943611014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9">
+        <v>163415416520</v>
+      </c>
+      <c r="C63" s="8">
+        <f t="shared" si="1"/>
+        <v>163415416519.70227</v>
+      </c>
+      <c r="D63">
+        <v>1.5</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="0"/>
+        <v>163415416520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9">
+        <v>245123124780</v>
+      </c>
+      <c r="C64" s="8">
+        <f t="shared" si="1"/>
+        <v>245123124779.55341</v>
+      </c>
+      <c r="D64">
+        <v>1.5</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" si="0"/>
+        <v>245123124780</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9">
+        <v>367684687170</v>
+      </c>
+      <c r="C65" s="8">
+        <f t="shared" si="1"/>
+        <v>367684687169.33008</v>
+      </c>
+      <c r="D65">
+        <v>1.5</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" si="0"/>
+        <v>367684687170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9">
+        <v>551527030754</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" si="1"/>
+        <v>551527030753.99512</v>
+      </c>
+      <c r="D66">
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" si="0"/>
+        <v>551527030754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9">
+        <v>827290546131</v>
+      </c>
+      <c r="C67" s="8">
+        <f t="shared" si="1"/>
+        <v>827290546130.99268</v>
+      </c>
+      <c r="D67">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="9">
+        <f t="shared" si="0"/>
+        <v>827290546131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1240935819197</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" si="1"/>
+        <v>1240935819196.489</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="9">
+        <f t="shared" si="0"/>
+        <v>1240935819197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1861403728795</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" si="1"/>
+        <v>1861403728794.7334</v>
+      </c>
+      <c r="D69">
+        <v>1.5</v>
+      </c>
+      <c r="E69" s="9">
+        <f t="shared" si="0"/>
+        <v>1861403728795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9">
+        <v>2792105593193</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="1"/>
+        <v>2792105593192.1001</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" ref="E70:E79" si="2">ROUNDUP(C70,0)</f>
+        <v>2792105593193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9">
+        <v>4188158389789</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" si="1"/>
+        <v>4188158389788.1504</v>
+      </c>
+      <c r="D71">
+        <v>1.5</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="2"/>
+        <v>4188158389789</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9">
+        <v>6282237584683</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" ref="C72:C79" si="3">C71*D71</f>
+        <v>6282237584682.2256</v>
+      </c>
+      <c r="D72">
+        <v>1.5</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="2"/>
+        <v>6282237584683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9">
+        <v>9423356377024</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" si="3"/>
+        <v>9423356377023.3379</v>
+      </c>
+      <c r="D73">
+        <v>1.5</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="2"/>
+        <v>9423356377024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9">
+        <v>14135034565535</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" si="3"/>
+        <v>14135034565535.008</v>
+      </c>
+      <c r="D74">
+        <v>1.5</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" si="2"/>
+        <v>14135034565535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9">
+        <v>21202551848303</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" si="3"/>
+        <v>21202551848302.512</v>
+      </c>
+      <c r="D75">
+        <v>1.5</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="2"/>
+        <v>21202551848303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9">
+        <v>31803827772454</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" si="3"/>
+        <v>31803827772453.766</v>
+      </c>
+      <c r="D76">
+        <v>1.5</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" si="2"/>
+        <v>31803827772454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9">
+        <v>47705741658681</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" si="3"/>
+        <v>47705741658680.648</v>
+      </c>
+      <c r="D77">
+        <v>1.5</v>
+      </c>
+      <c r="E77" s="9">
+        <f t="shared" si="2"/>
+        <v>47705741658681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9">
+        <v>71558612488021</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" si="3"/>
+        <v>71558612488020.969</v>
+      </c>
+      <c r="D78">
+        <v>1.5</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" si="2"/>
+        <v>71558612488021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9">
+        <v>107337918732031</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" si="3"/>
+        <v>107337918732031.45</v>
+      </c>
+      <c r="D79">
+        <v>1.5</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="2"/>
+        <v>107337918732031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -10,12 +10,12 @@
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -106,16 +106,20 @@
     <t>初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -540,14 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -557,7 +561,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -576,23 +580,23 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -611,7 +615,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -629,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -648,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -667,7 +671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -686,7 +690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -705,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -725,7 +729,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -745,7 +749,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -765,7 +769,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -785,7 +789,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -805,7 +809,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -825,7 +829,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>12</v>
       </c>
@@ -845,7 +849,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>13</v>
       </c>
@@ -865,7 +869,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>14</v>
       </c>
@@ -885,7 +889,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -905,7 +909,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>16</v>
       </c>
@@ -925,7 +929,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>17</v>
       </c>
@@ -945,7 +949,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>18</v>
       </c>
@@ -965,7 +969,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>19</v>
       </c>
@@ -985,7 +989,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>22169</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>33253</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>49879</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1062,7 +1066,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>112228</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>168342</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>252512</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>378768</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>568152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>852227</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>1278341</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>1917511</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>2876266</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>4314399</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>6471599</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>9707398</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>14561097</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>21841645</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>32762467</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>49143700</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>73715549</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>110573324</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>165859985</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>248789978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>373184966</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>559777449</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>839666174</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>1259499260</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>1889248890</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>2833873335</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>4250810002</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>6376215003</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>9564322504</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>14346483755</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>21519725633</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>32279588449</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>48419382673</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>72629074009</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>108943611014</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>163415416520</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>245123124780</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>367684687170</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>551527030754</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>827290546131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>1240935819197</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>1861403728795</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>2792105593193</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>4188158389789</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>6282237584683</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>9423356377024</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>14135034565535</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>21202551848303</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>31803827772454</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>47705741658681</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>71558612488021</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2050,791 +2054,791 @@
         <v>107337918732031</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2850,26 +2854,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -10,7 +10,7 @@
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -114,12 +114,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -544,14 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -561,7 +561,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -590,13 +590,13 @@
       <c r="C2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -615,12 +615,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -652,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -690,7 +690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -709,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -769,7 +769,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -789,7 +789,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -989,7 +989,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>22169</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>33253</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>49879</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>112228</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>168342</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>252512</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>378768</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>568152</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>852227</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1278341</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1917511</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2876266</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>4314399</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>6471599</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>9707398</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>14561097</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>21841645</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>32762467</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>49143700</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>73715549</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>110573324</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>165859985</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>248789978</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>373184966</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>559777449</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>839666174</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>1259499260</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>1889248890</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>2833873335</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>4250810002</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>6376215003</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>9564322504</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>14346483755</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>21519725633</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>32279588449</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>48419382673</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>72629074009</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>108943611014</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>163415416520</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>245123124780</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>367684687170</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>551527030754</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>827290546131</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1240935819197</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1861403728795</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>2792105593193</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>4188158389789</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>6282237584683</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>9423356377024</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>14135034565535</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>21202551848303</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>31803827772454</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>47705741658681</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>71558612488021</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2054,791 +2054,791 @@
         <v>107337918732031</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2854,26 +2854,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.796875" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="9">
         <f>ROUNDUP(C5,0)</f>
@@ -638,18 +638,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8">
         <f>C5*D5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ref="E6:E69" si="0">ROUNDUP(C6,0)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -657,18 +657,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8">
         <f>C6*D6</f>
-        <v>22.5</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -676,18 +676,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="9">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" ref="C8:C71" si="1">C7*D7</f>
-        <v>33.75</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,18 +695,18 @@
         <v>5</v>
       </c>
       <c r="B9" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="1"/>
-        <v>50.625</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,18 +714,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="9">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>75.9375</v>
+        <v>320</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -734,18 +734,18 @@
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>114</v>
+        <v>640</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="1"/>
-        <v>113.90625</v>
+        <v>640</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>640</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -754,18 +754,18 @@
         <v>8</v>
       </c>
       <c r="B12" s="9">
-        <v>171</v>
+        <v>1280</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="1"/>
-        <v>170.859375</v>
+        <v>1280</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>1280</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -774,18 +774,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="9">
-        <v>257</v>
+        <v>2560</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="1"/>
-        <v>256.2890625</v>
+        <v>2560</v>
       </c>
       <c r="D13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>2560</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -794,18 +794,18 @@
         <v>10</v>
       </c>
       <c r="B14" s="9">
-        <v>385</v>
+        <v>5120</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" si="1"/>
-        <v>384.43359375</v>
+        <v>5120</v>
       </c>
       <c r="D14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>5120</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -814,18 +814,18 @@
         <v>11</v>
       </c>
       <c r="B15" s="9">
-        <v>577</v>
+        <v>10240</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="1"/>
-        <v>576.650390625</v>
+        <v>10240</v>
       </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>10240</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -834,18 +834,18 @@
         <v>12</v>
       </c>
       <c r="B16" s="9">
-        <v>865</v>
+        <v>20480</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
-        <v>864.9755859375</v>
+        <v>20480</v>
       </c>
       <c r="D16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>865</v>
+        <v>20480</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -854,18 +854,18 @@
         <v>13</v>
       </c>
       <c r="B17" s="9">
-        <v>1298</v>
+        <v>40960</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="1"/>
-        <v>1297.46337890625</v>
+        <v>40960</v>
       </c>
       <c r="D17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>1298</v>
+        <v>40960</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -874,18 +874,18 @@
         <v>14</v>
       </c>
       <c r="B18" s="9">
-        <v>1947</v>
+        <v>81920</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
-        <v>1946.195068359375</v>
+        <v>81920</v>
       </c>
       <c r="D18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>1947</v>
+        <v>81920</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -894,18 +894,18 @@
         <v>15</v>
       </c>
       <c r="B19" s="9">
-        <v>2920</v>
+        <v>163840</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="1"/>
-        <v>2919.2926025390625</v>
+        <v>163840</v>
       </c>
       <c r="D19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>2920</v>
+        <v>163840</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -914,18 +914,18 @@
         <v>16</v>
       </c>
       <c r="B20" s="9">
-        <v>4379</v>
+        <v>327680</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="1"/>
-        <v>4378.9389038085937</v>
+        <v>327680</v>
       </c>
       <c r="D20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>4379</v>
+        <v>327680</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -934,18 +934,18 @@
         <v>17</v>
       </c>
       <c r="B21" s="9">
-        <v>6569</v>
+        <v>655360</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="1"/>
-        <v>6568.4083557128906</v>
+        <v>655360</v>
       </c>
       <c r="D21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>6569</v>
+        <v>655360</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -954,18 +954,18 @@
         <v>18</v>
       </c>
       <c r="B22" s="9">
-        <v>9853</v>
+        <v>1310720</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="1"/>
-        <v>9852.6125335693359</v>
+        <v>1310720</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>9853</v>
+        <v>1310720</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -974,18 +974,18 @@
         <v>19</v>
       </c>
       <c r="B23" s="9">
-        <v>14779</v>
+        <v>2621440</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="1"/>
-        <v>14778.918800354004</v>
+        <v>2621440</v>
       </c>
       <c r="D23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>14779</v>
+        <v>2621440</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -994,18 +994,18 @@
         <v>20</v>
       </c>
       <c r="B24" s="9">
-        <v>22169</v>
+        <v>5242880</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="1"/>
-        <v>22168.378200531006</v>
+        <v>5242880</v>
       </c>
       <c r="D24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>22169</v>
+        <v>5242880</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1013,18 +1013,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="9">
-        <v>33253</v>
+        <v>10485760</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="1"/>
-        <v>33252.567300796509</v>
+        <v>10485760</v>
       </c>
       <c r="D25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>33253</v>
+        <v>10485760</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,18 +1032,18 @@
         <v>22</v>
       </c>
       <c r="B26" s="9">
-        <v>49879</v>
+        <v>20971520</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" si="1"/>
-        <v>49878.850951194763</v>
+        <v>20971520</v>
       </c>
       <c r="D26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>49879</v>
+        <v>20971520</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1051,18 +1051,18 @@
         <v>23</v>
       </c>
       <c r="B27" s="9">
-        <v>74819</v>
+        <v>41943040</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="1"/>
-        <v>74818.276426792145</v>
+        <v>41943040</v>
       </c>
       <c r="D27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
-        <v>74819</v>
+        <v>41943040</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1071,18 +1071,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="9">
-        <v>112228</v>
+        <v>83886080</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="1"/>
-        <v>112227.41464018822</v>
+        <v>83886080</v>
       </c>
       <c r="D28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>112228</v>
+        <v>83886080</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,18 +1090,18 @@
         <v>25</v>
       </c>
       <c r="B29" s="9">
-        <v>168342</v>
+        <v>167772160</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" si="1"/>
-        <v>168341.12196028233</v>
+        <v>167772160</v>
       </c>
       <c r="D29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
-        <v>168342</v>
+        <v>167772160</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1109,18 +1109,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="9">
-        <v>252512</v>
+        <v>335544320</v>
       </c>
       <c r="C30" s="8">
         <f t="shared" si="1"/>
-        <v>252511.68294042349</v>
+        <v>335544320</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>252512</v>
+        <v>335544320</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1128,18 +1128,18 @@
         <v>27</v>
       </c>
       <c r="B31" s="9">
-        <v>378768</v>
+        <v>671088640</v>
       </c>
       <c r="C31" s="8">
         <f t="shared" si="1"/>
-        <v>378767.52441063523</v>
+        <v>671088640</v>
       </c>
       <c r="D31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
-        <v>378768</v>
+        <v>671088640</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,18 +1147,18 @@
         <v>28</v>
       </c>
       <c r="B32" s="9">
-        <v>568152</v>
+        <v>1342177280</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" si="1"/>
-        <v>568151.28661595285</v>
+        <v>1342177280</v>
       </c>
       <c r="D32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="0"/>
-        <v>568152</v>
+        <v>1342177280</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1166,18 +1166,18 @@
         <v>29</v>
       </c>
       <c r="B33" s="9">
-        <v>852227</v>
+        <v>2684354560</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="1"/>
-        <v>852226.92992392927</v>
+        <v>2684354560</v>
       </c>
       <c r="D33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>852227</v>
+        <v>2684354560</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1185,18 +1185,18 @@
         <v>30</v>
       </c>
       <c r="B34" s="9">
-        <v>1278341</v>
+        <v>5368709120</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" si="1"/>
-        <v>1278340.3948858939</v>
+        <v>5368709120</v>
       </c>
       <c r="D34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>1278341</v>
+        <v>5368709120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,18 +1204,18 @@
         <v>31</v>
       </c>
       <c r="B35" s="9">
-        <v>1917511</v>
+        <v>10737418240</v>
       </c>
       <c r="C35" s="8">
         <f t="shared" si="1"/>
-        <v>1917510.5923288409</v>
+        <v>10737418240</v>
       </c>
       <c r="D35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>1917511</v>
+        <v>10737418240</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,18 +1223,18 @@
         <v>32</v>
       </c>
       <c r="B36" s="9">
-        <v>2876266</v>
+        <v>21474836480</v>
       </c>
       <c r="C36" s="8">
         <f t="shared" si="1"/>
-        <v>2876265.8884932613</v>
+        <v>21474836480</v>
       </c>
       <c r="D36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="0"/>
-        <v>2876266</v>
+        <v>21474836480</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,18 +1242,18 @@
         <v>33</v>
       </c>
       <c r="B37" s="9">
-        <v>4314399</v>
+        <v>42949672960</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" si="1"/>
-        <v>4314398.8327398915</v>
+        <v>42949672960</v>
       </c>
       <c r="D37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="0"/>
-        <v>4314399</v>
+        <v>42949672960</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,18 +1261,18 @@
         <v>34</v>
       </c>
       <c r="B38" s="9">
-        <v>6471599</v>
+        <v>85899345920</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" si="1"/>
-        <v>6471598.2491098372</v>
+        <v>85899345920</v>
       </c>
       <c r="D38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>6471599</v>
+        <v>85899345920</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1280,18 +1280,18 @@
         <v>35</v>
       </c>
       <c r="B39" s="9">
-        <v>9707398</v>
+        <v>171798691840</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="1"/>
-        <v>9707397.3736647554</v>
+        <v>171798691840</v>
       </c>
       <c r="D39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
-        <v>9707398</v>
+        <v>171798691840</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1299,18 +1299,18 @@
         <v>36</v>
       </c>
       <c r="B40" s="9">
-        <v>14561097</v>
+        <v>343597383680</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="1"/>
-        <v>14561096.060497133</v>
+        <v>343597383680</v>
       </c>
       <c r="D40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="0"/>
-        <v>14561097</v>
+        <v>343597383680</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,18 +1318,18 @@
         <v>37</v>
       </c>
       <c r="B41" s="9">
-        <v>21841645</v>
+        <v>687194767360</v>
       </c>
       <c r="C41" s="8">
         <f t="shared" si="1"/>
-        <v>21841644.090745699</v>
+        <v>687194767360</v>
       </c>
       <c r="D41">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" si="0"/>
-        <v>21841645</v>
+        <v>687194767360</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,18 +1337,18 @@
         <v>38</v>
       </c>
       <c r="B42" s="9">
-        <v>32762467</v>
+        <v>1374389534720</v>
       </c>
       <c r="C42" s="8">
         <f t="shared" si="1"/>
-        <v>32762466.136118546</v>
+        <v>1374389534720</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="0"/>
-        <v>32762467</v>
+        <v>1374389534720</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,18 +1356,18 @@
         <v>42</v>
       </c>
       <c r="B43" s="9">
-        <v>49143700</v>
+        <v>2748779069440</v>
       </c>
       <c r="C43" s="8">
         <f t="shared" si="1"/>
-        <v>49143699.204177819</v>
+        <v>2748779069440</v>
       </c>
       <c r="D43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E43" s="9">
         <f>ROUNDUP(C43,0)</f>
-        <v>49143700</v>
+        <v>2748779069440</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1375,18 +1375,18 @@
         <v>43</v>
       </c>
       <c r="B44" s="9">
-        <v>73715549</v>
+        <v>5497558138880</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" si="1"/>
-        <v>73715548.806266725</v>
+        <v>5497558138880</v>
       </c>
       <c r="D44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="0"/>
-        <v>73715549</v>
+        <v>5497558138880</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,18 +1394,18 @@
         <v>44</v>
       </c>
       <c r="B45" s="9">
-        <v>110573324</v>
+        <v>10995116277760</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" si="1"/>
-        <v>110573323.20940009</v>
+        <v>10995116277760</v>
       </c>
       <c r="D45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
-        <v>110573324</v>
+        <v>10995116277760</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,18 +1413,18 @@
         <v>45</v>
       </c>
       <c r="B46" s="9">
-        <v>165859985</v>
+        <v>21990232555520</v>
       </c>
       <c r="C46" s="8">
         <f t="shared" si="1"/>
-        <v>165859984.81410015</v>
+        <v>21990232555520</v>
       </c>
       <c r="D46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
-        <v>165859985</v>
+        <v>21990232555520</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1432,18 +1432,18 @@
         <v>46</v>
       </c>
       <c r="B47" s="9">
-        <v>248789978</v>
+        <v>43980465111040</v>
       </c>
       <c r="C47" s="8">
         <f t="shared" si="1"/>
-        <v>248789977.22115022</v>
+        <v>43980465111040</v>
       </c>
       <c r="D47">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
-        <v>248789978</v>
+        <v>43980465111040</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,18 +1451,18 @@
         <v>47</v>
       </c>
       <c r="B48" s="9">
-        <v>373184966</v>
+        <v>87960930222080</v>
       </c>
       <c r="C48" s="8">
         <f t="shared" si="1"/>
-        <v>373184965.83172536</v>
+        <v>87960930222080</v>
       </c>
       <c r="D48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="0"/>
-        <v>373184966</v>
+        <v>87960930222080</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,18 +1470,18 @@
         <v>48</v>
       </c>
       <c r="B49" s="9">
-        <v>559777449</v>
+        <v>175921860444160</v>
       </c>
       <c r="C49" s="8">
         <f t="shared" si="1"/>
-        <v>559777448.74758804</v>
+        <v>175921860444160</v>
       </c>
       <c r="D49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="0"/>
-        <v>559777449</v>
+        <v>175921860444160</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1489,18 +1489,18 @@
         <v>49</v>
       </c>
       <c r="B50" s="9">
-        <v>839666174</v>
+        <v>351843720888320</v>
       </c>
       <c r="C50" s="8">
         <f t="shared" si="1"/>
-        <v>839666173.121382</v>
+        <v>351843720888320</v>
       </c>
       <c r="D50">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" si="0"/>
-        <v>839666174</v>
+        <v>351843720888320</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1508,18 +1508,18 @@
         <v>50</v>
       </c>
       <c r="B51" s="9">
-        <v>1259499260</v>
+        <v>703687441776640</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="1"/>
-        <v>1259499259.6820731</v>
+        <v>703687441776640</v>
       </c>
       <c r="D51">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
-        <v>1259499260</v>
+        <v>703687441776640</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1527,18 +1527,18 @@
         <v>51</v>
       </c>
       <c r="B52" s="9">
-        <v>1889248890</v>
+        <v>1407374883553280</v>
       </c>
       <c r="C52" s="8">
         <f t="shared" si="1"/>
-        <v>1889248889.5231097</v>
+        <v>1407374883553280</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="0"/>
-        <v>1889248890</v>
+        <v>1407374883553280</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,18 +1546,18 @@
         <v>52</v>
       </c>
       <c r="B53" s="9">
-        <v>2833873335</v>
+        <v>2814749767106560</v>
       </c>
       <c r="C53" s="8">
         <f t="shared" si="1"/>
-        <v>2833873334.2846646</v>
+        <v>2814749767106560</v>
       </c>
       <c r="D53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>2833873335</v>
+        <v>2814749767106560</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1565,18 +1565,18 @@
         <v>53</v>
       </c>
       <c r="B54" s="9">
-        <v>4250810002</v>
+        <v>5629499534213120</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" si="1"/>
-        <v>4250810001.4269972</v>
+        <v>5629499534213120</v>
       </c>
       <c r="D54">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>4250810002</v>
+        <v>5629499534213120</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1584,18 +1584,18 @@
         <v>54</v>
       </c>
       <c r="B55" s="9">
-        <v>6376215003</v>
+        <v>1.12589990684262E+16</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="1"/>
-        <v>6376215002.1404953</v>
+        <v>1.125899906842624E+16</v>
       </c>
       <c r="D55">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
-        <v>6376215003</v>
+        <v>1.12589990684262E+16</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1603,18 +1603,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="9">
-        <v>9564322504</v>
+        <v>2.25179981368525E+16</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" si="1"/>
-        <v>9564322503.210743</v>
+        <v>2.251799813685248E+16</v>
       </c>
       <c r="D56">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
-        <v>9564322504</v>
+        <v>2.25179981368525E+16</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1622,18 +1622,18 @@
         <v>56</v>
       </c>
       <c r="B57" s="9">
-        <v>14346483755</v>
+        <v>4.5035996273705E+16</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" si="1"/>
-        <v>14346483754.816114</v>
+        <v>4.503599627370496E+16</v>
       </c>
       <c r="D57">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="0"/>
-        <v>14346483755</v>
+        <v>4.5035996273705E+16</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,18 +1641,18 @@
         <v>57</v>
       </c>
       <c r="B58" s="9">
-        <v>21519725633</v>
+        <v>9.0071992547409904E+16</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" si="1"/>
-        <v>21519725632.224171</v>
+        <v>9.007199254740992E+16</v>
       </c>
       <c r="D58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="0"/>
-        <v>21519725633</v>
+        <v>9.0071992547409904E+16</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,18 +1660,18 @@
         <v>58</v>
       </c>
       <c r="B59" s="9">
-        <v>32279588449</v>
+        <v>1.8014398509482E+17</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" si="1"/>
-        <v>32279588448.336258</v>
+        <v>1.8014398509481984E+17</v>
       </c>
       <c r="D59">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
-        <v>32279588449</v>
+        <v>1.8014398509482E+17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,18 +1679,18 @@
         <v>59</v>
       </c>
       <c r="B60" s="9">
-        <v>48419382673</v>
+        <v>3.6028797018964E+17</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="1"/>
-        <v>48419382672.504387</v>
+        <v>3.6028797018963968E+17</v>
       </c>
       <c r="D60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>48419382673</v>
+        <v>3.6028797018964E+17</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,18 +1698,18 @@
         <v>60</v>
       </c>
       <c r="B61" s="9">
-        <v>72629074009</v>
+        <v>7.2057594037927898E+17</v>
       </c>
       <c r="C61" s="8">
         <f t="shared" si="1"/>
-        <v>72629074008.756577</v>
+        <v>7.2057594037927936E+17</v>
       </c>
       <c r="D61">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
-        <v>72629074009</v>
+        <v>7.2057594037927898E+17</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1717,18 +1717,18 @@
         <v>61</v>
       </c>
       <c r="B62" s="9">
-        <v>108943611014</v>
+        <v>1.44115188075856E+18</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" si="1"/>
-        <v>108943611013.13486</v>
+        <v>1.4411518807585587E+18</v>
       </c>
       <c r="D62">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" si="0"/>
-        <v>108943611014</v>
+        <v>1.44115188075856E+18</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1736,18 +1736,18 @@
         <v>62</v>
       </c>
       <c r="B63" s="9">
-        <v>163415416520</v>
+        <v>2.88230376151712E+18</v>
       </c>
       <c r="C63" s="8">
         <f t="shared" si="1"/>
-        <v>163415416519.70227</v>
+        <v>2.8823037615171174E+18</v>
       </c>
       <c r="D63">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" si="0"/>
-        <v>163415416520</v>
+        <v>2.88230376151712E+18</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1755,18 +1755,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="9">
-        <v>245123124780</v>
+        <v>5.7646075230342298E+18</v>
       </c>
       <c r="C64" s="8">
         <f t="shared" si="1"/>
-        <v>245123124779.55341</v>
+        <v>5.7646075230342349E+18</v>
       </c>
       <c r="D64">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" si="0"/>
-        <v>245123124780</v>
+        <v>5.7646075230342298E+18</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1774,18 +1774,18 @@
         <v>64</v>
       </c>
       <c r="B65" s="9">
-        <v>367684687170</v>
+        <v>1.15292150460685E+19</v>
       </c>
       <c r="C65" s="8">
         <f t="shared" si="1"/>
-        <v>367684687169.33008</v>
+        <v>1.152921504606847E+19</v>
       </c>
       <c r="D65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" si="0"/>
-        <v>367684687170</v>
+        <v>1.15292150460685E+19</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1793,18 +1793,18 @@
         <v>65</v>
       </c>
       <c r="B66" s="9">
-        <v>551527030754</v>
+        <v>2.3058430092136899E+19</v>
       </c>
       <c r="C66" s="8">
         <f t="shared" si="1"/>
-        <v>551527030753.99512</v>
+        <v>2.305843009213694E+19</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="0"/>
-        <v>551527030754</v>
+        <v>2.3058430092136899E+19</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1812,18 +1812,18 @@
         <v>66</v>
       </c>
       <c r="B67" s="9">
-        <v>827290546131</v>
+        <v>4.6116860184273904E+19</v>
       </c>
       <c r="C67" s="8">
         <f t="shared" si="1"/>
-        <v>827290546130.99268</v>
+        <v>4.6116860184273879E+19</v>
       </c>
       <c r="D67">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" si="0"/>
-        <v>827290546131</v>
+        <v>4.6116860184273904E+19</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,18 +1831,18 @@
         <v>67</v>
       </c>
       <c r="B68" s="9">
-        <v>1240935819197</v>
+        <v>9.2233720368547807E+19</v>
       </c>
       <c r="C68" s="8">
         <f t="shared" si="1"/>
-        <v>1240935819196.489</v>
+        <v>9.2233720368547758E+19</v>
       </c>
       <c r="D68">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="0"/>
-        <v>1240935819197</v>
+        <v>9.2233720368547807E+19</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1850,18 +1850,18 @@
         <v>68</v>
       </c>
       <c r="B69" s="9">
-        <v>1861403728795</v>
+        <v>1.8446744073709601E+20</v>
       </c>
       <c r="C69" s="8">
         <f t="shared" si="1"/>
-        <v>1861403728794.7334</v>
+        <v>1.8446744073709552E+20</v>
       </c>
       <c r="D69">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="0"/>
-        <v>1861403728795</v>
+        <v>1.8446744073709601E+20</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,18 +1869,18 @@
         <v>69</v>
       </c>
       <c r="B70" s="9">
-        <v>2792105593193</v>
+        <v>3.6893488147419103E+20</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" si="1"/>
-        <v>2792105593192.1001</v>
+        <v>3.6893488147419103E+20</v>
       </c>
       <c r="D70">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" ref="E70:E79" si="2">ROUNDUP(C70,0)</f>
-        <v>2792105593193</v>
+        <v>3.6893488147419103E+20</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1888,18 +1888,18 @@
         <v>70</v>
       </c>
       <c r="B71" s="9">
-        <v>4188158389789</v>
+        <v>7.3786976294838206E+20</v>
       </c>
       <c r="C71" s="8">
         <f t="shared" si="1"/>
-        <v>4188158389788.1504</v>
+        <v>7.3786976294838206E+20</v>
       </c>
       <c r="D71">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" si="2"/>
-        <v>4188158389789</v>
+        <v>7.3786976294838206E+20</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1907,18 +1907,18 @@
         <v>71</v>
       </c>
       <c r="B72" s="9">
-        <v>6282237584683</v>
+        <v>1.4757395258967599E+21</v>
       </c>
       <c r="C72" s="8">
         <f t="shared" ref="C72:C79" si="3">C71*D71</f>
-        <v>6282237584682.2256</v>
+        <v>1.4757395258967641E+21</v>
       </c>
       <c r="D72">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" si="2"/>
-        <v>6282237584683</v>
+        <v>1.4757395258967599E+21</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1926,18 +1926,18 @@
         <v>72</v>
       </c>
       <c r="B73" s="9">
-        <v>9423356377024</v>
+        <v>2.9514790517935298E+21</v>
       </c>
       <c r="C73" s="8">
         <f t="shared" si="3"/>
-        <v>9423356377023.3379</v>
+        <v>2.9514790517935283E+21</v>
       </c>
       <c r="D73">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" si="2"/>
-        <v>9423356377024</v>
+        <v>2.9514790517935298E+21</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,18 +1945,18 @@
         <v>73</v>
       </c>
       <c r="B74" s="9">
-        <v>14135034565535</v>
+        <v>5.9029581035870597E+21</v>
       </c>
       <c r="C74" s="8">
         <f t="shared" si="3"/>
-        <v>14135034565535.008</v>
+        <v>5.9029581035870565E+21</v>
       </c>
       <c r="D74">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" si="2"/>
-        <v>14135034565535</v>
+        <v>5.9029581035870597E+21</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1964,18 +1964,18 @@
         <v>74</v>
       </c>
       <c r="B75" s="9">
-        <v>21202551848303</v>
+        <v>1.18059162071741E+22</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>21202551848302.512</v>
+        <v>1.1805916207174113E+22</v>
       </c>
       <c r="D75">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E75" s="9">
         <f t="shared" si="2"/>
-        <v>21202551848303</v>
+        <v>1.18059162071741E+22</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,18 +1983,18 @@
         <v>75</v>
       </c>
       <c r="B76" s="9">
-        <v>31803827772454</v>
+        <v>2.3611832414348201E+22</v>
       </c>
       <c r="C76" s="8">
         <f t="shared" si="3"/>
-        <v>31803827772453.766</v>
+        <v>2.3611832414348226E+22</v>
       </c>
       <c r="D76">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" si="2"/>
-        <v>31803827772454</v>
+        <v>2.3611832414348201E+22</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,18 +2002,18 @@
         <v>76</v>
       </c>
       <c r="B77" s="9">
-        <v>47705741658681</v>
+        <v>4.7223664828696502E+22</v>
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>47705741658680.648</v>
+        <v>4.7223664828696452E+22</v>
       </c>
       <c r="D77">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" si="2"/>
-        <v>47705741658681</v>
+        <v>4.7223664828696502E+22</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2021,18 +2021,18 @@
         <v>77</v>
       </c>
       <c r="B78" s="9">
-        <v>71558612488021</v>
+        <v>9.4447329657392904E+22</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" si="3"/>
-        <v>71558612488020.969</v>
+        <v>9.4447329657392904E+22</v>
       </c>
       <c r="D78">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" si="2"/>
-        <v>71558612488021</v>
+        <v>9.4447329657392904E+22</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2040,18 +2040,18 @@
         <v>78</v>
       </c>
       <c r="B79" s="9">
-        <v>107337918732031</v>
+        <v>1.8889465931478601E+23</v>
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>107337918732031.45</v>
+        <v>1.8889465931478581E+23</v>
       </c>
       <c r="D79">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" si="2"/>
-        <v>107337918732031</v>
+        <v>1.8889465931478601E+23</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="9">
         <f>ROUNDUP(C5,0)</f>
@@ -638,18 +638,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
         <f>C5*D5</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ref="E6:E69" si="0">ROUNDUP(C6,0)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -657,18 +657,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8">
         <f>C6*D6</f>
-        <v>40</v>
+        <v>22.5</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -676,18 +676,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" ref="C8:C71" si="1">C7*D7</f>
-        <v>80</v>
+        <v>33.75</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,18 +695,18 @@
         <v>5</v>
       </c>
       <c r="B9" s="9">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>50.625</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,18 +714,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="9">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>75.9375</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -734,18 +734,18 @@
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>113.90625</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -754,18 +754,18 @@
         <v>8</v>
       </c>
       <c r="B12" s="9">
-        <v>1280</v>
+        <v>171</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="1"/>
-        <v>1280</v>
+        <v>170.859375</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>171</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -774,18 +774,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="9">
-        <v>2560</v>
+        <v>257</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>256.2890625</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>257</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -794,18 +794,18 @@
         <v>10</v>
       </c>
       <c r="B14" s="9">
-        <v>5120</v>
+        <v>385</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" si="1"/>
-        <v>5120</v>
+        <v>384.43359375</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>5120</v>
+        <v>385</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -814,18 +814,18 @@
         <v>11</v>
       </c>
       <c r="B15" s="9">
-        <v>10240</v>
+        <v>577</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="1"/>
-        <v>10240</v>
+        <v>576.650390625</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>10240</v>
+        <v>577</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -834,18 +834,18 @@
         <v>12</v>
       </c>
       <c r="B16" s="9">
-        <v>20480</v>
+        <v>865</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
-        <v>20480</v>
+        <v>864.9755859375</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>20480</v>
+        <v>865</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -854,18 +854,18 @@
         <v>13</v>
       </c>
       <c r="B17" s="9">
-        <v>40960</v>
+        <v>1298</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="1"/>
-        <v>40960</v>
+        <v>1297.46337890625</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>40960</v>
+        <v>1298</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -874,18 +874,18 @@
         <v>14</v>
       </c>
       <c r="B18" s="9">
-        <v>81920</v>
+        <v>1947</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
-        <v>81920</v>
+        <v>1946.195068359375</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>81920</v>
+        <v>1947</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -894,18 +894,18 @@
         <v>15</v>
       </c>
       <c r="B19" s="9">
-        <v>163840</v>
+        <v>2920</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="1"/>
-        <v>163840</v>
+        <v>2919.2926025390625</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>163840</v>
+        <v>2920</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -914,18 +914,18 @@
         <v>16</v>
       </c>
       <c r="B20" s="9">
-        <v>327680</v>
+        <v>4379</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="1"/>
-        <v>327680</v>
+        <v>4378.9389038085937</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>327680</v>
+        <v>4379</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -934,18 +934,18 @@
         <v>17</v>
       </c>
       <c r="B21" s="9">
-        <v>655360</v>
+        <v>6569</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="1"/>
-        <v>655360</v>
+        <v>6568.4083557128906</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>655360</v>
+        <v>6569</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -954,18 +954,18 @@
         <v>18</v>
       </c>
       <c r="B22" s="9">
-        <v>1310720</v>
+        <v>9853</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="1"/>
-        <v>1310720</v>
+        <v>9852.6125335693359</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>1310720</v>
+        <v>9853</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -974,18 +974,18 @@
         <v>19</v>
       </c>
       <c r="B23" s="9">
-        <v>2621440</v>
+        <v>14779</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="1"/>
-        <v>2621440</v>
+        <v>14778.918800354004</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>2621440</v>
+        <v>14779</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -994,18 +994,18 @@
         <v>20</v>
       </c>
       <c r="B24" s="9">
-        <v>5242880</v>
+        <v>22169</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="1"/>
-        <v>5242880</v>
+        <v>22168.378200531006</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>5242880</v>
+        <v>22169</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1013,18 +1013,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="9">
-        <v>10485760</v>
+        <v>33253</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="1"/>
-        <v>10485760</v>
+        <v>33252.567300796509</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>10485760</v>
+        <v>33253</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,18 +1032,18 @@
         <v>22</v>
       </c>
       <c r="B26" s="9">
-        <v>20971520</v>
+        <v>49879</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" si="1"/>
-        <v>20971520</v>
+        <v>49878.850951194763</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>20971520</v>
+        <v>49879</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1051,18 +1051,18 @@
         <v>23</v>
       </c>
       <c r="B27" s="9">
-        <v>41943040</v>
+        <v>74819</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="1"/>
-        <v>41943040</v>
+        <v>74818.276426792145</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
-        <v>41943040</v>
+        <v>74819</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1071,18 +1071,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="9">
-        <v>83886080</v>
+        <v>112228</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="1"/>
-        <v>83886080</v>
+        <v>112227.41464018822</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>83886080</v>
+        <v>112228</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,18 +1090,18 @@
         <v>25</v>
       </c>
       <c r="B29" s="9">
-        <v>167772160</v>
+        <v>168342</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" si="1"/>
-        <v>167772160</v>
+        <v>168341.12196028233</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
-        <v>167772160</v>
+        <v>168342</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1109,18 +1109,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="9">
-        <v>335544320</v>
+        <v>252512</v>
       </c>
       <c r="C30" s="8">
         <f t="shared" si="1"/>
-        <v>335544320</v>
+        <v>252511.68294042349</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>335544320</v>
+        <v>252512</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1128,18 +1128,18 @@
         <v>27</v>
       </c>
       <c r="B31" s="9">
-        <v>671088640</v>
+        <v>378768</v>
       </c>
       <c r="C31" s="8">
         <f t="shared" si="1"/>
-        <v>671088640</v>
+        <v>378767.52441063523</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
-        <v>671088640</v>
+        <v>378768</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,18 +1147,18 @@
         <v>28</v>
       </c>
       <c r="B32" s="9">
-        <v>1342177280</v>
+        <v>568152</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" si="1"/>
-        <v>1342177280</v>
+        <v>568151.28661595285</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="0"/>
-        <v>1342177280</v>
+        <v>568152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1166,18 +1166,18 @@
         <v>29</v>
       </c>
       <c r="B33" s="9">
-        <v>2684354560</v>
+        <v>852227</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="1"/>
-        <v>2684354560</v>
+        <v>852226.92992392927</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>2684354560</v>
+        <v>852227</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1185,18 +1185,18 @@
         <v>30</v>
       </c>
       <c r="B34" s="9">
-        <v>5368709120</v>
+        <v>1278341</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" si="1"/>
-        <v>5368709120</v>
+        <v>1278340.3948858939</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>5368709120</v>
+        <v>1278341</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,18 +1204,18 @@
         <v>31</v>
       </c>
       <c r="B35" s="9">
-        <v>10737418240</v>
+        <v>1917511</v>
       </c>
       <c r="C35" s="8">
         <f t="shared" si="1"/>
-        <v>10737418240</v>
+        <v>1917510.5923288409</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="0"/>
-        <v>10737418240</v>
+        <v>1917511</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,18 +1223,18 @@
         <v>32</v>
       </c>
       <c r="B36" s="9">
-        <v>21474836480</v>
+        <v>2876266</v>
       </c>
       <c r="C36" s="8">
         <f t="shared" si="1"/>
-        <v>21474836480</v>
+        <v>2876265.8884932613</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="0"/>
-        <v>21474836480</v>
+        <v>2876266</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,18 +1242,18 @@
         <v>33</v>
       </c>
       <c r="B37" s="9">
-        <v>42949672960</v>
+        <v>4314399</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" si="1"/>
-        <v>42949672960</v>
+        <v>4314398.8327398915</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="0"/>
-        <v>42949672960</v>
+        <v>4314399</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,18 +1261,18 @@
         <v>34</v>
       </c>
       <c r="B38" s="9">
-        <v>85899345920</v>
+        <v>6471599</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" si="1"/>
-        <v>85899345920</v>
+        <v>6471598.2491098372</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>85899345920</v>
+        <v>6471599</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1280,18 +1280,18 @@
         <v>35</v>
       </c>
       <c r="B39" s="9">
-        <v>171798691840</v>
+        <v>9707398</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="1"/>
-        <v>171798691840</v>
+        <v>9707397.3736647554</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
-        <v>171798691840</v>
+        <v>9707398</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1299,18 +1299,18 @@
         <v>36</v>
       </c>
       <c r="B40" s="9">
-        <v>343597383680</v>
+        <v>14561097</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="1"/>
-        <v>343597383680</v>
+        <v>14561096.060497133</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="0"/>
-        <v>343597383680</v>
+        <v>14561097</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,18 +1318,18 @@
         <v>37</v>
       </c>
       <c r="B41" s="9">
-        <v>687194767360</v>
+        <v>21841645</v>
       </c>
       <c r="C41" s="8">
         <f t="shared" si="1"/>
-        <v>687194767360</v>
+        <v>21841644.090745699</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" si="0"/>
-        <v>687194767360</v>
+        <v>21841645</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,18 +1337,18 @@
         <v>38</v>
       </c>
       <c r="B42" s="9">
-        <v>1374389534720</v>
+        <v>32762467</v>
       </c>
       <c r="C42" s="8">
         <f t="shared" si="1"/>
-        <v>1374389534720</v>
+        <v>32762466.136118546</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="0"/>
-        <v>1374389534720</v>
+        <v>32762467</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,18 +1356,18 @@
         <v>42</v>
       </c>
       <c r="B43" s="9">
-        <v>2748779069440</v>
+        <v>49143700</v>
       </c>
       <c r="C43" s="8">
         <f t="shared" si="1"/>
-        <v>2748779069440</v>
+        <v>49143699.204177819</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E43" s="9">
         <f>ROUNDUP(C43,0)</f>
-        <v>2748779069440</v>
+        <v>49143700</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1375,18 +1375,18 @@
         <v>43</v>
       </c>
       <c r="B44" s="9">
-        <v>5497558138880</v>
+        <v>73715549</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" si="1"/>
-        <v>5497558138880</v>
+        <v>73715548.806266725</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="0"/>
-        <v>5497558138880</v>
+        <v>73715549</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,18 +1394,18 @@
         <v>44</v>
       </c>
       <c r="B45" s="9">
-        <v>10995116277760</v>
+        <v>110573324</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" si="1"/>
-        <v>10995116277760</v>
+        <v>110573323.20940009</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
-        <v>10995116277760</v>
+        <v>110573324</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,18 +1413,18 @@
         <v>45</v>
       </c>
       <c r="B46" s="9">
-        <v>21990232555520</v>
+        <v>165859985</v>
       </c>
       <c r="C46" s="8">
         <f t="shared" si="1"/>
-        <v>21990232555520</v>
+        <v>165859984.81410015</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
-        <v>21990232555520</v>
+        <v>165859985</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1432,18 +1432,18 @@
         <v>46</v>
       </c>
       <c r="B47" s="9">
-        <v>43980465111040</v>
+        <v>248789978</v>
       </c>
       <c r="C47" s="8">
         <f t="shared" si="1"/>
-        <v>43980465111040</v>
+        <v>248789977.22115022</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
-        <v>43980465111040</v>
+        <v>248789978</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,18 +1451,18 @@
         <v>47</v>
       </c>
       <c r="B48" s="9">
-        <v>87960930222080</v>
+        <v>373184966</v>
       </c>
       <c r="C48" s="8">
         <f t="shared" si="1"/>
-        <v>87960930222080</v>
+        <v>373184965.83172536</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="0"/>
-        <v>87960930222080</v>
+        <v>373184966</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,18 +1470,18 @@
         <v>48</v>
       </c>
       <c r="B49" s="9">
-        <v>175921860444160</v>
+        <v>559777449</v>
       </c>
       <c r="C49" s="8">
         <f t="shared" si="1"/>
-        <v>175921860444160</v>
+        <v>559777448.74758804</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="0"/>
-        <v>175921860444160</v>
+        <v>559777449</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1489,18 +1489,18 @@
         <v>49</v>
       </c>
       <c r="B50" s="9">
-        <v>351843720888320</v>
+        <v>839666174</v>
       </c>
       <c r="C50" s="8">
         <f t="shared" si="1"/>
-        <v>351843720888320</v>
+        <v>839666173.121382</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" si="0"/>
-        <v>351843720888320</v>
+        <v>839666174</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1508,18 +1508,18 @@
         <v>50</v>
       </c>
       <c r="B51" s="9">
-        <v>703687441776640</v>
+        <v>1259499260</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="1"/>
-        <v>703687441776640</v>
+        <v>1259499259.6820731</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="0"/>
-        <v>703687441776640</v>
+        <v>1259499260</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1527,18 +1527,18 @@
         <v>51</v>
       </c>
       <c r="B52" s="9">
-        <v>1407374883553280</v>
+        <v>1889248890</v>
       </c>
       <c r="C52" s="8">
         <f t="shared" si="1"/>
-        <v>1407374883553280</v>
+        <v>1889248889.5231097</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="0"/>
-        <v>1407374883553280</v>
+        <v>1889248890</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,18 +1546,18 @@
         <v>52</v>
       </c>
       <c r="B53" s="9">
-        <v>2814749767106560</v>
+        <v>2833873335</v>
       </c>
       <c r="C53" s="8">
         <f t="shared" si="1"/>
-        <v>2814749767106560</v>
+        <v>2833873334.2846646</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>2814749767106560</v>
+        <v>2833873335</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1565,18 +1565,18 @@
         <v>53</v>
       </c>
       <c r="B54" s="9">
-        <v>5629499534213120</v>
+        <v>4250810002</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" si="1"/>
-        <v>5629499534213120</v>
+        <v>4250810001.4269972</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>5629499534213120</v>
+        <v>4250810002</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1584,18 +1584,18 @@
         <v>54</v>
       </c>
       <c r="B55" s="9">
-        <v>1.12589990684262E+16</v>
+        <v>6376215003</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="1"/>
-        <v>1.125899906842624E+16</v>
+        <v>6376215002.1404953</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="0"/>
-        <v>1.12589990684262E+16</v>
+        <v>6376215003</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1603,18 +1603,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="9">
-        <v>2.25179981368525E+16</v>
+        <v>9564322504</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" si="1"/>
-        <v>2.251799813685248E+16</v>
+        <v>9564322503.210743</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="0"/>
-        <v>2.25179981368525E+16</v>
+        <v>9564322504</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1622,18 +1622,18 @@
         <v>56</v>
       </c>
       <c r="B57" s="9">
-        <v>4.5035996273705E+16</v>
+        <v>14346483755</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" si="1"/>
-        <v>4.503599627370496E+16</v>
+        <v>14346483754.816114</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="0"/>
-        <v>4.5035996273705E+16</v>
+        <v>14346483755</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,18 +1641,18 @@
         <v>57</v>
       </c>
       <c r="B58" s="9">
-        <v>9.0071992547409904E+16</v>
+        <v>21519725633</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" si="1"/>
-        <v>9.007199254740992E+16</v>
+        <v>21519725632.224171</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="0"/>
-        <v>9.0071992547409904E+16</v>
+        <v>21519725633</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,18 +1660,18 @@
         <v>58</v>
       </c>
       <c r="B59" s="9">
-        <v>1.8014398509482E+17</v>
+        <v>32279588449</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" si="1"/>
-        <v>1.8014398509481984E+17</v>
+        <v>32279588448.336258</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="0"/>
-        <v>1.8014398509482E+17</v>
+        <v>32279588449</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,18 +1679,18 @@
         <v>59</v>
       </c>
       <c r="B60" s="9">
-        <v>3.6028797018964E+17</v>
+        <v>48419382673</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="1"/>
-        <v>3.6028797018963968E+17</v>
+        <v>48419382672.504387</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>3.6028797018964E+17</v>
+        <v>48419382673</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,18 +1698,18 @@
         <v>60</v>
       </c>
       <c r="B61" s="9">
-        <v>7.2057594037927898E+17</v>
+        <v>72629074009</v>
       </c>
       <c r="C61" s="8">
         <f t="shared" si="1"/>
-        <v>7.2057594037927936E+17</v>
+        <v>72629074008.756577</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="0"/>
-        <v>7.2057594037927898E+17</v>
+        <v>72629074009</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1717,18 +1717,18 @@
         <v>61</v>
       </c>
       <c r="B62" s="9">
-        <v>1.44115188075856E+18</v>
+        <v>108943611014</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" si="1"/>
-        <v>1.4411518807585587E+18</v>
+        <v>108943611013.13486</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" si="0"/>
-        <v>1.44115188075856E+18</v>
+        <v>108943611014</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1736,18 +1736,18 @@
         <v>62</v>
       </c>
       <c r="B63" s="9">
-        <v>2.88230376151712E+18</v>
+        <v>163415416520</v>
       </c>
       <c r="C63" s="8">
         <f t="shared" si="1"/>
-        <v>2.8823037615171174E+18</v>
+        <v>163415416519.70227</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" si="0"/>
-        <v>2.88230376151712E+18</v>
+        <v>163415416520</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1755,18 +1755,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="9">
-        <v>5.7646075230342298E+18</v>
+        <v>245123124780</v>
       </c>
       <c r="C64" s="8">
         <f t="shared" si="1"/>
-        <v>5.7646075230342349E+18</v>
+        <v>245123124779.55341</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" si="0"/>
-        <v>5.7646075230342298E+18</v>
+        <v>245123124780</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1774,18 +1774,18 @@
         <v>64</v>
       </c>
       <c r="B65" s="9">
-        <v>1.15292150460685E+19</v>
+        <v>367684687170</v>
       </c>
       <c r="C65" s="8">
         <f t="shared" si="1"/>
-        <v>1.152921504606847E+19</v>
+        <v>367684687169.33008</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" si="0"/>
-        <v>1.15292150460685E+19</v>
+        <v>367684687170</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1793,18 +1793,18 @@
         <v>65</v>
       </c>
       <c r="B66" s="9">
-        <v>2.3058430092136899E+19</v>
+        <v>551527030754</v>
       </c>
       <c r="C66" s="8">
         <f t="shared" si="1"/>
-        <v>2.305843009213694E+19</v>
+        <v>551527030753.99512</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="0"/>
-        <v>2.3058430092136899E+19</v>
+        <v>551527030754</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1812,18 +1812,18 @@
         <v>66</v>
       </c>
       <c r="B67" s="9">
-        <v>4.6116860184273904E+19</v>
+        <v>827290546131</v>
       </c>
       <c r="C67" s="8">
         <f t="shared" si="1"/>
-        <v>4.6116860184273879E+19</v>
+        <v>827290546130.99268</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" si="0"/>
-        <v>4.6116860184273904E+19</v>
+        <v>827290546131</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,18 +1831,18 @@
         <v>67</v>
       </c>
       <c r="B68" s="9">
-        <v>9.2233720368547807E+19</v>
+        <v>1240935819197</v>
       </c>
       <c r="C68" s="8">
         <f t="shared" si="1"/>
-        <v>9.2233720368547758E+19</v>
+        <v>1240935819196.489</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="0"/>
-        <v>9.2233720368547807E+19</v>
+        <v>1240935819197</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1850,18 +1850,18 @@
         <v>68</v>
       </c>
       <c r="B69" s="9">
-        <v>1.8446744073709601E+20</v>
+        <v>1861403728795</v>
       </c>
       <c r="C69" s="8">
         <f t="shared" si="1"/>
-        <v>1.8446744073709552E+20</v>
+        <v>1861403728794.7334</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="0"/>
-        <v>1.8446744073709601E+20</v>
+        <v>1861403728795</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,18 +1869,18 @@
         <v>69</v>
       </c>
       <c r="B70" s="9">
-        <v>3.6893488147419103E+20</v>
+        <v>2792105593193</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" si="1"/>
-        <v>3.6893488147419103E+20</v>
+        <v>2792105593192.1001</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" ref="E70:E79" si="2">ROUNDUP(C70,0)</f>
-        <v>3.6893488147419103E+20</v>
+        <v>2792105593193</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1888,18 +1888,18 @@
         <v>70</v>
       </c>
       <c r="B71" s="9">
-        <v>7.3786976294838206E+20</v>
+        <v>4188158389789</v>
       </c>
       <c r="C71" s="8">
         <f t="shared" si="1"/>
-        <v>7.3786976294838206E+20</v>
+        <v>4188158389788.1504</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" si="2"/>
-        <v>7.3786976294838206E+20</v>
+        <v>4188158389789</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1907,18 +1907,18 @@
         <v>71</v>
       </c>
       <c r="B72" s="9">
-        <v>1.4757395258967599E+21</v>
+        <v>6282237584683</v>
       </c>
       <c r="C72" s="8">
         <f t="shared" ref="C72:C79" si="3">C71*D71</f>
-        <v>1.4757395258967641E+21</v>
+        <v>6282237584682.2256</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" si="2"/>
-        <v>1.4757395258967599E+21</v>
+        <v>6282237584683</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1926,18 +1926,18 @@
         <v>72</v>
       </c>
       <c r="B73" s="9">
-        <v>2.9514790517935298E+21</v>
+        <v>9423356377024</v>
       </c>
       <c r="C73" s="8">
         <f t="shared" si="3"/>
-        <v>2.9514790517935283E+21</v>
+        <v>9423356377023.3379</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" si="2"/>
-        <v>2.9514790517935298E+21</v>
+        <v>9423356377024</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,18 +1945,18 @@
         <v>73</v>
       </c>
       <c r="B74" s="9">
-        <v>5.9029581035870597E+21</v>
+        <v>14135034565535</v>
       </c>
       <c r="C74" s="8">
         <f t="shared" si="3"/>
-        <v>5.9029581035870565E+21</v>
+        <v>14135034565535.008</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" si="2"/>
-        <v>5.9029581035870597E+21</v>
+        <v>14135034565535</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1964,18 +1964,18 @@
         <v>74</v>
       </c>
       <c r="B75" s="9">
-        <v>1.18059162071741E+22</v>
+        <v>21202551848303</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" si="3"/>
-        <v>1.1805916207174113E+22</v>
+        <v>21202551848302.512</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E75" s="9">
         <f t="shared" si="2"/>
-        <v>1.18059162071741E+22</v>
+        <v>21202551848303</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,18 +1983,18 @@
         <v>75</v>
       </c>
       <c r="B76" s="9">
-        <v>2.3611832414348201E+22</v>
+        <v>31803827772454</v>
       </c>
       <c r="C76" s="8">
         <f t="shared" si="3"/>
-        <v>2.3611832414348226E+22</v>
+        <v>31803827772453.766</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" si="2"/>
-        <v>2.3611832414348201E+22</v>
+        <v>31803827772454</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,18 +2002,18 @@
         <v>76</v>
       </c>
       <c r="B77" s="9">
-        <v>4.7223664828696502E+22</v>
+        <v>47705741658681</v>
       </c>
       <c r="C77" s="8">
         <f t="shared" si="3"/>
-        <v>4.7223664828696452E+22</v>
+        <v>47705741658680.648</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" si="2"/>
-        <v>4.7223664828696502E+22</v>
+        <v>47705741658681</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2021,18 +2021,18 @@
         <v>77</v>
       </c>
       <c r="B78" s="9">
-        <v>9.4447329657392904E+22</v>
+        <v>71558612488021</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" si="3"/>
-        <v>9.4447329657392904E+22</v>
+        <v>71558612488020.969</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" si="2"/>
-        <v>9.4447329657392904E+22</v>
+        <v>71558612488021</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2040,18 +2040,18 @@
         <v>78</v>
       </c>
       <c r="B79" s="9">
-        <v>1.8889465931478601E+23</v>
+        <v>107337918732031</v>
       </c>
       <c r="C79" s="8">
         <f t="shared" si="3"/>
-        <v>1.8889465931478581E+23</v>
+        <v>107337918732031.45</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" si="2"/>
-        <v>1.8889465931478601E+23</v>
+        <v>107337918732031</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="9">
         <v>49143700</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="9">
         <v>73715549</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="9">
         <v>110573324</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="9">
         <v>165859985</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="9">
         <v>248789978</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9">
         <v>373184966</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9">
         <v>559777449</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="9">
         <v>839666174</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="9">
         <v>1259499260</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="9">
         <v>1889248890</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="9">
         <v>2833873335</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="9">
         <v>4250810002</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="9">
         <v>6376215003</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="9">
         <v>9564322504</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="9">
         <v>14346483755</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="9">
         <v>21519725633</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9">
         <v>32279588449</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="9">
         <v>48419382673</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="9">
         <v>72629074009</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="9">
         <v>108943611014</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" s="9">
         <v>163415416520</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" s="9">
         <v>245123124780</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="9">
         <v>367684687170</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="9">
         <v>551527030754</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="9">
         <v>827290546131</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="9">
         <v>1240935819197</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="9">
         <v>1861403728795</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="9">
         <v>2792105593193</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="9">
         <v>4188158389789</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="9">
         <v>6282237584683</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="9">
         <v>9423356377024</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="9">
         <v>14135034565535</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" s="9">
         <v>21202551848303</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="9">
         <v>31803827772454</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="9">
         <v>47705741658681</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78" s="9">
         <v>71558612488021</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" s="9">
         <v>107337918732031</v>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -83,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TMaidShop" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,8 +104,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint64</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ListSpliter:","</t>
+  </si>
+  <si>
+    <t>价格（0个、1万、2亿、3兆、4京、5垓、6秭、7穰、8沟、9涧、10正、11载 、12极）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0-10]</t>
+  </si>
+  <si>
+    <t>[0-20]</t>
+  </si>
+  <si>
+    <t>[0-40]</t>
+  </si>
+  <si>
+    <t>[0-80]</t>
+  </si>
+  <si>
+    <t>[0-160]</t>
+  </si>
+  <si>
+    <t>[0-320]</t>
+  </si>
+  <si>
+    <t>[0-640]</t>
+  </si>
+  <si>
+    <t>[0-1280]</t>
+  </si>
+  <si>
+    <t>[0-2560]</t>
+  </si>
+  <si>
+    <t>[0-5120]</t>
+  </si>
+  <si>
+    <t>[1_1024,0_0]</t>
+  </si>
+  <si>
+    <t>[1_2048,0_0]</t>
+  </si>
+  <si>
+    <t>[1_4096,0_0]</t>
+  </si>
+  <si>
+    <t>[1_8192,0_0]</t>
+  </si>
+  <si>
+    <t>[1_1638,0_40]</t>
+  </si>
+  <si>
+    <t>[1_3276,0_80]</t>
+  </si>
+  <si>
+    <t>[1_6553,0_60]</t>
+  </si>
+  <si>
+    <t>[1_1310,0_720]</t>
+  </si>
+  <si>
+    <t>[1_2621,0_440]</t>
+  </si>
+  <si>
+    <t>[1_5242,0_880]</t>
+  </si>
+  <si>
+    <t>[1_1048,0_5760]</t>
+  </si>
+  <si>
+    <t>[1_2097,0_1520]</t>
+  </si>
+  <si>
+    <t>[1_4194,0_3040]</t>
+  </si>
+  <si>
+    <t>[1_8388,0_6080]</t>
+  </si>
+  <si>
+    <t>[2_1677,1_7216]</t>
+  </si>
+  <si>
+    <t>[2_3355,1_4432]</t>
+  </si>
+  <si>
+    <t>[2_6710,1_8864]</t>
+  </si>
+  <si>
+    <t>[2_1342,1_1772]</t>
+  </si>
+  <si>
+    <t>[2_2684,1_3545]</t>
+  </si>
+  <si>
+    <t>[2_5368,1_7091]</t>
+  </si>
+  <si>
+    <t>[2_1073,1_7418]</t>
+  </si>
+  <si>
+    <t>[2_2147,1_4836]</t>
+  </si>
+  <si>
+    <t>[2_4294,1_9672]</t>
+  </si>
+  <si>
+    <t>[2_8589,1_9345]</t>
+  </si>
+  <si>
+    <t>[2_1717,1_9869]</t>
+  </si>
+  <si>
+    <t>[2_3435,1_9738]</t>
+  </si>
+  <si>
+    <t>[2_6871,1_9476]</t>
+  </si>
+  <si>
+    <t>[3_1374,2_3895]</t>
+  </si>
+  <si>
+    <t>[3_2748,2_7790]</t>
+  </si>
+  <si>
+    <t>[3_5497,2_5581]</t>
+  </si>
+  <si>
+    <t>[3_1099,2_5116]</t>
+  </si>
+  <si>
+    <t>[3_2199,2_232]</t>
+  </si>
+  <si>
+    <t>[3_4398,2_465]</t>
+  </si>
+  <si>
+    <t>[3_8796,2_930]</t>
+  </si>
+  <si>
+    <t>[3_1759,2_2186]</t>
+  </si>
+  <si>
+    <t>[3_3518,2_4372]</t>
+  </si>
+  <si>
+    <t>[3_7036,2_8744]</t>
+  </si>
+  <si>
+    <t>[3_1407,2_3748]</t>
+  </si>
+  <si>
+    <t>[3_2814,2_7497]</t>
+  </si>
+  <si>
+    <t>[3_5629,2_4995]</t>
+  </si>
+  <si>
+    <t>[4_1125,3_8999]</t>
+  </si>
+  <si>
+    <t>[4_2251,3_7998]</t>
+  </si>
+  <si>
+    <t>[4_4503,3_5996]</t>
+  </si>
+  <si>
+    <t>[4_9007,3_1992]</t>
+  </si>
+  <si>
+    <t>[4_1801,3_4398]</t>
+  </si>
+  <si>
+    <t>[4_3602,3_8797]</t>
+  </si>
+  <si>
+    <t>[4_7205,3_7594]</t>
+  </si>
+  <si>
+    <t>[4_1441,3_1518]</t>
+  </si>
+  <si>
+    <t>[4_2882,3_3037]</t>
+  </si>
+  <si>
+    <t>[4_5764,3_6075]</t>
+  </si>
+  <si>
+    <t>[4_1152,3_9215]</t>
+  </si>
+  <si>
+    <t>[4_2305,3_8430]</t>
+  </si>
+  <si>
+    <t>[4_4611,3_6860]</t>
+  </si>
+  <si>
+    <t>[4_9223,3_3720]</t>
+  </si>
+  <si>
+    <t>[5_1844,4_6744]</t>
+  </si>
+  <si>
+    <t>[5_3689,4_3488]</t>
+  </si>
+  <si>
+    <t>[5_7378,4_6976]</t>
+  </si>
+  <si>
+    <t>[5_1475,4_7395]</t>
+  </si>
+  <si>
+    <t>[5_2951,4_4790]</t>
+  </si>
+  <si>
+    <t>[5_5902,4_9581]</t>
+  </si>
+  <si>
+    <t>[5_1180,4_5916]</t>
+  </si>
+  <si>
+    <t>[5_2361,4_1832]</t>
+  </si>
+  <si>
+    <t>[5_4722,4_3664]</t>
+  </si>
+  <si>
+    <t>[5_9444,4_7329]</t>
+  </si>
+  <si>
+    <t>[5_1888,4_9465]</t>
   </si>
 </sst>
 </file>
@@ -149,7 +384,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +395,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +444,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,35 +797,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" customWidth="1"/>
+    <col min="2" max="2" width="45.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -584,33 +823,26 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -619,74 +851,32 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="9">
-        <f>ROUNDUP(C5,0)</f>
-        <v>10</v>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8">
-        <f>C5*D5</f>
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:E69" si="0">ROUNDUP(C6,0)</f>
-        <v>15</v>
-      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8">
-        <f>C6*D6</f>
-        <v>22.5</v>
-      </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" ref="C8:C71" si="1">C7*D7</f>
-        <v>33.75</v>
-      </c>
-      <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -694,38 +884,16 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
-        <v>51</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="1"/>
-        <v>50.625</v>
-      </c>
-      <c r="D9">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>75.9375</v>
-      </c>
-      <c r="D10">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>76</v>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -733,19 +901,8 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="9">
-        <v>114</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="1"/>
-        <v>113.90625</v>
-      </c>
-      <c r="D11">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>114</v>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -753,19 +910,8 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
-        <v>171</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="1"/>
-        <v>170.859375</v>
-      </c>
-      <c r="D12">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>171</v>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -773,19 +919,8 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
-        <v>257</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="1"/>
-        <v>256.2890625</v>
-      </c>
-      <c r="D13">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>257</v>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -793,19 +928,8 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="9">
-        <v>385</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="1"/>
-        <v>384.43359375</v>
-      </c>
-      <c r="D14">
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>385</v>
+      <c r="B14" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -813,19 +937,8 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
-        <v>577</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="1"/>
-        <v>576.650390625</v>
-      </c>
-      <c r="D15">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>577</v>
+      <c r="B15" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -833,19 +946,8 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
-        <v>865</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="1"/>
-        <v>864.9755859375</v>
-      </c>
-      <c r="D16">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>865</v>
+      <c r="B16" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -853,19 +955,8 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="9">
-        <v>1298</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="1"/>
-        <v>1297.46337890625</v>
-      </c>
-      <c r="D17">
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>1298</v>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -873,19 +964,8 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="9">
-        <v>1947</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="1"/>
-        <v>1946.195068359375</v>
-      </c>
-      <c r="D18">
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
-        <v>1947</v>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -893,19 +973,8 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="9">
-        <v>2920</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="1"/>
-        <v>2919.2926025390625</v>
-      </c>
-      <c r="D19">
-        <v>1.5</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>2920</v>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -913,19 +982,8 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="9">
-        <v>4379</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="1"/>
-        <v>4378.9389038085937</v>
-      </c>
-      <c r="D20">
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
-        <v>4379</v>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -933,19 +991,8 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="9">
-        <v>6569</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="1"/>
-        <v>6568.4083557128906</v>
-      </c>
-      <c r="D21">
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
-        <v>6569</v>
+      <c r="B21" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -953,19 +1000,8 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="9">
-        <v>9853</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="1"/>
-        <v>9852.6125335693359</v>
-      </c>
-      <c r="D22">
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>9853</v>
+      <c r="B22" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -973,19 +1009,8 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="9">
-        <v>14779</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="1"/>
-        <v>14778.918800354004</v>
-      </c>
-      <c r="D23">
-        <v>1.5</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>14779</v>
+      <c r="B23" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -993,76 +1018,32 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="9">
-        <v>22169</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="1"/>
-        <v>22168.378200531006</v>
-      </c>
-      <c r="D24">
-        <v>1.5</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>22169</v>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="9">
-        <v>33253</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="1"/>
-        <v>33252.567300796509</v>
-      </c>
-      <c r="D25">
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>33253</v>
+      <c r="B25" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="9">
-        <v>49879</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="1"/>
-        <v>49878.850951194763</v>
-      </c>
-      <c r="D26">
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="0"/>
-        <v>49879</v>
+      <c r="B26" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="9">
-        <v>74819</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="1"/>
-        <v>74818.276426792145</v>
-      </c>
-      <c r="D27">
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="0"/>
-        <v>74819</v>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1070,991 +1051,419 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="9">
-        <v>112228</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="1"/>
-        <v>112227.41464018822</v>
-      </c>
-      <c r="D28">
-        <v>1.5</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="0"/>
-        <v>112228</v>
+      <c r="B28" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="9">
-        <v>168342</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" si="1"/>
-        <v>168341.12196028233</v>
-      </c>
-      <c r="D29">
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="0"/>
-        <v>168342</v>
+      <c r="B29" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="9">
-        <v>252512</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" si="1"/>
-        <v>252511.68294042349</v>
-      </c>
-      <c r="D30">
-        <v>1.5</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="0"/>
-        <v>252512</v>
+      <c r="B30" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="9">
-        <v>378768</v>
-      </c>
-      <c r="C31" s="8">
-        <f t="shared" si="1"/>
-        <v>378767.52441063523</v>
-      </c>
-      <c r="D31">
-        <v>1.5</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="0"/>
-        <v>378768</v>
+      <c r="B31" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="9">
-        <v>568152</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" si="1"/>
-        <v>568151.28661595285</v>
-      </c>
-      <c r="D32">
-        <v>1.5</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="0"/>
-        <v>568152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="9">
-        <v>852227</v>
-      </c>
-      <c r="C33" s="8">
-        <f t="shared" si="1"/>
-        <v>852226.92992392927</v>
-      </c>
-      <c r="D33">
-        <v>1.5</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="0"/>
-        <v>852227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="9">
-        <v>1278341</v>
-      </c>
-      <c r="C34" s="8">
-        <f t="shared" si="1"/>
-        <v>1278340.3948858939</v>
-      </c>
-      <c r="D34">
-        <v>1.5</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="0"/>
-        <v>1278341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="9">
-        <v>1917511</v>
-      </c>
-      <c r="C35" s="8">
-        <f t="shared" si="1"/>
-        <v>1917510.5923288409</v>
-      </c>
-      <c r="D35">
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="0"/>
-        <v>1917511</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="9">
-        <v>2876266</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" si="1"/>
-        <v>2876265.8884932613</v>
-      </c>
-      <c r="D36">
-        <v>1.5</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="0"/>
-        <v>2876266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="9">
-        <v>4314399</v>
-      </c>
-      <c r="C37" s="8">
-        <f t="shared" si="1"/>
-        <v>4314398.8327398915</v>
-      </c>
-      <c r="D37">
-        <v>1.5</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="0"/>
-        <v>4314399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="9">
-        <v>6471599</v>
-      </c>
-      <c r="C38" s="8">
-        <f t="shared" si="1"/>
-        <v>6471598.2491098372</v>
-      </c>
-      <c r="D38">
-        <v>1.5</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="0"/>
-        <v>6471599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="9">
-        <v>9707398</v>
-      </c>
-      <c r="C39" s="8">
-        <f t="shared" si="1"/>
-        <v>9707397.3736647554</v>
-      </c>
-      <c r="D39">
-        <v>1.5</v>
-      </c>
-      <c r="E39" s="9">
-        <f t="shared" si="0"/>
-        <v>9707398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="9">
-        <v>14561097</v>
-      </c>
-      <c r="C40" s="8">
-        <f t="shared" si="1"/>
-        <v>14561096.060497133</v>
-      </c>
-      <c r="D40">
-        <v>1.5</v>
-      </c>
-      <c r="E40" s="9">
-        <f t="shared" si="0"/>
-        <v>14561097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="9">
-        <v>21841645</v>
-      </c>
-      <c r="C41" s="8">
-        <f t="shared" si="1"/>
-        <v>21841644.090745699</v>
-      </c>
-      <c r="D41">
-        <v>1.5</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="0"/>
-        <v>21841645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="9">
-        <v>32762467</v>
-      </c>
-      <c r="C42" s="8">
-        <f t="shared" si="1"/>
-        <v>32762466.136118546</v>
-      </c>
-      <c r="D42">
-        <v>1.5</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="0"/>
-        <v>32762467</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="9">
-        <v>49143700</v>
-      </c>
-      <c r="C43" s="8">
-        <f t="shared" si="1"/>
-        <v>49143699.204177819</v>
-      </c>
-      <c r="D43">
-        <v>1.5</v>
-      </c>
-      <c r="E43" s="9">
-        <f>ROUNDUP(C43,0)</f>
-        <v>49143700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="9">
-        <v>73715549</v>
-      </c>
-      <c r="C44" s="8">
-        <f t="shared" si="1"/>
-        <v>73715548.806266725</v>
-      </c>
-      <c r="D44">
-        <v>1.5</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" si="0"/>
-        <v>73715549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="9">
-        <v>110573324</v>
-      </c>
-      <c r="C45" s="8">
-        <f t="shared" si="1"/>
-        <v>110573323.20940009</v>
-      </c>
-      <c r="D45">
-        <v>1.5</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="0"/>
-        <v>110573324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="9">
-        <v>165859985</v>
-      </c>
-      <c r="C46" s="8">
-        <f t="shared" si="1"/>
-        <v>165859984.81410015</v>
-      </c>
-      <c r="D46">
-        <v>1.5</v>
-      </c>
-      <c r="E46" s="9">
-        <f t="shared" si="0"/>
-        <v>165859985</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47" s="9">
-        <v>248789978</v>
-      </c>
-      <c r="C47" s="8">
-        <f t="shared" si="1"/>
-        <v>248789977.22115022</v>
-      </c>
-      <c r="D47">
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="9">
-        <f t="shared" si="0"/>
-        <v>248789978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="9">
-        <v>373184966</v>
-      </c>
-      <c r="C48" s="8">
-        <f t="shared" si="1"/>
-        <v>373184965.83172536</v>
-      </c>
-      <c r="D48">
-        <v>1.5</v>
-      </c>
-      <c r="E48" s="9">
-        <f t="shared" si="0"/>
-        <v>373184966</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="B49" s="9">
-        <v>559777449</v>
-      </c>
-      <c r="C49" s="8">
-        <f t="shared" si="1"/>
-        <v>559777448.74758804</v>
-      </c>
-      <c r="D49">
-        <v>1.5</v>
-      </c>
-      <c r="E49" s="9">
-        <f t="shared" si="0"/>
-        <v>559777449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="9">
-        <v>839666174</v>
-      </c>
-      <c r="C50" s="8">
-        <f t="shared" si="1"/>
-        <v>839666173.121382</v>
-      </c>
-      <c r="D50">
-        <v>1.5</v>
-      </c>
-      <c r="E50" s="9">
-        <f t="shared" si="0"/>
-        <v>839666174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="B51" s="9">
-        <v>1259499260</v>
-      </c>
-      <c r="C51" s="8">
-        <f t="shared" si="1"/>
-        <v>1259499259.6820731</v>
-      </c>
-      <c r="D51">
-        <v>1.5</v>
-      </c>
-      <c r="E51" s="9">
-        <f t="shared" si="0"/>
-        <v>1259499260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="9">
-        <v>1889248890</v>
-      </c>
-      <c r="C52" s="8">
-        <f t="shared" si="1"/>
-        <v>1889248889.5231097</v>
-      </c>
-      <c r="D52">
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="9">
-        <f t="shared" si="0"/>
-        <v>1889248890</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="B53" s="9">
-        <v>2833873335</v>
-      </c>
-      <c r="C53" s="8">
-        <f t="shared" si="1"/>
-        <v>2833873334.2846646</v>
-      </c>
-      <c r="D53">
-        <v>1.5</v>
-      </c>
-      <c r="E53" s="9">
-        <f t="shared" si="0"/>
-        <v>2833873335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54" s="9">
-        <v>4250810002</v>
-      </c>
-      <c r="C54" s="8">
-        <f t="shared" si="1"/>
-        <v>4250810001.4269972</v>
-      </c>
-      <c r="D54">
-        <v>1.5</v>
-      </c>
-      <c r="E54" s="9">
-        <f t="shared" si="0"/>
-        <v>4250810002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>51</v>
       </c>
-      <c r="B55" s="9">
-        <v>6376215003</v>
-      </c>
-      <c r="C55" s="8">
-        <f t="shared" si="1"/>
-        <v>6376215002.1404953</v>
-      </c>
-      <c r="D55">
-        <v>1.5</v>
-      </c>
-      <c r="E55" s="9">
-        <f t="shared" si="0"/>
-        <v>6376215003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>52</v>
       </c>
-      <c r="B56" s="9">
-        <v>9564322504</v>
-      </c>
-      <c r="C56" s="8">
-        <f t="shared" si="1"/>
-        <v>9564322503.210743</v>
-      </c>
-      <c r="D56">
-        <v>1.5</v>
-      </c>
-      <c r="E56" s="9">
-        <f t="shared" si="0"/>
-        <v>9564322504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>53</v>
       </c>
-      <c r="B57" s="9">
-        <v>14346483755</v>
-      </c>
-      <c r="C57" s="8">
-        <f t="shared" si="1"/>
-        <v>14346483754.816114</v>
-      </c>
-      <c r="D57">
-        <v>1.5</v>
-      </c>
-      <c r="E57" s="9">
-        <f t="shared" si="0"/>
-        <v>14346483755</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>54</v>
       </c>
-      <c r="B58" s="9">
-        <v>21519725633</v>
-      </c>
-      <c r="C58" s="8">
-        <f t="shared" si="1"/>
-        <v>21519725632.224171</v>
-      </c>
-      <c r="D58">
-        <v>1.5</v>
-      </c>
-      <c r="E58" s="9">
-        <f t="shared" si="0"/>
-        <v>21519725633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>55</v>
       </c>
-      <c r="B59" s="9">
-        <v>32279588449</v>
-      </c>
-      <c r="C59" s="8">
-        <f t="shared" si="1"/>
-        <v>32279588448.336258</v>
-      </c>
-      <c r="D59">
-        <v>1.5</v>
-      </c>
-      <c r="E59" s="9">
-        <f t="shared" si="0"/>
-        <v>32279588449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="B60" s="9">
-        <v>48419382673</v>
-      </c>
-      <c r="C60" s="8">
-        <f t="shared" si="1"/>
-        <v>48419382672.504387</v>
-      </c>
-      <c r="D60">
-        <v>1.5</v>
-      </c>
-      <c r="E60" s="9">
-        <f t="shared" si="0"/>
-        <v>48419382673</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>57</v>
       </c>
-      <c r="B61" s="9">
-        <v>72629074009</v>
-      </c>
-      <c r="C61" s="8">
-        <f t="shared" si="1"/>
-        <v>72629074008.756577</v>
-      </c>
-      <c r="D61">
-        <v>1.5</v>
-      </c>
-      <c r="E61" s="9">
-        <f t="shared" si="0"/>
-        <v>72629074009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="B62" s="9">
-        <v>108943611014</v>
-      </c>
-      <c r="C62" s="8">
-        <f t="shared" si="1"/>
-        <v>108943611013.13486</v>
-      </c>
-      <c r="D62">
-        <v>1.5</v>
-      </c>
-      <c r="E62" s="9">
-        <f t="shared" si="0"/>
-        <v>108943611014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>59</v>
       </c>
-      <c r="B63" s="9">
-        <v>163415416520</v>
-      </c>
-      <c r="C63" s="8">
-        <f t="shared" si="1"/>
-        <v>163415416519.70227</v>
-      </c>
-      <c r="D63">
-        <v>1.5</v>
-      </c>
-      <c r="E63" s="9">
-        <f t="shared" si="0"/>
-        <v>163415416520</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>60</v>
       </c>
-      <c r="B64" s="9">
-        <v>245123124780</v>
-      </c>
-      <c r="C64" s="8">
-        <f t="shared" si="1"/>
-        <v>245123124779.55341</v>
-      </c>
-      <c r="D64">
-        <v>1.5</v>
-      </c>
-      <c r="E64" s="9">
-        <f t="shared" si="0"/>
-        <v>245123124780</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>61</v>
       </c>
-      <c r="B65" s="9">
-        <v>367684687170</v>
-      </c>
-      <c r="C65" s="8">
-        <f t="shared" si="1"/>
-        <v>367684687169.33008</v>
-      </c>
-      <c r="D65">
-        <v>1.5</v>
-      </c>
-      <c r="E65" s="9">
-        <f t="shared" si="0"/>
-        <v>367684687170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>62</v>
       </c>
-      <c r="B66" s="9">
-        <v>551527030754</v>
-      </c>
-      <c r="C66" s="8">
-        <f t="shared" si="1"/>
-        <v>551527030753.99512</v>
-      </c>
-      <c r="D66">
-        <v>1.5</v>
-      </c>
-      <c r="E66" s="9">
-        <f t="shared" si="0"/>
-        <v>551527030754</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>63</v>
       </c>
-      <c r="B67" s="9">
-        <v>827290546131</v>
-      </c>
-      <c r="C67" s="8">
-        <f t="shared" si="1"/>
-        <v>827290546130.99268</v>
-      </c>
-      <c r="D67">
-        <v>1.5</v>
-      </c>
-      <c r="E67" s="9">
-        <f t="shared" si="0"/>
-        <v>827290546131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>64</v>
       </c>
-      <c r="B68" s="9">
-        <v>1240935819197</v>
-      </c>
-      <c r="C68" s="8">
-        <f t="shared" si="1"/>
-        <v>1240935819196.489</v>
-      </c>
-      <c r="D68">
-        <v>1.5</v>
-      </c>
-      <c r="E68" s="9">
-        <f t="shared" si="0"/>
-        <v>1240935819197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>65</v>
       </c>
-      <c r="B69" s="9">
-        <v>1861403728795</v>
-      </c>
-      <c r="C69" s="8">
-        <f t="shared" si="1"/>
-        <v>1861403728794.7334</v>
-      </c>
-      <c r="D69">
-        <v>1.5</v>
-      </c>
-      <c r="E69" s="9">
-        <f t="shared" si="0"/>
-        <v>1861403728795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>66</v>
       </c>
-      <c r="B70" s="9">
-        <v>2792105593193</v>
-      </c>
-      <c r="C70" s="8">
-        <f t="shared" si="1"/>
-        <v>2792105593192.1001</v>
-      </c>
-      <c r="D70">
-        <v>1.5</v>
-      </c>
-      <c r="E70" s="9">
-        <f t="shared" ref="E70:E79" si="2">ROUNDUP(C70,0)</f>
-        <v>2792105593193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>67</v>
       </c>
-      <c r="B71" s="9">
-        <v>4188158389789</v>
-      </c>
-      <c r="C71" s="8">
-        <f t="shared" si="1"/>
-        <v>4188158389788.1504</v>
-      </c>
-      <c r="D71">
-        <v>1.5</v>
-      </c>
-      <c r="E71" s="9">
-        <f t="shared" si="2"/>
-        <v>4188158389789</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>68</v>
       </c>
-      <c r="B72" s="9">
-        <v>6282237584683</v>
-      </c>
-      <c r="C72" s="8">
-        <f t="shared" ref="C72:C79" si="3">C71*D71</f>
-        <v>6282237584682.2256</v>
-      </c>
-      <c r="D72">
-        <v>1.5</v>
-      </c>
-      <c r="E72" s="9">
-        <f t="shared" si="2"/>
-        <v>6282237584683</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>69</v>
       </c>
-      <c r="B73" s="9">
-        <v>9423356377024</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" si="3"/>
-        <v>9423356377023.3379</v>
-      </c>
-      <c r="D73">
-        <v>1.5</v>
-      </c>
-      <c r="E73" s="9">
-        <f t="shared" si="2"/>
-        <v>9423356377024</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>70</v>
       </c>
-      <c r="B74" s="9">
-        <v>14135034565535</v>
-      </c>
-      <c r="C74" s="8">
-        <f t="shared" si="3"/>
-        <v>14135034565535.008</v>
-      </c>
-      <c r="D74">
-        <v>1.5</v>
-      </c>
-      <c r="E74" s="9">
-        <f t="shared" si="2"/>
-        <v>14135034565535</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>71</v>
       </c>
-      <c r="B75" s="9">
-        <v>21202551848303</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" si="3"/>
-        <v>21202551848302.512</v>
-      </c>
-      <c r="D75">
-        <v>1.5</v>
-      </c>
-      <c r="E75" s="9">
-        <f t="shared" si="2"/>
-        <v>21202551848303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>72</v>
       </c>
-      <c r="B76" s="9">
-        <v>31803827772454</v>
-      </c>
-      <c r="C76" s="8">
-        <f t="shared" si="3"/>
-        <v>31803827772453.766</v>
-      </c>
-      <c r="D76">
-        <v>1.5</v>
-      </c>
-      <c r="E76" s="9">
-        <f t="shared" si="2"/>
-        <v>31803827772454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>73</v>
       </c>
-      <c r="B77" s="9">
-        <v>47705741658681</v>
-      </c>
-      <c r="C77" s="8">
-        <f t="shared" si="3"/>
-        <v>47705741658680.648</v>
-      </c>
-      <c r="D77">
-        <v>1.5</v>
-      </c>
-      <c r="E77" s="9">
-        <f t="shared" si="2"/>
-        <v>47705741658681</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>74</v>
       </c>
-      <c r="B78" s="9">
-        <v>71558612488021</v>
-      </c>
-      <c r="C78" s="8">
-        <f t="shared" si="3"/>
-        <v>71558612488020.969</v>
-      </c>
-      <c r="D78">
-        <v>1.5</v>
-      </c>
-      <c r="E78" s="9">
-        <f t="shared" si="2"/>
-        <v>71558612488021</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>75</v>
       </c>
-      <c r="B79" s="9">
-        <v>107337918732031</v>
-      </c>
-      <c r="C79" s="8">
-        <f t="shared" si="3"/>
-        <v>107337918732031.45</v>
-      </c>
-      <c r="D79">
-        <v>1.5</v>
-      </c>
-      <c r="E79" s="9">
-        <f t="shared" si="2"/>
-        <v>107337918732031</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
@@ -2870,7 +2279,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2934,4 +2343,2654 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" customWidth="1"/>
+    <col min="6" max="6" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="8.796875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <f>IF(C5&gt;1,"["&amp;C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5&amp;"]","[0-"&amp;H5&amp;"]")</f>
+        <v>[0-10]</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <f>ROUNDUP(D5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f>TEXT(F5,"0")</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B69" si="0">IF(C6&gt;1,"["&amp;C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6&amp;"]","[0-"&amp;H6&amp;"]")</f>
+        <v>[0-20]</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <f>D5*E5</f>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <f>ROUNDUP(D6,0)</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" ref="G6:G69" si="1">TEXT(F6,"0")</f>
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-40]</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <f>D6*E6</f>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
+        <f>ROUNDUP(D7,0)</f>
+        <v>40</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-80]</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <f>D7*E7</f>
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <f>ROUNDUP(D8,0)</f>
+        <v>80</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-160]</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <f>D8*E8</f>
+        <v>160</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <f>ROUNDUP(D9,0)</f>
+        <v>160</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-320]</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <f>D9*E9</f>
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <f>ROUNDUP(D10,0)</f>
+        <v>320</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="H10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-640]</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <f>D10*E10</f>
+        <v>640</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <f>ROUNDUP(D11,0)</f>
+        <v>640</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="H11">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-1280]</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <f>D11*E11</f>
+        <v>1280</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <f>ROUNDUP(D12,0)</f>
+        <v>1280</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="H12">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-2560]</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <f>D12*E12</f>
+        <v>2560</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <f>ROUNDUP(D13,0)</f>
+        <v>2560</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+      <c r="H13">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-5120]</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D13*E13</f>
+        <v>5120</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <f>ROUNDUP(D14,0)</f>
+        <v>5120</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5120</v>
+      </c>
+      <c r="H14">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_1024,0_0]</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D14*E14</f>
+        <v>10240</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <f>ROUNDUP(D15,0)</f>
+        <v>10240</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10240</v>
+      </c>
+      <c r="H15">
+        <v>1024</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_2048,0_0]</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <f>D15*E15</f>
+        <v>20480</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <f>ROUNDUP(D16,0)</f>
+        <v>20480</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>20480</v>
+      </c>
+      <c r="H16">
+        <v>2048</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_4096,0_0]</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <f>D16*E16</f>
+        <v>40960</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <f>ROUNDUP(D17,0)</f>
+        <v>40960</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>40960</v>
+      </c>
+      <c r="H17">
+        <v>4096</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_8192,0_0]</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D17*E17</f>
+        <v>81920</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <f>ROUNDUP(D18,0)</f>
+        <v>81920</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>81920</v>
+      </c>
+      <c r="H18">
+        <v>8192</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_1638,0_40]</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <f>D18*E18</f>
+        <v>163840</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <f>ROUNDUP(D19,0)</f>
+        <v>163840</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>163840</v>
+      </c>
+      <c r="H19">
+        <v>1638</v>
+      </c>
+      <c r="I19" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_3276,0_80]</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <f>D19*E19</f>
+        <v>327680</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <f>ROUNDUP(D20,0)</f>
+        <v>327680</v>
+      </c>
+      <c r="G20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>327680</v>
+      </c>
+      <c r="H20">
+        <v>3276</v>
+      </c>
+      <c r="I20" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_6553,0_60]</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <f>D20*E20</f>
+        <v>655360</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <f>ROUNDUP(D21,0)</f>
+        <v>655360</v>
+      </c>
+      <c r="G21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>655360</v>
+      </c>
+      <c r="H21">
+        <v>6553</v>
+      </c>
+      <c r="I21" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_1310,0_720]</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <f>D21*E21</f>
+        <v>1310720</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <f>ROUNDUP(D22,0)</f>
+        <v>1310720</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1310720</v>
+      </c>
+      <c r="H22">
+        <v>1310</v>
+      </c>
+      <c r="I22" s="12">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_2621,0_440]</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <f>D22*E22</f>
+        <v>2621440</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <f>ROUNDUP(D23,0)</f>
+        <v>2621440</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2621440</v>
+      </c>
+      <c r="H23">
+        <v>2621</v>
+      </c>
+      <c r="I23" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_5242,0_880]</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <f>D23*E23</f>
+        <v>5242880</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <f>ROUNDUP(D24,0)</f>
+        <v>5242880</v>
+      </c>
+      <c r="G24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5242880</v>
+      </c>
+      <c r="H24">
+        <v>5242</v>
+      </c>
+      <c r="I24" s="12">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_1048,0_5760]</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <f>D24*E24</f>
+        <v>10485760</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
+        <f>ROUNDUP(D25,0)</f>
+        <v>10485760</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10485760</v>
+      </c>
+      <c r="H25">
+        <v>1048</v>
+      </c>
+      <c r="I25" s="12">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_2097,0_1520]</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <f>D25*E25</f>
+        <v>20971520</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <f>ROUNDUP(D26,0)</f>
+        <v>20971520</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>20971520</v>
+      </c>
+      <c r="H26">
+        <v>2097</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_4194,0_3040]</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <f>D26*E26</f>
+        <v>41943040</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9">
+        <f>ROUNDUP(D27,0)</f>
+        <v>41943040</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>41943040</v>
+      </c>
+      <c r="H27">
+        <v>4194</v>
+      </c>
+      <c r="I27" s="12">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>[1_8388,0_6080]</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <f>D27*E27</f>
+        <v>83886080</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <f>ROUNDUP(D28,0)</f>
+        <v>83886080</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>83886080</v>
+      </c>
+      <c r="H28">
+        <v>8388</v>
+      </c>
+      <c r="I28" s="12">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_1677,1_7216]</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <f>D28*E28</f>
+        <v>167772160</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <f>ROUNDUP(D29,0)</f>
+        <v>167772160</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>167772160</v>
+      </c>
+      <c r="H29">
+        <v>1677</v>
+      </c>
+      <c r="I29" s="12">
+        <v>7216</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_3355,1_4432]</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <f>D29*E29</f>
+        <v>335544320</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <f>ROUNDUP(D30,0)</f>
+        <v>335544320</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>335544320</v>
+      </c>
+      <c r="H30">
+        <v>3355</v>
+      </c>
+      <c r="I30" s="12">
+        <v>4432</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_6710,1_8864]</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <f>D30*E30</f>
+        <v>671088640</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <f>ROUNDUP(D31,0)</f>
+        <v>671088640</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>671088640</v>
+      </c>
+      <c r="H31">
+        <v>6710</v>
+      </c>
+      <c r="I31" s="12">
+        <v>8864</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_1342,1_1772]</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
+        <f>D31*E31</f>
+        <v>1342177280</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <f>ROUNDUP(D32,0)</f>
+        <v>1342177280</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1342177280</v>
+      </c>
+      <c r="H32">
+        <v>1342</v>
+      </c>
+      <c r="I32" s="12">
+        <v>1772</v>
+      </c>
+      <c r="J32" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_2684,1_3545]</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8">
+        <f>D32*E32</f>
+        <v>2684354560</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9">
+        <f>ROUNDUP(D33,0)</f>
+        <v>2684354560</v>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2684354560</v>
+      </c>
+      <c r="H33">
+        <v>2684</v>
+      </c>
+      <c r="I33" s="12">
+        <v>3545</v>
+      </c>
+      <c r="J33" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_5368,1_7091]</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
+        <f>D33*E33</f>
+        <v>5368709120</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <f>ROUNDUP(D34,0)</f>
+        <v>5368709120</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5368709120</v>
+      </c>
+      <c r="H34">
+        <v>5368</v>
+      </c>
+      <c r="I34" s="12">
+        <v>7091</v>
+      </c>
+      <c r="J34" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_1073,1_7418]</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <f>D34*E34</f>
+        <v>10737418240</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
+        <f>ROUNDUP(D35,0)</f>
+        <v>10737418240</v>
+      </c>
+      <c r="G35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10737418240</v>
+      </c>
+      <c r="H35">
+        <v>1073</v>
+      </c>
+      <c r="I35" s="12">
+        <v>7418</v>
+      </c>
+      <c r="J35" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_2147,1_4836]</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
+        <f>D35*E35</f>
+        <v>21474836480</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9">
+        <f>ROUNDUP(D36,0)</f>
+        <v>21474836480</v>
+      </c>
+      <c r="G36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>21474836480</v>
+      </c>
+      <c r="H36">
+        <v>2147</v>
+      </c>
+      <c r="I36" s="12">
+        <v>4836</v>
+      </c>
+      <c r="J36" s="12">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_4294,1_9672]</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <f>D36*E36</f>
+        <v>42949672960</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9">
+        <f>ROUNDUP(D37,0)</f>
+        <v>42949672960</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>42949672960</v>
+      </c>
+      <c r="H37">
+        <v>4294</v>
+      </c>
+      <c r="I37" s="12">
+        <v>9672</v>
+      </c>
+      <c r="J37" s="12">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_8589,1_9345]</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8">
+        <f>D37*E37</f>
+        <v>85899345920</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <f>ROUNDUP(D38,0)</f>
+        <v>85899345920</v>
+      </c>
+      <c r="G38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>85899345920</v>
+      </c>
+      <c r="H38">
+        <v>8589</v>
+      </c>
+      <c r="I38" s="12">
+        <v>9345</v>
+      </c>
+      <c r="J38" s="12">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_1717,1_9869]</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8">
+        <f>D38*E38</f>
+        <v>171798691840</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <f>ROUNDUP(D39,0)</f>
+        <v>171798691840</v>
+      </c>
+      <c r="G39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>171798691840</v>
+      </c>
+      <c r="H39">
+        <v>1717</v>
+      </c>
+      <c r="I39" s="12">
+        <v>9869</v>
+      </c>
+      <c r="J39" s="12">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_3435,1_9738]</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="8">
+        <f>D39*E39</f>
+        <v>343597383680</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <f>ROUNDUP(D40,0)</f>
+        <v>343597383680</v>
+      </c>
+      <c r="G40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>343597383680</v>
+      </c>
+      <c r="H40">
+        <v>3435</v>
+      </c>
+      <c r="I40" s="12">
+        <v>9738</v>
+      </c>
+      <c r="J40" s="12">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>[2_6871,1_9476]</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
+        <f>D40*E40</f>
+        <v>687194767360</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9">
+        <f>ROUNDUP(D41,0)</f>
+        <v>687194767360</v>
+      </c>
+      <c r="G41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>687194767360</v>
+      </c>
+      <c r="H41">
+        <v>6871</v>
+      </c>
+      <c r="I41" s="12">
+        <v>9476</v>
+      </c>
+      <c r="J41" s="12">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_1374,2_3895]</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8">
+        <f>D41*E41</f>
+        <v>1374389534720</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <f>ROUNDUP(D42,0)</f>
+        <v>1374389534720</v>
+      </c>
+      <c r="G42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1374389534720</v>
+      </c>
+      <c r="H42">
+        <v>1374</v>
+      </c>
+      <c r="I42" s="12">
+        <v>3895</v>
+      </c>
+      <c r="J42" s="12">
+        <v>3472</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_2748,2_7790]</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <f>D42*E42</f>
+        <v>2748779069440</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="9">
+        <f>ROUNDUP(D43,0)</f>
+        <v>2748779069440</v>
+      </c>
+      <c r="G43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2748779069440</v>
+      </c>
+      <c r="H43">
+        <v>2748</v>
+      </c>
+      <c r="I43" s="12">
+        <v>7790</v>
+      </c>
+      <c r="J43" s="12">
+        <v>6944</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_5497,2_5581]</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" s="8">
+        <f>D43*E43</f>
+        <v>5497558138880</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="9">
+        <f>ROUNDUP(D44,0)</f>
+        <v>5497558138880</v>
+      </c>
+      <c r="G44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5497558138880</v>
+      </c>
+      <c r="H44">
+        <v>5497</v>
+      </c>
+      <c r="I44" s="12">
+        <v>5581</v>
+      </c>
+      <c r="J44" s="12">
+        <v>3888</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_1099,2_5116]</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8">
+        <f>D44*E44</f>
+        <v>10995116277760</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <f>ROUNDUP(D45,0)</f>
+        <v>10995116277760</v>
+      </c>
+      <c r="G45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10995116277760</v>
+      </c>
+      <c r="H45">
+        <v>1099</v>
+      </c>
+      <c r="I45" s="12">
+        <v>5116</v>
+      </c>
+      <c r="J45" s="12">
+        <v>2777</v>
+      </c>
+      <c r="K45" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_2199,2_232]</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="8">
+        <f>D45*E45</f>
+        <v>21990232555520</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <f>ROUNDUP(D46,0)</f>
+        <v>21990232555520</v>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>21990232555520</v>
+      </c>
+      <c r="H46">
+        <v>2199</v>
+      </c>
+      <c r="I46" s="12">
+        <v>232</v>
+      </c>
+      <c r="J46" s="12">
+        <v>5555</v>
+      </c>
+      <c r="K46" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_4398,2_465]</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8">
+        <f>D46*E46</f>
+        <v>43980465111040</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9">
+        <f>ROUNDUP(D47,0)</f>
+        <v>43980465111040</v>
+      </c>
+      <c r="G47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>43980465111040</v>
+      </c>
+      <c r="H47">
+        <v>4398</v>
+      </c>
+      <c r="I47" s="12">
+        <v>465</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1110</v>
+      </c>
+      <c r="K47" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_8796,2_930]</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="8">
+        <f>D47*E47</f>
+        <v>87960930222080</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9">
+        <f>ROUNDUP(D48,0)</f>
+        <v>87960930222080</v>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>87960930222080</v>
+      </c>
+      <c r="H48">
+        <v>8796</v>
+      </c>
+      <c r="I48" s="12">
+        <v>930</v>
+      </c>
+      <c r="J48" s="12">
+        <v>2220</v>
+      </c>
+      <c r="K48" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_1759,2_2186]</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8">
+        <f>D48*E48</f>
+        <v>175921860444160</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <f>ROUNDUP(D49,0)</f>
+        <v>175921860444160</v>
+      </c>
+      <c r="G49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>175921860444160</v>
+      </c>
+      <c r="H49">
+        <v>1759</v>
+      </c>
+      <c r="I49" s="12">
+        <v>2186</v>
+      </c>
+      <c r="J49" s="12">
+        <v>444</v>
+      </c>
+      <c r="K49" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_3518,2_4372]</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8">
+        <f>D49*E49</f>
+        <v>351843720888320</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9">
+        <f>ROUNDUP(D50,0)</f>
+        <v>351843720888320</v>
+      </c>
+      <c r="G50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>351843720888320</v>
+      </c>
+      <c r="H50">
+        <v>3518</v>
+      </c>
+      <c r="I50" s="12">
+        <v>4372</v>
+      </c>
+      <c r="J50" s="12">
+        <v>888</v>
+      </c>
+      <c r="K50" s="12">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_7036,2_8744]</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8">
+        <f>D50*E50</f>
+        <v>703687441776640</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <f>ROUNDUP(D51,0)</f>
+        <v>703687441776640</v>
+      </c>
+      <c r="G51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>703687441776640</v>
+      </c>
+      <c r="H51">
+        <v>7036</v>
+      </c>
+      <c r="I51" s="12">
+        <v>8744</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1776</v>
+      </c>
+      <c r="K51" s="12">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_1407,2_3748]</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="8">
+        <f>D51*E51</f>
+        <v>1407374883553280</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9">
+        <f>ROUNDUP(D52,0)</f>
+        <v>1407374883553280</v>
+      </c>
+      <c r="G52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1407374883553280</v>
+      </c>
+      <c r="H52">
+        <v>1407</v>
+      </c>
+      <c r="I52" s="12">
+        <v>3748</v>
+      </c>
+      <c r="J52" s="12">
+        <v>8355</v>
+      </c>
+      <c r="K52" s="12">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_2814,2_7497]</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="8">
+        <f>D52*E52</f>
+        <v>2814749767106560</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <f>ROUNDUP(D53,0)</f>
+        <v>2814749767106560</v>
+      </c>
+      <c r="G53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2814749767106560</v>
+      </c>
+      <c r="H53">
+        <v>2814</v>
+      </c>
+      <c r="I53" s="12">
+        <v>7497</v>
+      </c>
+      <c r="J53" s="12">
+        <v>6710</v>
+      </c>
+      <c r="K53" s="12">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>[3_5629,2_4995]</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="8">
+        <f>D53*E53</f>
+        <v>5629499534213120</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9">
+        <f>ROUNDUP(D54,0)</f>
+        <v>5629499534213120</v>
+      </c>
+      <c r="G54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5629499534213120</v>
+      </c>
+      <c r="H54">
+        <v>5629</v>
+      </c>
+      <c r="I54" s="12">
+        <v>4995</v>
+      </c>
+      <c r="J54" s="12">
+        <v>3421</v>
+      </c>
+      <c r="K54" s="12">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_1125,3_8999]</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="8">
+        <f>D54*E54</f>
+        <v>1.125899906842624E+16</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9">
+        <f>ROUNDUP(D55,0)</f>
+        <v>1.12589990684262E+16</v>
+      </c>
+      <c r="G55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11258999068426200</v>
+      </c>
+      <c r="H55">
+        <v>1125</v>
+      </c>
+      <c r="I55" s="12">
+        <v>8999</v>
+      </c>
+      <c r="J55" s="12">
+        <v>684</v>
+      </c>
+      <c r="K55" s="12">
+        <v>2620</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_2251,3_7998]</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8">
+        <f>D55*E55</f>
+        <v>2.251799813685248E+16</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="9">
+        <f>ROUNDUP(D56,0)</f>
+        <v>2.25179981368525E+16</v>
+      </c>
+      <c r="G56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>22517998136852500</v>
+      </c>
+      <c r="H56">
+        <v>2251</v>
+      </c>
+      <c r="I56" s="12">
+        <v>7998</v>
+      </c>
+      <c r="J56" s="12">
+        <v>1368</v>
+      </c>
+      <c r="K56" s="12">
+        <v>5250</v>
+      </c>
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" t="str">
+        <f>IF(C57&gt;1,"["&amp;C57-1&amp;"_"&amp;H57&amp;","&amp;C57-2&amp;"_"&amp;I57&amp;"]","[0-"&amp;H57&amp;"]")</f>
+        <v>[4_4503,3_5996]</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <f>D56*E56</f>
+        <v>4.503599627370496E+16</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="9">
+        <f>ROUNDUP(D57,0)</f>
+        <v>4.5035996273705E+16</v>
+      </c>
+      <c r="G57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>45035996273705000</v>
+      </c>
+      <c r="H57">
+        <v>4503</v>
+      </c>
+      <c r="I57" s="12">
+        <v>5996</v>
+      </c>
+      <c r="J57" s="12">
+        <v>2737</v>
+      </c>
+      <c r="K57" s="12">
+        <v>500</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_9007,3_1992]</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="8">
+        <f>D57*E57</f>
+        <v>9.007199254740992E+16</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="9">
+        <f>ROUNDUP(D58,0)</f>
+        <v>9.0071992547409904E+16</v>
+      </c>
+      <c r="G58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>90071992547409900</v>
+      </c>
+      <c r="H58">
+        <v>9007</v>
+      </c>
+      <c r="I58" s="12">
+        <v>1992</v>
+      </c>
+      <c r="J58" s="12">
+        <v>5474</v>
+      </c>
+      <c r="K58" s="12">
+        <v>990</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_1801,3_4398]</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" s="8">
+        <f>D58*E58</f>
+        <v>1.8014398509481984E+17</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="9">
+        <f>ROUNDUP(D59,0)</f>
+        <v>1.8014398509482E+17</v>
+      </c>
+      <c r="G59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>180143985094820000</v>
+      </c>
+      <c r="H59">
+        <v>1801</v>
+      </c>
+      <c r="I59" s="12">
+        <v>4398</v>
+      </c>
+      <c r="J59" s="12">
+        <v>5094</v>
+      </c>
+      <c r="K59" s="12">
+        <v>8200</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_3602,3_8797]</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8">
+        <f>D59*E59</f>
+        <v>3.6028797018963968E+17</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="9">
+        <f>ROUNDUP(D60,0)</f>
+        <v>3.6028797018964E+17</v>
+      </c>
+      <c r="G60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>360287970189640000</v>
+      </c>
+      <c r="H60">
+        <v>3602</v>
+      </c>
+      <c r="I60" s="12">
+        <v>8797</v>
+      </c>
+      <c r="J60" s="12">
+        <v>189</v>
+      </c>
+      <c r="K60" s="12">
+        <v>6400</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_7205,3_7594]</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" s="8">
+        <f>D60*E60</f>
+        <v>7.2057594037927936E+17</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="9">
+        <f>ROUNDUP(D61,0)</f>
+        <v>7.2057594037927898E+17</v>
+      </c>
+      <c r="G61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>720575940379279000</v>
+      </c>
+      <c r="H61">
+        <v>7205</v>
+      </c>
+      <c r="I61" s="12">
+        <v>7594</v>
+      </c>
+      <c r="J61" s="12">
+        <v>379</v>
+      </c>
+      <c r="K61" s="12">
+        <v>2790</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_1441,3_1518]</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" s="8">
+        <f>D61*E61</f>
+        <v>1.4411518807585587E+18</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="9">
+        <f>ROUNDUP(D62,0)</f>
+        <v>1.44115188075856E+18</v>
+      </c>
+      <c r="G62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1441151880758560000</v>
+      </c>
+      <c r="H62">
+        <v>1441</v>
+      </c>
+      <c r="I62" s="12">
+        <v>1518</v>
+      </c>
+      <c r="J62" s="12">
+        <v>8075</v>
+      </c>
+      <c r="K62" s="12">
+        <v>8560</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_2882,3_3037]</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" s="8">
+        <f>D62*E62</f>
+        <v>2.8823037615171174E+18</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="9">
+        <f>ROUNDUP(D63,0)</f>
+        <v>2.88230376151712E+18</v>
+      </c>
+      <c r="G63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2882303761517120000</v>
+      </c>
+      <c r="H63">
+        <v>2882</v>
+      </c>
+      <c r="I63" s="12">
+        <v>3037</v>
+      </c>
+      <c r="J63" s="12">
+        <v>6151</v>
+      </c>
+      <c r="K63" s="12">
+        <v>7120</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_5764,3_6075]</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" s="8">
+        <f>D63*E63</f>
+        <v>5.7646075230342349E+18</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="9">
+        <f>ROUNDUP(D64,0)</f>
+        <v>5.7646075230342298E+18</v>
+      </c>
+      <c r="G64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5764607523034230000</v>
+      </c>
+      <c r="H64">
+        <v>5764</v>
+      </c>
+      <c r="I64" s="12">
+        <v>6075</v>
+      </c>
+      <c r="J64" s="12">
+        <v>2303</v>
+      </c>
+      <c r="K64" s="12">
+        <v>4230</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_1152,3_9215]</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" s="8">
+        <f>D64*E64</f>
+        <v>1.152921504606847E+19</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="9">
+        <f>ROUNDUP(D65,0)</f>
+        <v>1.15292150460685E+19</v>
+      </c>
+      <c r="G65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11529215046068500000</v>
+      </c>
+      <c r="H65">
+        <v>1152</v>
+      </c>
+      <c r="I65" s="12">
+        <v>9215</v>
+      </c>
+      <c r="J65" s="12">
+        <v>460</v>
+      </c>
+      <c r="K65" s="12">
+        <v>6850</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_2305,3_8430]</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="8">
+        <f>D65*E65</f>
+        <v>2.305843009213694E+19</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="9">
+        <f>ROUNDUP(D66,0)</f>
+        <v>2.3058430092136899E+19</v>
+      </c>
+      <c r="G66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>23058430092136900000</v>
+      </c>
+      <c r="H66">
+        <v>2305</v>
+      </c>
+      <c r="I66" s="12">
+        <v>8430</v>
+      </c>
+      <c r="J66" s="12">
+        <v>921</v>
+      </c>
+      <c r="K66" s="12">
+        <v>3690</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_4611,3_6860]</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="8">
+        <f>D66*E66</f>
+        <v>4.6116860184273879E+19</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="9">
+        <f>ROUNDUP(D67,0)</f>
+        <v>4.6116860184273904E+19</v>
+      </c>
+      <c r="G67" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>46116860184273900000</v>
+      </c>
+      <c r="H67">
+        <v>4611</v>
+      </c>
+      <c r="I67" s="12">
+        <v>6860</v>
+      </c>
+      <c r="J67" s="12">
+        <v>1842</v>
+      </c>
+      <c r="K67" s="12">
+        <v>7390</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B68" t="str">
+        <f t="shared" si="0"/>
+        <v>[4_9223,3_3720]</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" s="8">
+        <f>D67*E67</f>
+        <v>9.2233720368547758E+19</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9">
+        <f>ROUNDUP(D68,0)</f>
+        <v>9.2233720368547807E+19</v>
+      </c>
+      <c r="G68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>92233720368547800000</v>
+      </c>
+      <c r="H68">
+        <v>9223</v>
+      </c>
+      <c r="I68" s="12">
+        <v>3720</v>
+      </c>
+      <c r="J68" s="12">
+        <v>3685</v>
+      </c>
+      <c r="K68" s="12">
+        <v>4780</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v>[5_1844,4_6744]</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="8">
+        <f>D68*E68</f>
+        <v>1.8446744073709552E+20</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" s="9">
+        <f>ROUNDUP(D69,0)</f>
+        <v>1.8446744073709601E+20</v>
+      </c>
+      <c r="G69" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>184467440737096000000</v>
+      </c>
+      <c r="H69">
+        <v>1844</v>
+      </c>
+      <c r="I69" s="12">
+        <v>6744</v>
+      </c>
+      <c r="J69" s="12">
+        <v>737</v>
+      </c>
+      <c r="K69" s="12">
+        <v>960</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+      <c r="M69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B70" t="str">
+        <f t="shared" ref="B70:B79" si="2">IF(C70&gt;1,"["&amp;C70-1&amp;"_"&amp;H70&amp;","&amp;C70-2&amp;"_"&amp;I70&amp;"]","[0-"&amp;H70&amp;"]")</f>
+        <v>[5_3689,4_3488]</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" s="8">
+        <f>D69*E69</f>
+        <v>3.6893488147419103E+20</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="9">
+        <f>ROUNDUP(D70,0)</f>
+        <v>3.6893488147419103E+20</v>
+      </c>
+      <c r="G70" s="9" t="str">
+        <f t="shared" ref="G70:G79" si="3">TEXT(F70,"0")</f>
+        <v>368934881474191000000</v>
+      </c>
+      <c r="H70">
+        <v>3689</v>
+      </c>
+      <c r="I70" s="12">
+        <v>3488</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1474</v>
+      </c>
+      <c r="K70" s="12">
+        <v>1910</v>
+      </c>
+      <c r="L70" s="12">
+        <v>0</v>
+      </c>
+      <c r="M70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_7378,4_6976]</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" s="8">
+        <f>D70*E70</f>
+        <v>7.3786976294838206E+20</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="9">
+        <f>ROUNDUP(D71,0)</f>
+        <v>7.3786976294838206E+20</v>
+      </c>
+      <c r="G71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>737869762948382000000</v>
+      </c>
+      <c r="H71">
+        <v>7378</v>
+      </c>
+      <c r="I71" s="12">
+        <v>6976</v>
+      </c>
+      <c r="J71" s="12">
+        <v>2948</v>
+      </c>
+      <c r="K71" s="12">
+        <v>3820</v>
+      </c>
+      <c r="L71" s="12">
+        <v>0</v>
+      </c>
+      <c r="M71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_1475,4_7395]</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72" s="8">
+        <f>D71*E71</f>
+        <v>1.4757395258967641E+21</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" s="9">
+        <f>ROUNDUP(D72,0)</f>
+        <v>1.4757395258967599E+21</v>
+      </c>
+      <c r="G72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1475739525896760000000</v>
+      </c>
+      <c r="H72">
+        <v>1475</v>
+      </c>
+      <c r="I72" s="12">
+        <v>7395</v>
+      </c>
+      <c r="J72" s="12">
+        <v>2589</v>
+      </c>
+      <c r="K72" s="12">
+        <v>6760</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+      <c r="M72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_2951,4_4790]</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" s="8">
+        <f>D72*E72</f>
+        <v>2.9514790517935283E+21</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" s="9">
+        <f>ROUNDUP(D73,0)</f>
+        <v>2.9514790517935298E+21</v>
+      </c>
+      <c r="G73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2951479051793530000000</v>
+      </c>
+      <c r="H73">
+        <v>2951</v>
+      </c>
+      <c r="I73" s="12">
+        <v>4790</v>
+      </c>
+      <c r="J73" s="12">
+        <v>5179</v>
+      </c>
+      <c r="K73" s="12">
+        <v>3530</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+      <c r="M73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_5902,4_9581]</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="8">
+        <f>D73*E73</f>
+        <v>5.9029581035870565E+21</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" s="9">
+        <f>ROUNDUP(D74,0)</f>
+        <v>5.9029581035870597E+21</v>
+      </c>
+      <c r="G74" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5902958103587060000000</v>
+      </c>
+      <c r="H74">
+        <v>5902</v>
+      </c>
+      <c r="I74" s="12">
+        <v>9581</v>
+      </c>
+      <c r="J74" s="12">
+        <v>358</v>
+      </c>
+      <c r="K74" s="12">
+        <v>7060</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+      <c r="M74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_1180,4_5916]</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" s="8">
+        <f>D74*E74</f>
+        <v>1.1805916207174113E+22</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="9">
+        <f>ROUNDUP(D75,0)</f>
+        <v>1.18059162071741E+22</v>
+      </c>
+      <c r="G75" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>11805916207174100000000</v>
+      </c>
+      <c r="H75">
+        <v>1180</v>
+      </c>
+      <c r="I75" s="12">
+        <v>5916</v>
+      </c>
+      <c r="J75" s="12">
+        <v>2071</v>
+      </c>
+      <c r="K75" s="12">
+        <v>7410</v>
+      </c>
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+      <c r="M75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_2361,4_1832]</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" s="8">
+        <f>D75*E75</f>
+        <v>2.3611832414348226E+22</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" s="9">
+        <f>ROUNDUP(D76,0)</f>
+        <v>2.3611832414348201E+22</v>
+      </c>
+      <c r="G76" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>23611832414348200000000</v>
+      </c>
+      <c r="H76">
+        <v>2361</v>
+      </c>
+      <c r="I76" s="12">
+        <v>1832</v>
+      </c>
+      <c r="J76" s="12">
+        <v>4143</v>
+      </c>
+      <c r="K76" s="12">
+        <v>4820</v>
+      </c>
+      <c r="L76" s="12">
+        <v>0</v>
+      </c>
+      <c r="M76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_4722,4_3664]</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" s="8">
+        <f>D76*E76</f>
+        <v>4.7223664828696452E+22</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" s="9">
+        <f>ROUNDUP(D77,0)</f>
+        <v>4.7223664828696502E+22</v>
+      </c>
+      <c r="G77" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>47223664828696500000000</v>
+      </c>
+      <c r="H77">
+        <v>4722</v>
+      </c>
+      <c r="I77" s="12">
+        <v>3664</v>
+      </c>
+      <c r="J77" s="12">
+        <v>8286</v>
+      </c>
+      <c r="K77" s="12">
+        <v>9650</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+      <c r="M77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_9444,4_7329]</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78" s="8">
+        <f>D77*E77</f>
+        <v>9.4447329657392904E+22</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" s="9">
+        <f>ROUNDUP(D78,0)</f>
+        <v>9.4447329657392904E+22</v>
+      </c>
+      <c r="G78" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>94447329657392900000000</v>
+      </c>
+      <c r="H78">
+        <v>9444</v>
+      </c>
+      <c r="I78" s="12">
+        <v>7329</v>
+      </c>
+      <c r="J78" s="12">
+        <v>6573</v>
+      </c>
+      <c r="K78" s="12">
+        <v>9290</v>
+      </c>
+      <c r="L78" s="12">
+        <v>0</v>
+      </c>
+      <c r="M78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>[5_1888,4_9465]</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="8">
+        <f>D78*E78</f>
+        <v>1.8889465931478581E+23</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="9">
+        <f>ROUNDUP(D79,0)</f>
+        <v>1.8889465931478601E+23</v>
+      </c>
+      <c r="G79" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>188894659314786000000000</v>
+      </c>
+      <c r="H79">
+        <v>1888</v>
+      </c>
+      <c r="I79" s="12">
+        <v>9465</v>
+      </c>
+      <c r="J79" s="12">
+        <v>9314</v>
+      </c>
+      <c r="K79" s="12">
+        <v>7860</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+      <c r="M79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -421,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +454,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
@@ -2349,22 +2359,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.796875" customWidth="1"/>
+    <col min="4" max="4" width="3.59765625" customWidth="1"/>
     <col min="5" max="5" width="7.3984375" customWidth="1"/>
-    <col min="6" max="6" width="27.19921875" customWidth="1"/>
-    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="3.3984375" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="8.796875" style="12"/>
+    <col min="9" max="16" width="8.796875" style="12"/>
+    <col min="17" max="17" width="8.796875" style="15"/>
+    <col min="18" max="18" width="8.796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2381,10 +2393,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D2" s="6"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2395,2599 +2407,3108 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
         <f>IF(C5&gt;1,"["&amp;C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5&amp;"]","[0-"&amp;H5&amp;"]")</f>
         <v>[0-10]</v>
       </c>
       <c r="C5">
+        <f>COUNTIF(H5:W5,"&gt;-1")</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <v>10</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
-        <f>ROUNDUP(D5,0)</f>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F36" si="0">ROUNDUP(D5,0)</f>
         <v>10</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="G5" s="14" t="str">
         <f>TEXT(F5,"0")</f>
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <f t="shared" ref="B6:B69" si="0">IF(C6&gt;1,"["&amp;C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6&amp;"]","[0-"&amp;H6&amp;"]")</f>
+        <f t="shared" ref="B6:B69" si="1">IF(C6&gt;1,"["&amp;C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6&amp;"]","[0-"&amp;H6&amp;"]")</f>
         <v>[0-20]</v>
       </c>
       <c r="C6">
+        <f>COUNTIF(H6:W6,"&gt;-1")</f>
         <v>1</v>
       </c>
       <c r="D6" s="8">
-        <f>D5*E5</f>
+        <f t="shared" ref="D6:D37" si="2">D5*E5</f>
         <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="9">
-        <f>ROUNDUP(D6,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="shared" ref="G6:G69" si="1">TEXT(F6,"0")</f>
+        <f t="shared" ref="G6:G69" si="3">TEXT(F6,"0")</f>
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-40]</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>[0-40]</v>
-      </c>
-      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H7" s="9">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-80]</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <f>D6*E6</f>
+      <c r="D8" s="8">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H8" s="9">
+        <v>80</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-160]</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="H9" s="9">
+        <v>160</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-320]</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="H10" s="9">
+        <v>320</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-640]</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="H11" s="9">
+        <v>640</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-1280]</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="2"/>
+        <v>1280</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1280</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1280</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-2560]</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
+        <v>2560</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2560</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>[0-5120]</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="2"/>
+        <v>5120</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>5120</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5120</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5120</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_1024,0_0]</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="2"/>
+        <v>10240</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>10240</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10240</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1024</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_2048,0_0]</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="2"/>
+        <v>20480</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>20480</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>20480</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2048</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_4096,0_0]</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="2"/>
+        <v>40960</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>40960</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>40960</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4096</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_8192,0_0]</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="2"/>
+        <v>81920</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>81920</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>81920</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8192</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_1638,0_40]</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="2"/>
+        <v>163840</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>163840</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>163840</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1638</v>
+      </c>
+      <c r="I19" s="9">
         <v>40</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9">
-        <f>ROUNDUP(D7,0)</f>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_3276,0_80]</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="2"/>
+        <v>327680</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>327680</v>
+      </c>
+      <c r="G20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>327680</v>
+      </c>
+      <c r="H20" s="9">
+        <v>3276</v>
+      </c>
+      <c r="I20" s="9">
+        <v>80</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_6553,0_60]</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="2"/>
+        <v>655360</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>655360</v>
+      </c>
+      <c r="G21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>655360</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6553</v>
+      </c>
+      <c r="I21" s="9">
+        <v>60</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_1310,0_720]</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="2"/>
+        <v>1310720</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>1310720</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1310720</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1310</v>
+      </c>
+      <c r="I22" s="9">
+        <v>720</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_2621,0_440]</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="2"/>
+        <v>2621440</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>2621440</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2621440</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2621</v>
+      </c>
+      <c r="I23" s="9">
+        <v>440</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_5242,0_880]</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="2"/>
+        <v>5242880</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>5242880</v>
+      </c>
+      <c r="G24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5242880</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5242</v>
+      </c>
+      <c r="I24" s="9">
+        <v>880</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_1048,0_5760]</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
+        <v>10485760</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>10485760</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10485760</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1048</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5760</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_2097,0_1520]</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="2"/>
+        <v>20971520</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>20971520</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>20971520</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2097</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1520</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_4194,0_3040]</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="2"/>
+        <v>41943040</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>41943040</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>41943040</v>
+      </c>
+      <c r="H27" s="9">
+        <v>4194</v>
+      </c>
+      <c r="I27" s="9">
+        <v>3040</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>[1_8388,0_6080]</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="2"/>
+        <v>83886080</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>83886080</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>83886080</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8388</v>
+      </c>
+      <c r="I28" s="9">
+        <v>6080</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_1677,1_7216]</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="2"/>
+        <v>167772160</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>167772160</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>167772160</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1677</v>
+      </c>
+      <c r="I29" s="9">
+        <v>7216</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_3355,1_4432]</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="2"/>
+        <v>335544320</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>335544320</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>335544320</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3355</v>
+      </c>
+      <c r="I30" s="9">
+        <v>4432</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_6710,1_8864]</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="2"/>
+        <v>671088640</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>671088640</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>671088640</v>
+      </c>
+      <c r="H31" s="9">
+        <v>6710</v>
+      </c>
+      <c r="I31" s="9">
+        <v>8864</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_1342,1_1772]</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="2"/>
+        <v>1342177280</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>1342177280</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1342177280</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1342</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1772</v>
+      </c>
+      <c r="J32" s="9">
+        <v>80</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_2684,1_3545]</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="2"/>
+        <v>2684354560</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>2684354560</v>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2684354560</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2684</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3545</v>
+      </c>
+      <c r="J33" s="9">
+        <v>60</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_5368,1_7091]</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="2"/>
+        <v>5368709120</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>5368709120</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5368709120</v>
+      </c>
+      <c r="H34" s="9">
+        <v>5368</v>
+      </c>
+      <c r="I34" s="9">
+        <v>7091</v>
+      </c>
+      <c r="J34" s="9">
+        <v>20</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_1073,1_7418]</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="2"/>
+        <v>10737418240</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>10737418240</v>
+      </c>
+      <c r="G35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10737418240</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1073</v>
+      </c>
+      <c r="I35" s="9">
+        <v>7418</v>
+      </c>
+      <c r="J35" s="9">
+        <v>240</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_2147,1_4836]</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="2"/>
+        <v>21474836480</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>21474836480</v>
+      </c>
+      <c r="G36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>21474836480</v>
+      </c>
+      <c r="H36" s="9">
+        <v>2147</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4836</v>
+      </c>
+      <c r="J36" s="9">
+        <v>480</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_4294,1_9672]</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="2"/>
+        <v>42949672960</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" ref="F37:F68" si="5">ROUNDUP(D37,0)</f>
+        <v>42949672960</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>42949672960</v>
+      </c>
+      <c r="H37" s="9">
+        <v>4294</v>
+      </c>
+      <c r="I37" s="9">
+        <v>9672</v>
+      </c>
+      <c r="J37" s="9">
+        <v>960</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_8589,1_9345]</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" ref="D38:D69" si="6">D37*E37</f>
+        <v>85899345920</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="5"/>
+        <v>85899345920</v>
+      </c>
+      <c r="G38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>85899345920</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8589</v>
+      </c>
+      <c r="I38" s="9">
+        <v>9345</v>
+      </c>
+      <c r="J38" s="9">
+        <v>920</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_1717,1_9869]</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="6"/>
+        <v>171798691840</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="5"/>
+        <v>171798691840</v>
+      </c>
+      <c r="G39" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>171798691840</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1717</v>
+      </c>
+      <c r="I39" s="9">
+        <v>9869</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1840</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_3435,1_9738]</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="6"/>
+        <v>343597383680</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="5"/>
+        <v>343597383680</v>
+      </c>
+      <c r="G40" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>343597383680</v>
+      </c>
+      <c r="H40" s="9">
+        <v>3435</v>
+      </c>
+      <c r="I40" s="9">
+        <v>9738</v>
+      </c>
+      <c r="J40" s="9">
+        <v>3680</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>[2_6871,1_9476]</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="6"/>
+        <v>687194767360</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="5"/>
+        <v>687194767360</v>
+      </c>
+      <c r="G41" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>687194767360</v>
+      </c>
+      <c r="H41" s="9">
+        <v>6871</v>
+      </c>
+      <c r="I41" s="9">
+        <v>9476</v>
+      </c>
+      <c r="J41" s="9">
+        <v>7360</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_1374,2_3895]</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="6"/>
+        <v>1374389534720</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="5"/>
+        <v>1374389534720</v>
+      </c>
+      <c r="G42" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1374389534720</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1374</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3895</v>
+      </c>
+      <c r="J42" s="9">
+        <v>3472</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_2748,2_7790]</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="6"/>
+        <v>2748779069440</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="5"/>
+        <v>2748779069440</v>
+      </c>
+      <c r="G43" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2748779069440</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2748</v>
+      </c>
+      <c r="I43" s="9">
+        <v>7790</v>
+      </c>
+      <c r="J43" s="9">
+        <v>6944</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_5497,2_5581]</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="6"/>
+        <v>5497558138880</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="5"/>
+        <v>5497558138880</v>
+      </c>
+      <c r="G44" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5497558138880</v>
+      </c>
+      <c r="H44" s="9">
+        <v>5497</v>
+      </c>
+      <c r="I44" s="9">
+        <v>5581</v>
+      </c>
+      <c r="J44" s="9">
+        <v>3888</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_1099,2_5116]</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="6"/>
+        <v>10995116277760</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="5"/>
+        <v>10995116277760</v>
+      </c>
+      <c r="G45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10995116277760</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1099</v>
+      </c>
+      <c r="I45" s="9">
+        <v>5116</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2777</v>
+      </c>
+      <c r="K45" s="9">
+        <v>60</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_2199,2_232]</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="6"/>
+        <v>21990232555520</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="5"/>
+        <v>21990232555520</v>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>21990232555520</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2199</v>
+      </c>
+      <c r="I46" s="9">
+        <v>232</v>
+      </c>
+      <c r="J46" s="9">
+        <v>5555</v>
+      </c>
+      <c r="K46" s="9">
+        <v>20</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_4398,2_465]</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="6"/>
+        <v>43980465111040</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="5"/>
+        <v>43980465111040</v>
+      </c>
+      <c r="G47" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>43980465111040</v>
+      </c>
+      <c r="H47" s="9">
+        <v>4398</v>
+      </c>
+      <c r="I47" s="9">
+        <v>465</v>
+      </c>
+      <c r="J47" s="9">
+        <v>1110</v>
+      </c>
+      <c r="K47" s="9">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-80]</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <f>D7*E7</f>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_8796,2_930]</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="6"/>
+        <v>87960930222080</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="5"/>
+        <v>87960930222080</v>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>87960930222080</v>
+      </c>
+      <c r="H48" s="9">
+        <v>8796</v>
+      </c>
+      <c r="I48" s="9">
+        <v>930</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2220</v>
+      </c>
+      <c r="K48" s="9">
         <v>80</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <f>ROUNDUP(D8,0)</f>
-        <v>80</v>
-      </c>
-      <c r="G8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-160]</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <f>D8*E8</f>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_1759,2_2186]</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="6"/>
+        <v>175921860444160</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="5"/>
+        <v>175921860444160</v>
+      </c>
+      <c r="G49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>175921860444160</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1759</v>
+      </c>
+      <c r="I49" s="9">
+        <v>2186</v>
+      </c>
+      <c r="J49" s="9">
+        <v>444</v>
+      </c>
+      <c r="K49" s="9">
         <v>160</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9">
-        <f>ROUNDUP(D9,0)</f>
-        <v>160</v>
-      </c>
-      <c r="G9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="H9">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-320]</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <f>D9*E9</f>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_3518,2_4372]</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" si="6"/>
+        <v>351843720888320</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="5"/>
+        <v>351843720888320</v>
+      </c>
+      <c r="G50" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>351843720888320</v>
+      </c>
+      <c r="H50" s="9">
+        <v>3518</v>
+      </c>
+      <c r="I50" s="9">
+        <v>4372</v>
+      </c>
+      <c r="J50" s="9">
+        <v>888</v>
+      </c>
+      <c r="K50" s="9">
         <v>320</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9">
-        <f>ROUNDUP(D10,0)</f>
-        <v>320</v>
-      </c>
-      <c r="G10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="H10">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-640]</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <f>D10*E10</f>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_7036,2_8744]</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="6"/>
+        <v>703687441776640</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="5"/>
+        <v>703687441776640</v>
+      </c>
+      <c r="G51" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>703687441776640</v>
+      </c>
+      <c r="H51" s="9">
+        <v>7036</v>
+      </c>
+      <c r="I51" s="9">
+        <v>8744</v>
+      </c>
+      <c r="J51" s="9">
+        <v>1776</v>
+      </c>
+      <c r="K51" s="9">
         <v>640</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
-        <f>ROUNDUP(D11,0)</f>
-        <v>640</v>
-      </c>
-      <c r="G11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-      <c r="H11">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-1280]</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <f>D11*E11</f>
-        <v>1280</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9">
-        <f>ROUNDUP(D12,0)</f>
-        <v>1280</v>
-      </c>
-      <c r="G12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="H12">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-2560]</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <f>D12*E12</f>
-        <v>2560</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9">
-        <f>ROUNDUP(D13,0)</f>
-        <v>2560</v>
-      </c>
-      <c r="G13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2560</v>
-      </c>
-      <c r="H13">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-5120]</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <f>D13*E13</f>
-        <v>5120</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9">
-        <f>ROUNDUP(D14,0)</f>
-        <v>5120</v>
-      </c>
-      <c r="G14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5120</v>
-      </c>
-      <c r="H14">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_1024,0_0]</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <f>D14*E14</f>
-        <v>10240</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9">
-        <f>ROUNDUP(D15,0)</f>
-        <v>10240</v>
-      </c>
-      <c r="G15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>10240</v>
-      </c>
-      <c r="H15">
-        <v>1024</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_1407,2_3748]</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" si="6"/>
+        <v>1407374883553280</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="5"/>
+        <v>1407374883553280</v>
+      </c>
+      <c r="G52" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1407374883553280</v>
+      </c>
+      <c r="H52" s="9">
+        <v>1407</v>
+      </c>
+      <c r="I52" s="9">
+        <v>3748</v>
+      </c>
+      <c r="J52" s="9">
+        <v>8355</v>
+      </c>
+      <c r="K52" s="9">
+        <v>3280</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_2814,2_7497]</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="6"/>
+        <v>2814749767106560</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="5"/>
+        <v>2814749767106560</v>
+      </c>
+      <c r="G53" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2814749767106560</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2814</v>
+      </c>
+      <c r="I53" s="9">
+        <v>7497</v>
+      </c>
+      <c r="J53" s="9">
+        <v>6710</v>
+      </c>
+      <c r="K53" s="9">
+        <v>6560</v>
+      </c>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>[3_5629,2_4995]</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D54" s="8">
+        <f t="shared" si="6"/>
+        <v>5629499534213120</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="5"/>
+        <v>5629499534213120</v>
+      </c>
+      <c r="G54" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5629499534213120</v>
+      </c>
+      <c r="H54" s="9">
+        <v>5629</v>
+      </c>
+      <c r="I54" s="9">
+        <v>4995</v>
+      </c>
+      <c r="J54" s="9">
+        <v>3421</v>
+      </c>
+      <c r="K54" s="9">
+        <v>3120</v>
+      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>[4_1125,3_8999]</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="6"/>
+        <v>1.125899906842624E+16</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="5"/>
+        <v>1.12589990684262E+16</v>
+      </c>
+      <c r="G55" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>11258999068426200</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1125</v>
+      </c>
+      <c r="I55" s="9">
+        <v>8999</v>
+      </c>
+      <c r="J55" s="9">
+        <v>684</v>
+      </c>
+      <c r="K55" s="9">
+        <v>2620</v>
+      </c>
+      <c r="L55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_2048,0_0]</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <f>D15*E15</f>
-        <v>20480</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <f>ROUNDUP(D16,0)</f>
-        <v>20480</v>
-      </c>
-      <c r="G16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>20480</v>
-      </c>
-      <c r="H16">
-        <v>2048</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>[4_2251,3_7998]</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" si="6"/>
+        <v>2.251799813685248E+16</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="5"/>
+        <v>2.25179981368525E+16</v>
+      </c>
+      <c r="G56" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>22517998136852500</v>
+      </c>
+      <c r="H56" s="9">
+        <v>2251</v>
+      </c>
+      <c r="I56" s="9">
+        <v>7998</v>
+      </c>
+      <c r="J56" s="9">
+        <v>1368</v>
+      </c>
+      <c r="K56" s="9">
+        <v>5250</v>
+      </c>
+      <c r="L56" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_4096,0_0]</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <f>D16*E16</f>
-        <v>40960</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9">
-        <f>ROUNDUP(D17,0)</f>
-        <v>40960</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>40960</v>
-      </c>
-      <c r="H17">
-        <v>4096</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_8192,0_0]</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8">
-        <f>D17*E17</f>
-        <v>81920</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9">
-        <f>ROUNDUP(D18,0)</f>
-        <v>81920</v>
-      </c>
-      <c r="G18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>81920</v>
-      </c>
-      <c r="H18">
-        <v>8192</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_1638,0_40]</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <f>D18*E18</f>
-        <v>163840</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9">
-        <f>ROUNDUP(D19,0)</f>
-        <v>163840</v>
-      </c>
-      <c r="G19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>163840</v>
-      </c>
-      <c r="H19">
-        <v>1638</v>
-      </c>
-      <c r="I19" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_3276,0_80]</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <f>D19*E19</f>
-        <v>327680</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9">
-        <f>ROUNDUP(D20,0)</f>
-        <v>327680</v>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>327680</v>
-      </c>
-      <c r="H20">
-        <v>3276</v>
-      </c>
-      <c r="I20" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_6553,0_60]</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8">
-        <f>D20*E20</f>
-        <v>655360</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9">
-        <f>ROUNDUP(D21,0)</f>
-        <v>655360</v>
-      </c>
-      <c r="G21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>655360</v>
-      </c>
-      <c r="H21">
-        <v>6553</v>
-      </c>
-      <c r="I21" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_1310,0_720]</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8">
-        <f>D21*E21</f>
-        <v>1310720</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9">
-        <f>ROUNDUP(D22,0)</f>
-        <v>1310720</v>
-      </c>
-      <c r="G22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1310720</v>
-      </c>
-      <c r="H22">
-        <v>1310</v>
-      </c>
-      <c r="I22" s="12">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_2621,0_440]</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <f>D22*E22</f>
-        <v>2621440</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9">
-        <f>ROUNDUP(D23,0)</f>
-        <v>2621440</v>
-      </c>
-      <c r="G23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2621440</v>
-      </c>
-      <c r="H23">
-        <v>2621</v>
-      </c>
-      <c r="I23" s="12">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_5242,0_880]</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <f>D23*E23</f>
-        <v>5242880</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9">
-        <f>ROUNDUP(D24,0)</f>
-        <v>5242880</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5242880</v>
-      </c>
-      <c r="H24">
-        <v>5242</v>
-      </c>
-      <c r="I24" s="12">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_1048,0_5760]</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <f>D24*E24</f>
-        <v>10485760</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9">
-        <f>ROUNDUP(D25,0)</f>
-        <v>10485760</v>
-      </c>
-      <c r="G25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>10485760</v>
-      </c>
-      <c r="H25">
-        <v>1048</v>
-      </c>
-      <c r="I25" s="12">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_2097,0_1520]</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <f>D25*E25</f>
-        <v>20971520</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9">
-        <f>ROUNDUP(D26,0)</f>
-        <v>20971520</v>
-      </c>
-      <c r="G26" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>20971520</v>
-      </c>
-      <c r="H26">
-        <v>2097</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_4194,0_3040]</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8">
-        <f>D26*E26</f>
-        <v>41943040</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="9">
-        <f>ROUNDUP(D27,0)</f>
-        <v>41943040</v>
-      </c>
-      <c r="G27" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>41943040</v>
-      </c>
-      <c r="H27">
-        <v>4194</v>
-      </c>
-      <c r="I27" s="12">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>[1_8388,0_6080]</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <f>D27*E27</f>
-        <v>83886080</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9">
-        <f>ROUNDUP(D28,0)</f>
-        <v>83886080</v>
-      </c>
-      <c r="G28" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>83886080</v>
-      </c>
-      <c r="H28">
-        <v>8388</v>
-      </c>
-      <c r="I28" s="12">
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_1677,1_7216]</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="8">
-        <f>D28*E28</f>
-        <v>167772160</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9">
-        <f>ROUNDUP(D29,0)</f>
-        <v>167772160</v>
-      </c>
-      <c r="G29" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>167772160</v>
-      </c>
-      <c r="H29">
-        <v>1677</v>
-      </c>
-      <c r="I29" s="12">
-        <v>7216</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_3355,1_4432]</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="8">
-        <f>D29*E29</f>
-        <v>335544320</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9">
-        <f>ROUNDUP(D30,0)</f>
-        <v>335544320</v>
-      </c>
-      <c r="G30" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>335544320</v>
-      </c>
-      <c r="H30">
-        <v>3355</v>
-      </c>
-      <c r="I30" s="12">
-        <v>4432</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_6710,1_8864]</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" s="8">
-        <f>D30*E30</f>
-        <v>671088640</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9">
-        <f>ROUNDUP(D31,0)</f>
-        <v>671088640</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>671088640</v>
-      </c>
-      <c r="H31">
-        <v>6710</v>
-      </c>
-      <c r="I31" s="12">
-        <v>8864</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_1342,1_1772]</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8">
-        <f>D31*E31</f>
-        <v>1342177280</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9">
-        <f>ROUNDUP(D32,0)</f>
-        <v>1342177280</v>
-      </c>
-      <c r="G32" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1342177280</v>
-      </c>
-      <c r="H32">
-        <v>1342</v>
-      </c>
-      <c r="I32" s="12">
-        <v>1772</v>
-      </c>
-      <c r="J32" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_2684,1_3545]</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" s="8">
-        <f>D32*E32</f>
-        <v>2684354560</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9">
-        <f>ROUNDUP(D33,0)</f>
-        <v>2684354560</v>
-      </c>
-      <c r="G33" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2684354560</v>
-      </c>
-      <c r="H33">
-        <v>2684</v>
-      </c>
-      <c r="I33" s="12">
-        <v>3545</v>
-      </c>
-      <c r="J33" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_5368,1_7091]</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8">
-        <f>D33*E33</f>
-        <v>5368709120</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9">
-        <f>ROUNDUP(D34,0)</f>
-        <v>5368709120</v>
-      </c>
-      <c r="G34" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5368709120</v>
-      </c>
-      <c r="H34">
-        <v>5368</v>
-      </c>
-      <c r="I34" s="12">
-        <v>7091</v>
-      </c>
-      <c r="J34" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_1073,1_7418]</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8">
-        <f>D34*E34</f>
-        <v>10737418240</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" s="9">
-        <f>ROUNDUP(D35,0)</f>
-        <v>10737418240</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>10737418240</v>
-      </c>
-      <c r="H35">
-        <v>1073</v>
-      </c>
-      <c r="I35" s="12">
-        <v>7418</v>
-      </c>
-      <c r="J35" s="12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_2147,1_4836]</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8">
-        <f>D35*E35</f>
-        <v>21474836480</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="9">
-        <f>ROUNDUP(D36,0)</f>
-        <v>21474836480</v>
-      </c>
-      <c r="G36" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>21474836480</v>
-      </c>
-      <c r="H36">
-        <v>2147</v>
-      </c>
-      <c r="I36" s="12">
-        <v>4836</v>
-      </c>
-      <c r="J36" s="12">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_4294,1_9672]</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8">
-        <f>D36*E36</f>
-        <v>42949672960</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="9">
-        <f>ROUNDUP(D37,0)</f>
-        <v>42949672960</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>42949672960</v>
-      </c>
-      <c r="H37">
-        <v>4294</v>
-      </c>
-      <c r="I37" s="12">
-        <v>9672</v>
-      </c>
-      <c r="J37" s="12">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_8589,1_9345]</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <f>D37*E37</f>
-        <v>85899345920</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" s="9">
-        <f>ROUNDUP(D38,0)</f>
-        <v>85899345920</v>
-      </c>
-      <c r="G38" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>85899345920</v>
-      </c>
-      <c r="H38">
-        <v>8589</v>
-      </c>
-      <c r="I38" s="12">
-        <v>9345</v>
-      </c>
-      <c r="J38" s="12">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_1717,1_9869]</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8">
-        <f>D38*E38</f>
-        <v>171798691840</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9">
-        <f>ROUNDUP(D39,0)</f>
-        <v>171798691840</v>
-      </c>
-      <c r="G39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>171798691840</v>
-      </c>
-      <c r="H39">
-        <v>1717</v>
-      </c>
-      <c r="I39" s="12">
-        <v>9869</v>
-      </c>
-      <c r="J39" s="12">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_3435,1_9738]</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" s="8">
-        <f>D39*E39</f>
-        <v>343597383680</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" s="9">
-        <f>ROUNDUP(D40,0)</f>
-        <v>343597383680</v>
-      </c>
-      <c r="G40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>343597383680</v>
-      </c>
-      <c r="H40">
-        <v>3435</v>
-      </c>
-      <c r="I40" s="12">
-        <v>9738</v>
-      </c>
-      <c r="J40" s="12">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>[2_6871,1_9476]</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8">
-        <f>D40*E40</f>
-        <v>687194767360</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="9">
-        <f>ROUNDUP(D41,0)</f>
-        <v>687194767360</v>
-      </c>
-      <c r="G41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>687194767360</v>
-      </c>
-      <c r="H41">
-        <v>6871</v>
-      </c>
-      <c r="I41" s="12">
-        <v>9476</v>
-      </c>
-      <c r="J41" s="12">
-        <v>7360</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_1374,2_3895]</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8">
-        <f>D41*E41</f>
-        <v>1374389534720</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" s="9">
-        <f>ROUNDUP(D42,0)</f>
-        <v>1374389534720</v>
-      </c>
-      <c r="G42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1374389534720</v>
-      </c>
-      <c r="H42">
-        <v>1374</v>
-      </c>
-      <c r="I42" s="12">
-        <v>3895</v>
-      </c>
-      <c r="J42" s="12">
-        <v>3472</v>
-      </c>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_2748,2_7790]</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43" s="8">
-        <f>D42*E42</f>
-        <v>2748779069440</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="9">
-        <f>ROUNDUP(D43,0)</f>
-        <v>2748779069440</v>
-      </c>
-      <c r="G43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2748779069440</v>
-      </c>
-      <c r="H43">
-        <v>2748</v>
-      </c>
-      <c r="I43" s="12">
-        <v>7790</v>
-      </c>
-      <c r="J43" s="12">
-        <v>6944</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_5497,2_5581]</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" s="8">
-        <f>D43*E43</f>
-        <v>5497558138880</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" s="9">
-        <f>ROUNDUP(D44,0)</f>
-        <v>5497558138880</v>
-      </c>
-      <c r="G44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5497558138880</v>
-      </c>
-      <c r="H44">
-        <v>5497</v>
-      </c>
-      <c r="I44" s="12">
-        <v>5581</v>
-      </c>
-      <c r="J44" s="12">
-        <v>3888</v>
-      </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_1099,2_5116]</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" s="8">
-        <f>D44*E44</f>
-        <v>10995116277760</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" s="9">
-        <f>ROUNDUP(D45,0)</f>
-        <v>10995116277760</v>
-      </c>
-      <c r="G45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>10995116277760</v>
-      </c>
-      <c r="H45">
-        <v>1099</v>
-      </c>
-      <c r="I45" s="12">
-        <v>5116</v>
-      </c>
-      <c r="J45" s="12">
-        <v>2777</v>
-      </c>
-      <c r="K45" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_2199,2_232]</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" s="8">
-        <f>D45*E45</f>
-        <v>21990232555520</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="9">
-        <f>ROUNDUP(D46,0)</f>
-        <v>21990232555520</v>
-      </c>
-      <c r="G46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>21990232555520</v>
-      </c>
-      <c r="H46">
-        <v>2199</v>
-      </c>
-      <c r="I46" s="12">
-        <v>232</v>
-      </c>
-      <c r="J46" s="12">
-        <v>5555</v>
-      </c>
-      <c r="K46" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_4398,2_465]</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8">
-        <f>D46*E46</f>
-        <v>43980465111040</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" s="9">
-        <f>ROUNDUP(D47,0)</f>
-        <v>43980465111040</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>43980465111040</v>
-      </c>
-      <c r="H47">
-        <v>4398</v>
-      </c>
-      <c r="I47" s="12">
-        <v>465</v>
-      </c>
-      <c r="J47" s="12">
-        <v>1110</v>
-      </c>
-      <c r="K47" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_8796,2_930]</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" s="8">
-        <f>D47*E47</f>
-        <v>87960930222080</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="9">
-        <f>ROUNDUP(D48,0)</f>
-        <v>87960930222080</v>
-      </c>
-      <c r="G48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>87960930222080</v>
-      </c>
-      <c r="H48">
-        <v>8796</v>
-      </c>
-      <c r="I48" s="12">
-        <v>930</v>
-      </c>
-      <c r="J48" s="12">
-        <v>2220</v>
-      </c>
-      <c r="K48" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_1759,2_2186]</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" s="8">
-        <f>D48*E48</f>
-        <v>175921860444160</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" s="9">
-        <f>ROUNDUP(D49,0)</f>
-        <v>175921860444160</v>
-      </c>
-      <c r="G49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>175921860444160</v>
-      </c>
-      <c r="H49">
-        <v>1759</v>
-      </c>
-      <c r="I49" s="12">
-        <v>2186</v>
-      </c>
-      <c r="J49" s="12">
-        <v>444</v>
-      </c>
-      <c r="K49" s="12">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_3518,2_4372]</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8">
-        <f>D49*E49</f>
-        <v>351843720888320</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" s="9">
-        <f>ROUNDUP(D50,0)</f>
-        <v>351843720888320</v>
-      </c>
-      <c r="G50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>351843720888320</v>
-      </c>
-      <c r="H50">
-        <v>3518</v>
-      </c>
-      <c r="I50" s="12">
-        <v>4372</v>
-      </c>
-      <c r="J50" s="12">
-        <v>888</v>
-      </c>
-      <c r="K50" s="12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_7036,2_8744]</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51" s="8">
-        <f>D50*E50</f>
-        <v>703687441776640</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" s="9">
-        <f>ROUNDUP(D51,0)</f>
-        <v>703687441776640</v>
-      </c>
-      <c r="G51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>703687441776640</v>
-      </c>
-      <c r="H51">
-        <v>7036</v>
-      </c>
-      <c r="I51" s="12">
-        <v>8744</v>
-      </c>
-      <c r="J51" s="12">
-        <v>1776</v>
-      </c>
-      <c r="K51" s="12">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_1407,2_3748]</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52" s="8">
-        <f>D51*E51</f>
-        <v>1407374883553280</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" s="9">
-        <f>ROUNDUP(D52,0)</f>
-        <v>1407374883553280</v>
-      </c>
-      <c r="G52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1407374883553280</v>
-      </c>
-      <c r="H52">
-        <v>1407</v>
-      </c>
-      <c r="I52" s="12">
-        <v>3748</v>
-      </c>
-      <c r="J52" s="12">
-        <v>8355</v>
-      </c>
-      <c r="K52" s="12">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_2814,2_7497]</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53" s="8">
-        <f>D52*E52</f>
-        <v>2814749767106560</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" s="9">
-        <f>ROUNDUP(D53,0)</f>
-        <v>2814749767106560</v>
-      </c>
-      <c r="G53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2814749767106560</v>
-      </c>
-      <c r="H53">
-        <v>2814</v>
-      </c>
-      <c r="I53" s="12">
-        <v>7497</v>
-      </c>
-      <c r="J53" s="12">
-        <v>6710</v>
-      </c>
-      <c r="K53" s="12">
-        <v>6560</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>[3_5629,2_4995]</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" s="8">
-        <f>D53*E53</f>
-        <v>5629499534213120</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" s="9">
-        <f>ROUNDUP(D54,0)</f>
-        <v>5629499534213120</v>
-      </c>
-      <c r="G54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5629499534213120</v>
-      </c>
-      <c r="H54">
-        <v>5629</v>
-      </c>
-      <c r="I54" s="12">
-        <v>4995</v>
-      </c>
-      <c r="J54" s="12">
-        <v>3421</v>
-      </c>
-      <c r="K54" s="12">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>[4_1125,3_8999]</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55" s="8">
-        <f>D54*E54</f>
-        <v>1.125899906842624E+16</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" s="9">
-        <f>ROUNDUP(D55,0)</f>
-        <v>1.12589990684262E+16</v>
-      </c>
-      <c r="G55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>11258999068426200</v>
-      </c>
-      <c r="H55">
-        <v>1125</v>
-      </c>
-      <c r="I55" s="12">
-        <v>8999</v>
-      </c>
-      <c r="J55" s="12">
-        <v>684</v>
-      </c>
-      <c r="K55" s="12">
-        <v>2620</v>
-      </c>
-      <c r="L55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>[4_2251,3_7998]</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56" s="8">
-        <f>D55*E55</f>
-        <v>2.251799813685248E+16</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" s="9">
-        <f>ROUNDUP(D56,0)</f>
-        <v>2.25179981368525E+16</v>
-      </c>
-      <c r="G56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>22517998136852500</v>
-      </c>
-      <c r="H56">
-        <v>2251</v>
-      </c>
-      <c r="I56" s="12">
-        <v>7998</v>
-      </c>
-      <c r="J56" s="12">
-        <v>1368</v>
-      </c>
-      <c r="K56" s="12">
-        <v>5250</v>
-      </c>
-      <c r="L56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f>IF(C57&gt;1,"["&amp;C57-1&amp;"_"&amp;H57&amp;","&amp;C57-2&amp;"_"&amp;I57&amp;"]","[0-"&amp;H57&amp;"]")</f>
         <v>[4_4503,3_5996]</v>
       </c>
       <c r="C57">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D57" s="8">
-        <f>D56*E56</f>
+        <f t="shared" si="6"/>
         <v>4.503599627370496E+16</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" s="9">
-        <f>ROUNDUP(D57,0)</f>
+        <f t="shared" si="5"/>
         <v>4.5035996273705E+16</v>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45035996273705000</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="9">
         <v>4503</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="9">
         <v>5996</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="9">
         <v>2737</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="9">
         <v>500</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_9007,3_1992]</v>
       </c>
       <c r="C58">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D58" s="8">
-        <f>D57*E57</f>
+        <f t="shared" si="6"/>
         <v>9.007199254740992E+16</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" s="9">
-        <f>ROUNDUP(D58,0)</f>
+        <f t="shared" si="5"/>
         <v>9.0071992547409904E+16</v>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90071992547409900</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="9">
         <v>9007</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="9">
         <v>1992</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="9">
         <v>5474</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="9">
         <v>990</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="12"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_1801,3_4398]</v>
       </c>
       <c r="C59">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D59" s="8">
-        <f>D58*E58</f>
+        <f t="shared" si="6"/>
         <v>1.8014398509481984E+17</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" s="9">
-        <f>ROUNDUP(D59,0)</f>
+        <f t="shared" si="5"/>
         <v>1.8014398509482E+17</v>
       </c>
       <c r="G59" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180143985094820000</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="9">
         <v>1801</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="9">
         <v>4398</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="9">
         <v>5094</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="9">
         <v>8200</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="12"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_3602,3_8797]</v>
       </c>
       <c r="C60">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D60" s="8">
-        <f>D59*E59</f>
+        <f t="shared" si="6"/>
         <v>3.6028797018963968E+17</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" s="9">
-        <f>ROUNDUP(D60,0)</f>
+        <f t="shared" si="5"/>
         <v>3.6028797018964E+17</v>
       </c>
       <c r="G60" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>360287970189640000</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="9">
         <v>3602</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="9">
         <v>8797</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="9">
         <v>189</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="9">
         <v>6400</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="12"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_7205,3_7594]</v>
       </c>
       <c r="C61">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D61" s="8">
-        <f>D60*E60</f>
+        <f t="shared" si="6"/>
         <v>7.2057594037927936E+17</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" s="9">
-        <f>ROUNDUP(D61,0)</f>
+        <f t="shared" si="5"/>
         <v>7.2057594037927898E+17</v>
       </c>
       <c r="G61" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>720575940379279000</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="9">
         <v>7205</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="9">
         <v>7594</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="9">
         <v>379</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="9">
         <v>2790</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="12"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_1441,3_1518]</v>
       </c>
       <c r="C62">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D62" s="8">
-        <f>D61*E61</f>
+        <f t="shared" si="6"/>
         <v>1.4411518807585587E+18</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" s="9">
-        <f>ROUNDUP(D62,0)</f>
+        <f t="shared" si="5"/>
         <v>1.44115188075856E+18</v>
       </c>
       <c r="G62" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1441151880758560000</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="9">
         <v>1441</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="9">
         <v>1518</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="9">
         <v>8075</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="9">
         <v>8560</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="12"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_2882,3_3037]</v>
       </c>
       <c r="C63">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D63" s="8">
-        <f>D62*E62</f>
+        <f t="shared" si="6"/>
         <v>2.8823037615171174E+18</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" s="9">
-        <f>ROUNDUP(D63,0)</f>
+        <f t="shared" si="5"/>
         <v>2.88230376151712E+18</v>
       </c>
       <c r="G63" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2882303761517120000</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="9">
         <v>2882</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="9">
         <v>3037</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="9">
         <v>6151</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="9">
         <v>7120</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="12"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_5764,3_6075]</v>
       </c>
       <c r="C64">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D64" s="8">
-        <f>D63*E63</f>
+        <f t="shared" si="6"/>
         <v>5.7646075230342349E+18</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" s="9">
-        <f>ROUNDUP(D64,0)</f>
+        <f t="shared" si="5"/>
         <v>5.7646075230342298E+18</v>
       </c>
       <c r="G64" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5764607523034230000</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="9">
         <v>5764</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="9">
         <v>6075</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="9">
         <v>2303</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="9">
         <v>4230</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="12"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_1152,3_9215]</v>
       </c>
       <c r="C65">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D65" s="8">
-        <f>D64*E64</f>
+        <f t="shared" si="6"/>
         <v>1.152921504606847E+19</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" s="9">
-        <f>ROUNDUP(D65,0)</f>
+        <f t="shared" si="5"/>
         <v>1.15292150460685E+19</v>
       </c>
       <c r="G65" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11529215046068500000</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="9">
         <v>1152</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="9">
         <v>9215</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="9">
         <v>460</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="9">
         <v>6850</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="12"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_2305,3_8430]</v>
       </c>
       <c r="C66">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D66" s="8">
-        <f>D65*E65</f>
+        <f t="shared" si="6"/>
         <v>2.305843009213694E+19</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66" s="9">
-        <f>ROUNDUP(D66,0)</f>
+        <f t="shared" si="5"/>
         <v>2.3058430092136899E+19</v>
       </c>
       <c r="G66" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23058430092136900000</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="9">
         <v>2305</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="9">
         <v>8430</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="9">
         <v>921</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="9">
         <v>3690</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="12"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_4611,3_6860]</v>
       </c>
       <c r="C67">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D67" s="8">
-        <f>D66*E66</f>
+        <f t="shared" si="6"/>
         <v>4.6116860184273879E+19</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67" s="9">
-        <f>ROUNDUP(D67,0)</f>
+        <f t="shared" si="5"/>
         <v>4.6116860184273904E+19</v>
       </c>
       <c r="G67" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46116860184273900000</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="9">
         <v>4611</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="9">
         <v>6860</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="9">
         <v>1842</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="9">
         <v>7390</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="12"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[4_9223,3_3720]</v>
       </c>
       <c r="C68">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D68" s="8">
-        <f>D67*E67</f>
+        <f t="shared" si="6"/>
         <v>9.2233720368547758E+19</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" s="9">
-        <f>ROUNDUP(D68,0)</f>
+        <f t="shared" si="5"/>
         <v>9.2233720368547807E+19</v>
       </c>
       <c r="G68" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92233720368547800000</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="9">
         <v>9223</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="9">
         <v>3720</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="9">
         <v>3685</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68" s="9">
         <v>4780</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="12"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[5_1844,4_6744]</v>
       </c>
       <c r="C69">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D69" s="8">
-        <f>D68*E68</f>
+        <f t="shared" si="6"/>
         <v>1.8446744073709552E+20</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" s="9">
-        <f>ROUNDUP(D69,0)</f>
+        <f t="shared" ref="F69:F79" si="7">ROUNDUP(D69,0)</f>
         <v>1.8446744073709601E+20</v>
       </c>
       <c r="G69" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>184467440737096000000</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="9">
         <v>1844</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="9">
         <v>6744</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="9">
         <v>737</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69" s="9">
         <v>960</v>
       </c>
-      <c r="L69" s="12">
+      <c r="L69" s="9">
         <v>0</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="12"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
-        <f t="shared" ref="B70:B79" si="2">IF(C70&gt;1,"["&amp;C70-1&amp;"_"&amp;H70&amp;","&amp;C70-2&amp;"_"&amp;I70&amp;"]","[0-"&amp;H70&amp;"]")</f>
+        <f t="shared" ref="B70:B79" si="8">IF(C70&gt;1,"["&amp;C70-1&amp;"_"&amp;H70&amp;","&amp;C70-2&amp;"_"&amp;I70&amp;"]","[0-"&amp;H70&amp;"]")</f>
         <v>[5_3689,4_3488]</v>
       </c>
       <c r="C70">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D70" s="8">
-        <f>D69*E69</f>
+        <f t="shared" ref="D70:D79" si="9">D69*E69</f>
         <v>3.6893488147419103E+20</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70" s="9">
-        <f>ROUNDUP(D70,0)</f>
+        <f t="shared" si="7"/>
         <v>3.6893488147419103E+20</v>
       </c>
       <c r="G70" s="9" t="str">
-        <f t="shared" ref="G70:G79" si="3">TEXT(F70,"0")</f>
+        <f t="shared" ref="G70:G79" si="10">TEXT(F70,"0")</f>
         <v>368934881474191000000</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="9">
         <v>3689</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="9">
         <v>3488</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="9">
         <v>1474</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="9">
         <v>1910</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="9">
         <v>0</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="12"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_7378,4_6976]</v>
       </c>
       <c r="C71">
+        <f t="shared" ref="C71:C79" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
         <v>6</v>
       </c>
       <c r="D71" s="8">
-        <f>D70*E70</f>
+        <f t="shared" si="9"/>
         <v>7.3786976294838206E+20</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71" s="9">
-        <f>ROUNDUP(D71,0)</f>
+        <f t="shared" si="7"/>
         <v>7.3786976294838206E+20</v>
       </c>
       <c r="G71" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>737869762948382000000</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="9">
         <v>7378</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="9">
         <v>6976</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="9">
         <v>2948</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K71" s="9">
         <v>3820</v>
       </c>
-      <c r="L71" s="12">
+      <c r="L71" s="9">
         <v>0</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="12"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_1475,4_7395]</v>
       </c>
       <c r="C72">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D72" s="8">
-        <f>D71*E71</f>
+        <f t="shared" si="9"/>
         <v>1.4757395258967641E+21</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72" s="9">
-        <f>ROUNDUP(D72,0)</f>
+        <f t="shared" si="7"/>
         <v>1.4757395258967599E+21</v>
       </c>
       <c r="G72" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1475739525896760000000</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="9">
         <v>1475</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="9">
         <v>7395</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="9">
         <v>2589</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="9">
         <v>6760</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="9">
         <v>0</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="12"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_2951,4_4790]</v>
       </c>
       <c r="C73">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D73" s="8">
-        <f>D72*E72</f>
+        <f t="shared" si="9"/>
         <v>2.9514790517935283E+21</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73" s="9">
-        <f>ROUNDUP(D73,0)</f>
+        <f t="shared" si="7"/>
         <v>2.9514790517935298E+21</v>
       </c>
       <c r="G73" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2951479051793530000000</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="9">
         <v>2951</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="9">
         <v>4790</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="9">
         <v>5179</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="9">
         <v>3530</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L73" s="9">
         <v>0</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="12"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_5902,4_9581]</v>
       </c>
       <c r="C74">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D74" s="8">
-        <f>D73*E73</f>
+        <f t="shared" si="9"/>
         <v>5.9029581035870565E+21</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74" s="9">
-        <f>ROUNDUP(D74,0)</f>
+        <f t="shared" si="7"/>
         <v>5.9029581035870597E+21</v>
       </c>
       <c r="G74" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>5902958103587060000000</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="9">
         <v>5902</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="9">
         <v>9581</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="9">
         <v>358</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="9">
         <v>7060</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="9">
         <v>0</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="12"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_1180,4_5916]</v>
       </c>
       <c r="C75">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D75" s="8">
-        <f>D74*E74</f>
+        <f t="shared" si="9"/>
         <v>1.1805916207174113E+22</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75" s="9">
-        <f>ROUNDUP(D75,0)</f>
+        <f t="shared" si="7"/>
         <v>1.18059162071741E+22</v>
       </c>
       <c r="G75" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>11805916207174100000000</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="9">
         <v>1180</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="9">
         <v>5916</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="9">
         <v>2071</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="9">
         <v>7410</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="9">
         <v>0</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="12"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_2361,4_1832]</v>
       </c>
       <c r="C76">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D76" s="8">
-        <f>D75*E75</f>
+        <f t="shared" si="9"/>
         <v>2.3611832414348226E+22</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76" s="9">
-        <f>ROUNDUP(D76,0)</f>
+        <f t="shared" si="7"/>
         <v>2.3611832414348201E+22</v>
       </c>
       <c r="G76" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>23611832414348200000000</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="9">
         <v>2361</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="9">
         <v>1832</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="9">
         <v>4143</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="9">
         <v>4820</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="9">
         <v>0</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="12"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_4722,4_3664]</v>
       </c>
       <c r="C77">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D77" s="8">
-        <f>D76*E76</f>
+        <f t="shared" si="9"/>
         <v>4.7223664828696452E+22</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77" s="9">
-        <f>ROUNDUP(D77,0)</f>
+        <f t="shared" si="7"/>
         <v>4.7223664828696502E+22</v>
       </c>
       <c r="G77" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>47223664828696500000000</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="9">
         <v>4722</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="9">
         <v>3664</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="9">
         <v>8286</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K77" s="9">
         <v>9650</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="9">
         <v>0</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="12"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_9444,4_7329]</v>
       </c>
       <c r="C78">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D78" s="8">
-        <f>D77*E77</f>
+        <f t="shared" si="9"/>
         <v>9.4447329657392904E+22</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="F78" s="9">
-        <f>ROUNDUP(D78,0)</f>
+        <f t="shared" si="7"/>
         <v>9.4447329657392904E+22</v>
       </c>
       <c r="G78" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>94447329657392900000000</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="9">
         <v>9444</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="9">
         <v>7329</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="9">
         <v>6573</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78" s="9">
         <v>9290</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="9">
         <v>0</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="12"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[5_1888,4_9465]</v>
       </c>
       <c r="C79">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D79" s="8">
-        <f>D78*E78</f>
+        <f t="shared" si="9"/>
         <v>1.8889465931478581E+23</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79" s="9">
-        <f>ROUNDUP(D79,0)</f>
+        <f t="shared" si="7"/>
         <v>1.8889465931478601E+23</v>
       </c>
       <c r="G79" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>188894659314786000000000</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="9">
         <v>1888</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="9">
         <v>9465</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="9">
         <v>9314</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="9">
         <v>7860</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="9">
         <v>0</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="9">
         <v>0</v>
       </c>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="2"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TMaidShop" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>ListSpliter:","</t>
   </si>
   <si>
@@ -121,229 +118,233 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0-10]</t>
-  </si>
-  <si>
-    <t>[0-20]</t>
-  </si>
-  <si>
-    <t>[0-40]</t>
-  </si>
-  <si>
-    <t>[0-80]</t>
-  </si>
-  <si>
-    <t>[0-160]</t>
-  </si>
-  <si>
-    <t>[0-320]</t>
-  </si>
-  <si>
-    <t>[0-640]</t>
-  </si>
-  <si>
-    <t>[0-1280]</t>
-  </si>
-  <si>
-    <t>[0-2560]</t>
-  </si>
-  <si>
-    <t>[0-5120]</t>
-  </si>
-  <si>
-    <t>[1_1024,0_0]</t>
-  </si>
-  <si>
-    <t>[1_2048,0_0]</t>
-  </si>
-  <si>
-    <t>[1_4096,0_0]</t>
-  </si>
-  <si>
-    <t>[1_8192,0_0]</t>
-  </si>
-  <si>
-    <t>[1_1638,0_40]</t>
-  </si>
-  <si>
-    <t>[1_3276,0_80]</t>
-  </si>
-  <si>
-    <t>[1_6553,0_60]</t>
-  </si>
-  <si>
-    <t>[1_1310,0_720]</t>
-  </si>
-  <si>
-    <t>[1_2621,0_440]</t>
-  </si>
-  <si>
-    <t>[1_5242,0_880]</t>
-  </si>
-  <si>
-    <t>[1_1048,0_5760]</t>
-  </si>
-  <si>
-    <t>[1_2097,0_1520]</t>
-  </si>
-  <si>
-    <t>[1_4194,0_3040]</t>
-  </si>
-  <si>
-    <t>[1_8388,0_6080]</t>
-  </si>
-  <si>
-    <t>[2_1677,1_7216]</t>
-  </si>
-  <si>
-    <t>[2_3355,1_4432]</t>
-  </si>
-  <si>
-    <t>[2_6710,1_8864]</t>
-  </si>
-  <si>
-    <t>[2_1342,1_1772]</t>
-  </si>
-  <si>
-    <t>[2_2684,1_3545]</t>
-  </si>
-  <si>
-    <t>[2_5368,1_7091]</t>
-  </si>
-  <si>
-    <t>[2_1073,1_7418]</t>
-  </si>
-  <si>
-    <t>[2_2147,1_4836]</t>
-  </si>
-  <si>
-    <t>[2_4294,1_9672]</t>
-  </si>
-  <si>
-    <t>[2_8589,1_9345]</t>
-  </si>
-  <si>
-    <t>[2_1717,1_9869]</t>
-  </si>
-  <si>
-    <t>[2_3435,1_9738]</t>
-  </si>
-  <si>
-    <t>[2_6871,1_9476]</t>
-  </si>
-  <si>
-    <t>[3_1374,2_3895]</t>
-  </si>
-  <si>
-    <t>[3_2748,2_7790]</t>
-  </si>
-  <si>
-    <t>[3_5497,2_5581]</t>
-  </si>
-  <si>
-    <t>[3_1099,2_5116]</t>
-  </si>
-  <si>
-    <t>[3_2199,2_232]</t>
-  </si>
-  <si>
-    <t>[3_4398,2_465]</t>
-  </si>
-  <si>
-    <t>[3_8796,2_930]</t>
-  </si>
-  <si>
-    <t>[3_1759,2_2186]</t>
-  </si>
-  <si>
-    <t>[3_3518,2_4372]</t>
-  </si>
-  <si>
-    <t>[3_7036,2_8744]</t>
-  </si>
-  <si>
-    <t>[3_1407,2_3748]</t>
-  </si>
-  <si>
-    <t>[3_2814,2_7497]</t>
-  </si>
-  <si>
-    <t>[3_5629,2_4995]</t>
-  </si>
-  <si>
-    <t>[4_1125,3_8999]</t>
-  </si>
-  <si>
-    <t>[4_2251,3_7998]</t>
-  </si>
-  <si>
-    <t>[4_4503,3_5996]</t>
-  </si>
-  <si>
-    <t>[4_9007,3_1992]</t>
-  </si>
-  <si>
-    <t>[4_1801,3_4398]</t>
-  </si>
-  <si>
-    <t>[4_3602,3_8797]</t>
-  </si>
-  <si>
-    <t>[4_7205,3_7594]</t>
-  </si>
-  <si>
-    <t>[4_1441,3_1518]</t>
-  </si>
-  <si>
-    <t>[4_2882,3_3037]</t>
-  </si>
-  <si>
-    <t>[4_5764,3_6075]</t>
-  </si>
-  <si>
-    <t>[4_1152,3_9215]</t>
-  </si>
-  <si>
-    <t>[4_2305,3_8430]</t>
-  </si>
-  <si>
-    <t>[4_4611,3_6860]</t>
-  </si>
-  <si>
-    <t>[4_9223,3_3720]</t>
-  </si>
-  <si>
-    <t>[5_1844,4_6744]</t>
-  </si>
-  <si>
-    <t>[5_3689,4_3488]</t>
-  </si>
-  <si>
-    <t>[5_7378,4_6976]</t>
-  </si>
-  <si>
-    <t>[5_1475,4_7395]</t>
-  </si>
-  <si>
-    <t>[5_2951,4_4790]</t>
-  </si>
-  <si>
-    <t>[5_5902,4_9581]</t>
-  </si>
-  <si>
-    <t>[5_1180,4_5916]</t>
-  </si>
-  <si>
-    <t>[5_2361,4_1832]</t>
-  </si>
-  <si>
-    <t>[5_4722,4_3664]</t>
-  </si>
-  <si>
-    <t>[5_9444,4_7329]</t>
-  </si>
-  <si>
-    <t>[5_1888,4_9465]</t>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>0-40</t>
+  </si>
+  <si>
+    <t>0-80</t>
+  </si>
+  <si>
+    <t>0-160</t>
+  </si>
+  <si>
+    <t>0-320</t>
+  </si>
+  <si>
+    <t>0-640</t>
+  </si>
+  <si>
+    <t>0-1280</t>
+  </si>
+  <si>
+    <t>0-2560</t>
+  </si>
+  <si>
+    <t>0-5120</t>
+  </si>
+  <si>
+    <t>1_1024,0_0</t>
+  </si>
+  <si>
+    <t>1_2048,0_0</t>
+  </si>
+  <si>
+    <t>1_4096,0_0</t>
+  </si>
+  <si>
+    <t>1_8192,0_0</t>
+  </si>
+  <si>
+    <t>1_1638,0_40</t>
+  </si>
+  <si>
+    <t>1_3276,0_80</t>
+  </si>
+  <si>
+    <t>1_6553,0_60</t>
+  </si>
+  <si>
+    <t>1_1310,0_720</t>
+  </si>
+  <si>
+    <t>1_2621,0_440</t>
+  </si>
+  <si>
+    <t>1_5242,0_880</t>
+  </si>
+  <si>
+    <t>1_1048,0_5760</t>
+  </si>
+  <si>
+    <t>1_2097,0_1520</t>
+  </si>
+  <si>
+    <t>1_4194,0_3040</t>
+  </si>
+  <si>
+    <t>1_8388,0_6080</t>
+  </si>
+  <si>
+    <t>2_1677,1_7216</t>
+  </si>
+  <si>
+    <t>2_3355,1_4432</t>
+  </si>
+  <si>
+    <t>2_6710,1_8864</t>
+  </si>
+  <si>
+    <t>2_1342,1_1772</t>
+  </si>
+  <si>
+    <t>2_2684,1_3545</t>
+  </si>
+  <si>
+    <t>2_5368,1_7091</t>
+  </si>
+  <si>
+    <t>2_1073,1_7418</t>
+  </si>
+  <si>
+    <t>2_2147,1_4836</t>
+  </si>
+  <si>
+    <t>2_4294,1_9672</t>
+  </si>
+  <si>
+    <t>2_8589,1_9345</t>
+  </si>
+  <si>
+    <t>2_1717,1_9869</t>
+  </si>
+  <si>
+    <t>2_3435,1_9738</t>
+  </si>
+  <si>
+    <t>2_6871,1_9476</t>
+  </si>
+  <si>
+    <t>3_1374,2_3895</t>
+  </si>
+  <si>
+    <t>3_2748,2_7790</t>
+  </si>
+  <si>
+    <t>3_5497,2_5581</t>
+  </si>
+  <si>
+    <t>3_1099,2_5116</t>
+  </si>
+  <si>
+    <t>3_2199,2_232</t>
+  </si>
+  <si>
+    <t>3_4398,2_465</t>
+  </si>
+  <si>
+    <t>3_8796,2_930</t>
+  </si>
+  <si>
+    <t>3_1759,2_2186</t>
+  </si>
+  <si>
+    <t>3_3518,2_4372</t>
+  </si>
+  <si>
+    <t>3_7036,2_8744</t>
+  </si>
+  <si>
+    <t>3_1407,2_3748</t>
+  </si>
+  <si>
+    <t>3_2814,2_7497</t>
+  </si>
+  <si>
+    <t>3_5629,2_4995</t>
+  </si>
+  <si>
+    <t>4_1125,3_8999</t>
+  </si>
+  <si>
+    <t>4_2251,3_7998</t>
+  </si>
+  <si>
+    <t>4_4503,3_5996</t>
+  </si>
+  <si>
+    <t>4_9007,3_1992</t>
+  </si>
+  <si>
+    <t>4_1801,3_4398</t>
+  </si>
+  <si>
+    <t>4_3602,3_8797</t>
+  </si>
+  <si>
+    <t>4_7205,3_7594</t>
+  </si>
+  <si>
+    <t>4_1441,3_1518</t>
+  </si>
+  <si>
+    <t>4_2882,3_3037</t>
+  </si>
+  <si>
+    <t>4_5764,3_6075</t>
+  </si>
+  <si>
+    <t>4_1152,3_9215</t>
+  </si>
+  <si>
+    <t>4_2305,3_8430</t>
+  </si>
+  <si>
+    <t>4_4611,3_6860</t>
+  </si>
+  <si>
+    <t>4_9223,3_3720</t>
+  </si>
+  <si>
+    <t>5_1844,4_6744</t>
+  </si>
+  <si>
+    <t>5_3689,4_3488</t>
+  </si>
+  <si>
+    <t>5_7378,4_6976</t>
+  </si>
+  <si>
+    <t>5_1475,4_7395</t>
+  </si>
+  <si>
+    <t>5_2951,4_4790</t>
+  </si>
+  <si>
+    <t>5_5902,4_9581</t>
+  </si>
+  <si>
+    <t>5_1180,4_5916</t>
+  </si>
+  <si>
+    <t>5_2361,4_1832</t>
+  </si>
+  <si>
+    <t>5_4722,4_3664</t>
+  </si>
+  <si>
+    <t>5_9444,4_7329</t>
+  </si>
+  <si>
+    <t>5_1888,4_9465</t>
   </si>
 </sst>
 </file>
@@ -353,7 +354,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -422,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,7 +463,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -843,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -852,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -861,7 +865,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2359,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G79"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2387,10 +2391,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
@@ -2409,8 +2413,8 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
-        <f>IF(C5&gt;1,"["&amp;C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5&amp;"]","[0-"&amp;H5&amp;"]")</f>
-        <v>[0-10]</v>
+        <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0-"&amp;H5)</f>
+        <v>0-10</v>
       </c>
       <c r="C5">
         <f>COUNTIF(H5:W5,"&gt;-1")</f>
@@ -2444,15 +2448,15 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <f t="shared" ref="B6:B69" si="1">IF(C6&gt;1,"["&amp;C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6&amp;"]","[0-"&amp;H6&amp;"]")</f>
-        <v>[0-20]</v>
+        <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0-"&amp;H6)</f>
+        <v>0-20</v>
       </c>
       <c r="C6">
         <f>COUNTIF(H6:W6,"&gt;-1")</f>
         <v>1</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" ref="D6:D37" si="2">D5*E5</f>
+        <f t="shared" ref="D6:D37" si="1">D5*E5</f>
         <v>20</v>
       </c>
       <c r="E6">
@@ -2463,7 +2467,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="shared" ref="G6:G69" si="3">TEXT(F6,"0")</f>
+        <f t="shared" ref="G6:G69" si="2">TEXT(F6,"0")</f>
         <v>20</v>
       </c>
       <c r="H6" s="9">
@@ -2480,15 +2484,15 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>[0-40]</v>
+        <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0-"&amp;H7)</f>
+        <v>0-40</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
         <v>1</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="E7">
@@ -2499,7 +2503,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="H7" s="9">
@@ -2516,15 +2520,15 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
+        <f t="shared" si="3"/>
+        <v>0-80</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>[0-80]</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="E8">
@@ -2535,7 +2539,7 @@
         <v>80</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="H8" s="9">
@@ -2552,15 +2556,15 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
+        <f t="shared" si="3"/>
+        <v>0-160</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>[0-160]</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="E9">
@@ -2571,7 +2575,7 @@
         <v>160</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H9" s="9">
@@ -2588,15 +2592,15 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
+        <f t="shared" si="3"/>
+        <v>0-320</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>[0-320]</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="E10">
@@ -2607,7 +2611,7 @@
         <v>320</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="H10" s="9">
@@ -2624,15 +2628,15 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
+        <f t="shared" si="3"/>
+        <v>0-640</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>[0-640]</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="2"/>
         <v>640</v>
       </c>
       <c r="E11">
@@ -2643,7 +2647,7 @@
         <v>640</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>640</v>
       </c>
       <c r="H11" s="9">
@@ -2660,15 +2664,15 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
+        <f t="shared" si="3"/>
+        <v>0-1280</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>[0-1280]</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="2"/>
         <v>1280</v>
       </c>
       <c r="E12">
@@ -2679,7 +2683,7 @@
         <v>1280</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1280</v>
       </c>
       <c r="H12" s="9">
@@ -2696,15 +2700,15 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
+        <f t="shared" si="3"/>
+        <v>0-2560</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>[0-2560]</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="2"/>
         <v>2560</v>
       </c>
       <c r="E13">
@@ -2715,7 +2719,7 @@
         <v>2560</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2560</v>
       </c>
       <c r="H13" s="9">
@@ -2732,15 +2736,15 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
+        <f t="shared" si="3"/>
+        <v>0-5120</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>[0-5120]</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="2"/>
         <v>5120</v>
       </c>
       <c r="E14">
@@ -2751,7 +2755,7 @@
         <v>5120</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5120</v>
       </c>
       <c r="H14" s="9">
@@ -2768,15 +2772,15 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1024,0_0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>[1_1024,0_0]</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="2"/>
         <v>10240</v>
       </c>
       <c r="E15">
@@ -2787,7 +2791,7 @@
         <v>10240</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10240</v>
       </c>
       <c r="H15" s="9">
@@ -2806,15 +2810,15 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2048,0_0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>[1_2048,0_0]</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="2"/>
         <v>20480</v>
       </c>
       <c r="E16">
@@ -2825,7 +2829,7 @@
         <v>20480</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20480</v>
       </c>
       <c r="H16" s="9">
@@ -2844,15 +2848,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
+        <f t="shared" si="3"/>
+        <v>1_4096,0_0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>[1_4096,0_0]</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="2"/>
         <v>40960</v>
       </c>
       <c r="E17">
@@ -2863,7 +2867,7 @@
         <v>40960</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40960</v>
       </c>
       <c r="H17" s="9">
@@ -2882,15 +2886,15 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
+        <f t="shared" si="3"/>
+        <v>1_8192,0_0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>[1_8192,0_0]</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="2"/>
         <v>81920</v>
       </c>
       <c r="E18">
@@ -2901,7 +2905,7 @@
         <v>81920</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81920</v>
       </c>
       <c r="H18" s="9">
@@ -2920,15 +2924,15 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1638,0_40</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>[1_1638,0_40]</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="2"/>
         <v>163840</v>
       </c>
       <c r="E19">
@@ -2939,7 +2943,7 @@
         <v>163840</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>163840</v>
       </c>
       <c r="H19" s="9">
@@ -2958,15 +2962,15 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
+        <f t="shared" si="3"/>
+        <v>1_3276,0_80</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>[1_3276,0_80]</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="2"/>
         <v>327680</v>
       </c>
       <c r="E20">
@@ -2977,7 +2981,7 @@
         <v>327680</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>327680</v>
       </c>
       <c r="H20" s="9">
@@ -2996,15 +3000,15 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
+        <f t="shared" si="3"/>
+        <v>1_6553,0_60</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>[1_6553,0_60]</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="2"/>
         <v>655360</v>
       </c>
       <c r="E21">
@@ -3015,7 +3019,7 @@
         <v>655360</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>655360</v>
       </c>
       <c r="H21" s="9">
@@ -3034,15 +3038,15 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1310,0_720</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>[1_1310,0_720]</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="2"/>
         <v>1310720</v>
       </c>
       <c r="E22">
@@ -3053,7 +3057,7 @@
         <v>1310720</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1310720</v>
       </c>
       <c r="H22" s="9">
@@ -3072,15 +3076,15 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2621,0_440</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>[1_2621,0_440]</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="2"/>
         <v>2621440</v>
       </c>
       <c r="E23">
@@ -3091,7 +3095,7 @@
         <v>2621440</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2621440</v>
       </c>
       <c r="H23" s="9">
@@ -3110,15 +3114,15 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
+        <f t="shared" si="3"/>
+        <v>1_5242,0_880</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>[1_5242,0_880]</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="2"/>
         <v>5242880</v>
       </c>
       <c r="E24">
@@ -3129,7 +3133,7 @@
         <v>5242880</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5242880</v>
       </c>
       <c r="H24" s="9">
@@ -3148,15 +3152,15 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
+        <f t="shared" si="3"/>
+        <v>1_1048,0_5760</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
         <f t="shared" si="1"/>
-        <v>[1_1048,0_5760]</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="2"/>
         <v>10485760</v>
       </c>
       <c r="E25">
@@ -3167,7 +3171,7 @@
         <v>10485760</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10485760</v>
       </c>
       <c r="H25" s="9">
@@ -3186,15 +3190,15 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
+        <f t="shared" si="3"/>
+        <v>1_2097,0_1520</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" si="1"/>
-        <v>[1_2097,0_1520]</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="2"/>
         <v>20971520</v>
       </c>
       <c r="E26">
@@ -3205,7 +3209,7 @@
         <v>20971520</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20971520</v>
       </c>
       <c r="H26" s="9">
@@ -3224,15 +3228,15 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
+        <f t="shared" si="3"/>
+        <v>1_4194,0_3040</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="1"/>
-        <v>[1_4194,0_3040]</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="2"/>
         <v>41943040</v>
       </c>
       <c r="E27">
@@ -3243,7 +3247,7 @@
         <v>41943040</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41943040</v>
       </c>
       <c r="H27" s="9">
@@ -3262,15 +3266,15 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
+        <f t="shared" si="3"/>
+        <v>1_8388,0_6080</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
-        <v>[1_8388,0_6080]</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="2"/>
         <v>83886080</v>
       </c>
       <c r="E28">
@@ -3281,7 +3285,7 @@
         <v>83886080</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>83886080</v>
       </c>
       <c r="H28" s="9">
@@ -3300,15 +3304,15 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v>2_1677,1_7216</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>[2_1677,1_7216]</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="2"/>
         <v>167772160</v>
       </c>
       <c r="E29">
@@ -3319,7 +3323,7 @@
         <v>167772160</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>167772160</v>
       </c>
       <c r="H29" s="9">
@@ -3340,15 +3344,15 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v>2_3355,1_4432</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
-        <v>[2_3355,1_4432]</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="2"/>
         <v>335544320</v>
       </c>
       <c r="E30">
@@ -3359,7 +3363,7 @@
         <v>335544320</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>335544320</v>
       </c>
       <c r="H30" s="9">
@@ -3380,15 +3384,15 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v>2_6710,1_8864</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="1"/>
-        <v>[2_6710,1_8864]</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D31" s="8">
-        <f t="shared" si="2"/>
         <v>671088640</v>
       </c>
       <c r="E31">
@@ -3399,7 +3403,7 @@
         <v>671088640</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>671088640</v>
       </c>
       <c r="H31" s="9">
@@ -3420,15 +3424,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v>2_1342,1_1772</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="1"/>
-        <v>[2_1342,1_1772]</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="2"/>
         <v>1342177280</v>
       </c>
       <c r="E32">
@@ -3439,7 +3443,7 @@
         <v>1342177280</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1342177280</v>
       </c>
       <c r="H32" s="9">
@@ -3460,15 +3464,15 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v>2_2684,1_3545</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="1"/>
-        <v>[2_2684,1_3545]</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="2"/>
         <v>2684354560</v>
       </c>
       <c r="E33">
@@ -3479,7 +3483,7 @@
         <v>2684354560</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2684354560</v>
       </c>
       <c r="H33" s="9">
@@ -3500,15 +3504,15 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v>2_5368,1_7091</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="1"/>
-        <v>[2_5368,1_7091]</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="2"/>
         <v>5368709120</v>
       </c>
       <c r="E34">
@@ -3519,7 +3523,7 @@
         <v>5368709120</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5368709120</v>
       </c>
       <c r="H34" s="9">
@@ -3540,15 +3544,15 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v>2_1073,1_7418</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <f t="shared" si="1"/>
-        <v>[2_1073,1_7418]</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="2"/>
         <v>10737418240</v>
       </c>
       <c r="E35">
@@ -3559,7 +3563,7 @@
         <v>10737418240</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10737418240</v>
       </c>
       <c r="H35" s="9">
@@ -3580,15 +3584,15 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v>2_2147,1_4836</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
-        <v>[2_2147,1_4836]</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="2"/>
         <v>21474836480</v>
       </c>
       <c r="E36">
@@ -3599,7 +3603,7 @@
         <v>21474836480</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21474836480</v>
       </c>
       <c r="H36" s="9">
@@ -3620,15 +3624,15 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v>2_4294,1_9672</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
         <f t="shared" si="1"/>
-        <v>[2_4294,1_9672]</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D37" s="8">
-        <f t="shared" si="2"/>
         <v>42949672960</v>
       </c>
       <c r="E37">
@@ -3639,7 +3643,7 @@
         <v>42949672960</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42949672960</v>
       </c>
       <c r="H37" s="9">
@@ -3660,8 +3664,8 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>[2_8589,1_9345]</v>
+        <f t="shared" si="3"/>
+        <v>2_8589,1_9345</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -3679,7 +3683,7 @@
         <v>85899345920</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>85899345920</v>
       </c>
       <c r="H38" s="9">
@@ -3700,8 +3704,8 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>[2_1717,1_9869]</v>
+        <f t="shared" si="3"/>
+        <v>2_1717,1_9869</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -3719,7 +3723,7 @@
         <v>171798691840</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>171798691840</v>
       </c>
       <c r="H39" s="9">
@@ -3740,8 +3744,8 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>[2_3435,1_9738]</v>
+        <f t="shared" si="3"/>
+        <v>2_3435,1_9738</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -3759,7 +3763,7 @@
         <v>343597383680</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>343597383680</v>
       </c>
       <c r="H40" s="9">
@@ -3780,8 +3784,8 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>[2_6871,1_9476]</v>
+        <f t="shared" si="3"/>
+        <v>2_6871,1_9476</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -3799,7 +3803,7 @@
         <v>687194767360</v>
       </c>
       <c r="G41" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>687194767360</v>
       </c>
       <c r="H41" s="9">
@@ -3820,8 +3824,8 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_1374,2_3895]</v>
+        <f t="shared" si="3"/>
+        <v>3_1374,2_3895</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -3839,7 +3843,7 @@
         <v>1374389534720</v>
       </c>
       <c r="G42" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1374389534720</v>
       </c>
       <c r="H42" s="9">
@@ -3862,8 +3866,8 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_2748,2_7790]</v>
+        <f t="shared" si="3"/>
+        <v>3_2748,2_7790</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -3881,7 +3885,7 @@
         <v>2748779069440</v>
       </c>
       <c r="G43" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2748779069440</v>
       </c>
       <c r="H43" s="9">
@@ -3904,8 +3908,8 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_5497,2_5581]</v>
+        <f t="shared" si="3"/>
+        <v>3_5497,2_5581</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -3923,7 +3927,7 @@
         <v>5497558138880</v>
       </c>
       <c r="G44" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5497558138880</v>
       </c>
       <c r="H44" s="9">
@@ -3946,8 +3950,8 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_1099,2_5116]</v>
+        <f t="shared" si="3"/>
+        <v>3_1099,2_5116</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -3965,7 +3969,7 @@
         <v>10995116277760</v>
       </c>
       <c r="G45" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10995116277760</v>
       </c>
       <c r="H45" s="9">
@@ -3988,8 +3992,8 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_2199,2_232]</v>
+        <f t="shared" si="3"/>
+        <v>3_2199,2_232</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4007,7 +4011,7 @@
         <v>21990232555520</v>
       </c>
       <c r="G46" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21990232555520</v>
       </c>
       <c r="H46" s="9">
@@ -4030,8 +4034,8 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_4398,2_465]</v>
+        <f t="shared" si="3"/>
+        <v>3_4398,2_465</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4049,7 +4053,7 @@
         <v>43980465111040</v>
       </c>
       <c r="G47" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43980465111040</v>
       </c>
       <c r="H47" s="9">
@@ -4072,8 +4076,8 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_8796,2_930]</v>
+        <f t="shared" si="3"/>
+        <v>3_8796,2_930</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4091,7 +4095,7 @@
         <v>87960930222080</v>
       </c>
       <c r="G48" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>87960930222080</v>
       </c>
       <c r="H48" s="9">
@@ -4114,8 +4118,8 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_1759,2_2186]</v>
+        <f t="shared" si="3"/>
+        <v>3_1759,2_2186</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4133,7 +4137,7 @@
         <v>175921860444160</v>
       </c>
       <c r="G49" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>175921860444160</v>
       </c>
       <c r="H49" s="9">
@@ -4156,8 +4160,8 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_3518,2_4372]</v>
+        <f t="shared" si="3"/>
+        <v>3_3518,2_4372</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4175,7 +4179,7 @@
         <v>351843720888320</v>
       </c>
       <c r="G50" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>351843720888320</v>
       </c>
       <c r="H50" s="9">
@@ -4198,8 +4202,8 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_7036,2_8744]</v>
+        <f t="shared" si="3"/>
+        <v>3_7036,2_8744</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4217,7 +4221,7 @@
         <v>703687441776640</v>
       </c>
       <c r="G51" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>703687441776640</v>
       </c>
       <c r="H51" s="9">
@@ -4240,8 +4244,8 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_1407,2_3748]</v>
+        <f t="shared" si="3"/>
+        <v>3_1407,2_3748</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4259,7 +4263,7 @@
         <v>1407374883553280</v>
       </c>
       <c r="G52" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1407374883553280</v>
       </c>
       <c r="H52" s="9">
@@ -4282,8 +4286,8 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_2814,2_7497]</v>
+        <f t="shared" si="3"/>
+        <v>3_2814,2_7497</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -4301,7 +4305,7 @@
         <v>2814749767106560</v>
       </c>
       <c r="G53" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2814749767106560</v>
       </c>
       <c r="H53" s="9">
@@ -4324,8 +4328,8 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
-        <v>[3_5629,2_4995]</v>
+        <f t="shared" si="3"/>
+        <v>3_5629,2_4995</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -4343,7 +4347,7 @@
         <v>5629499534213120</v>
       </c>
       <c r="G54" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5629499534213120</v>
       </c>
       <c r="H54" s="9">
@@ -4366,8 +4370,8 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_1125,3_8999]</v>
+        <f t="shared" si="3"/>
+        <v>4_1125,3_8999</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -4385,7 +4389,7 @@
         <v>1.12589990684262E+16</v>
       </c>
       <c r="G55" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11258999068426200</v>
       </c>
       <c r="H55" s="9">
@@ -4410,8 +4414,8 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_2251,3_7998]</v>
+        <f t="shared" si="3"/>
+        <v>4_2251,3_7998</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -4429,7 +4433,7 @@
         <v>2.25179981368525E+16</v>
       </c>
       <c r="G56" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22517998136852500</v>
       </c>
       <c r="H56" s="9">
@@ -4455,8 +4459,8 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
-        <f>IF(C57&gt;1,"["&amp;C57-1&amp;"_"&amp;H57&amp;","&amp;C57-2&amp;"_"&amp;I57&amp;"]","[0-"&amp;H57&amp;"]")</f>
-        <v>[4_4503,3_5996]</v>
+        <f t="shared" si="3"/>
+        <v>4_4503,3_5996</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -4474,7 +4478,7 @@
         <v>4.5035996273705E+16</v>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45035996273705000</v>
       </c>
       <c r="H57" s="9">
@@ -4500,8 +4504,8 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_9007,3_1992]</v>
+        <f t="shared" si="3"/>
+        <v>4_9007,3_1992</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -4519,7 +4523,7 @@
         <v>9.0071992547409904E+16</v>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90071992547409900</v>
       </c>
       <c r="H58" s="9">
@@ -4545,8 +4549,8 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_1801,3_4398]</v>
+        <f t="shared" si="3"/>
+        <v>4_1801,3_4398</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -4564,7 +4568,7 @@
         <v>1.8014398509482E+17</v>
       </c>
       <c r="G59" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180143985094820000</v>
       </c>
       <c r="H59" s="9">
@@ -4590,8 +4594,8 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_3602,3_8797]</v>
+        <f t="shared" si="3"/>
+        <v>4_3602,3_8797</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
@@ -4609,7 +4613,7 @@
         <v>3.6028797018964E+17</v>
       </c>
       <c r="G60" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360287970189640000</v>
       </c>
       <c r="H60" s="9">
@@ -4635,8 +4639,8 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_7205,3_7594]</v>
+        <f t="shared" si="3"/>
+        <v>4_7205,3_7594</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
@@ -4654,7 +4658,7 @@
         <v>7.2057594037927898E+17</v>
       </c>
       <c r="G61" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720575940379279000</v>
       </c>
       <c r="H61" s="9">
@@ -4680,8 +4684,8 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_1441,3_1518]</v>
+        <f t="shared" si="3"/>
+        <v>4_1441,3_1518</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
@@ -4699,7 +4703,7 @@
         <v>1.44115188075856E+18</v>
       </c>
       <c r="G62" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1441151880758560000</v>
       </c>
       <c r="H62" s="9">
@@ -4725,8 +4729,8 @@
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_2882,3_3037]</v>
+        <f t="shared" si="3"/>
+        <v>4_2882,3_3037</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
@@ -4744,7 +4748,7 @@
         <v>2.88230376151712E+18</v>
       </c>
       <c r="G63" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2882303761517120000</v>
       </c>
       <c r="H63" s="9">
@@ -4770,8 +4774,8 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_5764,3_6075]</v>
+        <f t="shared" si="3"/>
+        <v>4_5764,3_6075</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
@@ -4789,7 +4793,7 @@
         <v>5.7646075230342298E+18</v>
       </c>
       <c r="G64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5764607523034230000</v>
       </c>
       <c r="H64" s="9">
@@ -4815,8 +4819,8 @@
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_1152,3_9215]</v>
+        <f t="shared" si="3"/>
+        <v>4_1152,3_9215</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
@@ -4834,7 +4838,7 @@
         <v>1.15292150460685E+19</v>
       </c>
       <c r="G65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11529215046068500000</v>
       </c>
       <c r="H65" s="9">
@@ -4860,8 +4864,8 @@
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_2305,3_8430]</v>
+        <f t="shared" si="3"/>
+        <v>4_2305,3_8430</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
@@ -4879,7 +4883,7 @@
         <v>2.3058430092136899E+19</v>
       </c>
       <c r="G66" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23058430092136900000</v>
       </c>
       <c r="H66" s="9">
@@ -4905,8 +4909,8 @@
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_4611,3_6860]</v>
+        <f t="shared" si="3"/>
+        <v>4_4611,3_6860</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
@@ -4924,7 +4928,7 @@
         <v>4.6116860184273904E+19</v>
       </c>
       <c r="G67" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46116860184273900000</v>
       </c>
       <c r="H67" s="9">
@@ -4950,8 +4954,8 @@
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>[4_9223,3_3720]</v>
+        <f t="shared" si="3"/>
+        <v>4_9223,3_3720</v>
       </c>
       <c r="C68">
         <f t="shared" si="4"/>
@@ -4969,7 +4973,7 @@
         <v>9.2233720368547807E+19</v>
       </c>
       <c r="G68" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>92233720368547800000</v>
       </c>
       <c r="H68" s="9">
@@ -4995,8 +4999,8 @@
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>[5_1844,4_6744]</v>
+        <f t="shared" si="3"/>
+        <v>5_1844,4_6744</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -5014,7 +5018,7 @@
         <v>1.8446744073709601E+20</v>
       </c>
       <c r="G69" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>184467440737096000000</v>
       </c>
       <c r="H69" s="9">
@@ -5042,15 +5046,15 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
-        <f t="shared" ref="B70:B79" si="8">IF(C70&gt;1,"["&amp;C70-1&amp;"_"&amp;H70&amp;","&amp;C70-2&amp;"_"&amp;I70&amp;"]","[0-"&amp;H70&amp;"]")</f>
-        <v>[5_3689,4_3488]</v>
+        <f t="shared" si="3"/>
+        <v>5_3689,4_3488</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" ref="D70:D79" si="9">D69*E69</f>
+        <f t="shared" ref="D70:D79" si="8">D69*E69</f>
         <v>3.6893488147419103E+20</v>
       </c>
       <c r="E70">
@@ -5061,7 +5065,7 @@
         <v>3.6893488147419103E+20</v>
       </c>
       <c r="G70" s="9" t="str">
-        <f t="shared" ref="G70:G79" si="10">TEXT(F70,"0")</f>
+        <f t="shared" ref="G70:G79" si="9">TEXT(F70,"0")</f>
         <v>368934881474191000000</v>
       </c>
       <c r="H70" s="9">
@@ -5089,15 +5093,15 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_7378,4_6976]</v>
+        <f t="shared" ref="B71:B79" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0-"&amp;H71)</f>
+        <v>5_7378,4_6976</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C79" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
         <v>6</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7.3786976294838206E+20</v>
       </c>
       <c r="E71">
@@ -5108,7 +5112,7 @@
         <v>7.3786976294838206E+20</v>
       </c>
       <c r="G71" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>737869762948382000000</v>
       </c>
       <c r="H71" s="9">
@@ -5136,15 +5140,15 @@
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_1475,4_7395]</v>
+        <f t="shared" si="10"/>
+        <v>5_1475,4_7395</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4757395258967641E+21</v>
       </c>
       <c r="E72">
@@ -5155,7 +5159,7 @@
         <v>1.4757395258967599E+21</v>
       </c>
       <c r="G72" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1475739525896760000000</v>
       </c>
       <c r="H72" s="9">
@@ -5183,15 +5187,15 @@
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_2951,4_4790]</v>
+        <f t="shared" si="10"/>
+        <v>5_2951,4_4790</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.9514790517935283E+21</v>
       </c>
       <c r="E73">
@@ -5202,7 +5206,7 @@
         <v>2.9514790517935298E+21</v>
       </c>
       <c r="G73" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2951479051793530000000</v>
       </c>
       <c r="H73" s="9">
@@ -5230,15 +5234,15 @@
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_5902,4_9581]</v>
+        <f t="shared" si="10"/>
+        <v>5_5902,4_9581</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.9029581035870565E+21</v>
       </c>
       <c r="E74">
@@ -5249,7 +5253,7 @@
         <v>5.9029581035870597E+21</v>
       </c>
       <c r="G74" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5902958103587060000000</v>
       </c>
       <c r="H74" s="9">
@@ -5277,15 +5281,15 @@
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_1180,4_5916]</v>
+        <f t="shared" si="10"/>
+        <v>5_1180,4_5916</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1805916207174113E+22</v>
       </c>
       <c r="E75">
@@ -5296,7 +5300,7 @@
         <v>1.18059162071741E+22</v>
       </c>
       <c r="G75" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11805916207174100000000</v>
       </c>
       <c r="H75" s="9">
@@ -5324,15 +5328,15 @@
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_2361,4_1832]</v>
+        <f t="shared" si="10"/>
+        <v>5_2361,4_1832</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.3611832414348226E+22</v>
       </c>
       <c r="E76">
@@ -5343,7 +5347,7 @@
         <v>2.3611832414348201E+22</v>
       </c>
       <c r="G76" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>23611832414348200000000</v>
       </c>
       <c r="H76" s="9">
@@ -5371,15 +5375,15 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_4722,4_3664]</v>
+        <f t="shared" si="10"/>
+        <v>5_4722,4_3664</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.7223664828696452E+22</v>
       </c>
       <c r="E77">
@@ -5390,7 +5394,7 @@
         <v>4.7223664828696502E+22</v>
       </c>
       <c r="G77" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>47223664828696500000000</v>
       </c>
       <c r="H77" s="9">
@@ -5418,15 +5422,15 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_9444,4_7329]</v>
+        <f t="shared" si="10"/>
+        <v>5_9444,4_7329</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.4447329657392904E+22</v>
       </c>
       <c r="E78">
@@ -5437,7 +5441,7 @@
         <v>9.4447329657392904E+22</v>
       </c>
       <c r="G78" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>94447329657392900000000</v>
       </c>
       <c r="H78" s="9">
@@ -5465,15 +5469,15 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
-        <f t="shared" si="8"/>
-        <v>[5_1888,4_9465]</v>
+        <f t="shared" si="10"/>
+        <v>5_1888,4_9465</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.8889465931478581E+23</v>
       </c>
       <c r="E79">
@@ -5484,7 +5488,7 @@
         <v>1.8889465931478601E+23</v>
       </c>
       <c r="G79" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>188894659314786000000000</v>
       </c>
       <c r="H79" s="9">

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -122,36 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-10</t>
-  </si>
-  <si>
-    <t>0-20</t>
-  </si>
-  <si>
-    <t>0-40</t>
-  </si>
-  <si>
-    <t>0-80</t>
-  </si>
-  <si>
-    <t>0-160</t>
-  </si>
-  <si>
-    <t>0-320</t>
-  </si>
-  <si>
-    <t>0-640</t>
-  </si>
-  <si>
-    <t>0-1280</t>
-  </si>
-  <si>
-    <t>0-2560</t>
-  </si>
-  <si>
-    <t>0-5120</t>
-  </si>
-  <si>
     <t>1_1024,0_0</t>
   </si>
   <si>
@@ -345,6 +315,36 @@
   </si>
   <si>
     <t>5_1888,4_9465</t>
+  </si>
+  <si>
+    <t>0_10</t>
+  </si>
+  <si>
+    <t>0_20</t>
+  </si>
+  <si>
+    <t>0_40</t>
+  </si>
+  <si>
+    <t>0_80</t>
+  </si>
+  <si>
+    <t>0_160</t>
+  </si>
+  <si>
+    <t>0_320</t>
+  </si>
+  <si>
+    <t>0_640</t>
+  </si>
+  <si>
+    <t>0_1280</t>
+  </si>
+  <si>
+    <t>0_2560</t>
+  </si>
+  <si>
+    <t>0_5120</t>
   </si>
 </sst>
 </file>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -925,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -961,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -970,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -988,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -997,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -1024,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1066,7 +1066,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1186,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B79" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2413,8 +2413,8 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
-        <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0-"&amp;H5)</f>
-        <v>0-10</v>
+        <f>IF(C5&gt;1,C5-1&amp;"_"&amp;H5&amp;","&amp;C5-2&amp;"_"&amp;I5,"0_"&amp;H5)</f>
+        <v>0_10</v>
       </c>
       <c r="C5">
         <f>COUNTIF(H5:W5,"&gt;-1")</f>
@@ -2448,8 +2448,8 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0-"&amp;H6)</f>
-        <v>0-20</v>
+        <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
+        <v>0_20</v>
       </c>
       <c r="C6">
         <f>COUNTIF(H6:W6,"&gt;-1")</f>
@@ -2484,8 +2484,8 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0-"&amp;H7)</f>
-        <v>0-40</v>
+        <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
+        <v>0_40</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
@@ -2521,7 +2521,7 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
-        <v>0-80</v>
+        <v>0_80</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -2557,7 +2557,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
-        <v>0-160</v>
+        <v>0_160</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -2593,7 +2593,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
-        <v>0-320</v>
+        <v>0_320</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -2629,7 +2629,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
-        <v>0-640</v>
+        <v>0_640</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -2665,7 +2665,7 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
-        <v>0-1280</v>
+        <v>0_1280</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -2701,7 +2701,7 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0-2560</v>
+        <v>0_2560</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -2737,7 +2737,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
-        <v>0-5120</v>
+        <v>0_5120</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
-        <f t="shared" ref="B71:B79" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0-"&amp;H71)</f>
+        <f t="shared" ref="B71:B79" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
         <v>5_7378,4_6976</v>
       </c>
       <c r="C71">

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -317,9 +317,6 @@
     <t>5_1888,4_9465</t>
   </si>
   <si>
-    <t>0_10</t>
-  </si>
-  <si>
     <t>0_20</t>
   </si>
   <si>
@@ -345,6 +342,10 @@
   </si>
   <si>
     <t>0_5120</t>
+  </si>
+  <si>
+    <t>0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -811,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -883,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -891,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -899,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -916,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -925,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -934,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -943,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="6"/>
     </row>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -122,226 +122,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1024,0_0</t>
-  </si>
-  <si>
-    <t>1_2048,0_0</t>
-  </si>
-  <si>
-    <t>1_4096,0_0</t>
-  </si>
-  <si>
-    <t>1_8192,0_0</t>
-  </si>
-  <si>
-    <t>1_1638,0_40</t>
-  </si>
-  <si>
-    <t>1_3276,0_80</t>
-  </si>
-  <si>
-    <t>1_6553,0_60</t>
-  </si>
-  <si>
-    <t>1_1310,0_720</t>
-  </si>
-  <si>
-    <t>1_2621,0_440</t>
-  </si>
-  <si>
-    <t>1_5242,0_880</t>
-  </si>
-  <si>
-    <t>1_1048,0_5760</t>
-  </si>
-  <si>
-    <t>1_2097,0_1520</t>
-  </si>
-  <si>
-    <t>1_4194,0_3040</t>
-  </si>
-  <si>
-    <t>1_8388,0_6080</t>
-  </si>
-  <si>
-    <t>2_1677,1_7216</t>
-  </si>
-  <si>
-    <t>2_3355,1_4432</t>
-  </si>
-  <si>
-    <t>2_6710,1_8864</t>
-  </si>
-  <si>
-    <t>2_1342,1_1772</t>
-  </si>
-  <si>
-    <t>2_2684,1_3545</t>
-  </si>
-  <si>
-    <t>2_5368,1_7091</t>
-  </si>
-  <si>
-    <t>2_1073,1_7418</t>
-  </si>
-  <si>
-    <t>2_2147,1_4836</t>
-  </si>
-  <si>
-    <t>2_4294,1_9672</t>
-  </si>
-  <si>
-    <t>2_8589,1_9345</t>
-  </si>
-  <si>
-    <t>2_1717,1_9869</t>
-  </si>
-  <si>
-    <t>2_3435,1_9738</t>
-  </si>
-  <si>
-    <t>2_6871,1_9476</t>
-  </si>
-  <si>
-    <t>3_1374,2_3895</t>
-  </si>
-  <si>
-    <t>3_2748,2_7790</t>
-  </si>
-  <si>
-    <t>3_5497,2_5581</t>
-  </si>
-  <si>
-    <t>3_1099,2_5116</t>
-  </si>
-  <si>
-    <t>3_2199,2_232</t>
-  </si>
-  <si>
-    <t>3_4398,2_465</t>
-  </si>
-  <si>
-    <t>3_8796,2_930</t>
-  </si>
-  <si>
-    <t>3_1759,2_2186</t>
-  </si>
-  <si>
-    <t>3_3518,2_4372</t>
-  </si>
-  <si>
-    <t>3_7036,2_8744</t>
-  </si>
-  <si>
-    <t>3_1407,2_3748</t>
-  </si>
-  <si>
-    <t>3_2814,2_7497</t>
-  </si>
-  <si>
-    <t>3_5629,2_4995</t>
-  </si>
-  <si>
-    <t>4_1125,3_8999</t>
-  </si>
-  <si>
-    <t>4_2251,3_7998</t>
-  </si>
-  <si>
-    <t>4_4503,3_5996</t>
-  </si>
-  <si>
-    <t>4_9007,3_1992</t>
-  </si>
-  <si>
-    <t>4_1801,3_4398</t>
-  </si>
-  <si>
-    <t>4_3602,3_8797</t>
-  </si>
-  <si>
-    <t>4_7205,3_7594</t>
-  </si>
-  <si>
-    <t>4_1441,3_1518</t>
-  </si>
-  <si>
-    <t>4_2882,3_3037</t>
-  </si>
-  <si>
-    <t>4_5764,3_6075</t>
-  </si>
-  <si>
-    <t>4_1152,3_9215</t>
-  </si>
-  <si>
-    <t>4_2305,3_8430</t>
-  </si>
-  <si>
-    <t>4_4611,3_6860</t>
-  </si>
-  <si>
-    <t>4_9223,3_3720</t>
-  </si>
-  <si>
-    <t>5_1844,4_6744</t>
-  </si>
-  <si>
-    <t>5_3689,4_3488</t>
-  </si>
-  <si>
-    <t>5_7378,4_6976</t>
-  </si>
-  <si>
-    <t>5_1475,4_7395</t>
-  </si>
-  <si>
-    <t>5_2951,4_4790</t>
-  </si>
-  <si>
-    <t>5_5902,4_9581</t>
-  </si>
-  <si>
-    <t>5_1180,4_5916</t>
-  </si>
-  <si>
-    <t>5_2361,4_1832</t>
-  </si>
-  <si>
-    <t>5_4722,4_3664</t>
-  </si>
-  <si>
-    <t>5_9444,4_7329</t>
-  </si>
-  <si>
-    <t>5_1888,4_9465</t>
-  </si>
-  <si>
-    <t>0_20</t>
-  </si>
-  <si>
-    <t>0_40</t>
-  </si>
-  <si>
-    <t>0_80</t>
-  </si>
-  <si>
-    <t>0_160</t>
-  </si>
-  <si>
-    <t>0_320</t>
-  </si>
-  <si>
-    <t>0_640</t>
-  </si>
-  <si>
-    <t>0_1280</t>
-  </si>
-  <si>
-    <t>0_2560</t>
-  </si>
-  <si>
-    <t>0_5120</t>
+    <t>0_15</t>
+  </si>
+  <si>
+    <t>0_23</t>
+  </si>
+  <si>
+    <t>0_34</t>
+  </si>
+  <si>
+    <t>0_51</t>
+  </si>
+  <si>
+    <t>0_76</t>
+  </si>
+  <si>
+    <t>0_114</t>
+  </si>
+  <si>
+    <t>0_171</t>
+  </si>
+  <si>
+    <t>0_257</t>
+  </si>
+  <si>
+    <t>0_385</t>
+  </si>
+  <si>
+    <t>0_577</t>
+  </si>
+  <si>
+    <t>0_865</t>
+  </si>
+  <si>
+    <t>0_1298</t>
+  </si>
+  <si>
+    <t>0_1947</t>
+  </si>
+  <si>
+    <t>0_2920</t>
+  </si>
+  <si>
+    <t>0_4379</t>
+  </si>
+  <si>
+    <t>0_6569</t>
+  </si>
+  <si>
+    <t>0_9853</t>
+  </si>
+  <si>
+    <t>1_1477,0_9</t>
+  </si>
+  <si>
+    <t>1_2216,0_9</t>
+  </si>
+  <si>
+    <t>1_3325,0_3</t>
+  </si>
+  <si>
+    <t>1_4987,0_9</t>
+  </si>
+  <si>
+    <t>1_7481,0_9</t>
+  </si>
+  <si>
+    <t>1_1122,0_28</t>
+  </si>
+  <si>
+    <t>1_1683,0_42</t>
+  </si>
+  <si>
+    <t>1_2525,0_12</t>
+  </si>
+  <si>
+    <t>1_3787,0_68</t>
+  </si>
+  <si>
+    <t>1_5681,0_52</t>
+  </si>
+  <si>
+    <t>1_8522,0_27</t>
+  </si>
+  <si>
+    <t>1_1278,0_341</t>
+  </si>
+  <si>
+    <t>1_1917,0_511</t>
+  </si>
+  <si>
+    <t>1_2876,0_266</t>
+  </si>
+  <si>
+    <t>1_4314,0_399</t>
+  </si>
+  <si>
+    <t>1_6471,0_599</t>
+  </si>
+  <si>
+    <t>1_9707,0_398</t>
+  </si>
+  <si>
+    <t>1_1456,0_1097</t>
+  </si>
+  <si>
+    <t>1_2184,0_1645</t>
+  </si>
+  <si>
+    <t>1_3276,0_2467</t>
+  </si>
+  <si>
+    <t>1_4914,0_3700</t>
+  </si>
+  <si>
+    <t>1_7371,0_5549</t>
+  </si>
+  <si>
+    <t>2_1105,1_7332</t>
+  </si>
+  <si>
+    <t>2_1658,1_5998</t>
+  </si>
+  <si>
+    <t>2_2487,1_8997</t>
+  </si>
+  <si>
+    <t>2_3731,1_8496</t>
+  </si>
+  <si>
+    <t>2_5597,1_7744</t>
+  </si>
+  <si>
+    <t>2_8396,1_6617</t>
+  </si>
+  <si>
+    <t>2_1259,1_4992</t>
+  </si>
+  <si>
+    <t>2_1889,1_2488</t>
+  </si>
+  <si>
+    <t>2_2833,1_8733</t>
+  </si>
+  <si>
+    <t>2_4250,1_8100</t>
+  </si>
+  <si>
+    <t>2_6376,1_2150</t>
+  </si>
+  <si>
+    <t>2_9564,1_3225</t>
+  </si>
+  <si>
+    <t>2_1434,1_6483</t>
+  </si>
+  <si>
+    <t>2_2151,1_9725</t>
+  </si>
+  <si>
+    <t>2_3227,1_9588</t>
+  </si>
+  <si>
+    <t>2_4841,1_9382</t>
+  </si>
+  <si>
+    <t>2_7262,1_9074</t>
+  </si>
+  <si>
+    <t>2_1089,1_4361</t>
+  </si>
+  <si>
+    <t>2_1634,1_1541</t>
+  </si>
+  <si>
+    <t>2_2451,1_2312</t>
+  </si>
+  <si>
+    <t>2_3676,1_8468</t>
+  </si>
+  <si>
+    <t>2_5515,1_2703</t>
+  </si>
+  <si>
+    <t>2_8272,1_9054</t>
+  </si>
+  <si>
+    <t>3_1240,2_9358</t>
+  </si>
+  <si>
+    <t>3_1861,2_4037</t>
+  </si>
+  <si>
+    <t>3_2792,2_1055</t>
+  </si>
+  <si>
+    <t>3_4188,2_1583</t>
+  </si>
+  <si>
+    <t>3_6282,2_2375</t>
+  </si>
+  <si>
+    <t>3_9423,2_3563</t>
+  </si>
+  <si>
+    <t>3_1413,2_5034</t>
+  </si>
+  <si>
+    <t>3_2120,2_2551</t>
+  </si>
+  <si>
+    <t>3_3180,2_3827</t>
+  </si>
+  <si>
+    <t>3_4770,2_5741</t>
+  </si>
+  <si>
+    <t>3_7155,2_8612</t>
+  </si>
+  <si>
+    <t>3_1073,2_3791</t>
   </si>
   <si>
     <t>0_1</t>
@@ -813,7 +813,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -917,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -971,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -980,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -989,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -998,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -1016,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -1025,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1034,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1147,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1315,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1379,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B79" sqref="B5:B79"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" ref="F5:F36" si="0">ROUNDUP(D5,0)</f>
@@ -2450,7 +2450,7 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
         <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
-        <v>0_20</v>
+        <v>0_15</v>
       </c>
       <c r="C6">
         <f>COUNTIF(H6:W6,"&gt;-1")</f>
@@ -2458,21 +2458,21 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" ref="D6:D37" si="1">D5*E5</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" ref="G6:G69" si="2">TEXT(F6,"0")</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2486,7 +2486,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
-        <v>0_40</v>
+        <v>0_23</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
@@ -2494,21 +2494,21 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>22.5</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H7" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2522,7 +2522,7 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
-        <v>0_80</v>
+        <v>0_34</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -2530,21 +2530,21 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>33.75</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H8" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2558,7 +2558,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
-        <v>0_160</v>
+        <v>0_51</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -2566,21 +2566,21 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>50.625</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="H9" s="9">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2594,7 +2594,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
-        <v>0_320</v>
+        <v>0_76</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -2602,21 +2602,21 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>75.9375</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="H10" s="9">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2630,7 +2630,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
-        <v>0_640</v>
+        <v>0_114</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -2638,21 +2638,21 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>113.90625</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="H11" s="9">
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2666,7 +2666,7 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
-        <v>0_1280</v>
+        <v>0_171</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -2674,21 +2674,21 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>1280</v>
+        <v>170.859375</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>171</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1280</v>
+        <v>171</v>
       </c>
       <c r="H12" s="9">
-        <v>1280</v>
+        <v>171</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2702,7 +2702,7 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0_2560</v>
+        <v>0_257</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -2710,21 +2710,21 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>256.2890625</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>257</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2560</v>
+        <v>257</v>
       </c>
       <c r="H13" s="9">
-        <v>2560</v>
+        <v>257</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2738,7 +2738,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
-        <v>0_5120</v>
+        <v>0_385</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -2746,21 +2746,21 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>5120</v>
+        <v>384.43359375</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>5120</v>
+        <v>385</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>5120</v>
+        <v>385</v>
       </c>
       <c r="H14" s="9">
-        <v>5120</v>
+        <v>385</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2774,33 +2774,31 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
-        <v>1_1024,0_0</v>
+        <v>0_577</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>10240</v>
+        <v>576.650390625</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>10240</v>
+        <v>577</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>10240</v>
+        <v>577</v>
       </c>
       <c r="H15" s="9">
-        <v>1024</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -2812,33 +2810,31 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
-        <v>1_2048,0_0</v>
+        <v>0_865</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>20480</v>
+        <v>864.9755859375</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>20480</v>
+        <v>865</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>20480</v>
+        <v>865</v>
       </c>
       <c r="H16" s="9">
-        <v>2048</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2850,33 +2846,31 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>1_4096,0_0</v>
+        <v>0_1298</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>40960</v>
+        <v>1297.46337890625</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>40960</v>
+        <v>1298</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>40960</v>
+        <v>1298</v>
       </c>
       <c r="H17" s="9">
-        <v>4096</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
+        <v>1298</v>
+      </c>
+      <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2888,33 +2882,31 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>1_8192,0_0</v>
+        <v>0_1947</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>81920</v>
+        <v>1946.195068359375</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>81920</v>
+        <v>1947</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>81920</v>
+        <v>1947</v>
       </c>
       <c r="H18" s="9">
-        <v>8192</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
+        <v>1947</v>
+      </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -2926,33 +2918,31 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>1_1638,0_40</v>
+        <v>0_2920</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>163840</v>
+        <v>2919.2926025390625</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>163840</v>
+        <v>2920</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>163840</v>
+        <v>2920</v>
       </c>
       <c r="H19" s="9">
-        <v>1638</v>
-      </c>
-      <c r="I19" s="9">
-        <v>40</v>
-      </c>
+        <v>2920</v>
+      </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -2964,33 +2954,31 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>1_3276,0_80</v>
+        <v>0_4379</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>327680</v>
+        <v>4378.9389038085937</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>327680</v>
+        <v>4379</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>327680</v>
+        <v>4379</v>
       </c>
       <c r="H20" s="9">
-        <v>3276</v>
-      </c>
-      <c r="I20" s="9">
-        <v>80</v>
-      </c>
+        <v>4379</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -3002,33 +2990,31 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
-        <v>1_6553,0_60</v>
+        <v>0_6569</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>655360</v>
+        <v>6568.4083557128906</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>655360</v>
+        <v>6569</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>655360</v>
+        <v>6569</v>
       </c>
       <c r="H21" s="9">
-        <v>6553</v>
-      </c>
-      <c r="I21" s="9">
-        <v>60</v>
-      </c>
+        <v>6569</v>
+      </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -3040,33 +3026,31 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
-        <v>1_1310,0_720</v>
+        <v>0_9853</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>1310720</v>
+        <v>9852.6125335693359</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>1310720</v>
+        <v>9853</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1310720</v>
+        <v>9853</v>
       </c>
       <c r="H22" s="9">
-        <v>1310</v>
-      </c>
-      <c r="I22" s="9">
-        <v>720</v>
-      </c>
+        <v>9853</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -3078,7 +3062,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
-        <v>1_2621,0_440</v>
+        <v>1_1477,0_9</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -3086,24 +3070,24 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>2621440</v>
+        <v>14778.918800354004</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>2621440</v>
+        <v>14779</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2621440</v>
+        <v>14779</v>
       </c>
       <c r="H23" s="9">
-        <v>2621</v>
+        <v>1477</v>
       </c>
       <c r="I23" s="9">
-        <v>440</v>
+        <v>9</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3116,7 +3100,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
-        <v>1_5242,0_880</v>
+        <v>1_2216,0_9</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -3124,24 +3108,24 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>5242880</v>
+        <v>22168.378200531006</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>5242880</v>
+        <v>22169</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>5242880</v>
+        <v>22169</v>
       </c>
       <c r="H24" s="9">
-        <v>5242</v>
+        <v>2216</v>
       </c>
       <c r="I24" s="9">
-        <v>880</v>
+        <v>9</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3154,7 +3138,7 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
-        <v>1_1048,0_5760</v>
+        <v>1_3325,0_3</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -3162,24 +3146,24 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
-        <v>10485760</v>
+        <v>33252.567300796509</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>10485760</v>
+        <v>33253</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>10485760</v>
+        <v>33253</v>
       </c>
       <c r="H25" s="9">
-        <v>1048</v>
+        <v>3325</v>
       </c>
       <c r="I25" s="9">
-        <v>5760</v>
+        <v>3</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3192,7 +3176,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
-        <v>1_2097,0_1520</v>
+        <v>1_4987,0_9</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -3200,24 +3184,24 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" si="1"/>
-        <v>20971520</v>
+        <v>49878.850951194763</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>20971520</v>
+        <v>49879</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>20971520</v>
+        <v>49879</v>
       </c>
       <c r="H26" s="9">
-        <v>2097</v>
+        <v>4987</v>
       </c>
       <c r="I26" s="9">
-        <v>1520</v>
+        <v>9</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -3230,7 +3214,7 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
-        <v>1_4194,0_3040</v>
+        <v>1_7481,0_9</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -3238,24 +3222,24 @@
       </c>
       <c r="D27" s="8">
         <f t="shared" si="1"/>
-        <v>41943040</v>
+        <v>74818.276426792145</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>41943040</v>
+        <v>74819</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>41943040</v>
+        <v>74819</v>
       </c>
       <c r="H27" s="9">
-        <v>4194</v>
+        <v>7481</v>
       </c>
       <c r="I27" s="9">
-        <v>3040</v>
+        <v>9</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -3268,7 +3252,7 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>1_8388,0_6080</v>
+        <v>1_1122,0_28</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -3276,24 +3260,24 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" si="1"/>
-        <v>83886080</v>
+        <v>112227.41464018822</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>83886080</v>
+        <v>112228</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>83886080</v>
+        <v>112228</v>
       </c>
       <c r="H28" s="9">
-        <v>8388</v>
+        <v>1122</v>
       </c>
       <c r="I28" s="9">
-        <v>6080</v>
+        <v>28</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -3306,36 +3290,34 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>2_1677,1_7216</v>
+        <v>1_1683,0_42</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>167772160</v>
+        <v>168341.12196028233</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="0"/>
-        <v>167772160</v>
+        <v>168342</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>167772160</v>
+        <v>168342</v>
       </c>
       <c r="H29" s="9">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="I29" s="9">
-        <v>7216</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3346,36 +3328,34 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>2_3355,1_4432</v>
+        <v>1_2525,0_12</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="1"/>
-        <v>335544320</v>
+        <v>252511.68294042349</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="0"/>
-        <v>335544320</v>
+        <v>252512</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>335544320</v>
+        <v>252512</v>
       </c>
       <c r="H30" s="9">
-        <v>3355</v>
+        <v>2525</v>
       </c>
       <c r="I30" s="9">
-        <v>4432</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -3386,36 +3366,34 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>2_6710,1_8864</v>
+        <v>1_3787,0_68</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="1"/>
-        <v>671088640</v>
+        <v>378767.52441063523</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="0"/>
-        <v>671088640</v>
+        <v>378768</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>671088640</v>
+        <v>378768</v>
       </c>
       <c r="H31" s="9">
-        <v>6710</v>
+        <v>3787</v>
       </c>
       <c r="I31" s="9">
-        <v>8864</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -3426,36 +3404,34 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>2_1342,1_1772</v>
+        <v>1_5681,0_52</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="1"/>
-        <v>1342177280</v>
+        <v>568151.28661595285</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>1342177280</v>
+        <v>568152</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1342177280</v>
+        <v>568152</v>
       </c>
       <c r="H32" s="9">
-        <v>1342</v>
+        <v>5681</v>
       </c>
       <c r="I32" s="9">
-        <v>1772</v>
-      </c>
-      <c r="J32" s="9">
-        <v>80</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -3466,36 +3442,34 @@
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>2_2684,1_3545</v>
+        <v>1_8522,0_27</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
-        <v>2684354560</v>
+        <v>852226.92992392927</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>2684354560</v>
+        <v>852227</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2684354560</v>
+        <v>852227</v>
       </c>
       <c r="H33" s="9">
-        <v>2684</v>
+        <v>8522</v>
       </c>
       <c r="I33" s="9">
-        <v>3545</v>
-      </c>
-      <c r="J33" s="9">
-        <v>60</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -3506,36 +3480,34 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>2_5368,1_7091</v>
+        <v>1_1278,0_341</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" si="1"/>
-        <v>5368709120</v>
+        <v>1278340.3948858939</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>5368709120</v>
+        <v>1278341</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>5368709120</v>
+        <v>1278341</v>
       </c>
       <c r="H34" s="9">
-        <v>5368</v>
+        <v>1278</v>
       </c>
       <c r="I34" s="9">
-        <v>7091</v>
-      </c>
-      <c r="J34" s="9">
-        <v>20</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -3546,36 +3518,34 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>2_1073,1_7418</v>
+        <v>1_1917,0_511</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="1"/>
-        <v>10737418240</v>
+        <v>1917510.5923288409</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>10737418240</v>
+        <v>1917511</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>10737418240</v>
+        <v>1917511</v>
       </c>
       <c r="H35" s="9">
-        <v>1073</v>
+        <v>1917</v>
       </c>
       <c r="I35" s="9">
-        <v>7418</v>
-      </c>
-      <c r="J35" s="9">
-        <v>240</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -3586,36 +3556,34 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>2_2147,1_4836</v>
+        <v>1_2876,0_266</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" si="1"/>
-        <v>21474836480</v>
+        <v>2876265.8884932613</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>21474836480</v>
+        <v>2876266</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>21474836480</v>
+        <v>2876266</v>
       </c>
       <c r="H36" s="9">
-        <v>2147</v>
+        <v>2876</v>
       </c>
       <c r="I36" s="9">
-        <v>4836</v>
-      </c>
-      <c r="J36" s="9">
-        <v>480</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -3626,36 +3594,34 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>2_4294,1_9672</v>
+        <v>1_4314,0_399</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" si="1"/>
-        <v>42949672960</v>
+        <v>4314398.8327398915</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" ref="F37:F68" si="5">ROUNDUP(D37,0)</f>
-        <v>42949672960</v>
+        <v>4314399</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>42949672960</v>
+        <v>4314399</v>
       </c>
       <c r="H37" s="9">
-        <v>4294</v>
+        <v>4314</v>
       </c>
       <c r="I37" s="9">
-        <v>9672</v>
-      </c>
-      <c r="J37" s="9">
-        <v>960</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -3666,36 +3632,34 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>2_8589,1_9345</v>
+        <v>1_6471,0_599</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D69" si="6">D37*E37</f>
-        <v>85899345920</v>
+        <v>6471598.2491098372</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="5"/>
-        <v>85899345920</v>
+        <v>6471599</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>85899345920</v>
+        <v>6471599</v>
       </c>
       <c r="H38" s="9">
-        <v>8589</v>
+        <v>6471</v>
       </c>
       <c r="I38" s="9">
-        <v>9345</v>
-      </c>
-      <c r="J38" s="9">
-        <v>920</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -3706,36 +3670,34 @@
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>2_1717,1_9869</v>
+        <v>1_9707,0_398</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="6"/>
-        <v>171798691840</v>
+        <v>9707397.3736647554</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" si="5"/>
-        <v>171798691840</v>
+        <v>9707398</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>171798691840</v>
+        <v>9707398</v>
       </c>
       <c r="H39" s="9">
-        <v>1717</v>
+        <v>9707</v>
       </c>
       <c r="I39" s="9">
-        <v>9869</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1840</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -3746,36 +3708,34 @@
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>2_3435,1_9738</v>
+        <v>1_1456,0_1097</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" si="6"/>
-        <v>343597383680</v>
+        <v>14561096.060497133</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" si="5"/>
-        <v>343597383680</v>
+        <v>14561097</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>343597383680</v>
+        <v>14561097</v>
       </c>
       <c r="H40" s="9">
-        <v>3435</v>
+        <v>1456</v>
       </c>
       <c r="I40" s="9">
-        <v>9738</v>
-      </c>
-      <c r="J40" s="9">
-        <v>3680</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -3786,36 +3746,34 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>2_6871,1_9476</v>
+        <v>1_2184,0_1645</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" si="6"/>
-        <v>687194767360</v>
+        <v>21841644.090745699</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="5"/>
-        <v>687194767360</v>
+        <v>21841645</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>687194767360</v>
+        <v>21841645</v>
       </c>
       <c r="H41" s="9">
-        <v>6871</v>
+        <v>2184</v>
       </c>
       <c r="I41" s="9">
-        <v>9476</v>
-      </c>
-      <c r="J41" s="9">
-        <v>7360</v>
-      </c>
+        <v>1645</v>
+      </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -3826,39 +3784,35 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>3_1374,2_3895</v>
+        <v>1_3276,0_2467</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" s="8">
         <f t="shared" si="6"/>
-        <v>1374389534720</v>
+        <v>32762466.136118546</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" si="5"/>
-        <v>1374389534720</v>
+        <v>32762467</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1374389534720</v>
+        <v>32762467</v>
       </c>
       <c r="H42" s="9">
-        <v>1374</v>
+        <v>3276</v>
       </c>
       <c r="I42" s="9">
-        <v>3895</v>
-      </c>
-      <c r="J42" s="9">
-        <v>3472</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
+        <v>2467</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -3868,39 +3822,35 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>3_2748,2_7790</v>
+        <v>1_4914,0_3700</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="6"/>
-        <v>2748779069440</v>
+        <v>49143699.204177819</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" si="5"/>
-        <v>2748779069440</v>
+        <v>49143700</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2748779069440</v>
+        <v>49143700</v>
       </c>
       <c r="H43" s="9">
-        <v>2748</v>
+        <v>4914</v>
       </c>
       <c r="I43" s="9">
-        <v>7790</v>
-      </c>
-      <c r="J43" s="9">
-        <v>6944</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
+        <v>3700</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -3910,39 +3860,35 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>3_5497,2_5581</v>
+        <v>1_7371,0_5549</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="8">
         <f t="shared" si="6"/>
-        <v>5497558138880</v>
+        <v>73715548.806266725</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="5"/>
-        <v>5497558138880</v>
+        <v>73715549</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>5497558138880</v>
+        <v>73715549</v>
       </c>
       <c r="H44" s="9">
-        <v>5497</v>
+        <v>7371</v>
       </c>
       <c r="I44" s="9">
-        <v>5581</v>
-      </c>
-      <c r="J44" s="9">
-        <v>3888</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
+        <v>5549</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -3952,39 +3898,37 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>3_1099,2_5116</v>
+        <v>2_1105,1_7332</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="6"/>
-        <v>10995116277760</v>
+        <v>110573323.20940009</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" si="5"/>
-        <v>10995116277760</v>
+        <v>110573324</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>10995116277760</v>
+        <v>110573324</v>
       </c>
       <c r="H45" s="9">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="I45" s="9">
-        <v>5116</v>
+        <v>7332</v>
       </c>
       <c r="J45" s="9">
-        <v>2777</v>
-      </c>
-      <c r="K45" s="9">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -3994,39 +3938,37 @@
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>3_2199,2_232</v>
+        <v>2_1658,1_5998</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" si="6"/>
-        <v>21990232555520</v>
+        <v>165859984.81410015</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" si="5"/>
-        <v>21990232555520</v>
+        <v>165859985</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>21990232555520</v>
+        <v>165859985</v>
       </c>
       <c r="H46" s="9">
-        <v>2199</v>
+        <v>1658</v>
       </c>
       <c r="I46" s="9">
-        <v>232</v>
+        <v>5998</v>
       </c>
       <c r="J46" s="9">
-        <v>5555</v>
-      </c>
-      <c r="K46" s="9">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -4036,39 +3978,37 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>3_4398,2_465</v>
+        <v>2_2487,1_8997</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="6"/>
-        <v>43980465111040</v>
+        <v>248789977.22115022</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="5"/>
-        <v>43980465111040</v>
+        <v>248789978</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>43980465111040</v>
+        <v>248789978</v>
       </c>
       <c r="H47" s="9">
-        <v>4398</v>
+        <v>2487</v>
       </c>
       <c r="I47" s="9">
-        <v>465</v>
+        <v>8997</v>
       </c>
       <c r="J47" s="9">
-        <v>1110</v>
-      </c>
-      <c r="K47" s="9">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -4078,39 +4018,37 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>3_8796,2_930</v>
+        <v>2_3731,1_8496</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="8">
         <f t="shared" si="6"/>
-        <v>87960930222080</v>
+        <v>373184965.83172536</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" si="5"/>
-        <v>87960930222080</v>
+        <v>373184966</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>87960930222080</v>
+        <v>373184966</v>
       </c>
       <c r="H48" s="9">
-        <v>8796</v>
+        <v>3731</v>
       </c>
       <c r="I48" s="9">
-        <v>930</v>
+        <v>8496</v>
       </c>
       <c r="J48" s="9">
-        <v>2220</v>
-      </c>
-      <c r="K48" s="9">
-        <v>80</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -4120,39 +4058,37 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>3_1759,2_2186</v>
+        <v>2_5597,1_7744</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="8">
         <f t="shared" si="6"/>
-        <v>175921860444160</v>
+        <v>559777448.74758804</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="5"/>
-        <v>175921860444160</v>
+        <v>559777449</v>
       </c>
       <c r="G49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>175921860444160</v>
+        <v>559777449</v>
       </c>
       <c r="H49" s="9">
-        <v>1759</v>
+        <v>5597</v>
       </c>
       <c r="I49" s="9">
-        <v>2186</v>
+        <v>7744</v>
       </c>
       <c r="J49" s="9">
-        <v>444</v>
-      </c>
-      <c r="K49" s="9">
-        <v>160</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -4162,39 +4098,37 @@
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>3_3518,2_4372</v>
+        <v>2_8396,1_6617</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="8">
         <f t="shared" si="6"/>
-        <v>351843720888320</v>
+        <v>839666173.121382</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="5"/>
-        <v>351843720888320</v>
+        <v>839666174</v>
       </c>
       <c r="G50" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>351843720888320</v>
+        <v>839666174</v>
       </c>
       <c r="H50" s="9">
-        <v>3518</v>
+        <v>8396</v>
       </c>
       <c r="I50" s="9">
-        <v>4372</v>
+        <v>6617</v>
       </c>
       <c r="J50" s="9">
-        <v>888</v>
-      </c>
-      <c r="K50" s="9">
-        <v>320</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -4204,39 +4138,37 @@
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>3_7036,2_8744</v>
+        <v>2_1259,1_4992</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="6"/>
-        <v>703687441776640</v>
+        <v>1259499259.6820731</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" si="5"/>
-        <v>703687441776640</v>
+        <v>1259499260</v>
       </c>
       <c r="G51" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>703687441776640</v>
+        <v>1259499260</v>
       </c>
       <c r="H51" s="9">
-        <v>7036</v>
+        <v>1259</v>
       </c>
       <c r="I51" s="9">
-        <v>8744</v>
+        <v>4992</v>
       </c>
       <c r="J51" s="9">
-        <v>1776</v>
-      </c>
-      <c r="K51" s="9">
-        <v>640</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -4246,39 +4178,37 @@
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>3_1407,2_3748</v>
+        <v>2_1889,1_2488</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="8">
         <f t="shared" si="6"/>
-        <v>1407374883553280</v>
+        <v>1889248889.5231097</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" si="5"/>
-        <v>1407374883553280</v>
+        <v>1889248890</v>
       </c>
       <c r="G52" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1407374883553280</v>
+        <v>1889248890</v>
       </c>
       <c r="H52" s="9">
-        <v>1407</v>
+        <v>1889</v>
       </c>
       <c r="I52" s="9">
-        <v>3748</v>
+        <v>2488</v>
       </c>
       <c r="J52" s="9">
-        <v>8355</v>
-      </c>
-      <c r="K52" s="9">
-        <v>3280</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -4288,39 +4218,37 @@
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>3_2814,2_7497</v>
+        <v>2_2833,1_8733</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="6"/>
-        <v>2814749767106560</v>
+        <v>2833873334.2846646</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="5"/>
-        <v>2814749767106560</v>
+        <v>2833873335</v>
       </c>
       <c r="G53" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2814749767106560</v>
+        <v>2833873335</v>
       </c>
       <c r="H53" s="9">
-        <v>2814</v>
+        <v>2833</v>
       </c>
       <c r="I53" s="9">
-        <v>7497</v>
+        <v>8733</v>
       </c>
       <c r="J53" s="9">
-        <v>6710</v>
-      </c>
-      <c r="K53" s="9">
-        <v>6560</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -4330,39 +4258,37 @@
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>3_5629,2_4995</v>
+        <v>2_4250,1_8100</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="8">
         <f t="shared" si="6"/>
-        <v>5629499534213120</v>
+        <v>4250810001.4269972</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="5"/>
-        <v>5629499534213120</v>
+        <v>4250810002</v>
       </c>
       <c r="G54" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>5629499534213120</v>
+        <v>4250810002</v>
       </c>
       <c r="H54" s="9">
-        <v>5629</v>
+        <v>4250</v>
       </c>
       <c r="I54" s="9">
-        <v>4995</v>
+        <v>8100</v>
       </c>
       <c r="J54" s="9">
-        <v>3421</v>
-      </c>
-      <c r="K54" s="9">
-        <v>3120</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -4372,42 +4298,38 @@
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>4_1125,3_8999</v>
+        <v>2_6376,1_2150</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="6"/>
-        <v>1.125899906842624E+16</v>
+        <v>6376215002.1404953</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="5"/>
-        <v>1.12589990684262E+16</v>
+        <v>6376215003</v>
       </c>
       <c r="G55" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>11258999068426200</v>
+        <v>6376215003</v>
       </c>
       <c r="H55" s="9">
-        <v>1125</v>
+        <v>6376</v>
       </c>
       <c r="I55" s="9">
-        <v>8999</v>
+        <v>2150</v>
       </c>
       <c r="J55" s="9">
-        <v>684</v>
-      </c>
-      <c r="K55" s="9">
-        <v>2620</v>
-      </c>
-      <c r="L55" s="9">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
@@ -4416,42 +4338,38 @@
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>4_2251,3_7998</v>
+        <v>2_9564,1_3225</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="6"/>
-        <v>2.251799813685248E+16</v>
+        <v>9564322503.210743</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="5"/>
-        <v>2.25179981368525E+16</v>
+        <v>9564322504</v>
       </c>
       <c r="G56" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>22517998136852500</v>
+        <v>9564322504</v>
       </c>
       <c r="H56" s="9">
-        <v>2251</v>
+        <v>9564</v>
       </c>
       <c r="I56" s="9">
-        <v>7998</v>
+        <v>3225</v>
       </c>
       <c r="J56" s="9">
-        <v>1368</v>
-      </c>
-      <c r="K56" s="9">
-        <v>5250</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
@@ -4461,42 +4379,38 @@
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>4_4503,3_5996</v>
+        <v>2_1434,1_6483</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="6"/>
-        <v>4.503599627370496E+16</v>
+        <v>14346483754.816114</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="5"/>
-        <v>4.5035996273705E+16</v>
+        <v>14346483755</v>
       </c>
       <c r="G57" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>45035996273705000</v>
+        <v>14346483755</v>
       </c>
       <c r="H57" s="9">
-        <v>4503</v>
+        <v>1434</v>
       </c>
       <c r="I57" s="9">
-        <v>5996</v>
+        <v>6483</v>
       </c>
       <c r="J57" s="9">
-        <v>2737</v>
-      </c>
-      <c r="K57" s="9">
-        <v>500</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
@@ -4506,42 +4420,38 @@
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>4_9007,3_1992</v>
+        <v>2_2151,1_9725</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="8">
         <f t="shared" si="6"/>
-        <v>9.007199254740992E+16</v>
+        <v>21519725632.224171</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="5"/>
-        <v>9.0071992547409904E+16</v>
+        <v>21519725633</v>
       </c>
       <c r="G58" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>90071992547409900</v>
+        <v>21519725633</v>
       </c>
       <c r="H58" s="9">
-        <v>9007</v>
+        <v>2151</v>
       </c>
       <c r="I58" s="9">
-        <v>1992</v>
+        <v>9725</v>
       </c>
       <c r="J58" s="9">
-        <v>5474</v>
-      </c>
-      <c r="K58" s="9">
-        <v>990</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -4551,42 +4461,38 @@
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>4_1801,3_4398</v>
+        <v>2_3227,1_9588</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="6"/>
-        <v>1.8014398509481984E+17</v>
+        <v>32279588448.336258</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" si="5"/>
-        <v>1.8014398509482E+17</v>
+        <v>32279588449</v>
       </c>
       <c r="G59" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>180143985094820000</v>
+        <v>32279588449</v>
       </c>
       <c r="H59" s="9">
-        <v>1801</v>
+        <v>3227</v>
       </c>
       <c r="I59" s="9">
-        <v>4398</v>
+        <v>9588</v>
       </c>
       <c r="J59" s="9">
-        <v>5094</v>
-      </c>
-      <c r="K59" s="9">
-        <v>8200</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -4596,42 +4502,38 @@
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>4_3602,3_8797</v>
+        <v>2_4841,1_9382</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" s="8">
         <f t="shared" si="6"/>
-        <v>3.6028797018963968E+17</v>
+        <v>48419382672.504387</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="5"/>
-        <v>3.6028797018964E+17</v>
+        <v>48419382673</v>
       </c>
       <c r="G60" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>360287970189640000</v>
+        <v>48419382673</v>
       </c>
       <c r="H60" s="9">
-        <v>3602</v>
+        <v>4841</v>
       </c>
       <c r="I60" s="9">
-        <v>8797</v>
+        <v>9382</v>
       </c>
       <c r="J60" s="9">
-        <v>189</v>
-      </c>
-      <c r="K60" s="9">
-        <v>6400</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -4641,42 +4543,38 @@
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>4_7205,3_7594</v>
+        <v>2_7262,1_9074</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="8">
         <f t="shared" si="6"/>
-        <v>7.2057594037927936E+17</v>
+        <v>72629074008.756577</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" si="5"/>
-        <v>7.2057594037927898E+17</v>
+        <v>72629074009</v>
       </c>
       <c r="G61" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>720575940379279000</v>
+        <v>72629074009</v>
       </c>
       <c r="H61" s="9">
-        <v>7205</v>
+        <v>7262</v>
       </c>
       <c r="I61" s="9">
-        <v>7594</v>
+        <v>9074</v>
       </c>
       <c r="J61" s="9">
-        <v>379</v>
-      </c>
-      <c r="K61" s="9">
-        <v>2790</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
@@ -4686,42 +4584,38 @@
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>4_1441,3_1518</v>
+        <v>2_1089,1_4361</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="8">
         <f t="shared" si="6"/>
-        <v>1.4411518807585587E+18</v>
+        <v>108943611013.13486</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="5"/>
-        <v>1.44115188075856E+18</v>
+        <v>108943611014</v>
       </c>
       <c r="G62" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>1441151880758560000</v>
+        <v>108943611014</v>
       </c>
       <c r="H62" s="9">
-        <v>1441</v>
+        <v>1089</v>
       </c>
       <c r="I62" s="9">
-        <v>1518</v>
+        <v>4361</v>
       </c>
       <c r="J62" s="9">
-        <v>8075</v>
-      </c>
-      <c r="K62" s="9">
-        <v>8560</v>
-      </c>
-      <c r="L62" s="9">
-        <v>0</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
@@ -4731,42 +4625,38 @@
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>4_2882,3_3037</v>
+        <v>2_1634,1_1541</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="6"/>
-        <v>2.8823037615171174E+18</v>
+        <v>163415416519.70227</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="5"/>
-        <v>2.88230376151712E+18</v>
+        <v>163415416520</v>
       </c>
       <c r="G63" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2882303761517120000</v>
+        <v>163415416520</v>
       </c>
       <c r="H63" s="9">
-        <v>2882</v>
+        <v>1634</v>
       </c>
       <c r="I63" s="9">
-        <v>3037</v>
+        <v>1541</v>
       </c>
       <c r="J63" s="9">
-        <v>6151</v>
-      </c>
-      <c r="K63" s="9">
-        <v>7120</v>
-      </c>
-      <c r="L63" s="9">
-        <v>0</v>
-      </c>
+        <v>6520</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -4776,42 +4666,38 @@
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>4_5764,3_6075</v>
+        <v>2_2451,1_2312</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" s="8">
         <f t="shared" si="6"/>
-        <v>5.7646075230342349E+18</v>
+        <v>245123124779.55341</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="5"/>
-        <v>5.7646075230342298E+18</v>
+        <v>245123124780</v>
       </c>
       <c r="G64" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>5764607523034230000</v>
+        <v>245123124780</v>
       </c>
       <c r="H64" s="9">
-        <v>5764</v>
+        <v>2451</v>
       </c>
       <c r="I64" s="9">
-        <v>6075</v>
+        <v>2312</v>
       </c>
       <c r="J64" s="9">
-        <v>2303</v>
-      </c>
-      <c r="K64" s="9">
-        <v>4230</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0</v>
-      </c>
+        <v>4780</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -4821,42 +4707,38 @@
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>4_1152,3_9215</v>
+        <v>2_3676,1_8468</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="6"/>
-        <v>1.152921504606847E+19</v>
+        <v>367684687169.33008</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="5"/>
-        <v>1.15292150460685E+19</v>
+        <v>367684687170</v>
       </c>
       <c r="G65" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>11529215046068500000</v>
+        <v>367684687170</v>
       </c>
       <c r="H65" s="9">
-        <v>1152</v>
+        <v>3676</v>
       </c>
       <c r="I65" s="9">
-        <v>9215</v>
+        <v>8468</v>
       </c>
       <c r="J65" s="9">
-        <v>460</v>
-      </c>
-      <c r="K65" s="9">
-        <v>6850</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
+        <v>7170</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -4866,42 +4748,38 @@
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>4_2305,3_8430</v>
+        <v>2_5515,1_2703</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" s="8">
         <f t="shared" si="6"/>
-        <v>2.305843009213694E+19</v>
+        <v>551527030753.99512</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" si="5"/>
-        <v>2.3058430092136899E+19</v>
+        <v>551527030754</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>23058430092136900000</v>
+        <v>551527030754</v>
       </c>
       <c r="H66" s="9">
-        <v>2305</v>
+        <v>5515</v>
       </c>
       <c r="I66" s="9">
-        <v>8430</v>
+        <v>2703</v>
       </c>
       <c r="J66" s="9">
-        <v>921</v>
-      </c>
-      <c r="K66" s="9">
-        <v>3690</v>
-      </c>
-      <c r="L66" s="9">
-        <v>0</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -4911,42 +4789,38 @@
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>4_4611,3_6860</v>
+        <v>2_8272,1_9054</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="6"/>
-        <v>4.6116860184273879E+19</v>
+        <v>827290546130.99268</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="5"/>
-        <v>4.6116860184273904E+19</v>
+        <v>827290546131</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>46116860184273900000</v>
+        <v>827290546131</v>
       </c>
       <c r="H67" s="9">
-        <v>4611</v>
+        <v>8272</v>
       </c>
       <c r="I67" s="9">
-        <v>6860</v>
+        <v>9054</v>
       </c>
       <c r="J67" s="9">
-        <v>1842</v>
-      </c>
-      <c r="K67" s="9">
-        <v>7390</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
+        <v>6131</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -4956,42 +4830,40 @@
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>4_9223,3_3720</v>
+        <v>3_1240,2_9358</v>
       </c>
       <c r="C68">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="8">
         <f t="shared" si="6"/>
-        <v>9.2233720368547758E+19</v>
+        <v>1240935819196.489</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="5"/>
-        <v>9.2233720368547807E+19</v>
+        <v>1240935819197</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>92233720368547800000</v>
+        <v>1240935819197</v>
       </c>
       <c r="H68" s="9">
-        <v>9223</v>
+        <v>1240</v>
       </c>
       <c r="I68" s="9">
-        <v>3720</v>
+        <v>9358</v>
       </c>
       <c r="J68" s="9">
-        <v>3685</v>
+        <v>1919</v>
       </c>
       <c r="K68" s="9">
-        <v>4780</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
@@ -5001,45 +4873,41 @@
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>5_1844,4_6744</v>
+        <v>3_1861,2_4037</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="6"/>
-        <v>1.8446744073709552E+20</v>
+        <v>1861403728794.7334</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" ref="F69:F79" si="7">ROUNDUP(D69,0)</f>
-        <v>1.8446744073709601E+20</v>
+        <v>1861403728795</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>184467440737096000000</v>
+        <v>1861403728795</v>
       </c>
       <c r="H69" s="9">
-        <v>1844</v>
+        <v>1861</v>
       </c>
       <c r="I69" s="9">
-        <v>6744</v>
+        <v>4037</v>
       </c>
       <c r="J69" s="9">
-        <v>737</v>
+        <v>2879</v>
       </c>
       <c r="K69" s="9">
-        <v>960</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0</v>
-      </c>
-      <c r="M69" s="9">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
@@ -5048,45 +4916,41 @@
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>5_3689,4_3488</v>
+        <v>3_2792,2_1055</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" s="8">
         <f t="shared" ref="D70:D79" si="8">D69*E69</f>
-        <v>3.6893488147419103E+20</v>
+        <v>2792105593192.1001</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="7"/>
-        <v>3.6893488147419103E+20</v>
+        <v>2792105593193</v>
       </c>
       <c r="G70" s="9" t="str">
         <f t="shared" ref="G70:G79" si="9">TEXT(F70,"0")</f>
-        <v>368934881474191000000</v>
+        <v>2792105593193</v>
       </c>
       <c r="H70" s="9">
-        <v>3689</v>
+        <v>2792</v>
       </c>
       <c r="I70" s="9">
-        <v>3488</v>
+        <v>1055</v>
       </c>
       <c r="J70" s="9">
-        <v>1474</v>
+        <v>9319</v>
       </c>
       <c r="K70" s="9">
-        <v>1910</v>
-      </c>
-      <c r="L70" s="9">
-        <v>0</v>
-      </c>
-      <c r="M70" s="9">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
@@ -5095,45 +4959,41 @@
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B79" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>5_7378,4_6976</v>
+        <v>3_4188,2_1583</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C79" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="8"/>
-        <v>7.3786976294838206E+20</v>
+        <v>4188158389788.1504</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="7"/>
-        <v>7.3786976294838206E+20</v>
+        <v>4188158389789</v>
       </c>
       <c r="G71" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>737869762948382000000</v>
+        <v>4188158389789</v>
       </c>
       <c r="H71" s="9">
-        <v>7378</v>
+        <v>4188</v>
       </c>
       <c r="I71" s="9">
-        <v>6976</v>
+        <v>1583</v>
       </c>
       <c r="J71" s="9">
-        <v>2948</v>
+        <v>8978</v>
       </c>
       <c r="K71" s="9">
-        <v>3820</v>
-      </c>
-      <c r="L71" s="9">
-        <v>0</v>
-      </c>
-      <c r="M71" s="9">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
@@ -5142,45 +5002,41 @@
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="10"/>
-        <v>5_1475,4_7395</v>
+        <v>3_6282,2_2375</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="8">
         <f t="shared" si="8"/>
-        <v>1.4757395258967641E+21</v>
+        <v>6282237584682.2256</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="7"/>
-        <v>1.4757395258967599E+21</v>
+        <v>6282237584683</v>
       </c>
       <c r="G72" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>1475739525896760000000</v>
+        <v>6282237584683</v>
       </c>
       <c r="H72" s="9">
-        <v>1475</v>
+        <v>6282</v>
       </c>
       <c r="I72" s="9">
-        <v>7395</v>
+        <v>2375</v>
       </c>
       <c r="J72" s="9">
-        <v>2589</v>
+        <v>8468</v>
       </c>
       <c r="K72" s="9">
-        <v>6760</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
@@ -5189,45 +5045,41 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="10"/>
-        <v>5_2951,4_4790</v>
+        <v>3_9423,2_3563</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" s="8">
         <f t="shared" si="8"/>
-        <v>2.9514790517935283E+21</v>
+        <v>9423356377023.3379</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="7"/>
-        <v>2.9514790517935298E+21</v>
+        <v>9423356377024</v>
       </c>
       <c r="G73" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>2951479051793530000000</v>
+        <v>9423356377024</v>
       </c>
       <c r="H73" s="9">
-        <v>2951</v>
+        <v>9423</v>
       </c>
       <c r="I73" s="9">
-        <v>4790</v>
+        <v>3563</v>
       </c>
       <c r="J73" s="9">
-        <v>5179</v>
+        <v>7702</v>
       </c>
       <c r="K73" s="9">
-        <v>3530</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
@@ -5236,45 +5088,41 @@
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="10"/>
-        <v>5_5902,4_9581</v>
+        <v>3_1413,2_5034</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" s="8">
         <f t="shared" si="8"/>
-        <v>5.9029581035870565E+21</v>
+        <v>14135034565535.008</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="7"/>
-        <v>5.9029581035870597E+21</v>
+        <v>14135034565535</v>
       </c>
       <c r="G74" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>5902958103587060000000</v>
+        <v>14135034565535</v>
       </c>
       <c r="H74" s="9">
-        <v>5902</v>
+        <v>1413</v>
       </c>
       <c r="I74" s="9">
-        <v>9581</v>
+        <v>5034</v>
       </c>
       <c r="J74" s="9">
-        <v>358</v>
+        <v>5655</v>
       </c>
       <c r="K74" s="9">
-        <v>7060</v>
-      </c>
-      <c r="L74" s="9">
-        <v>0</v>
-      </c>
-      <c r="M74" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
@@ -5283,45 +5131,41 @@
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="10"/>
-        <v>5_1180,4_5916</v>
+        <v>3_2120,2_2551</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="8"/>
-        <v>1.1805916207174113E+22</v>
+        <v>21202551848302.512</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" si="7"/>
-        <v>1.18059162071741E+22</v>
+        <v>21202551848303</v>
       </c>
       <c r="G75" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>11805916207174100000000</v>
+        <v>21202551848303</v>
       </c>
       <c r="H75" s="9">
-        <v>1180</v>
+        <v>2120</v>
       </c>
       <c r="I75" s="9">
-        <v>5916</v>
+        <v>2551</v>
       </c>
       <c r="J75" s="9">
-        <v>2071</v>
+        <v>8483</v>
       </c>
       <c r="K75" s="9">
-        <v>7410</v>
-      </c>
-      <c r="L75" s="9">
-        <v>0</v>
-      </c>
-      <c r="M75" s="9">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
@@ -5330,45 +5174,41 @@
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="10"/>
-        <v>5_2361,4_1832</v>
+        <v>3_3180,2_3827</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" s="8">
         <f t="shared" si="8"/>
-        <v>2.3611832414348226E+22</v>
+        <v>31803827772453.766</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="7"/>
-        <v>2.3611832414348201E+22</v>
+        <v>31803827772454</v>
       </c>
       <c r="G76" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>23611832414348200000000</v>
+        <v>31803827772454</v>
       </c>
       <c r="H76" s="9">
-        <v>2361</v>
+        <v>3180</v>
       </c>
       <c r="I76" s="9">
-        <v>1832</v>
+        <v>3827</v>
       </c>
       <c r="J76" s="9">
-        <v>4143</v>
+        <v>7724</v>
       </c>
       <c r="K76" s="9">
-        <v>4820</v>
-      </c>
-      <c r="L76" s="9">
-        <v>0</v>
-      </c>
-      <c r="M76" s="9">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
@@ -5377,45 +5217,41 @@
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="10"/>
-        <v>5_4722,4_3664</v>
+        <v>3_4770,2_5741</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="8"/>
-        <v>4.7223664828696452E+22</v>
+        <v>47705741658680.648</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="7"/>
-        <v>4.7223664828696502E+22</v>
+        <v>47705741658681</v>
       </c>
       <c r="G77" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>47223664828696500000000</v>
+        <v>47705741658681</v>
       </c>
       <c r="H77" s="9">
-        <v>4722</v>
+        <v>4770</v>
       </c>
       <c r="I77" s="9">
-        <v>3664</v>
+        <v>5741</v>
       </c>
       <c r="J77" s="9">
-        <v>8286</v>
+        <v>6586</v>
       </c>
       <c r="K77" s="9">
-        <v>9650</v>
-      </c>
-      <c r="L77" s="9">
-        <v>0</v>
-      </c>
-      <c r="M77" s="9">
-        <v>0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
@@ -5424,45 +5260,41 @@
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="10"/>
-        <v>5_9444,4_7329</v>
+        <v>3_7155,2_8612</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" si="8"/>
-        <v>9.4447329657392904E+22</v>
+        <v>71558612488020.969</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="7"/>
-        <v>9.4447329657392904E+22</v>
+        <v>71558612488021</v>
       </c>
       <c r="G78" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>94447329657392900000000</v>
+        <v>71558612488021</v>
       </c>
       <c r="H78" s="9">
-        <v>9444</v>
+        <v>7155</v>
       </c>
       <c r="I78" s="9">
-        <v>7329</v>
+        <v>8612</v>
       </c>
       <c r="J78" s="9">
-        <v>6573</v>
+        <v>4880</v>
       </c>
       <c r="K78" s="9">
-        <v>9290</v>
-      </c>
-      <c r="L78" s="9">
-        <v>0</v>
-      </c>
-      <c r="M78" s="9">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
@@ -5471,45 +5303,41 @@
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="10"/>
-        <v>5_1888,4_9465</v>
+        <v>3_1073,2_3791</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="8"/>
-        <v>1.8889465931478581E+23</v>
+        <v>107337918732031.45</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="7"/>
-        <v>1.8889465931478601E+23</v>
+        <v>107337918732031</v>
       </c>
       <c r="G79" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>188894659314786000000000</v>
+        <v>107337918732031</v>
       </c>
       <c r="H79" s="9">
-        <v>1888</v>
+        <v>1073</v>
       </c>
       <c r="I79" s="9">
-        <v>9465</v>
+        <v>3791</v>
       </c>
       <c r="J79" s="9">
-        <v>9314</v>
+        <v>8732</v>
       </c>
       <c r="K79" s="9">
-        <v>7860</v>
-      </c>
-      <c r="L79" s="9">
-        <v>0</v>
-      </c>
-      <c r="M79" s="9">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
@@ -5518,5 +5346,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -173,48 +173,6 @@
     <t>0_9853</t>
   </si>
   <si>
-    <t>1_1477,0_9</t>
-  </si>
-  <si>
-    <t>1_2216,0_9</t>
-  </si>
-  <si>
-    <t>1_3325,0_3</t>
-  </si>
-  <si>
-    <t>1_4987,0_9</t>
-  </si>
-  <si>
-    <t>1_7481,0_9</t>
-  </si>
-  <si>
-    <t>1_1122,0_28</t>
-  </si>
-  <si>
-    <t>1_1683,0_42</t>
-  </si>
-  <si>
-    <t>1_2525,0_12</t>
-  </si>
-  <si>
-    <t>1_3787,0_68</t>
-  </si>
-  <si>
-    <t>1_5681,0_52</t>
-  </si>
-  <si>
-    <t>1_8522,0_27</t>
-  </si>
-  <si>
-    <t>1_1278,0_341</t>
-  </si>
-  <si>
-    <t>1_1917,0_511</t>
-  </si>
-  <si>
-    <t>1_2876,0_266</t>
-  </si>
-  <si>
     <t>1_4314,0_399</t>
   </si>
   <si>
@@ -239,57 +197,6 @@
     <t>1_7371,0_5549</t>
   </si>
   <si>
-    <t>2_1105,1_7332</t>
-  </si>
-  <si>
-    <t>2_1658,1_5998</t>
-  </si>
-  <si>
-    <t>2_2487,1_8997</t>
-  </si>
-  <si>
-    <t>2_3731,1_8496</t>
-  </si>
-  <si>
-    <t>2_5597,1_7744</t>
-  </si>
-  <si>
-    <t>2_8396,1_6617</t>
-  </si>
-  <si>
-    <t>2_1259,1_4992</t>
-  </si>
-  <si>
-    <t>2_1889,1_2488</t>
-  </si>
-  <si>
-    <t>2_2833,1_8733</t>
-  </si>
-  <si>
-    <t>2_4250,1_8100</t>
-  </si>
-  <si>
-    <t>2_6376,1_2150</t>
-  </si>
-  <si>
-    <t>2_9564,1_3225</t>
-  </si>
-  <si>
-    <t>2_1434,1_6483</t>
-  </si>
-  <si>
-    <t>2_2151,1_9725</t>
-  </si>
-  <si>
-    <t>2_3227,1_9588</t>
-  </si>
-  <si>
-    <t>2_4841,1_9382</t>
-  </si>
-  <si>
-    <t>2_7262,1_9074</t>
-  </si>
-  <si>
     <t>2_1089,1_4361</t>
   </si>
   <si>
@@ -308,44 +215,136 @@
     <t>2_8272,1_9054</t>
   </si>
   <si>
-    <t>3_1240,2_9358</t>
-  </si>
-  <si>
-    <t>3_1861,2_4037</t>
-  </si>
-  <si>
-    <t>3_2792,2_1055</t>
-  </si>
-  <si>
-    <t>3_4188,2_1583</t>
-  </si>
-  <si>
-    <t>3_6282,2_2375</t>
-  </si>
-  <si>
-    <t>3_9423,2_3563</t>
-  </si>
-  <si>
-    <t>3_1413,2_5034</t>
-  </si>
-  <si>
-    <t>3_2120,2_2551</t>
-  </si>
-  <si>
-    <t>3_3180,2_3827</t>
-  </si>
-  <si>
-    <t>3_4770,2_5741</t>
-  </si>
-  <si>
-    <t>3_7155,2_8612</t>
-  </si>
-  <si>
-    <t>3_1073,2_3791</t>
-  </si>
-  <si>
-    <t>0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>0_10</t>
+  </si>
+  <si>
+    <t>1_1,0_4779</t>
+  </si>
+  <si>
+    <t>1_2,0_2169</t>
+  </si>
+  <si>
+    <t>1_3,0_3253</t>
+  </si>
+  <si>
+    <t>1_4,0_9879</t>
+  </si>
+  <si>
+    <t>1_7,0_4819</t>
+  </si>
+  <si>
+    <t>1_11,0_2228</t>
+  </si>
+  <si>
+    <t>1_16,0_8342</t>
+  </si>
+  <si>
+    <t>1_25,0_2512</t>
+  </si>
+  <si>
+    <t>1_37,0_8768</t>
+  </si>
+  <si>
+    <t>1_56,0_8152</t>
+  </si>
+  <si>
+    <t>1_85,0_2227</t>
+  </si>
+  <si>
+    <t>1_127,0_8341</t>
+  </si>
+  <si>
+    <t>1_191,0_7511</t>
+  </si>
+  <si>
+    <t>1_287,0_6266</t>
+  </si>
+  <si>
+    <t>2_1,1_1057</t>
+  </si>
+  <si>
+    <t>2_1,1_6585</t>
+  </si>
+  <si>
+    <t>2_2,1_4878</t>
+  </si>
+  <si>
+    <t>2_3,1_7318</t>
+  </si>
+  <si>
+    <t>2_5,1_5977</t>
+  </si>
+  <si>
+    <t>2_8,1_3966</t>
+  </si>
+  <si>
+    <t>2_12,1_5949</t>
+  </si>
+  <si>
+    <t>2_18,1_8924</t>
+  </si>
+  <si>
+    <t>2_28,1_3387</t>
+  </si>
+  <si>
+    <t>2_42,1_5081</t>
+  </si>
+  <si>
+    <t>2_63,1_7621</t>
+  </si>
+  <si>
+    <t>2_95,1_6432</t>
+  </si>
+  <si>
+    <t>2_143,1_4648</t>
+  </si>
+  <si>
+    <t>2_215,1_1972</t>
+  </si>
+  <si>
+    <t>2_322,1_7958</t>
+  </si>
+  <si>
+    <t>2_484,1_1938</t>
+  </si>
+  <si>
+    <t>2_726,1_2907</t>
+  </si>
+  <si>
+    <t>3_1,2_2409</t>
+  </si>
+  <si>
+    <t>3_1,2_8614</t>
+  </si>
+  <si>
+    <t>3_2,2_7921</t>
+  </si>
+  <si>
+    <t>3_4,2_1881</t>
+  </si>
+  <si>
+    <t>3_6,2_2822</t>
+  </si>
+  <si>
+    <t>3_9,2_4233</t>
+  </si>
+  <si>
+    <t>3_14,2_1350</t>
+  </si>
+  <si>
+    <t>3_21,2_2025</t>
+  </si>
+  <si>
+    <t>3_31,2_8038</t>
+  </si>
+  <si>
+    <t>3_47,2_7057</t>
+  </si>
+  <si>
+    <t>3_71,2_5586</t>
+  </si>
+  <si>
+    <t>3_107,2_3379</t>
   </si>
 </sst>
 </file>
@@ -424,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +468,21 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,7 +827,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -867,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1025,7 +1039,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1034,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,7 +1064,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1058,7 +1072,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1067,7 +1081,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1083,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1091,7 +1105,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1121,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1129,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1145,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1161,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1169,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1193,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1209,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1217,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1233,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1241,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1249,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1257,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1265,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1273,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1281,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1289,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1297,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1305,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1313,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1321,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1329,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1337,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1345,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1353,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1361,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1369,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1377,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1385,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1393,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1401,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1409,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1417,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1425,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1433,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1441,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1449,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1457,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1465,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1473,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1481,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1489,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2362,9 +2376,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R79"/>
+  <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B79"/>
     </sheetView>
   </sheetViews>
@@ -2373,8 +2387,8 @@
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.59765625" customWidth="1"/>
     <col min="5" max="5" width="7.3984375" customWidth="1"/>
-    <col min="6" max="6" width="3.3984375" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="8.796875" style="12"/>
     <col min="17" max="17" width="8.796875" style="15"/>
@@ -2435,12 +2449,12 @@
         <f>TEXT(F5,"0")</f>
         <v>10</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="20">
         <v>10</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -2471,12 +2485,12 @@
         <f t="shared" ref="G6:G69" si="2">TEXT(F6,"0")</f>
         <v>15</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="15">
         <v>15</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2507,12 +2521,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="15">
         <v>23</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -2543,12 +2557,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="15">
         <v>34</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -2579,12 +2593,12 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="15">
         <v>51</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -2615,17 +2629,17 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="15">
         <v>76</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
@@ -2651,12 +2665,12 @@
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="15">
         <v>114</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -2687,12 +2701,12 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="15">
         <v>171</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -2723,12 +2737,12 @@
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="15">
         <v>257</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -2759,12 +2773,12 @@
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="15">
         <v>385</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2795,12 +2809,12 @@
         <f t="shared" si="2"/>
         <v>577</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="15">
         <v>577</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -2831,12 +2845,12 @@
         <f t="shared" si="2"/>
         <v>865</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="15">
         <v>865</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -2867,12 +2881,12 @@
         <f t="shared" si="2"/>
         <v>1298</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="15">
         <v>1298</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2903,12 +2917,12 @@
         <f t="shared" si="2"/>
         <v>1947</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="15">
         <v>1947</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -2939,12 +2953,12 @@
         <f t="shared" si="2"/>
         <v>2920</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="15">
         <v>2920</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -2975,12 +2989,12 @@
         <f t="shared" si="2"/>
         <v>4379</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="15">
         <v>4379</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -3011,12 +3025,12 @@
         <f t="shared" si="2"/>
         <v>6569</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="15">
         <v>6569</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -3047,12 +3061,12 @@
         <f t="shared" si="2"/>
         <v>9853</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="15">
         <v>9853</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -3062,7 +3076,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
-        <v>1_1477,0_9</v>
+        <v>1_1,0_4779</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -3083,14 +3097,14 @@
         <f t="shared" si="2"/>
         <v>14779</v>
       </c>
-      <c r="H23" s="9">
-        <v>1477</v>
-      </c>
-      <c r="I23" s="9">
-        <v>9</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>4779</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -3100,7 +3114,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
-        <v>1_2216,0_9</v>
+        <v>1_2,0_2169</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -3121,14 +3135,14 @@
         <f t="shared" si="2"/>
         <v>22169</v>
       </c>
-      <c r="H24" s="9">
-        <v>2216</v>
-      </c>
-      <c r="I24" s="9">
-        <v>9</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2169</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -3138,7 +3152,7 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
-        <v>1_3325,0_3</v>
+        <v>1_3,0_3253</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -3159,14 +3173,14 @@
         <f t="shared" si="2"/>
         <v>33253</v>
       </c>
-      <c r="H25" s="9">
-        <v>3325</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="H25" s="15">
         <v>3</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="I25" s="15">
+        <v>3253</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -3176,7 +3190,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
-        <v>1_4987,0_9</v>
+        <v>1_4,0_9879</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -3197,14 +3211,14 @@
         <f t="shared" si="2"/>
         <v>49879</v>
       </c>
-      <c r="H26" s="9">
-        <v>4987</v>
-      </c>
-      <c r="I26" s="9">
-        <v>9</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="H26" s="15">
+        <v>4</v>
+      </c>
+      <c r="I26" s="15">
+        <v>9879</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -3214,7 +3228,7 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
-        <v>1_7481,0_9</v>
+        <v>1_7,0_4819</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -3235,14 +3249,14 @@
         <f t="shared" si="2"/>
         <v>74819</v>
       </c>
-      <c r="H27" s="9">
-        <v>7481</v>
-      </c>
-      <c r="I27" s="9">
-        <v>9</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="H27" s="15">
+        <v>7</v>
+      </c>
+      <c r="I27" s="15">
+        <v>4819</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -3252,7 +3266,7 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>1_1122,0_28</v>
+        <v>1_11,0_2228</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -3273,14 +3287,14 @@
         <f t="shared" si="2"/>
         <v>112228</v>
       </c>
-      <c r="H28" s="9">
-        <v>1122</v>
-      </c>
-      <c r="I28" s="9">
-        <v>28</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="H28" s="15">
+        <v>11</v>
+      </c>
+      <c r="I28" s="15">
+        <v>2228</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -3290,7 +3304,7 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>1_1683,0_42</v>
+        <v>1_16,0_8342</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -3311,14 +3325,14 @@
         <f t="shared" si="2"/>
         <v>168342</v>
       </c>
-      <c r="H29" s="9">
-        <v>1683</v>
-      </c>
-      <c r="I29" s="9">
-        <v>42</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="H29" s="15">
+        <v>16</v>
+      </c>
+      <c r="I29" s="15">
+        <v>8342</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -3328,7 +3342,7 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>1_2525,0_12</v>
+        <v>1_25,0_2512</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -3349,14 +3363,14 @@
         <f t="shared" si="2"/>
         <v>252512</v>
       </c>
-      <c r="H30" s="9">
-        <v>2525</v>
-      </c>
-      <c r="I30" s="9">
-        <v>12</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="H30" s="15">
+        <v>25</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2512</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -3366,7 +3380,7 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>1_3787,0_68</v>
+        <v>1_37,0_8768</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -3387,14 +3401,14 @@
         <f t="shared" si="2"/>
         <v>378768</v>
       </c>
-      <c r="H31" s="9">
-        <v>3787</v>
-      </c>
-      <c r="I31" s="9">
-        <v>68</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="H31" s="15">
+        <v>37</v>
+      </c>
+      <c r="I31" s="15">
+        <v>8768</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -3404,7 +3418,7 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>1_5681,0_52</v>
+        <v>1_56,0_8152</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -3425,14 +3439,14 @@
         <f t="shared" si="2"/>
         <v>568152</v>
       </c>
-      <c r="H32" s="9">
-        <v>5681</v>
-      </c>
-      <c r="I32" s="9">
-        <v>52</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="H32" s="15">
+        <v>56</v>
+      </c>
+      <c r="I32" s="15">
+        <v>8152</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3442,7 +3456,7 @@
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>1_8522,0_27</v>
+        <v>1_85,0_2227</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -3463,14 +3477,14 @@
         <f t="shared" si="2"/>
         <v>852227</v>
       </c>
-      <c r="H33" s="9">
-        <v>8522</v>
-      </c>
-      <c r="I33" s="9">
-        <v>27</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="H33" s="15">
+        <v>85</v>
+      </c>
+      <c r="I33" s="15">
+        <v>2227</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -3480,7 +3494,7 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>1_1278,0_341</v>
+        <v>1_127,0_8341</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -3501,14 +3515,14 @@
         <f t="shared" si="2"/>
         <v>1278341</v>
       </c>
-      <c r="H34" s="9">
-        <v>1278</v>
-      </c>
-      <c r="I34" s="9">
-        <v>341</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="H34" s="15">
+        <v>127</v>
+      </c>
+      <c r="I34" s="15">
+        <v>8341</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -3518,7 +3532,7 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>1_1917,0_511</v>
+        <v>1_191,0_7511</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -3539,14 +3553,14 @@
         <f t="shared" si="2"/>
         <v>1917511</v>
       </c>
-      <c r="H35" s="9">
-        <v>1917</v>
-      </c>
-      <c r="I35" s="9">
-        <v>511</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="H35" s="15">
+        <v>191</v>
+      </c>
+      <c r="I35" s="15">
+        <v>7511</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -3556,7 +3570,7 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>1_2876,0_266</v>
+        <v>1_287,0_6266</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -3577,14 +3591,14 @@
         <f t="shared" si="2"/>
         <v>2876266</v>
       </c>
-      <c r="H36" s="9">
-        <v>2876</v>
-      </c>
-      <c r="I36" s="9">
-        <v>266</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="H36" s="15">
+        <v>287</v>
+      </c>
+      <c r="I36" s="15">
+        <v>6266</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -3615,14 +3629,14 @@
         <f t="shared" si="2"/>
         <v>4314399</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="15">
         <v>4314</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="15">
         <v>399</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -3653,14 +3667,14 @@
         <f t="shared" si="2"/>
         <v>6471599</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="15">
         <v>6471</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="15">
         <v>599</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -3691,14 +3705,14 @@
         <f t="shared" si="2"/>
         <v>9707398</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="15">
         <v>9707</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="15">
         <v>398</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -3729,14 +3743,14 @@
         <f t="shared" si="2"/>
         <v>14561097</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="15">
         <v>1456</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="15">
         <v>1097</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -3767,14 +3781,14 @@
         <f t="shared" si="2"/>
         <v>21841645</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="15">
         <v>2184</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="15">
         <v>1645</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -3805,14 +3819,14 @@
         <f t="shared" si="2"/>
         <v>32762467</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="15">
         <v>3276</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="15">
         <v>2467</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -3843,14 +3857,14 @@
         <f t="shared" si="2"/>
         <v>49143700</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="15">
         <v>4914</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="15">
         <v>3700</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -3881,14 +3895,14 @@
         <f t="shared" si="2"/>
         <v>73715549</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="15">
         <v>7371</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="15">
         <v>5549</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -3898,7 +3912,7 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>2_1105,1_7332</v>
+        <v>2_1,1_1057</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -3919,16 +3933,16 @@
         <f t="shared" si="2"/>
         <v>110573324</v>
       </c>
-      <c r="H45" s="9">
-        <v>1105</v>
-      </c>
-      <c r="I45" s="9">
-        <v>7332</v>
-      </c>
-      <c r="J45" s="9">
-        <v>4</v>
-      </c>
-      <c r="K45" s="9"/>
+      <c r="H45" s="21">
+        <v>1</v>
+      </c>
+      <c r="I45" s="21">
+        <v>1057</v>
+      </c>
+      <c r="J45" s="21">
+        <v>3324</v>
+      </c>
+      <c r="K45" s="21"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -3938,7 +3952,7 @@
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>2_1658,1_5998</v>
+        <v>2_1,1_6585</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -3959,16 +3973,16 @@
         <f t="shared" si="2"/>
         <v>165859985</v>
       </c>
-      <c r="H46" s="9">
-        <v>1658</v>
-      </c>
-      <c r="I46" s="9">
-        <v>5998</v>
-      </c>
-      <c r="J46" s="9">
-        <v>5</v>
-      </c>
-      <c r="K46" s="9"/>
+      <c r="H46" s="21">
+        <v>1</v>
+      </c>
+      <c r="I46" s="21">
+        <v>6585</v>
+      </c>
+      <c r="J46" s="21">
+        <v>9985</v>
+      </c>
+      <c r="K46" s="21"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -3978,7 +3992,7 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>2_2487,1_8997</v>
+        <v>2_2,1_4878</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -3999,16 +4013,16 @@
         <f t="shared" si="2"/>
         <v>248789978</v>
       </c>
-      <c r="H47" s="9">
-        <v>2487</v>
-      </c>
-      <c r="I47" s="9">
-        <v>8997</v>
-      </c>
-      <c r="J47" s="9">
-        <v>8</v>
-      </c>
-      <c r="K47" s="9"/>
+      <c r="H47" s="21">
+        <v>2</v>
+      </c>
+      <c r="I47" s="21">
+        <v>4878</v>
+      </c>
+      <c r="J47" s="21">
+        <v>9978</v>
+      </c>
+      <c r="K47" s="21"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -4018,7 +4032,7 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>2_3731,1_8496</v>
+        <v>2_3,1_7318</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4039,16 +4053,16 @@
         <f t="shared" si="2"/>
         <v>373184966</v>
       </c>
-      <c r="H48" s="9">
-        <v>3731</v>
-      </c>
-      <c r="I48" s="9">
-        <v>8496</v>
-      </c>
-      <c r="J48" s="9">
-        <v>6</v>
-      </c>
-      <c r="K48" s="9"/>
+      <c r="H48" s="21">
+        <v>3</v>
+      </c>
+      <c r="I48" s="21">
+        <v>7318</v>
+      </c>
+      <c r="J48" s="21">
+        <v>4966</v>
+      </c>
+      <c r="K48" s="21"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -4058,7 +4072,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>2_5597,1_7744</v>
+        <v>2_5,1_5977</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4079,16 +4093,16 @@
         <f t="shared" si="2"/>
         <v>559777449</v>
       </c>
-      <c r="H49" s="9">
-        <v>5597</v>
-      </c>
-      <c r="I49" s="9">
-        <v>7744</v>
-      </c>
-      <c r="J49" s="9">
-        <v>9</v>
-      </c>
-      <c r="K49" s="9"/>
+      <c r="H49" s="21">
+        <v>5</v>
+      </c>
+      <c r="I49" s="21">
+        <v>5977</v>
+      </c>
+      <c r="J49" s="21">
+        <v>7449</v>
+      </c>
+      <c r="K49" s="21"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -4098,7 +4112,7 @@
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>2_8396,1_6617</v>
+        <v>2_8,1_3966</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4119,16 +4133,16 @@
         <f t="shared" si="2"/>
         <v>839666174</v>
       </c>
-      <c r="H50" s="9">
-        <v>8396</v>
-      </c>
-      <c r="I50" s="9">
-        <v>6617</v>
-      </c>
-      <c r="J50" s="9">
-        <v>4</v>
-      </c>
-      <c r="K50" s="9"/>
+      <c r="H50" s="21">
+        <v>8</v>
+      </c>
+      <c r="I50" s="21">
+        <v>3966</v>
+      </c>
+      <c r="J50" s="21">
+        <v>6174</v>
+      </c>
+      <c r="K50" s="21"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -4138,7 +4152,7 @@
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>2_1259,1_4992</v>
+        <v>2_12,1_5949</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4159,16 +4173,16 @@
         <f t="shared" si="2"/>
         <v>1259499260</v>
       </c>
-      <c r="H51" s="9">
-        <v>1259</v>
-      </c>
-      <c r="I51" s="9">
-        <v>4992</v>
-      </c>
-      <c r="J51" s="9">
-        <v>60</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="H51" s="21">
+        <v>12</v>
+      </c>
+      <c r="I51" s="21">
+        <v>5949</v>
+      </c>
+      <c r="J51" s="21">
+        <v>9260</v>
+      </c>
+      <c r="K51" s="21"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -4178,7 +4192,7 @@
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>2_1889,1_2488</v>
+        <v>2_18,1_8924</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4199,16 +4213,16 @@
         <f t="shared" si="2"/>
         <v>1889248890</v>
       </c>
-      <c r="H52" s="9">
-        <v>1889</v>
-      </c>
-      <c r="I52" s="9">
-        <v>2488</v>
-      </c>
-      <c r="J52" s="9">
-        <v>90</v>
-      </c>
-      <c r="K52" s="9"/>
+      <c r="H52" s="21">
+        <v>18</v>
+      </c>
+      <c r="I52" s="21">
+        <v>8924</v>
+      </c>
+      <c r="J52" s="21">
+        <v>8890</v>
+      </c>
+      <c r="K52" s="21"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -4218,7 +4232,7 @@
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>2_2833,1_8733</v>
+        <v>2_28,1_3387</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -4239,16 +4253,16 @@
         <f t="shared" si="2"/>
         <v>2833873335</v>
       </c>
-      <c r="H53" s="9">
-        <v>2833</v>
-      </c>
-      <c r="I53" s="9">
-        <v>8733</v>
-      </c>
-      <c r="J53" s="9">
-        <v>35</v>
-      </c>
-      <c r="K53" s="9"/>
+      <c r="H53" s="21">
+        <v>28</v>
+      </c>
+      <c r="I53" s="21">
+        <v>3387</v>
+      </c>
+      <c r="J53" s="21">
+        <v>3335</v>
+      </c>
+      <c r="K53" s="21"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -4258,7 +4272,7 @@
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>2_4250,1_8100</v>
+        <v>2_42,1_5081</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -4279,16 +4293,16 @@
         <f t="shared" si="2"/>
         <v>4250810002</v>
       </c>
-      <c r="H54" s="9">
-        <v>4250</v>
-      </c>
-      <c r="I54" s="9">
-        <v>8100</v>
-      </c>
-      <c r="J54" s="9">
+      <c r="H54" s="19">
+        <v>42</v>
+      </c>
+      <c r="I54" s="19">
+        <v>5081</v>
+      </c>
+      <c r="J54" s="19">
         <v>2</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="21"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -4298,7 +4312,7 @@
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>2_6376,1_2150</v>
+        <v>2_63,1_7621</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -4319,16 +4333,16 @@
         <f t="shared" si="2"/>
         <v>6376215003</v>
       </c>
-      <c r="H55" s="9">
-        <v>6376</v>
-      </c>
-      <c r="I55" s="9">
-        <v>2150</v>
-      </c>
-      <c r="J55" s="9">
-        <v>3</v>
-      </c>
-      <c r="K55" s="9"/>
+      <c r="H55" s="19">
+        <v>63</v>
+      </c>
+      <c r="I55" s="19">
+        <v>7621</v>
+      </c>
+      <c r="J55" s="19">
+        <v>5003</v>
+      </c>
+      <c r="K55" s="21"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -4338,7 +4352,7 @@
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>2_9564,1_3225</v>
+        <v>2_95,1_6432</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -4359,16 +4373,16 @@
         <f t="shared" si="2"/>
         <v>9564322504</v>
       </c>
-      <c r="H56" s="9">
-        <v>9564</v>
-      </c>
-      <c r="I56" s="9">
-        <v>3225</v>
-      </c>
-      <c r="J56" s="9">
-        <v>4</v>
-      </c>
-      <c r="K56" s="9"/>
+      <c r="H56" s="19">
+        <v>95</v>
+      </c>
+      <c r="I56" s="19">
+        <v>6432</v>
+      </c>
+      <c r="J56" s="19">
+        <v>2504</v>
+      </c>
+      <c r="K56" s="21"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -4379,7 +4393,7 @@
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>2_1434,1_6483</v>
+        <v>2_143,1_4648</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -4400,16 +4414,16 @@
         <f t="shared" si="2"/>
         <v>14346483755</v>
       </c>
-      <c r="H57" s="9">
-        <v>1434</v>
-      </c>
-      <c r="I57" s="9">
-        <v>6483</v>
-      </c>
-      <c r="J57" s="9">
-        <v>755</v>
-      </c>
-      <c r="K57" s="9"/>
+      <c r="H57" s="19">
+        <v>143</v>
+      </c>
+      <c r="I57" s="19">
+        <v>4648</v>
+      </c>
+      <c r="J57" s="19">
+        <v>3755</v>
+      </c>
+      <c r="K57" s="21"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -4420,7 +4434,7 @@
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>2_2151,1_9725</v>
+        <v>2_215,1_1972</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -4441,16 +4455,16 @@
         <f t="shared" si="2"/>
         <v>21519725633</v>
       </c>
-      <c r="H58" s="9">
-        <v>2151</v>
-      </c>
-      <c r="I58" s="9">
-        <v>9725</v>
-      </c>
-      <c r="J58" s="9">
-        <v>633</v>
-      </c>
-      <c r="K58" s="9"/>
+      <c r="H58" s="19">
+        <v>215</v>
+      </c>
+      <c r="I58" s="19">
+        <v>1972</v>
+      </c>
+      <c r="J58" s="19">
+        <v>5633</v>
+      </c>
+      <c r="K58" s="21"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -4461,7 +4475,7 @@
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>2_3227,1_9588</v>
+        <v>2_322,1_7958</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -4482,16 +4496,16 @@
         <f t="shared" si="2"/>
         <v>32279588449</v>
       </c>
-      <c r="H59" s="9">
-        <v>3227</v>
-      </c>
-      <c r="I59" s="9">
-        <v>9588</v>
-      </c>
-      <c r="J59" s="9">
-        <v>449</v>
-      </c>
-      <c r="K59" s="9"/>
+      <c r="H59" s="19">
+        <v>322</v>
+      </c>
+      <c r="I59" s="19">
+        <v>7958</v>
+      </c>
+      <c r="J59" s="19">
+        <v>8449</v>
+      </c>
+      <c r="K59" s="21"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -4502,7 +4516,7 @@
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>2_4841,1_9382</v>
+        <v>2_484,1_1938</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
@@ -4523,16 +4537,16 @@
         <f t="shared" si="2"/>
         <v>48419382673</v>
       </c>
-      <c r="H60" s="9">
-        <v>4841</v>
-      </c>
-      <c r="I60" s="9">
-        <v>9382</v>
-      </c>
-      <c r="J60" s="9">
-        <v>673</v>
-      </c>
-      <c r="K60" s="9"/>
+      <c r="H60" s="19">
+        <v>484</v>
+      </c>
+      <c r="I60" s="19">
+        <v>1938</v>
+      </c>
+      <c r="J60" s="19">
+        <v>2676</v>
+      </c>
+      <c r="K60" s="21"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -4543,7 +4557,7 @@
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>2_7262,1_9074</v>
+        <v>2_726,1_2907</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
@@ -4564,16 +4578,16 @@
         <f t="shared" si="2"/>
         <v>72629074009</v>
       </c>
-      <c r="H61" s="9">
-        <v>7262</v>
-      </c>
-      <c r="I61" s="9">
-        <v>9074</v>
-      </c>
-      <c r="J61" s="9">
-        <v>9</v>
-      </c>
-      <c r="K61" s="9"/>
+      <c r="H61" s="19">
+        <v>726</v>
+      </c>
+      <c r="I61" s="19">
+        <v>2907</v>
+      </c>
+      <c r="J61" s="19">
+        <v>4009</v>
+      </c>
+      <c r="K61" s="21"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -4605,16 +4619,16 @@
         <f t="shared" si="2"/>
         <v>108943611014</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="21">
         <v>1089</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="21">
         <v>4361</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="21">
         <v>1014</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="21"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -4646,16 +4660,16 @@
         <f t="shared" si="2"/>
         <v>163415416520</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="21">
         <v>1634</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="21">
         <v>1541</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="21">
         <v>6520</v>
       </c>
-      <c r="K63" s="9"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -4687,16 +4701,16 @@
         <f t="shared" si="2"/>
         <v>245123124780</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="21">
         <v>2451</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="21">
         <v>2312</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="21">
         <v>4780</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -4728,16 +4742,16 @@
         <f t="shared" si="2"/>
         <v>367684687170</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="21">
         <v>3676</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="21">
         <v>8468</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="21">
         <v>7170</v>
       </c>
-      <c r="K65" s="9"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -4769,16 +4783,16 @@
         <f t="shared" si="2"/>
         <v>551527030754</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="21">
         <v>5515</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="21">
         <v>2703</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="19">
         <v>754</v>
       </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="21"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -4810,16 +4824,16 @@
         <f t="shared" si="2"/>
         <v>827290546131</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="21">
         <v>8272</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="21">
         <v>9054</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="21">
         <v>6131</v>
       </c>
-      <c r="K67" s="9"/>
+      <c r="K67" s="21"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -4830,10 +4844,10 @@
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>3_1240,2_9358</v>
+        <v>3_1,2_2409</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(H68:W68,"&gt;-1")</f>
         <v>4</v>
       </c>
       <c r="D68" s="8">
@@ -4851,17 +4865,17 @@
         <f t="shared" si="2"/>
         <v>1240935819197</v>
       </c>
-      <c r="H68" s="9">
-        <v>1240</v>
-      </c>
-      <c r="I68" s="9">
-        <v>9358</v>
-      </c>
-      <c r="J68" s="9">
-        <v>1919</v>
-      </c>
-      <c r="K68" s="9">
-        <v>7</v>
+      <c r="H68" s="19">
+        <v>1</v>
+      </c>
+      <c r="I68" s="19">
+        <v>2409</v>
+      </c>
+      <c r="J68" s="19">
+        <v>3581</v>
+      </c>
+      <c r="K68" s="19">
+        <v>9197</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -4873,7 +4887,7 @@
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>3_1861,2_4037</v>
+        <v>3_1,2_8614</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -4894,17 +4908,17 @@
         <f t="shared" si="2"/>
         <v>1861403728795</v>
       </c>
-      <c r="H69" s="9">
-        <v>1861</v>
-      </c>
-      <c r="I69" s="9">
-        <v>4037</v>
-      </c>
-      <c r="J69" s="9">
-        <v>2879</v>
-      </c>
-      <c r="K69" s="9">
-        <v>5</v>
+      <c r="H69" s="19">
+        <v>1</v>
+      </c>
+      <c r="I69" s="19">
+        <v>8614</v>
+      </c>
+      <c r="J69" s="19">
+        <v>372</v>
+      </c>
+      <c r="K69" s="19">
+        <v>8795</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -4916,7 +4930,7 @@
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>3_2792,2_1055</v>
+        <v>3_2,2_7921</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
@@ -4937,17 +4951,17 @@
         <f t="shared" ref="G70:G79" si="9">TEXT(F70,"0")</f>
         <v>2792105593193</v>
       </c>
-      <c r="H70" s="9">
-        <v>2792</v>
-      </c>
-      <c r="I70" s="9">
-        <v>1055</v>
-      </c>
-      <c r="J70" s="9">
-        <v>9319</v>
-      </c>
-      <c r="K70" s="9">
-        <v>3</v>
+      <c r="H70" s="19">
+        <v>2</v>
+      </c>
+      <c r="I70" s="19">
+        <v>7921</v>
+      </c>
+      <c r="J70" s="19">
+        <v>559</v>
+      </c>
+      <c r="K70" s="19">
+        <v>3193</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
@@ -4959,7 +4973,7 @@
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B79" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>3_4188,2_1583</v>
+        <v>3_4,2_1881</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C79" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
@@ -4980,17 +4994,17 @@
         <f t="shared" si="9"/>
         <v>4188158389789</v>
       </c>
-      <c r="H71" s="9">
-        <v>4188</v>
-      </c>
-      <c r="I71" s="9">
-        <v>1583</v>
-      </c>
-      <c r="J71" s="9">
-        <v>8978</v>
-      </c>
-      <c r="K71" s="9">
-        <v>9</v>
+      <c r="H71" s="19">
+        <v>4</v>
+      </c>
+      <c r="I71" s="19">
+        <v>1881</v>
+      </c>
+      <c r="J71" s="19">
+        <v>5838</v>
+      </c>
+      <c r="K71" s="19">
+        <v>9789</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
@@ -5002,7 +5016,7 @@
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="10"/>
-        <v>3_6282,2_2375</v>
+        <v>3_6,2_2822</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
@@ -5023,17 +5037,17 @@
         <f t="shared" si="9"/>
         <v>6282237584683</v>
       </c>
-      <c r="H72" s="9">
-        <v>6282</v>
-      </c>
-      <c r="I72" s="9">
-        <v>2375</v>
-      </c>
-      <c r="J72" s="9">
-        <v>8468</v>
-      </c>
-      <c r="K72" s="9">
-        <v>3</v>
+      <c r="H72" s="19">
+        <v>6</v>
+      </c>
+      <c r="I72" s="19">
+        <v>2822</v>
+      </c>
+      <c r="J72" s="19">
+        <v>3758</v>
+      </c>
+      <c r="K72" s="19">
+        <v>4683</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5045,7 +5059,7 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="10"/>
-        <v>3_9423,2_3563</v>
+        <v>3_9,2_4233</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
@@ -5066,17 +5080,17 @@
         <f t="shared" si="9"/>
         <v>9423356377024</v>
       </c>
-      <c r="H73" s="9">
-        <v>9423</v>
-      </c>
-      <c r="I73" s="9">
-        <v>3563</v>
-      </c>
-      <c r="J73" s="9">
-        <v>7702</v>
-      </c>
-      <c r="K73" s="9">
-        <v>4</v>
+      <c r="H73" s="19">
+        <v>9</v>
+      </c>
+      <c r="I73" s="19">
+        <v>4233</v>
+      </c>
+      <c r="J73" s="19">
+        <v>5637</v>
+      </c>
+      <c r="K73" s="19">
+        <v>7024</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5088,7 +5102,7 @@
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="10"/>
-        <v>3_1413,2_5034</v>
+        <v>3_14,2_1350</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
@@ -5109,17 +5123,17 @@
         <f t="shared" si="9"/>
         <v>14135034565535</v>
       </c>
-      <c r="H74" s="9">
-        <v>1413</v>
-      </c>
-      <c r="I74" s="9">
-        <v>5034</v>
-      </c>
-      <c r="J74" s="9">
-        <v>5655</v>
-      </c>
-      <c r="K74" s="9">
-        <v>35</v>
+      <c r="H74" s="19">
+        <v>14</v>
+      </c>
+      <c r="I74" s="19">
+        <v>1350</v>
+      </c>
+      <c r="J74" s="19">
+        <v>3456</v>
+      </c>
+      <c r="K74" s="19">
+        <v>5535</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5131,7 +5145,7 @@
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="10"/>
-        <v>3_2120,2_2551</v>
+        <v>3_21,2_2025</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
@@ -5152,17 +5166,17 @@
         <f t="shared" si="9"/>
         <v>21202551848303</v>
       </c>
-      <c r="H75" s="9">
-        <v>2120</v>
-      </c>
-      <c r="I75" s="9">
-        <v>2551</v>
-      </c>
-      <c r="J75" s="9">
-        <v>8483</v>
-      </c>
-      <c r="K75" s="9">
-        <v>3</v>
+      <c r="H75" s="19">
+        <v>21</v>
+      </c>
+      <c r="I75" s="19">
+        <v>2025</v>
+      </c>
+      <c r="J75" s="19">
+        <v>5184</v>
+      </c>
+      <c r="K75" s="19">
+        <v>8303</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5174,7 +5188,7 @@
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="10"/>
-        <v>3_3180,2_3827</v>
+        <v>3_31,2_8038</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
@@ -5195,17 +5209,17 @@
         <f t="shared" si="9"/>
         <v>31803827772454</v>
       </c>
-      <c r="H76" s="9">
-        <v>3180</v>
-      </c>
-      <c r="I76" s="9">
-        <v>3827</v>
-      </c>
-      <c r="J76" s="9">
-        <v>7724</v>
-      </c>
-      <c r="K76" s="9">
-        <v>54</v>
+      <c r="H76" s="19">
+        <v>31</v>
+      </c>
+      <c r="I76" s="19">
+        <v>8038</v>
+      </c>
+      <c r="J76" s="19">
+        <v>2777</v>
+      </c>
+      <c r="K76" s="19">
+        <v>2454</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5217,7 +5231,7 @@
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="10"/>
-        <v>3_4770,2_5741</v>
+        <v>3_47,2_7057</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
@@ -5238,17 +5252,17 @@
         <f t="shared" si="9"/>
         <v>47705741658681</v>
       </c>
-      <c r="H77" s="9">
-        <v>4770</v>
-      </c>
-      <c r="I77" s="9">
-        <v>5741</v>
-      </c>
-      <c r="J77" s="9">
-        <v>6586</v>
-      </c>
-      <c r="K77" s="9">
-        <v>81</v>
+      <c r="H77" s="19">
+        <v>47</v>
+      </c>
+      <c r="I77" s="19">
+        <v>7057</v>
+      </c>
+      <c r="J77" s="19">
+        <v>4165</v>
+      </c>
+      <c r="K77" s="19">
+        <v>8681</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5260,7 +5274,7 @@
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="10"/>
-        <v>3_7155,2_8612</v>
+        <v>3_71,2_5586</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
@@ -5281,17 +5295,17 @@
         <f t="shared" si="9"/>
         <v>71558612488021</v>
       </c>
-      <c r="H78" s="9">
-        <v>7155</v>
-      </c>
-      <c r="I78" s="9">
-        <v>8612</v>
-      </c>
-      <c r="J78" s="9">
-        <v>4880</v>
-      </c>
-      <c r="K78" s="9">
-        <v>21</v>
+      <c r="H78" s="19">
+        <v>71</v>
+      </c>
+      <c r="I78" s="19">
+        <v>5586</v>
+      </c>
+      <c r="J78" s="19">
+        <v>1248</v>
+      </c>
+      <c r="K78" s="19">
+        <v>8021</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -5303,10 +5317,10 @@
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="10"/>
-        <v>3_1073,2_3791</v>
+        <v>3_107,2_3379</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(H79:W79,"&gt;-1")</f>
         <v>4</v>
       </c>
       <c r="D79" s="8">
@@ -5324,24 +5338,26 @@
         <f t="shared" si="9"/>
         <v>107337918732031</v>
       </c>
-      <c r="H79" s="9">
-        <v>1073</v>
-      </c>
-      <c r="I79" s="9">
-        <v>3791</v>
-      </c>
-      <c r="J79" s="9">
-        <v>8732</v>
-      </c>
-      <c r="K79" s="9">
-        <v>31</v>
-      </c>
-      <c r="L79" s="9"/>
+      <c r="H79" s="15">
+        <v>107</v>
+      </c>
+      <c r="I79" s="19">
+        <v>3379</v>
+      </c>
+      <c r="J79" s="15">
+        <v>1873</v>
+      </c>
+      <c r="K79" s="15">
+        <v>2031</v>
+      </c>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="12"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -215,9 +215,6 @@
     <t>2_8272,1_9054</t>
   </si>
   <si>
-    <t>0_10</t>
-  </si>
-  <si>
     <t>1_1,0_4779</t>
   </si>
   <si>
@@ -345,6 +342,10 @@
   </si>
   <si>
     <t>3_107,2_3379</t>
+  </si>
+  <si>
+    <t>0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -827,7 +828,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -881,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +1040,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1048,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1056,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1064,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1072,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1081,7 +1082,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1089,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1097,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,7 +1114,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1121,7 +1122,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1129,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1138,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1146,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1217,7 +1218,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1225,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,7 +1234,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,7 +1242,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1249,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,7 +1258,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1265,7 +1266,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1273,7 +1274,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1281,7 +1282,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1289,7 +1290,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1297,7 +1298,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1305,7 +1306,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1313,7 +1314,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1321,7 +1322,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1329,7 +1330,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1337,7 +1338,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1345,7 +1346,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1401,7 +1402,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,7 +1410,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1417,7 +1418,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1425,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1433,7 +1434,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1441,7 +1442,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1449,7 +1450,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1457,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,7 +1466,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1473,7 +1474,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1481,7 +1482,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,7 +1490,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2379,7 +2380,7 @@
   <dimension ref="B1:R81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B79"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2446,8 +2447,8 @@
         <v>10</v>
       </c>
       <c r="G5" s="14" t="str">
-        <f>TEXT(F5,"0")</f>
-        <v>10</v>
+        <f>TEXT(F5,REPT("0", CEILING(LEN(F5)/4,1)*4))</f>
+        <v>0010</v>
       </c>
       <c r="H5" s="20">
         <v>10</v>
@@ -2481,9 +2482,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G6" s="9" t="str">
-        <f t="shared" ref="G6:G69" si="2">TEXT(F6,"0")</f>
-        <v>15</v>
+      <c r="G6" s="14" t="str">
+        <f t="shared" ref="G6:G69" si="2">TEXT(F6,REPT("0", CEILING(LEN(F6)/4,1)*4))</f>
+        <v>0015</v>
       </c>
       <c r="H6" s="15">
         <v>15</v>
@@ -2517,9 +2518,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>23</v>
+      <c r="G7" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0023</v>
       </c>
       <c r="H7" s="15">
         <v>23</v>
@@ -2553,9 +2554,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G8" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>34</v>
+      <c r="G8" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0034</v>
       </c>
       <c r="H8" s="15">
         <v>34</v>
@@ -2589,9 +2590,9 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="G9" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>51</v>
+      <c r="G9" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0051</v>
       </c>
       <c r="H9" s="15">
         <v>51</v>
@@ -2625,9 +2626,9 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G10" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>76</v>
+      <c r="G10" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0076</v>
       </c>
       <c r="H10" s="15">
         <v>76</v>
@@ -2661,9 +2662,9 @@
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="G11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>114</v>
+      <c r="G11" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0114</v>
       </c>
       <c r="H11" s="15">
         <v>114</v>
@@ -2697,9 +2698,9 @@
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="G12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>171</v>
+      <c r="G12" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0171</v>
       </c>
       <c r="H12" s="15">
         <v>171</v>
@@ -2733,9 +2734,9 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="G13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>257</v>
+      <c r="G13" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0257</v>
       </c>
       <c r="H13" s="15">
         <v>257</v>
@@ -2769,9 +2770,9 @@
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="G14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>385</v>
+      <c r="G14" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0385</v>
       </c>
       <c r="H14" s="15">
         <v>385</v>
@@ -2805,9 +2806,9 @@
         <f t="shared" si="0"/>
         <v>577</v>
       </c>
-      <c r="G15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>577</v>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0577</v>
       </c>
       <c r="H15" s="15">
         <v>577</v>
@@ -2841,9 +2842,9 @@
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="G16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>865</v>
+      <c r="G16" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0865</v>
       </c>
       <c r="H16" s="15">
         <v>865</v>
@@ -2877,7 +2878,7 @@
         <f t="shared" si="0"/>
         <v>1298</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>1298</v>
       </c>
@@ -2913,7 +2914,7 @@
         <f t="shared" si="0"/>
         <v>1947</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="2"/>
         <v>1947</v>
       </c>
@@ -2949,7 +2950,7 @@
         <f t="shared" si="0"/>
         <v>2920</v>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="2"/>
         <v>2920</v>
       </c>
@@ -2985,7 +2986,7 @@
         <f t="shared" si="0"/>
         <v>4379</v>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="2"/>
         <v>4379</v>
       </c>
@@ -3021,7 +3022,7 @@
         <f t="shared" si="0"/>
         <v>6569</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="2"/>
         <v>6569</v>
       </c>
@@ -3057,7 +3058,7 @@
         <f t="shared" si="0"/>
         <v>9853</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="2"/>
         <v>9853</v>
       </c>
@@ -3093,9 +3094,9 @@
         <f t="shared" si="0"/>
         <v>14779</v>
       </c>
-      <c r="G23" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>14779</v>
+      <c r="G23" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00014779</v>
       </c>
       <c r="H23" s="15">
         <v>1</v>
@@ -3131,9 +3132,9 @@
         <f t="shared" si="0"/>
         <v>22169</v>
       </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>22169</v>
+      <c r="G24" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00022169</v>
       </c>
       <c r="H24" s="15">
         <v>2</v>
@@ -3169,9 +3170,9 @@
         <f t="shared" si="0"/>
         <v>33253</v>
       </c>
-      <c r="G25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>33253</v>
+      <c r="G25" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00033253</v>
       </c>
       <c r="H25" s="15">
         <v>3</v>
@@ -3207,9 +3208,9 @@
         <f t="shared" si="0"/>
         <v>49879</v>
       </c>
-      <c r="G26" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>49879</v>
+      <c r="G26" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00049879</v>
       </c>
       <c r="H26" s="15">
         <v>4</v>
@@ -3245,9 +3246,9 @@
         <f t="shared" si="0"/>
         <v>74819</v>
       </c>
-      <c r="G27" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>74819</v>
+      <c r="G27" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00074819</v>
       </c>
       <c r="H27" s="15">
         <v>7</v>
@@ -3283,9 +3284,9 @@
         <f t="shared" si="0"/>
         <v>112228</v>
       </c>
-      <c r="G28" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>112228</v>
+      <c r="G28" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00112228</v>
       </c>
       <c r="H28" s="15">
         <v>11</v>
@@ -3321,9 +3322,9 @@
         <f t="shared" si="0"/>
         <v>168342</v>
       </c>
-      <c r="G29" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>168342</v>
+      <c r="G29" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00168342</v>
       </c>
       <c r="H29" s="15">
         <v>16</v>
@@ -3359,9 +3360,9 @@
         <f t="shared" si="0"/>
         <v>252512</v>
       </c>
-      <c r="G30" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>252512</v>
+      <c r="G30" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00252512</v>
       </c>
       <c r="H30" s="15">
         <v>25</v>
@@ -3397,9 +3398,9 @@
         <f t="shared" si="0"/>
         <v>378768</v>
       </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>378768</v>
+      <c r="G31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00378768</v>
       </c>
       <c r="H31" s="15">
         <v>37</v>
@@ -3435,9 +3436,9 @@
         <f t="shared" si="0"/>
         <v>568152</v>
       </c>
-      <c r="G32" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>568152</v>
+      <c r="G32" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00568152</v>
       </c>
       <c r="H32" s="15">
         <v>56</v>
@@ -3473,9 +3474,9 @@
         <f t="shared" si="0"/>
         <v>852227</v>
       </c>
-      <c r="G33" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>852227</v>
+      <c r="G33" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>00852227</v>
       </c>
       <c r="H33" s="15">
         <v>85</v>
@@ -3511,9 +3512,9 @@
         <f t="shared" si="0"/>
         <v>1278341</v>
       </c>
-      <c r="G34" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1278341</v>
+      <c r="G34" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>01278341</v>
       </c>
       <c r="H34" s="15">
         <v>127</v>
@@ -3549,9 +3550,9 @@
         <f t="shared" si="0"/>
         <v>1917511</v>
       </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1917511</v>
+      <c r="G35" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>01917511</v>
       </c>
       <c r="H35" s="15">
         <v>191</v>
@@ -3587,9 +3588,9 @@
         <f t="shared" si="0"/>
         <v>2876266</v>
       </c>
-      <c r="G36" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2876266</v>
+      <c r="G36" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>02876266</v>
       </c>
       <c r="H36" s="15">
         <v>287</v>
@@ -3608,7 +3609,7 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>1_4314,0_399</v>
+        <v>1_431,0_4399</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -3625,15 +3626,15 @@
         <f t="shared" ref="F37:F68" si="5">ROUNDUP(D37,0)</f>
         <v>4314399</v>
       </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>4314399</v>
+      <c r="G37" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>04314399</v>
       </c>
       <c r="H37" s="15">
-        <v>4314</v>
+        <v>431</v>
       </c>
       <c r="I37" s="15">
-        <v>399</v>
+        <v>4399</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -3646,7 +3647,7 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>1_6471,0_599</v>
+        <v>1_647,0_1599</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -3663,15 +3664,15 @@
         <f t="shared" si="5"/>
         <v>6471599</v>
       </c>
-      <c r="G38" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>6471599</v>
+      <c r="G38" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>06471599</v>
       </c>
       <c r="H38" s="15">
-        <v>6471</v>
+        <v>647</v>
       </c>
       <c r="I38" s="15">
-        <v>599</v>
+        <v>1599</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -3684,7 +3685,7 @@
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>1_9707,0_398</v>
+        <v>1_970,0_7398</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -3701,15 +3702,15 @@
         <f t="shared" si="5"/>
         <v>9707398</v>
       </c>
-      <c r="G39" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>9707398</v>
+      <c r="G39" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>09707398</v>
       </c>
       <c r="H39" s="15">
-        <v>9707</v>
+        <v>970</v>
       </c>
       <c r="I39" s="15">
-        <v>398</v>
+        <v>7398</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -3739,7 +3740,7 @@
         <f t="shared" si="5"/>
         <v>14561097</v>
       </c>
-      <c r="G40" s="9" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="2"/>
         <v>14561097</v>
       </c>
@@ -3777,7 +3778,7 @@
         <f t="shared" si="5"/>
         <v>21841645</v>
       </c>
-      <c r="G41" s="9" t="str">
+      <c r="G41" s="14" t="str">
         <f t="shared" si="2"/>
         <v>21841645</v>
       </c>
@@ -3815,7 +3816,7 @@
         <f t="shared" si="5"/>
         <v>32762467</v>
       </c>
-      <c r="G42" s="9" t="str">
+      <c r="G42" s="14" t="str">
         <f t="shared" si="2"/>
         <v>32762467</v>
       </c>
@@ -3853,7 +3854,7 @@
         <f t="shared" si="5"/>
         <v>49143700</v>
       </c>
-      <c r="G43" s="9" t="str">
+      <c r="G43" s="14" t="str">
         <f t="shared" si="2"/>
         <v>49143700</v>
       </c>
@@ -3891,7 +3892,7 @@
         <f t="shared" si="5"/>
         <v>73715549</v>
       </c>
-      <c r="G44" s="9" t="str">
+      <c r="G44" s="14" t="str">
         <f t="shared" si="2"/>
         <v>73715549</v>
       </c>
@@ -3929,9 +3930,9 @@
         <f t="shared" si="5"/>
         <v>110573324</v>
       </c>
-      <c r="G45" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>110573324</v>
+      <c r="G45" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>000110573324</v>
       </c>
       <c r="H45" s="21">
         <v>1</v>
@@ -3969,9 +3970,9 @@
         <f t="shared" si="5"/>
         <v>165859985</v>
       </c>
-      <c r="G46" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>165859985</v>
+      <c r="G46" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>000165859985</v>
       </c>
       <c r="H46" s="21">
         <v>1</v>
@@ -4009,9 +4010,9 @@
         <f t="shared" si="5"/>
         <v>248789978</v>
       </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>248789978</v>
+      <c r="G47" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>000248789978</v>
       </c>
       <c r="H47" s="21">
         <v>2</v>
@@ -4049,9 +4050,9 @@
         <f t="shared" si="5"/>
         <v>373184966</v>
       </c>
-      <c r="G48" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>373184966</v>
+      <c r="G48" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>000373184966</v>
       </c>
       <c r="H48" s="21">
         <v>3</v>
@@ -4089,9 +4090,9 @@
         <f t="shared" si="5"/>
         <v>559777449</v>
       </c>
-      <c r="G49" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>559777449</v>
+      <c r="G49" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>000559777449</v>
       </c>
       <c r="H49" s="21">
         <v>5</v>
@@ -4129,9 +4130,9 @@
         <f t="shared" si="5"/>
         <v>839666174</v>
       </c>
-      <c r="G50" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>839666174</v>
+      <c r="G50" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>000839666174</v>
       </c>
       <c r="H50" s="21">
         <v>8</v>
@@ -4169,9 +4170,9 @@
         <f t="shared" si="5"/>
         <v>1259499260</v>
       </c>
-      <c r="G51" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1259499260</v>
+      <c r="G51" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>001259499260</v>
       </c>
       <c r="H51" s="21">
         <v>12</v>
@@ -4209,9 +4210,9 @@
         <f t="shared" si="5"/>
         <v>1889248890</v>
       </c>
-      <c r="G52" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1889248890</v>
+      <c r="G52" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>001889248890</v>
       </c>
       <c r="H52" s="21">
         <v>18</v>
@@ -4249,9 +4250,9 @@
         <f t="shared" si="5"/>
         <v>2833873335</v>
       </c>
-      <c r="G53" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2833873335</v>
+      <c r="G53" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>002833873335</v>
       </c>
       <c r="H53" s="21">
         <v>28</v>
@@ -4289,9 +4290,9 @@
         <f t="shared" si="5"/>
         <v>4250810002</v>
       </c>
-      <c r="G54" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>4250810002</v>
+      <c r="G54" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>004250810002</v>
       </c>
       <c r="H54" s="19">
         <v>42</v>
@@ -4329,9 +4330,9 @@
         <f t="shared" si="5"/>
         <v>6376215003</v>
       </c>
-      <c r="G55" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>6376215003</v>
+      <c r="G55" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>006376215003</v>
       </c>
       <c r="H55" s="19">
         <v>63</v>
@@ -4369,9 +4370,9 @@
         <f t="shared" si="5"/>
         <v>9564322504</v>
       </c>
-      <c r="G56" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>9564322504</v>
+      <c r="G56" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>009564322504</v>
       </c>
       <c r="H56" s="19">
         <v>95</v>
@@ -4410,9 +4411,9 @@
         <f t="shared" si="5"/>
         <v>14346483755</v>
       </c>
-      <c r="G57" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>14346483755</v>
+      <c r="G57" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>014346483755</v>
       </c>
       <c r="H57" s="19">
         <v>143</v>
@@ -4451,9 +4452,9 @@
         <f t="shared" si="5"/>
         <v>21519725633</v>
       </c>
-      <c r="G58" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21519725633</v>
+      <c r="G58" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>021519725633</v>
       </c>
       <c r="H58" s="19">
         <v>215</v>
@@ -4492,9 +4493,9 @@
         <f t="shared" si="5"/>
         <v>32279588449</v>
       </c>
-      <c r="G59" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>32279588449</v>
+      <c r="G59" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>032279588449</v>
       </c>
       <c r="H59" s="19">
         <v>322</v>
@@ -4533,9 +4534,9 @@
         <f t="shared" si="5"/>
         <v>48419382673</v>
       </c>
-      <c r="G60" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>48419382673</v>
+      <c r="G60" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>048419382673</v>
       </c>
       <c r="H60" s="19">
         <v>484</v>
@@ -4544,7 +4545,7 @@
         <v>1938</v>
       </c>
       <c r="J60" s="19">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="K60" s="21"/>
       <c r="L60" s="9"/>
@@ -4574,9 +4575,9 @@
         <f t="shared" si="5"/>
         <v>72629074009</v>
       </c>
-      <c r="G61" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>72629074009</v>
+      <c r="G61" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>072629074009</v>
       </c>
       <c r="H61" s="19">
         <v>726</v>
@@ -4615,7 +4616,7 @@
         <f t="shared" si="5"/>
         <v>108943611014</v>
       </c>
-      <c r="G62" s="9" t="str">
+      <c r="G62" s="14" t="str">
         <f t="shared" si="2"/>
         <v>108943611014</v>
       </c>
@@ -4656,7 +4657,7 @@
         <f t="shared" si="5"/>
         <v>163415416520</v>
       </c>
-      <c r="G63" s="9" t="str">
+      <c r="G63" s="14" t="str">
         <f t="shared" si="2"/>
         <v>163415416520</v>
       </c>
@@ -4697,7 +4698,7 @@
         <f t="shared" si="5"/>
         <v>245123124780</v>
       </c>
-      <c r="G64" s="9" t="str">
+      <c r="G64" s="14" t="str">
         <f t="shared" si="2"/>
         <v>245123124780</v>
       </c>
@@ -4738,7 +4739,7 @@
         <f t="shared" si="5"/>
         <v>367684687170</v>
       </c>
-      <c r="G65" s="9" t="str">
+      <c r="G65" s="14" t="str">
         <f t="shared" si="2"/>
         <v>367684687170</v>
       </c>
@@ -4779,7 +4780,7 @@
         <f t="shared" si="5"/>
         <v>551527030754</v>
       </c>
-      <c r="G66" s="9" t="str">
+      <c r="G66" s="14" t="str">
         <f t="shared" si="2"/>
         <v>551527030754</v>
       </c>
@@ -4820,7 +4821,7 @@
         <f t="shared" si="5"/>
         <v>827290546131</v>
       </c>
-      <c r="G67" s="9" t="str">
+      <c r="G67" s="14" t="str">
         <f t="shared" si="2"/>
         <v>827290546131</v>
       </c>
@@ -4861,9 +4862,9 @@
         <f t="shared" si="5"/>
         <v>1240935819197</v>
       </c>
-      <c r="G68" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1240935819197</v>
+      <c r="G68" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0001240935819197</v>
       </c>
       <c r="H68" s="19">
         <v>1</v>
@@ -4904,9 +4905,9 @@
         <f t="shared" ref="F69:F79" si="7">ROUNDUP(D69,0)</f>
         <v>1861403728795</v>
       </c>
-      <c r="G69" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1861403728795</v>
+      <c r="G69" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>0001861403728795</v>
       </c>
       <c r="H69" s="19">
         <v>1</v>
@@ -4947,9 +4948,9 @@
         <f t="shared" si="7"/>
         <v>2792105593193</v>
       </c>
-      <c r="G70" s="9" t="str">
-        <f t="shared" ref="G70:G79" si="9">TEXT(F70,"0")</f>
-        <v>2792105593193</v>
+      <c r="G70" s="14" t="str">
+        <f t="shared" ref="G70:G79" si="9">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
+        <v>0002792105593193</v>
       </c>
       <c r="H70" s="19">
         <v>2</v>
@@ -4976,7 +4977,7 @@
         <v>3_4,2_1881</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C79" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
+        <f t="shared" ref="C71:C78" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
         <v>4</v>
       </c>
       <c r="D71" s="8">
@@ -4990,9 +4991,9 @@
         <f t="shared" si="7"/>
         <v>4188158389789</v>
       </c>
-      <c r="G71" s="9" t="str">
+      <c r="G71" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>4188158389789</v>
+        <v>0004188158389789</v>
       </c>
       <c r="H71" s="19">
         <v>4</v>
@@ -5033,9 +5034,9 @@
         <f t="shared" si="7"/>
         <v>6282237584683</v>
       </c>
-      <c r="G72" s="9" t="str">
+      <c r="G72" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>6282237584683</v>
+        <v>0006282237584683</v>
       </c>
       <c r="H72" s="19">
         <v>6</v>
@@ -5076,9 +5077,9 @@
         <f t="shared" si="7"/>
         <v>9423356377024</v>
       </c>
-      <c r="G73" s="9" t="str">
+      <c r="G73" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>9423356377024</v>
+        <v>0009423356377024</v>
       </c>
       <c r="H73" s="19">
         <v>9</v>
@@ -5119,9 +5120,9 @@
         <f t="shared" si="7"/>
         <v>14135034565535</v>
       </c>
-      <c r="G74" s="9" t="str">
+      <c r="G74" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>14135034565535</v>
+        <v>0014135034565535</v>
       </c>
       <c r="H74" s="19">
         <v>14</v>
@@ -5162,9 +5163,9 @@
         <f t="shared" si="7"/>
         <v>21202551848303</v>
       </c>
-      <c r="G75" s="9" t="str">
+      <c r="G75" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>21202551848303</v>
+        <v>0021202551848303</v>
       </c>
       <c r="H75" s="19">
         <v>21</v>
@@ -5205,9 +5206,9 @@
         <f t="shared" si="7"/>
         <v>31803827772454</v>
       </c>
-      <c r="G76" s="9" t="str">
+      <c r="G76" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>31803827772454</v>
+        <v>0031803827772454</v>
       </c>
       <c r="H76" s="19">
         <v>31</v>
@@ -5248,9 +5249,9 @@
         <f t="shared" si="7"/>
         <v>47705741658681</v>
       </c>
-      <c r="G77" s="9" t="str">
+      <c r="G77" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>47705741658681</v>
+        <v>0047705741658681</v>
       </c>
       <c r="H77" s="19">
         <v>47</v>
@@ -5291,9 +5292,9 @@
         <f t="shared" si="7"/>
         <v>71558612488021</v>
       </c>
-      <c r="G78" s="9" t="str">
+      <c r="G78" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>71558612488021</v>
+        <v>0071558612488021</v>
       </c>
       <c r="H78" s="19">
         <v>71</v>
@@ -5334,9 +5335,9 @@
         <f t="shared" si="7"/>
         <v>107337918732031</v>
       </c>
-      <c r="G79" s="9" t="str">
+      <c r="G79" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>107337918732031</v>
+        <v>0107337918732031</v>
       </c>
       <c r="H79" s="15">
         <v>107</v>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -346,6 +346,54 @@
   <si>
     <t>0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_161,2_68</t>
+  </si>
+  <si>
+    <t>3_241,2_5103</t>
+  </si>
+  <si>
+    <t>3_362,2_2654</t>
+  </si>
+  <si>
+    <t>3_543,2_3982</t>
+  </si>
+  <si>
+    <t>3_815,2_973</t>
+  </si>
+  <si>
+    <t>3_1222,2_6459</t>
+  </si>
+  <si>
+    <t>3_1833,2_9689</t>
+  </si>
+  <si>
+    <t>3_2750,2_9534</t>
+  </si>
+  <si>
+    <t>3_4126,2_4301</t>
+  </si>
+  <si>
+    <t>3_6189,2_6452</t>
+  </si>
+  <si>
+    <t>3_9284,2_4679</t>
+  </si>
+  <si>
+    <t>4_1,3_3926</t>
+  </si>
+  <si>
+    <t>4_2,3_890</t>
+  </si>
+  <si>
+    <t>4_3,3_1335</t>
+  </si>
+  <si>
+    <t>4_4,3_7002</t>
+  </si>
+  <si>
+    <t>4_7,3_503</t>
   </si>
 </sst>
 </file>
@@ -828,7 +876,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1494,60 +1542,132 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80"/>
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81"/>
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83"/>
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85"/>
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87"/>
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-      <c r="B88"/>
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89"/>
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-      <c r="B90"/>
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91"/>
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-      <c r="B92"/>
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93"/>
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-      <c r="B94"/>
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95"/>
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
@@ -2377,19 +2497,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R81"/>
+  <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B95" sqref="B78:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" customWidth="1"/>
     <col min="5" max="5" width="7.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="8.796875" style="12"/>
     <col min="17" max="17" width="8.796875" style="15"/>
@@ -4902,7 +5022,7 @@
         <v>1.5</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" ref="F69:F79" si="7">ROUNDUP(D69,0)</f>
+        <f t="shared" ref="F69:F95" si="7">ROUNDUP(D69,0)</f>
         <v>1861403728795</v>
       </c>
       <c r="G69" s="14" t="str">
@@ -4938,7 +5058,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" ref="D70:D79" si="8">D69*E69</f>
+        <f t="shared" ref="D70:D95" si="8">D69*E69</f>
         <v>2792105593192.1001</v>
       </c>
       <c r="E70">
@@ -4949,7 +5069,7 @@
         <v>2792105593193</v>
       </c>
       <c r="G70" s="14" t="str">
-        <f t="shared" ref="G70:G79" si="9">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
+        <f t="shared" ref="G70:G95" si="9">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
         <v>0002792105593193</v>
       </c>
       <c r="H70" s="19">
@@ -4973,11 +5093,11 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
-        <f t="shared" ref="B71:B79" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
+        <f t="shared" ref="B71:B95" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
         <v>3_4,2_1881</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C78" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
+        <f t="shared" ref="C71:C95" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
         <v>4</v>
       </c>
       <c r="D71" s="8">
@@ -5357,8 +5477,612 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="12"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="18"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" t="str">
+        <f t="shared" si="10"/>
+        <v>3_161,2_68</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" si="8"/>
+        <v>161006878098047.19</v>
+      </c>
+      <c r="E80">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" si="7"/>
+        <v>161006878098047</v>
+      </c>
+      <c r="G80" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>0161006878098047</v>
+      </c>
+      <c r="H80">
+        <v>161</v>
+      </c>
+      <c r="I80" s="12">
+        <v>68</v>
+      </c>
+      <c r="J80" s="12">
+        <v>7809</v>
+      </c>
+      <c r="K80" s="12">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" t="str">
+        <f t="shared" si="10"/>
+        <v>3_241,2_5103</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="8"/>
+        <v>241510317147070.78</v>
+      </c>
+      <c r="E81">
+        <v>1.5</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="7"/>
+        <v>241510317147071</v>
+      </c>
+      <c r="G81" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>0241510317147071</v>
+      </c>
+      <c r="H81" s="18">
+        <v>241</v>
+      </c>
+      <c r="I81" s="12">
+        <v>5103</v>
+      </c>
+      <c r="J81" s="12">
+        <v>1714</v>
+      </c>
+      <c r="K81" s="12">
+        <v>7071</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" t="str">
+        <f t="shared" si="10"/>
+        <v>3_362,2_2654</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" si="8"/>
+        <v>362265475720606.19</v>
+      </c>
+      <c r="E82">
+        <v>1.5</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="7"/>
+        <v>362265475720606</v>
+      </c>
+      <c r="G82" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>0362265475720606</v>
+      </c>
+      <c r="H82">
+        <v>362</v>
+      </c>
+      <c r="I82" s="12">
+        <v>2654</v>
+      </c>
+      <c r="J82" s="12">
+        <v>7572</v>
+      </c>
+      <c r="K82" s="12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" t="str">
+        <f t="shared" si="10"/>
+        <v>3_543,2_3982</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="8"/>
+        <v>543398213580909.25</v>
+      </c>
+      <c r="E83">
+        <v>1.5</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="7"/>
+        <v>543398213580909</v>
+      </c>
+      <c r="G83" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>0543398213580909</v>
+      </c>
+      <c r="H83">
+        <v>543</v>
+      </c>
+      <c r="I83" s="12">
+        <v>3982</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1358</v>
+      </c>
+      <c r="K83" s="12">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="str">
+        <f t="shared" si="10"/>
+        <v>3_815,2_973</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="8"/>
+        <v>815097320371363.87</v>
+      </c>
+      <c r="E84">
+        <v>1.5</v>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="7"/>
+        <v>815097320371364</v>
+      </c>
+      <c r="G84" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>0815097320371364</v>
+      </c>
+      <c r="H84">
+        <v>815</v>
+      </c>
+      <c r="I84" s="12">
+        <v>973</v>
+      </c>
+      <c r="J84" s="12">
+        <v>2037</v>
+      </c>
+      <c r="K84" s="12">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="str">
+        <f t="shared" si="10"/>
+        <v>3_1222,2_6459</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="8"/>
+        <v>1222645980557045.7</v>
+      </c>
+      <c r="E85">
+        <v>1.5</v>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="7"/>
+        <v>1222645980557050</v>
+      </c>
+      <c r="G85" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>1222645980557050</v>
+      </c>
+      <c r="H85">
+        <v>1222</v>
+      </c>
+      <c r="I85" s="12">
+        <v>6459</v>
+      </c>
+      <c r="J85" s="12">
+        <v>8055</v>
+      </c>
+      <c r="K85" s="12">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" t="str">
+        <f t="shared" si="10"/>
+        <v>3_1833,2_9689</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="8"/>
+        <v>1833968970835568.5</v>
+      </c>
+      <c r="E86">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" si="7"/>
+        <v>1833968970835570</v>
+      </c>
+      <c r="G86" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>1833968970835570</v>
+      </c>
+      <c r="H86">
+        <v>1833</v>
+      </c>
+      <c r="I86" s="12">
+        <v>9689</v>
+      </c>
+      <c r="J86" s="12">
+        <v>7083</v>
+      </c>
+      <c r="K86" s="12">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" t="str">
+        <f t="shared" si="10"/>
+        <v>3_2750,2_9534</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="8"/>
+        <v>2750953456253353</v>
+      </c>
+      <c r="E87">
+        <v>1.5</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="7"/>
+        <v>2750953456253350</v>
+      </c>
+      <c r="G87" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>2750953456253350</v>
+      </c>
+      <c r="H87">
+        <v>2750</v>
+      </c>
+      <c r="I87" s="12">
+        <v>9534</v>
+      </c>
+      <c r="J87" s="12">
+        <v>5625</v>
+      </c>
+      <c r="K87" s="12">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" t="str">
+        <f t="shared" si="10"/>
+        <v>3_4126,2_4301</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="8"/>
+        <v>4126430184380029.5</v>
+      </c>
+      <c r="E88">
+        <v>1.5</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="7"/>
+        <v>4126430184380030</v>
+      </c>
+      <c r="G88" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>4126430184380030</v>
+      </c>
+      <c r="H88">
+        <v>4126</v>
+      </c>
+      <c r="I88" s="12">
+        <v>4301</v>
+      </c>
+      <c r="J88" s="12">
+        <v>8438</v>
+      </c>
+      <c r="K88" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" t="str">
+        <f t="shared" si="10"/>
+        <v>3_6189,2_6452</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="8"/>
+        <v>6189645276570044</v>
+      </c>
+      <c r="E89">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="9">
+        <f t="shared" si="7"/>
+        <v>6189645276570040</v>
+      </c>
+      <c r="G89" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>6189645276570040</v>
+      </c>
+      <c r="H89">
+        <v>6189</v>
+      </c>
+      <c r="I89" s="12">
+        <v>6452</v>
+      </c>
+      <c r="J89" s="12">
+        <v>7657</v>
+      </c>
+      <c r="K89" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" t="str">
+        <f t="shared" si="10"/>
+        <v>3_9284,2_4679</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="8"/>
+        <v>9284467914855066</v>
+      </c>
+      <c r="E90">
+        <v>1.5</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="7"/>
+        <v>9284467914855070</v>
+      </c>
+      <c r="G90" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>9284467914855070</v>
+      </c>
+      <c r="H90">
+        <v>9284</v>
+      </c>
+      <c r="I90" s="12">
+        <v>4679</v>
+      </c>
+      <c r="J90" s="12">
+        <v>1485</v>
+      </c>
+      <c r="K90" s="12">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" t="str">
+        <f t="shared" si="10"/>
+        <v>4_1,3_3926</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="8"/>
+        <v>1.39267018722826E+16</v>
+      </c>
+      <c r="E91">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" si="7"/>
+        <v>1.39267018722826E+16</v>
+      </c>
+      <c r="G91" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>00013926701872282600</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="12">
+        <v>3926</v>
+      </c>
+      <c r="J91" s="12">
+        <v>7018</v>
+      </c>
+      <c r="K91" s="12">
+        <v>7228</v>
+      </c>
+      <c r="L91" s="12">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" t="str">
+        <f t="shared" si="10"/>
+        <v>4_2,3_890</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="8"/>
+        <v>2.08900528084239E+16</v>
+      </c>
+      <c r="E92">
+        <v>1.5</v>
+      </c>
+      <c r="F92" s="9">
+        <f t="shared" si="7"/>
+        <v>2.08900528084239E+16</v>
+      </c>
+      <c r="G92" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>00020890052808423900</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" s="12">
+        <v>890</v>
+      </c>
+      <c r="J92" s="12">
+        <v>528</v>
+      </c>
+      <c r="K92" s="12">
+        <v>842</v>
+      </c>
+      <c r="L92" s="12">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" t="str">
+        <f t="shared" si="10"/>
+        <v>4_3,3_1335</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="8"/>
+        <v>3.1335079212635848E+16</v>
+      </c>
+      <c r="E93">
+        <v>1.5</v>
+      </c>
+      <c r="F93" s="9">
+        <f t="shared" si="7"/>
+        <v>3.13350792126358E+16</v>
+      </c>
+      <c r="G93" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>00031335079212635800</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93" s="12">
+        <v>1335</v>
+      </c>
+      <c r="J93" s="12">
+        <v>792</v>
+      </c>
+      <c r="K93" s="12">
+        <v>1263</v>
+      </c>
+      <c r="L93" s="12">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" t="str">
+        <f t="shared" si="10"/>
+        <v>4_4,3_7002</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="8"/>
+        <v>4.7002618818953776E+16</v>
+      </c>
+      <c r="E94">
+        <v>1.5</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="7"/>
+        <v>4.70026188189538E+16</v>
+      </c>
+      <c r="G94" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>00047002618818953800</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94" s="12">
+        <v>7002</v>
+      </c>
+      <c r="J94" s="12">
+        <v>6188</v>
+      </c>
+      <c r="K94" s="12">
+        <v>1895</v>
+      </c>
+      <c r="L94" s="12">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" t="str">
+        <f t="shared" si="10"/>
+        <v>4_7,3_503</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" si="8"/>
+        <v>7.0503928228430664E+16</v>
+      </c>
+      <c r="E95">
+        <v>1.5</v>
+      </c>
+      <c r="F95" s="9">
+        <f t="shared" si="7"/>
+        <v>7.0503928228430704E+16</v>
+      </c>
+      <c r="G95" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>00070503928228430700</v>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="I95" s="12">
+        <v>503</v>
+      </c>
+      <c r="J95" s="12">
+        <v>9282</v>
+      </c>
+      <c r="K95" s="12">
+        <v>2843</v>
+      </c>
+      <c r="L95" s="12">
+        <v>700</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/MaidShop.xlsx
+++ b/docs/excel/MaidShop.xlsx
@@ -122,278 +122,278 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0_15</t>
-  </si>
-  <si>
-    <t>0_23</t>
-  </si>
-  <si>
-    <t>0_34</t>
-  </si>
-  <si>
-    <t>0_51</t>
-  </si>
-  <si>
-    <t>0_76</t>
-  </si>
-  <si>
-    <t>0_114</t>
-  </si>
-  <si>
-    <t>0_171</t>
-  </si>
-  <si>
-    <t>0_257</t>
-  </si>
-  <si>
-    <t>0_385</t>
-  </si>
-  <si>
-    <t>0_577</t>
-  </si>
-  <si>
-    <t>0_865</t>
-  </si>
-  <si>
-    <t>0_1298</t>
-  </si>
-  <si>
-    <t>0_1947</t>
-  </si>
-  <si>
-    <t>0_2920</t>
-  </si>
-  <si>
-    <t>0_4379</t>
-  </si>
-  <si>
-    <t>0_6569</t>
-  </si>
-  <si>
-    <t>0_9853</t>
-  </si>
-  <si>
-    <t>1_4314,0_399</t>
-  </si>
-  <si>
-    <t>1_6471,0_599</t>
-  </si>
-  <si>
-    <t>1_9707,0_398</t>
-  </si>
-  <si>
-    <t>1_1456,0_1097</t>
-  </si>
-  <si>
-    <t>1_2184,0_1645</t>
-  </si>
-  <si>
-    <t>1_3276,0_2467</t>
-  </si>
-  <si>
-    <t>1_4914,0_3700</t>
-  </si>
-  <si>
-    <t>1_7371,0_5549</t>
-  </si>
-  <si>
-    <t>2_1089,1_4361</t>
-  </si>
-  <si>
-    <t>2_1634,1_1541</t>
-  </si>
-  <si>
-    <t>2_2451,1_2312</t>
-  </si>
-  <si>
-    <t>2_3676,1_8468</t>
-  </si>
-  <si>
-    <t>2_5515,1_2703</t>
-  </si>
-  <si>
-    <t>2_8272,1_9054</t>
-  </si>
-  <si>
-    <t>1_1,0_4779</t>
-  </si>
-  <si>
-    <t>1_2,0_2169</t>
-  </si>
-  <si>
-    <t>1_3,0_3253</t>
-  </si>
-  <si>
-    <t>1_4,0_9879</t>
-  </si>
-  <si>
-    <t>1_7,0_4819</t>
-  </si>
-  <si>
-    <t>1_11,0_2228</t>
-  </si>
-  <si>
-    <t>1_16,0_8342</t>
-  </si>
-  <si>
-    <t>1_25,0_2512</t>
-  </si>
-  <si>
-    <t>1_37,0_8768</t>
-  </si>
-  <si>
-    <t>1_56,0_8152</t>
-  </si>
-  <si>
-    <t>1_85,0_2227</t>
-  </si>
-  <si>
-    <t>1_127,0_8341</t>
-  </si>
-  <si>
-    <t>1_191,0_7511</t>
-  </si>
-  <si>
-    <t>1_287,0_6266</t>
-  </si>
-  <si>
-    <t>2_1,1_1057</t>
-  </si>
-  <si>
-    <t>2_1,1_6585</t>
-  </si>
-  <si>
-    <t>2_2,1_4878</t>
-  </si>
-  <si>
-    <t>2_3,1_7318</t>
-  </si>
-  <si>
-    <t>2_5,1_5977</t>
-  </si>
-  <si>
-    <t>2_8,1_3966</t>
-  </si>
-  <si>
-    <t>2_12,1_5949</t>
-  </si>
-  <si>
-    <t>2_18,1_8924</t>
-  </si>
-  <si>
-    <t>2_28,1_3387</t>
-  </si>
-  <si>
-    <t>2_42,1_5081</t>
-  </si>
-  <si>
-    <t>2_63,1_7621</t>
-  </si>
-  <si>
-    <t>2_95,1_6432</t>
-  </si>
-  <si>
-    <t>2_143,1_4648</t>
-  </si>
-  <si>
-    <t>2_215,1_1972</t>
-  </si>
-  <si>
-    <t>2_322,1_7958</t>
-  </si>
-  <si>
-    <t>2_484,1_1938</t>
-  </si>
-  <si>
-    <t>2_726,1_2907</t>
-  </si>
-  <si>
-    <t>3_1,2_2409</t>
-  </si>
-  <si>
-    <t>3_1,2_8614</t>
-  </si>
-  <si>
-    <t>3_2,2_7921</t>
-  </si>
-  <si>
-    <t>3_4,2_1881</t>
-  </si>
-  <si>
-    <t>3_6,2_2822</t>
-  </si>
-  <si>
-    <t>3_9,2_4233</t>
-  </si>
-  <si>
-    <t>3_14,2_1350</t>
-  </si>
-  <si>
-    <t>3_21,2_2025</t>
-  </si>
-  <si>
-    <t>3_31,2_8038</t>
-  </si>
-  <si>
-    <t>3_47,2_7057</t>
-  </si>
-  <si>
-    <t>3_71,2_5586</t>
-  </si>
-  <si>
-    <t>3_107,2_3379</t>
-  </si>
-  <si>
     <t>0_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3_161,2_68</t>
-  </si>
-  <si>
-    <t>3_241,2_5103</t>
-  </si>
-  <si>
-    <t>3_362,2_2654</t>
-  </si>
-  <si>
-    <t>3_543,2_3982</t>
-  </si>
-  <si>
-    <t>3_815,2_973</t>
-  </si>
-  <si>
-    <t>3_1222,2_6459</t>
-  </si>
-  <si>
-    <t>3_1833,2_9689</t>
-  </si>
-  <si>
-    <t>3_2750,2_9534</t>
-  </si>
-  <si>
-    <t>3_4126,2_4301</t>
-  </si>
-  <si>
-    <t>3_6189,2_6452</t>
-  </si>
-  <si>
-    <t>3_9284,2_4679</t>
-  </si>
-  <si>
-    <t>4_1,3_3926</t>
-  </si>
-  <si>
-    <t>4_2,3_890</t>
-  </si>
-  <si>
-    <t>4_3,3_1335</t>
-  </si>
-  <si>
-    <t>4_4,3_7002</t>
-  </si>
-  <si>
-    <t>4_7,3_503</t>
+    <t>0_16</t>
+  </si>
+  <si>
+    <t>0_26</t>
+  </si>
+  <si>
+    <t>0_41</t>
+  </si>
+  <si>
+    <t>0_66</t>
+  </si>
+  <si>
+    <t>0_105</t>
+  </si>
+  <si>
+    <t>0_168</t>
+  </si>
+  <si>
+    <t>0_269</t>
+  </si>
+  <si>
+    <t>0_430</t>
+  </si>
+  <si>
+    <t>0_688</t>
+  </si>
+  <si>
+    <t>0_1100</t>
+  </si>
+  <si>
+    <t>0_1760</t>
+  </si>
+  <si>
+    <t>0_2815</t>
+  </si>
+  <si>
+    <t>0_4504</t>
+  </si>
+  <si>
+    <t>0_7206</t>
+  </si>
+  <si>
+    <t>1_1,0_1530</t>
+  </si>
+  <si>
+    <t>1_1,0_8447</t>
+  </si>
+  <si>
+    <t>1_2,0_9515</t>
+  </si>
+  <si>
+    <t>1_4,0_7224</t>
+  </si>
+  <si>
+    <t>1_7,0_5558</t>
+  </si>
+  <si>
+    <t>1_12,0_893</t>
+  </si>
+  <si>
+    <t>1_19,0_3429</t>
+  </si>
+  <si>
+    <t>1_30,0_9486</t>
+  </si>
+  <si>
+    <t>1_49,0_5177</t>
+  </si>
+  <si>
+    <t>1_79,0_2282</t>
+  </si>
+  <si>
+    <t>1_126,0_7651</t>
+  </si>
+  <si>
+    <t>1_202,0_8241</t>
+  </si>
+  <si>
+    <t>1_324,0_5186</t>
+  </si>
+  <si>
+    <t>1_519,0_2297</t>
+  </si>
+  <si>
+    <t>1_830,0_7675</t>
+  </si>
+  <si>
+    <t>1_1329,0_2280</t>
+  </si>
+  <si>
+    <t>1_2126,0_7648</t>
+  </si>
+  <si>
+    <t>1_3402,0_8237</t>
+  </si>
+  <si>
+    <t>1_5444,0_5179</t>
+  </si>
+  <si>
+    <t>1_8711,0_2286</t>
+  </si>
+  <si>
+    <t>2_1,1_3937</t>
+  </si>
+  <si>
+    <t>2_2,1_2300</t>
+  </si>
+  <si>
+    <t>2_3,1_5681</t>
+  </si>
+  <si>
+    <t>2_5,1_7089</t>
+  </si>
+  <si>
+    <t>2_9,1_1343</t>
+  </si>
+  <si>
+    <t>2_14,1_6150</t>
+  </si>
+  <si>
+    <t>2_23,1_3840</t>
+  </si>
+  <si>
+    <t>2_37,1_4144</t>
+  </si>
+  <si>
+    <t>2_59,1_8631</t>
+  </si>
+  <si>
+    <t>2_95,1_7809</t>
+  </si>
+  <si>
+    <t>2_153,1_2495</t>
+  </si>
+  <si>
+    <t>2_245,1_1992</t>
+  </si>
+  <si>
+    <t>2_392,1_3188</t>
+  </si>
+  <si>
+    <t>2_627,1_7101</t>
+  </si>
+  <si>
+    <t>2_1004,1_3362</t>
+  </si>
+  <si>
+    <t>2_1606,1_9380</t>
+  </si>
+  <si>
+    <t>2_2571,1_1008</t>
+  </si>
+  <si>
+    <t>2_4113,1_7613</t>
+  </si>
+  <si>
+    <t>2_6582,1_182</t>
+  </si>
+  <si>
+    <t>3_1,2_531</t>
+  </si>
+  <si>
+    <t>3_1,2_6849</t>
+  </si>
+  <si>
+    <t>3_2,2_6959</t>
+  </si>
+  <si>
+    <t>3_4,2_3135</t>
+  </si>
+  <si>
+    <t>3_6,2_9017</t>
+  </si>
+  <si>
+    <t>3_11,2_427</t>
+  </si>
+  <si>
+    <t>3_17,2_6684</t>
+  </si>
+  <si>
+    <t>3_28,2_2695</t>
+  </si>
+  <si>
+    <t>3_45,2_2312</t>
+  </si>
+  <si>
+    <t>3_72,2_3700</t>
+  </si>
+  <si>
+    <t>3_115,2_7920</t>
+  </si>
+  <si>
+    <t>3_185,2_2673</t>
+  </si>
+  <si>
+    <t>3_296,2_4277</t>
+  </si>
+  <si>
+    <t>3_474,2_2843</t>
+  </si>
+  <si>
+    <t>3_758,2_8550</t>
+  </si>
+  <si>
+    <t>3_1214,2_1680</t>
+  </si>
+  <si>
+    <t>3_1942,2_6688</t>
+  </si>
+  <si>
+    <t>3_3108,2_2702</t>
+  </si>
+  <si>
+    <t>3_4973,2_2323</t>
+  </si>
+  <si>
+    <t>3_7957,2_1717</t>
+  </si>
+  <si>
+    <t>4_1,3_2731</t>
+  </si>
+  <si>
+    <t>4_2,3_370</t>
+  </si>
+  <si>
+    <t>4_3,3_2592</t>
+  </si>
+  <si>
+    <t>4_5,3_2148</t>
+  </si>
+  <si>
+    <t>4_8,3_3436</t>
+  </si>
+  <si>
+    <t>4_13,3_3499</t>
+  </si>
+  <si>
+    <t>4_21,3_3598</t>
+  </si>
+  <si>
+    <t>4_34,3_1757</t>
+  </si>
+  <si>
+    <t>4_54,3_6812</t>
+  </si>
+  <si>
+    <t>4_87,3_4900</t>
+  </si>
+  <si>
+    <t>4_139,3_9840</t>
+  </si>
+  <si>
+    <t>4_223,3_9744</t>
+  </si>
+  <si>
+    <t>4_358,3_3591</t>
+  </si>
+  <si>
+    <t>4_573,3_3746</t>
+  </si>
+  <si>
+    <t>4_917,3_3994</t>
+  </si>
+  <si>
+    <t>4_1467,3_8391</t>
+  </si>
+  <si>
+    <t>4_2348,3_5425</t>
   </si>
 </sst>
 </file>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -980,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -998,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1016,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -1052,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1070,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -1079,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -1088,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1097,7 +1097,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1130,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1362,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1514,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1530,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2499,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B95" sqref="B78:B95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2560,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" ref="F5:F36" si="0">ROUNDUP(D5,0)</f>
@@ -2585,7 +2585,7 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
         <f>IF(C6&gt;1,C6-1&amp;"_"&amp;H6&amp;","&amp;C6-2&amp;"_"&amp;I6,"0_"&amp;H6)</f>
-        <v>0_15</v>
+        <v>0_16</v>
       </c>
       <c r="C6">
         <f>COUNTIF(H6:W6,"&gt;-1")</f>
@@ -2593,21 +2593,21 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" ref="D6:D37" si="1">D5*E5</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="14" t="str">
         <f t="shared" ref="G6:G69" si="2">TEXT(F6,REPT("0", CEILING(LEN(F6)/4,1)*4))</f>
-        <v>0015</v>
+        <v>0016</v>
       </c>
       <c r="H6" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -2621,7 +2621,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B70" si="3">IF(C7&gt;1,C7-1&amp;"_"&amp;H7&amp;","&amp;C7-2&amp;"_"&amp;I7,"0_"&amp;H7)</f>
-        <v>0_23</v>
+        <v>0_26</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C70" si="4">COUNTIF(H7:W7,"&gt;-1")</f>
@@ -2629,21 +2629,21 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>25.6</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0023</v>
+        <v>0026</v>
       </c>
       <c r="H7" s="15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -2657,7 +2657,7 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="str">
         <f t="shared" si="3"/>
-        <v>0_34</v>
+        <v>0_41</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -2665,21 +2665,21 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>33.75</v>
+        <v>40.960000000000008</v>
       </c>
       <c r="E8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0034</v>
+        <v>0041</v>
       </c>
       <c r="H8" s="15">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -2693,7 +2693,7 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="str">
         <f t="shared" si="3"/>
-        <v>0_51</v>
+        <v>0_66</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -2701,21 +2701,21 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>50.625</v>
+        <v>65.536000000000016</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G9" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0051</v>
+        <v>0066</v>
       </c>
       <c r="H9" s="15">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -2729,7 +2729,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
         <f t="shared" si="3"/>
-        <v>0_76</v>
+        <v>0_105</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -2737,21 +2737,21 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>75.9375</v>
+        <v>104.85760000000003</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0076</v>
+        <v>0105</v>
       </c>
       <c r="H10" s="15">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -2765,7 +2765,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
         <f t="shared" si="3"/>
-        <v>0_114</v>
+        <v>0_168</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
@@ -2773,21 +2773,21 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>113.90625</v>
+        <v>167.77216000000007</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="G11" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0114</v>
+        <v>0168</v>
       </c>
       <c r="H11" s="15">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -2801,7 +2801,7 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
         <f t="shared" si="3"/>
-        <v>0_171</v>
+        <v>0_269</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -2809,21 +2809,21 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>170.859375</v>
+        <v>268.4354560000001</v>
       </c>
       <c r="E12">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0171</v>
+        <v>0269</v>
       </c>
       <c r="H12" s="15">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2837,7 +2837,7 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0_257</v>
+        <v>0_430</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -2845,21 +2845,21 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>256.2890625</v>
+        <v>429.49672960000021</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="G13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0257</v>
+        <v>0430</v>
       </c>
       <c r="H13" s="15">
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -2873,7 +2873,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="3"/>
-        <v>0_385</v>
+        <v>0_688</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -2881,21 +2881,21 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>384.43359375</v>
+        <v>687.19476736000036</v>
       </c>
       <c r="E14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>688</v>
       </c>
       <c r="G14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0385</v>
+        <v>0688</v>
       </c>
       <c r="H14" s="15">
-        <v>385</v>
+        <v>688</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -2909,7 +2909,7 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="3"/>
-        <v>0_577</v>
+        <v>0_1100</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -2917,21 +2917,21 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>576.650390625</v>
+        <v>1099.5116277760005</v>
       </c>
       <c r="E15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>1100</v>
       </c>
       <c r="G15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0577</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="15">
-        <v>577</v>
+        <v>1100</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -2945,7 +2945,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="3"/>
-        <v>0_865</v>
+        <v>0_1760</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -2953,21 +2953,21 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>864.9755859375</v>
+        <v>1759.218604441601</v>
       </c>
       <c r="E16">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>865</v>
+        <v>1760</v>
       </c>
       <c r="G16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0865</v>
+        <v>1760</v>
       </c>
       <c r="H16" s="15">
-        <v>865</v>
+        <v>1760</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -2981,7 +2981,7 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>0_1298</v>
+        <v>0_2815</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
@@ -2989,21 +2989,21 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>1297.46337890625</v>
+        <v>2814.7497671065616</v>
       </c>
       <c r="E17">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>1298</v>
+        <v>2815</v>
       </c>
       <c r="G17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>1298</v>
+        <v>2815</v>
       </c>
       <c r="H17" s="15">
-        <v>1298</v>
+        <v>2815</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -3017,7 +3017,7 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>0_1947</v>
+        <v>0_4504</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -3025,21 +3025,21 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>1946.195068359375</v>
+        <v>4503.5996273704986</v>
       </c>
       <c r="E18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>1947</v>
+        <v>4504</v>
       </c>
       <c r="G18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>1947</v>
+        <v>4504</v>
       </c>
       <c r="H18" s="15">
-        <v>1947</v>
+        <v>4504</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -3053,7 +3053,7 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>0_2920</v>
+        <v>0_7206</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -3061,21 +3061,21 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>2919.2926025390625</v>
+        <v>7205.7594037927984</v>
       </c>
       <c r="E19">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>2920</v>
+        <v>7206</v>
       </c>
       <c r="G19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>2920</v>
+        <v>7206</v>
       </c>
       <c r="H19" s="15">
-        <v>2920</v>
+        <v>7206</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -3089,31 +3089,33 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>0_4379</v>
+        <v>1_1,0_1530</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>4378.9389038085937</v>
+        <v>11529.215046068479</v>
       </c>
       <c r="E20">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>4379</v>
+        <v>11530</v>
       </c>
       <c r="G20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>4379</v>
+        <v>00011530</v>
       </c>
       <c r="H20" s="15">
-        <v>4379</v>
-      </c>
-      <c r="I20" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1530</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="9"/>
@@ -3125,31 +3127,33 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="3"/>
-        <v>0_6569</v>
+        <v>1_1,0_8447</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>6568.4083557128906</v>
+        <v>18446.744073709568</v>
       </c>
       <c r="E21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>6569</v>
+        <v>18447</v>
       </c>
       <c r="G21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>6569</v>
+        <v>00018447</v>
       </c>
       <c r="H21" s="15">
-        <v>6569</v>
-      </c>
-      <c r="I21" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>8447</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="9"/>
@@ -3161,31 +3165,33 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="3"/>
-        <v>0_9853</v>
+        <v>1_2,0_9515</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>9852.6125335693359</v>
+        <v>29514.790517935311</v>
       </c>
       <c r="E22">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>9853</v>
+        <v>29515</v>
       </c>
       <c r="G22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>9853</v>
+        <v>00029515</v>
       </c>
       <c r="H22" s="15">
-        <v>9853</v>
-      </c>
-      <c r="I22" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="15">
+        <v>9515</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="9"/>
@@ -3197,7 +3203,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
         <f t="shared" si="3"/>
-        <v>1_1,0_4779</v>
+        <v>1_4,0_7224</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -3205,24 +3211,24 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>14778.918800354004</v>
+        <v>47223.664828696499</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>14779</v>
+        <v>47224</v>
       </c>
       <c r="G23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00014779</v>
+        <v>00047224</v>
       </c>
       <c r="H23" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="15">
-        <v>4779</v>
+        <v>7224</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -3235,7 +3241,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="str">
         <f t="shared" si="3"/>
-        <v>1_2,0_2169</v>
+        <v>1_7,0_5558</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -3243,24 +3249,24 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>22168.378200531006</v>
+        <v>75557.863725914402</v>
       </c>
       <c r="E24">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>22169</v>
+        <v>75558</v>
       </c>
       <c r="G24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00022169</v>
+        <v>00075558</v>
       </c>
       <c r="H24" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I24" s="15">
-        <v>2169</v>
+        <v>5558</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -3273,7 +3279,7 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="str">
         <f t="shared" si="3"/>
-        <v>1_3,0_3253</v>
+        <v>1_12,0_893</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -3281,24 +3287,24 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
-        <v>33252.567300796509</v>
+        <v>120892.58196146305</v>
       </c>
       <c r="E25">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>33253</v>
+        <v>120893</v>
       </c>
       <c r="G25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00033253</v>
+        <v>00120893</v>
       </c>
       <c r="H25" s="15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I25" s="15">
-        <v>3253</v>
+        <v>893</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -3311,7 +3317,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="str">
         <f t="shared" si="3"/>
-        <v>1_4,0_9879</v>
+        <v>1_19,0_3429</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -3319,24 +3325,24 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" si="1"/>
-        <v>49878.850951194763</v>
+        <v>193428.13113834089</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>49879</v>
+        <v>193429</v>
       </c>
       <c r="G26" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00049879</v>
+        <v>00193429</v>
       </c>
       <c r="H26" s="15">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I26" s="15">
-        <v>9879</v>
+        <v>3429</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -3349,7 +3355,7 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="str">
         <f t="shared" si="3"/>
-        <v>1_7,0_4819</v>
+        <v>1_30,0_9486</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -3357,24 +3363,24 @@
       </c>
       <c r="D27" s="8">
         <f t="shared" si="1"/>
-        <v>74818.276426792145</v>
+        <v>309485.00982134545</v>
       </c>
       <c r="E27">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>74819</v>
+        <v>309486</v>
       </c>
       <c r="G27" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00074819</v>
+        <v>00309486</v>
       </c>
       <c r="H27" s="15">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I27" s="15">
-        <v>4819</v>
+        <v>9486</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -3387,7 +3393,7 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="str">
         <f t="shared" si="3"/>
-        <v>1_11,0_2228</v>
+        <v>1_49,0_5177</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -3395,24 +3401,24 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" si="1"/>
-        <v>112227.41464018822</v>
+        <v>495176.01571415272</v>
       </c>
       <c r="E28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>112228</v>
+        <v>495177</v>
       </c>
       <c r="G28" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00112228</v>
+        <v>00495177</v>
       </c>
       <c r="H28" s="15">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I28" s="15">
-        <v>2228</v>
+        <v>5177</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -3425,7 +3431,7 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f t="shared" si="3"/>
-        <v>1_16,0_8342</v>
+        <v>1_79,0_2282</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -3433,24 +3439,24 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>168341.12196028233</v>
+        <v>792281.62514264439</v>
       </c>
       <c r="E29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="0"/>
-        <v>168342</v>
+        <v>792282</v>
       </c>
       <c r="G29" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00168342</v>
+        <v>00792282</v>
       </c>
       <c r="H29" s="15">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I29" s="15">
-        <v>8342</v>
+        <v>2282</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -3463,7 +3469,7 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f t="shared" si="3"/>
-        <v>1_25,0_2512</v>
+        <v>1_126,0_7651</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -3471,24 +3477,24 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" si="1"/>
-        <v>252511.68294042349</v>
+        <v>1267650.6002282312</v>
       </c>
       <c r="E30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="0"/>
-        <v>252512</v>
+        <v>1267651</v>
       </c>
       <c r="G30" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00252512</v>
+        <v>01267651</v>
       </c>
       <c r="H30" s="15">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I30" s="15">
-        <v>2512</v>
+        <v>7651</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -3501,7 +3507,7 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f t="shared" si="3"/>
-        <v>1_37,0_8768</v>
+        <v>1_202,0_8241</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -3509,24 +3515,24 @@
       </c>
       <c r="D31" s="8">
         <f t="shared" si="1"/>
-        <v>378767.52441063523</v>
+        <v>2028240.9603651699</v>
       </c>
       <c r="E31">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="0"/>
-        <v>378768</v>
+        <v>2028241</v>
       </c>
       <c r="G31" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00378768</v>
+        <v>02028241</v>
       </c>
       <c r="H31" s="15">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="I31" s="15">
-        <v>8768</v>
+        <v>8241</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -3539,7 +3545,7 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f t="shared" si="3"/>
-        <v>1_56,0_8152</v>
+        <v>1_324,0_5186</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -3547,24 +3553,24 @@
       </c>
       <c r="D32" s="8">
         <f t="shared" si="1"/>
-        <v>568151.28661595285</v>
+        <v>3245185.536584272</v>
       </c>
       <c r="E32">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>568152</v>
+        <v>3245186</v>
       </c>
       <c r="G32" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00568152</v>
+        <v>03245186</v>
       </c>
       <c r="H32" s="15">
-        <v>56</v>
+        <v>324</v>
       </c>
       <c r="I32" s="15">
-        <v>8152</v>
+        <v>5186</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -3577,7 +3583,7 @@
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f t="shared" si="3"/>
-        <v>1_85,0_2227</v>
+        <v>1_519,0_2297</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -3585,24 +3591,24 @@
       </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
-        <v>852226.92992392927</v>
+        <v>5192296.8585348353</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>852227</v>
+        <v>5192297</v>
       </c>
       <c r="G33" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>00852227</v>
+        <v>05192297</v>
       </c>
       <c r="H33" s="15">
-        <v>85</v>
+        <v>519</v>
       </c>
       <c r="I33" s="15">
-        <v>2227</v>
+        <v>2297</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -3615,7 +3621,7 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="str">
         <f t="shared" si="3"/>
-        <v>1_127,0_8341</v>
+        <v>1_830,0_7675</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -3623,24 +3629,24 @@
       </c>
       <c r="D34" s="8">
         <f t="shared" si="1"/>
-        <v>1278340.3948858939</v>
+        <v>8307674.973655737</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>1278341</v>
+        <v>8307675</v>
       </c>
       <c r="G34" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>01278341</v>
+        <v>08307675</v>
       </c>
       <c r="H34" s="15">
-        <v>127</v>
+        <v>830</v>
       </c>
       <c r="I34" s="15">
-        <v>8341</v>
+        <v>7675</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -3653,7 +3659,7 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" si="3"/>
-        <v>1_191,0_7511</v>
+        <v>1_1329,0_2280</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -3661,24 +3667,24 @@
       </c>
       <c r="D35" s="8">
         <f t="shared" si="1"/>
-        <v>1917510.5923288409</v>
+        <v>13292279.95784918</v>
       </c>
       <c r="E35">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>1917511</v>
+        <v>13292280</v>
       </c>
       <c r="G35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>01917511</v>
+        <v>13292280</v>
       </c>
       <c r="H35" s="15">
-        <v>191</v>
+        <v>1329</v>
       </c>
       <c r="I35" s="15">
-        <v>7511</v>
+        <v>2280</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -3691,7 +3697,7 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="3"/>
-        <v>1_287,0_6266</v>
+        <v>1_2126,0_7648</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -3699,24 +3705,24 @@
       </c>
       <c r="D36" s="8">
         <f t="shared" si="1"/>
-        <v>2876265.8884932613</v>
+        <v>21267647.932558689</v>
       </c>
       <c r="E36">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>2876266</v>
+        <v>21267648</v>
       </c>
       <c r="G36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>02876266</v>
+        <v>21267648</v>
       </c>
       <c r="H36" s="15">
-        <v>287</v>
+        <v>2126</v>
       </c>
       <c r="I36" s="15">
-        <v>6266</v>
+        <v>7648</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -3729,7 +3735,7 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="3"/>
-        <v>1_431,0_4399</v>
+        <v>1_3402,0_8237</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -3737,24 +3743,24 @@
       </c>
       <c r="D37" s="8">
         <f t="shared" si="1"/>
-        <v>4314398.8327398915</v>
+        <v>34028236.692093901</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" ref="F37:F68" si="5">ROUNDUP(D37,0)</f>
-        <v>4314399</v>
+        <v>34028237</v>
       </c>
       <c r="G37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>04314399</v>
+        <v>34028237</v>
       </c>
       <c r="H37" s="15">
-        <v>431</v>
+        <v>3402</v>
       </c>
       <c r="I37" s="15">
-        <v>4399</v>
+        <v>8237</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -3767,7 +3773,7 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="3"/>
-        <v>1_647,0_1599</v>
+        <v>1_5444,0_5179</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -3775,24 +3781,24 @@
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38:D69" si="6">D37*E37</f>
-        <v>6471598.2491098372</v>
+        <v>54445178.707350247</v>
       </c>
       <c r="E38">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="5"/>
-        <v>6471599</v>
+        <v>54445179</v>
       </c>
       <c r="G38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>06471599</v>
+        <v>54445179</v>
       </c>
       <c r="H38" s="15">
-        <v>647</v>
+        <v>5444</v>
       </c>
       <c r="I38" s="15">
-        <v>1599</v>
+        <v>5179</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -3805,7 +3811,7 @@
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="3"/>
-        <v>1_970,0_7398</v>
+        <v>1_8711,0_2286</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -3813,24 +3819,24 @@
       </c>
       <c r="D39" s="8">
         <f t="shared" si="6"/>
-        <v>9707397.3736647554</v>
+        <v>87112285.931760401</v>
       </c>
       <c r="E39">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" si="5"/>
-        <v>9707398</v>
+        <v>87112286</v>
       </c>
       <c r="G39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>09707398</v>
+        <v>87112286</v>
       </c>
       <c r="H39" s="15">
-        <v>970</v>
+        <v>8711</v>
       </c>
       <c r="I39" s="15">
-        <v>7398</v>
+        <v>2286</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -3843,34 +3849,36 @@
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="3"/>
-        <v>1_1456,0_1097</v>
+        <v>2_1,1_3937</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" si="6"/>
-        <v>14561096.060497133</v>
+        <v>139379657.49081665</v>
       </c>
       <c r="E40">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" si="5"/>
-        <v>14561097</v>
+        <v>139379658</v>
       </c>
       <c r="G40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>14561097</v>
+        <v>000139379658</v>
       </c>
       <c r="H40" s="15">
-        <v>1456</v>
+        <v>1</v>
       </c>
       <c r="I40" s="15">
-        <v>1097</v>
-      </c>
-      <c r="J40" s="15"/>
+        <v>3937</v>
+      </c>
+      <c r="J40" s="15">
+        <v>9658</v>
+      </c>
       <c r="K40" s="15"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -3881,34 +3889,36 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="3"/>
-        <v>1_2184,0_1645</v>
+        <v>2_2,1_2300</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" si="6"/>
-        <v>21841644.090745699</v>
+        <v>223007451.98530665</v>
       </c>
       <c r="E41">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="5"/>
-        <v>21841645</v>
+        <v>223007452</v>
       </c>
       <c r="G41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>21841645</v>
+        <v>000223007452</v>
       </c>
       <c r="H41" s="15">
-        <v>2184</v>
+        <v>2</v>
       </c>
       <c r="I41" s="15">
-        <v>1645</v>
-      </c>
-      <c r="J41" s="15"/>
+        <v>2300</v>
+      </c>
+      <c r="J41" s="15">
+        <v>7452</v>
+      </c>
       <c r="K41" s="15"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -3919,34 +3929,36 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="3"/>
-        <v>1_3276,0_2467</v>
+        <v>2_3,1_5681</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="8">
         <f t="shared" si="6"/>
-        <v>32762466.136118546</v>
+        <v>356811923.17649066</v>
       </c>
       <c r="E42">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" si="5"/>
-        <v>32762467</v>
+        <v>356811924</v>
       </c>
       <c r="G42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>32762467</v>
+        <v>000356811924</v>
       </c>
       <c r="H42" s="15">
-        <v>3276</v>
+        <v>3</v>
       </c>
       <c r="I42" s="15">
-        <v>2467</v>
-      </c>
-      <c r="J42" s="15"/>
+        <v>5681</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1924</v>
+      </c>
       <c r="K42" s="15"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -3957,34 +3969,36 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="3"/>
-        <v>1_4914,0_3700</v>
+        <v>2_5,1_7089</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="6"/>
-        <v>49143699.204177819</v>
+        <v>570899077.08238506</v>
       </c>
       <c r="E43">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" si="5"/>
-        <v>49143700</v>
+        <v>570899078</v>
       </c>
       <c r="G43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>49143700</v>
+        <v>000570899078</v>
       </c>
       <c r="H43" s="15">
-        <v>4914</v>
+        <v>5</v>
       </c>
       <c r="I43" s="15">
-        <v>3700</v>
-      </c>
-      <c r="J43" s="15"/>
+        <v>7089</v>
+      </c>
+      <c r="J43" s="15">
+        <v>9078</v>
+      </c>
       <c r="K43" s="15"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -3995,34 +4009,36 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="3"/>
-        <v>1_7371,0_5549</v>
+        <v>2_9,1_1343</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="8">
         <f t="shared" si="6"/>
-        <v>73715548.806266725</v>
+        <v>913438523.3318162</v>
       </c>
       <c r="E44">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="5"/>
-        <v>73715549</v>
+        <v>913438524</v>
       </c>
       <c r="G44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>73715549</v>
+        <v>000913438524</v>
       </c>
       <c r="H44" s="15">
-        <v>7371</v>
+        <v>9</v>
       </c>
       <c r="I44" s="15">
-        <v>5549</v>
-      </c>
-      <c r="J44" s="15"/>
+        <v>1343</v>
+      </c>
+      <c r="J44" s="15">
+        <v>8524</v>
+      </c>
       <c r="K44" s="15"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4033,7 +4049,7 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="3"/>
-        <v>2_1,1_1057</v>
+        <v>2_14,1_6150</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -4041,27 +4057,27 @@
       </c>
       <c r="D45" s="8">
         <f t="shared" si="6"/>
-        <v>110573323.20940009</v>
+        <v>1461501637.3309059</v>
       </c>
       <c r="E45">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" si="5"/>
-        <v>110573324</v>
+        <v>1461501638</v>
       </c>
       <c r="G45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>000110573324</v>
+        <v>001461501638</v>
       </c>
       <c r="H45" s="21">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I45" s="21">
-        <v>1057</v>
+        <v>6150</v>
       </c>
       <c r="J45" s="21">
-        <v>3324</v>
+        <v>1638</v>
       </c>
       <c r="K45" s="21"/>
       <c r="L45" s="9"/>
@@ -4073,7 +4089,7 @@
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="3"/>
-        <v>2_1,1_6585</v>
+        <v>2_23,1_3840</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4081,27 +4097,27 @@
       </c>
       <c r="D46" s="8">
         <f t="shared" si="6"/>
-        <v>165859984.81410015</v>
+        <v>2338402619.7294497</v>
       </c>
       <c r="E46">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" si="5"/>
-        <v>165859985</v>
+        <v>2338402620</v>
       </c>
       <c r="G46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>000165859985</v>
+        <v>002338402620</v>
       </c>
       <c r="H46" s="21">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I46" s="21">
-        <v>6585</v>
+        <v>3840</v>
       </c>
       <c r="J46" s="21">
-        <v>9985</v>
+        <v>2620</v>
       </c>
       <c r="K46" s="21"/>
       <c r="L46" s="9"/>
@@ -4113,7 +4129,7 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="3"/>
-        <v>2_2,1_4878</v>
+        <v>2_37,1_4144</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4121,27 +4137,27 @@
       </c>
       <c r="D47" s="8">
         <f t="shared" si="6"/>
-        <v>248789977.22115022</v>
+        <v>3741444191.5671196</v>
       </c>
       <c r="E47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="5"/>
-        <v>248789978</v>
+        <v>3741444192</v>
       </c>
       <c r="G47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>000248789978</v>
+        <v>003741444192</v>
       </c>
       <c r="H47" s="21">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I47" s="21">
-        <v>4878</v>
+        <v>4144</v>
       </c>
       <c r="J47" s="21">
-        <v>9978</v>
+        <v>4192</v>
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="9"/>
@@ -4153,7 +4169,7 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="str">
         <f t="shared" si="3"/>
-        <v>2_3,1_7318</v>
+        <v>2_59,1_8631</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4161,27 +4177,27 @@
       </c>
       <c r="D48" s="8">
         <f t="shared" si="6"/>
-        <v>373184965.83172536</v>
+        <v>5986310706.5073919</v>
       </c>
       <c r="E48">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" si="5"/>
-        <v>373184966</v>
+        <v>5986310707</v>
       </c>
       <c r="G48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>000373184966</v>
+        <v>005986310707</v>
       </c>
       <c r="H48" s="21">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="I48" s="21">
-        <v>7318</v>
+        <v>8631</v>
       </c>
       <c r="J48" s="21">
-        <v>4966</v>
+        <v>707</v>
       </c>
       <c r="K48" s="21"/>
       <c r="L48" s="9"/>
@@ -4193,7 +4209,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="str">
         <f t="shared" si="3"/>
-        <v>2_5,1_5977</v>
+        <v>2_95,1_7809</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4201,27 +4217,27 @@
       </c>
       <c r="D49" s="8">
         <f t="shared" si="6"/>
-        <v>559777448.74758804</v>
+        <v>9578097130.4118271</v>
       </c>
       <c r="E49">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="5"/>
-        <v>559777449</v>
+        <v>9578097131</v>
       </c>
       <c r="G49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>000559777449</v>
+        <v>009578097131</v>
       </c>
       <c r="H49" s="21">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="I49" s="21">
-        <v>5977</v>
+        <v>7809</v>
       </c>
       <c r="J49" s="21">
-        <v>7449</v>
+        <v>7131</v>
       </c>
       <c r="K49" s="21"/>
       <c r="L49" s="9"/>
@@ -4233,7 +4249,7 @@
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f t="shared" si="3"/>
-        <v>2_8,1_3966</v>
+        <v>2_153,1_2495</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4241,27 +4257,27 @@
       </c>
       <c r="D50" s="8">
         <f t="shared" si="6"/>
-        <v>839666173.121382</v>
+        <v>15324955408.658924</v>
       </c>
       <c r="E50">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="5"/>
-        <v>839666174</v>
+        <v>15324955409</v>
       </c>
       <c r="G50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>000839666174</v>
+        <v>015324955409</v>
       </c>
       <c r="H50" s="21">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="I50" s="21">
-        <v>3966</v>
+        <v>2495</v>
       </c>
       <c r="J50" s="21">
-        <v>6174</v>
+        <v>5409</v>
       </c>
       <c r="K50" s="21"/>
       <c r="L50" s="9"/>
@@ -4273,7 +4289,7 @@
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="str">
         <f t="shared" si="3"/>
-        <v>2_12,1_5949</v>
+        <v>2_245,1_1992</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4281,27 +4297,27 @@
       </c>
       <c r="D51" s="8">
         <f t="shared" si="6"/>
-        <v>1259499259.6820731</v>
+        <v>24519928653.854279</v>
       </c>
       <c r="E51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" si="5"/>
-        <v>1259499260</v>
+        <v>24519928654</v>
       </c>
       <c r="G51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>001259499260</v>
+        <v>024519928654</v>
       </c>
       <c r="H51" s="21">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I51" s="21">
-        <v>5949</v>
+        <v>1992</v>
       </c>
       <c r="J51" s="21">
-        <v>9260</v>
+        <v>8654</v>
       </c>
       <c r="K51" s="21"/>
       <c r="L51" s="9"/>
@@ -4313,7 +4329,7 @@
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="str">
         <f t="shared" si="3"/>
-        <v>2_18,1_8924</v>
+        <v>2_392,1_3188</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4321,27 +4337,27 @@
       </c>
       <c r="D52" s="8">
         <f t="shared" si="6"/>
-        <v>1889248889.5231097</v>
+        <v>39231885846.166847</v>
       </c>
       <c r="E52">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" si="5"/>
-        <v>1889248890</v>
+        <v>39231885847</v>
       </c>
       <c r="G52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>001889248890</v>
+        <v>039231885847</v>
       </c>
       <c r="H52" s="21">
-        <v>18</v>
+        <v>392</v>
       </c>
       <c r="I52" s="21">
-        <v>8924</v>
+        <v>3188</v>
       </c>
       <c r="J52" s="21">
-        <v>8890</v>
+        <v>5847</v>
       </c>
       <c r="K52" s="21"/>
       <c r="L52" s="9"/>
@@ -4353,7 +4369,7 @@
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="str">
         <f t="shared" si="3"/>
-        <v>2_28,1_3387</v>
+        <v>2_627,1_7101</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -4361,27 +4377,27 @@
       </c>
       <c r="D53" s="8">
         <f t="shared" si="6"/>
-        <v>2833873334.2846646</v>
+        <v>62771017353.866959</v>
       </c>
       <c r="E53">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="5"/>
-        <v>2833873335</v>
+        <v>62771017354</v>
       </c>
       <c r="G53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>002833873335</v>
+        <v>062771017354</v>
       </c>
       <c r="H53" s="21">
-        <v>28</v>
+        <v>627</v>
       </c>
       <c r="I53" s="21">
-        <v>3387</v>
+        <v>7101</v>
       </c>
       <c r="J53" s="21">
-        <v>3335</v>
+        <v>7354</v>
       </c>
       <c r="K53" s="21"/>
       <c r="L53" s="9"/>
@@ -4393,7 +4409,7 @@
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="str">
         <f t="shared" si="3"/>
-        <v>2_42,1_5081</v>
+        <v>2_1004,1_3362</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -4401,27 +4417,27 @@
       </c>
       <c r="D54" s="8">
         <f t="shared" si="6"/>
-        <v>4250810001.4269972</v>
+        <v>100433627766.18713</v>
       </c>
       <c r="E54">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="5"/>
-        <v>4250810002</v>
+        <v>100433627767</v>
       </c>
       <c r="G54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>004250810002</v>
+        <v>100433627767</v>
       </c>
       <c r="H54" s="19">
-        <v>42</v>
+        <v>1004</v>
       </c>
       <c r="I54" s="19">
-        <v>5081</v>
+        <v>3362</v>
       </c>
       <c r="J54" s="19">
-        <v>2</v>
+        <v>7767</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="9"/>
@@ -4433,7 +4449,7 @@
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="str">
         <f t="shared" si="3"/>
-        <v>2_63,1_7621</v>
+        <v>2_1606,1_9380</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -4441,27 +4457,27 @@
       </c>
       <c r="D55" s="8">
         <f t="shared" si="6"/>
-        <v>6376215002.1404953</v>
+        <v>160693804425.89941</v>
       </c>
       <c r="E55">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="5"/>
-        <v>6376215003</v>
+        <v>160693804426</v>
       </c>
       <c r="G55" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>006376215003</v>
+        <v>160693804426</v>
       </c>
       <c r="H55" s="19">
-        <v>63</v>
+        <v>1606</v>
       </c>
       <c r="I55" s="19">
-        <v>7621</v>
+        <v>9380</v>
       </c>
       <c r="J55" s="19">
-        <v>5003</v>
+        <v>4426</v>
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="9"/>
@@ -4473,7 +4489,7 @@
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="str">
         <f t="shared" si="3"/>
-        <v>2_95,1_6432</v>
+        <v>2_2571,1_1008</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -4481,27 +4497,27 @@
       </c>
       <c r="D56" s="8">
         <f t="shared" si="6"/>
-        <v>9564322503.210743</v>
+        <v>257110087081.43909</v>
       </c>
       <c r="E56">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="5"/>
-        <v>9564322504</v>
+        <v>257110087082</v>
       </c>
       <c r="G56" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>009564322504</v>
+        <v>257110087082</v>
       </c>
       <c r="H56" s="19">
-        <v>95</v>
+        <v>2571</v>
       </c>
       <c r="I56" s="19">
-        <v>6432</v>
+        <v>1008</v>
       </c>
       <c r="J56" s="19">
-        <v>2504</v>
+        <v>7082</v>
       </c>
       <c r="K56" s="21"/>
       <c r="L56" s="9"/>
@@ -4514,7 +4530,7 @@
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f t="shared" si="3"/>
-        <v>2_143,1_4648</v>
+        <v>2_4113,1_7613</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -4522,27 +4538,27 @@
       </c>
       <c r="D57" s="8">
         <f t="shared" si="6"/>
-        <v>14346483754.816114</v>
+        <v>411376139330.30255</v>
       </c>
       <c r="E57">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="5"/>
-        <v>14346483755</v>
+        <v>411376139331</v>
       </c>
       <c r="G57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>014346483755</v>
+        <v>411376139331</v>
       </c>
       <c r="H57" s="19">
-        <v>143</v>
+        <v>4113</v>
       </c>
       <c r="I57" s="19">
-        <v>4648</v>
+        <v>7613</v>
       </c>
       <c r="J57" s="19">
-        <v>3755</v>
+        <v>9331</v>
       </c>
       <c r="K57" s="21"/>
       <c r="L57" s="9"/>
@@ -4555,7 +4571,7 @@
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="str">
         <f t="shared" si="3"/>
-        <v>2_215,1_1972</v>
+        <v>2_6582,1_182</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -4563,27 +4579,27 @@
       </c>
       <c r="D58" s="8">
         <f t="shared" si="6"/>
-        <v>21519725632.224171</v>
+        <v>658201822928.48413</v>
       </c>
       <c r="E58">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="5"/>
-        <v>21519725633</v>
+        <v>658201822929</v>
       </c>
       <c r="G58" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>021519725633</v>
+        <v>658201822929</v>
       </c>
       <c r="H58" s="19">
-        <v>215</v>
+        <v>6582</v>
       </c>
       <c r="I58" s="19">
-        <v>1972</v>
+        <v>182</v>
       </c>
       <c r="J58" s="19">
-        <v>5633</v>
+        <v>2929</v>
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="9"/>
@@ -4596,37 +4612,39 @@
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="str">
         <f t="shared" si="3"/>
-        <v>2_322,1_7958</v>
+        <v>3_1,2_531</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="6"/>
-        <v>32279588448.336258</v>
+        <v>1053122916685.5747</v>
       </c>
       <c r="E59">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F59" s="9">
         <f t="shared" si="5"/>
-        <v>32279588449</v>
+        <v>1053122916686</v>
       </c>
       <c r="G59" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>032279588449</v>
+        <v>0001053122916686</v>
       </c>
       <c r="H59" s="19">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="I59" s="19">
-        <v>7958</v>
+        <v>531</v>
       </c>
       <c r="J59" s="19">
-        <v>8449</v>
-      </c>
-      <c r="K59" s="21"/>
+        <v>2291</v>
+      </c>
+      <c r="K59" s="21">
+        <v>6686</v>
+      </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -4637,37 +4655,39 @@
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="str">
         <f t="shared" si="3"/>
-        <v>2_484,1_1938</v>
+        <v>3_1,2_6849</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" s="8">
         <f t="shared" si="6"/>
-        <v>48419382672.504387</v>
+        <v>1684996666696.9197</v>
       </c>
       <c r="E60">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="5"/>
-        <v>48419382673</v>
+        <v>1684996666697</v>
       </c>
       <c r="G60" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>048419382673</v>
+        <v>0001684996666697</v>
       </c>
       <c r="H60" s="19">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="I60" s="19">
-        <v>1938</v>
+        <v>6849</v>
       </c>
       <c r="J60" s="19">
-        <v>2673</v>
-      </c>
-      <c r="K60" s="21"/>
+        <v>9666</v>
+      </c>
+      <c r="K60" s="21">
+        <v>6697</v>
+      </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -4678,37 +4698,39 @@
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="str">
         <f t="shared" si="3"/>
-        <v>2_726,1_2907</v>
+        <v>3_2,2_6959</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="8">
         <f t="shared" si="6"/>
-        <v>72629074008.756577</v>
+        <v>2695994666715.0718</v>
       </c>
       <c r="E61">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F61" s="9">
         <f t="shared" si="5"/>
-        <v>72629074009</v>
+        <v>2695994666716</v>
       </c>
       <c r="G61" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>072629074009</v>
+        <v>0002695994666716</v>
       </c>
       <c r="H61" s="19">
-        <v>726</v>
+        <v>2</v>
       </c>
       <c r="I61" s="19">
-        <v>2907</v>
+        <v>6959</v>
       </c>
       <c r="J61" s="19">
-        <v>4009</v>
-      </c>
-      <c r="K61" s="21"/>
+        <v>9466</v>
+      </c>
+      <c r="K61" s="21">
+        <v>6716</v>
+      </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -4719,37 +4741,39 @@
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="str">
         <f t="shared" si="3"/>
-        <v>2_1089,1_4361</v>
+        <v>3_4,2_3135</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="8">
         <f t="shared" si="6"/>
-        <v>108943611013.13486</v>
+        <v>4313591466744.1152</v>
       </c>
       <c r="E62">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="5"/>
-        <v>108943611014</v>
+        <v>4313591466745</v>
       </c>
       <c r="G62" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>108943611014</v>
+        <v>0004313591466745</v>
       </c>
       <c r="H62" s="21">
-        <v>1089</v>
+        <v>4</v>
       </c>
       <c r="I62" s="21">
-        <v>4361</v>
+        <v>3135</v>
       </c>
       <c r="J62" s="21">
-        <v>1014</v>
-      </c>
-      <c r="K62" s="21"/>
+        <v>9146</v>
+      </c>
+      <c r="K62" s="21">
+        <v>6745</v>
+      </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -4760,37 +4784,39 @@
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="str">
         <f t="shared" si="3"/>
-        <v>2_1634,1_1541</v>
+        <v>3_6,2_9017</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="6"/>
-        <v>163415416519.70227</v>
+        <v>6901746346790.585</v>
       </c>
       <c r="E63">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="5"/>
-        <v>163415416520</v>
+        <v>6901746346791</v>
       </c>
       <c r="G63" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>163415416520</v>
+        <v>0006901746346791</v>
       </c>
       <c r="H63" s="21">
-        <v>1634</v>
+        <v>6</v>
       </c>
       <c r="I63" s="21">
-        <v>1541</v>
+        <v>9017</v>
       </c>
       <c r="J63" s="21">
-        <v>6520</v>
-      </c>
-      <c r="K63" s="21"/>
+        <v>4634</v>
+      </c>
+      <c r="K63" s="21">
+        <v>6791</v>
+      </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -4801,37 +4827,39 @@
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="str">
         <f t="shared" si="3"/>
-        <v>2_2451,1_2312</v>
+        <v>3_11,2_427</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="8">
         <f t="shared" si="6"/>
-        <v>245123124779.55341</v>
+        <v>11042794154864.937</v>
       </c>
       <c r="E64">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="5"/>
-        <v>245123124780</v>
+        <v>11042794154865</v>
       </c>
       <c r="G64" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>245123124780</v>
+        <v>0011042794154865</v>
       </c>
       <c r="H64" s="21">
-        <v>2451</v>
+        <v>11</v>
       </c>
       <c r="I64" s="21">
-        <v>2312</v>
+        <v>427</v>
       </c>
       <c r="J64" s="21">
-        <v>4780</v>
-      </c>
-      <c r="K64" s="21"/>
+        <v>9415</v>
+      </c>
+      <c r="K64" s="21">
+        <v>4865</v>
+      </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -4842,37 +4870,39 @@
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="str">
         <f t="shared" si="3"/>
-        <v>2_3676,1_8468</v>
+        <v>3_17,2_6684</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="6"/>
-        <v>367684687169.33008</v>
+        <v>17668470647783.902</v>
       </c>
       <c r="E65">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="5"/>
-        <v>367684687170</v>
+        <v>17668470647784</v>
       </c>
       <c r="G65" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>367684687170</v>
+        <v>0017668470647784</v>
       </c>
       <c r="H65" s="21">
-        <v>3676</v>
+        <v>17</v>
       </c>
       <c r="I65" s="21">
-        <v>8468</v>
+        <v>6684</v>
       </c>
       <c r="J65" s="21">
-        <v>7170</v>
-      </c>
-      <c r="K65" s="21"/>
+        <v>7064</v>
+      </c>
+      <c r="K65" s="21">
+        <v>7784</v>
+      </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -4883,37 +4913,39 @@
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="str">
         <f t="shared" si="3"/>
-        <v>2_5515,1_2703</v>
+        <v>3_28,2_2695</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" s="8">
         <f t="shared" si="6"/>
-        <v>551527030753.99512</v>
+        <v>28269553036454.246</v>
       </c>
       <c r="E66">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" si="5"/>
-        <v>551527030754</v>
+        <v>28269553036455</v>
       </c>
       <c r="G66" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>551527030754</v>
+        <v>0028269553036455</v>
       </c>
       <c r="H66" s="21">
-        <v>5515</v>
+        <v>28</v>
       </c>
       <c r="I66" s="21">
-        <v>2703</v>
+        <v>2695</v>
       </c>
       <c r="J66" s="19">
-        <v>754</v>
-      </c>
-      <c r="K66" s="21"/>
+        <v>5303</v>
+      </c>
+      <c r="K66" s="21">
+        <v>6455</v>
+      </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -4924,37 +4956,39 @@
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="str">
         <f t="shared" si="3"/>
-        <v>2_8272,1_9054</v>
+        <v>3_45,2_2312</v>
       </c>
       <c r="C67">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="6"/>
-        <v>827290546130.99268</v>
+        <v>45231284858326.797</v>
       </c>
       <c r="E67">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="5"/>
-        <v>827290546131</v>
+        <v>45231284858327</v>
       </c>
       <c r="G67" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>827290546131</v>
+        <v>0045231284858327</v>
       </c>
       <c r="H67" s="21">
-        <v>8272</v>
+        <v>45</v>
       </c>
       <c r="I67" s="21">
-        <v>9054</v>
+        <v>2312</v>
       </c>
       <c r="J67" s="21">
-        <v>6131</v>
-      </c>
-      <c r="K67" s="21"/>
+        <v>8485</v>
+      </c>
+      <c r="K67" s="21">
+        <v>8327</v>
+      </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -4965,7 +4999,7 @@
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>3_1,2_2409</v>
+        <v>3_72,2_3700</v>
       </c>
       <c r="C68">
         <f>COUNTIF(H68:W68,"&gt;-1")</f>
@@ -4973,30 +5007,30 @@
       </c>
       <c r="D68" s="8">
         <f t="shared" si="6"/>
-        <v>1240935819196.489</v>
+        <v>72370055773322.875</v>
       </c>
       <c r="E68">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="5"/>
-        <v>1240935819197</v>
+        <v>72370055773323</v>
       </c>
       <c r="G68" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0001240935819197</v>
+        <v>0072370055773323</v>
       </c>
       <c r="H68" s="19">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I68" s="19">
-        <v>2409</v>
+        <v>3700</v>
       </c>
       <c r="J68" s="19">
-        <v>3581</v>
+        <v>5577</v>
       </c>
       <c r="K68" s="19">
-        <v>9197</v>
+        <v>3323</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5008,7 +5042,7 @@
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>3_1,2_8614</v>
+        <v>3_115,2_7920</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
@@ -5016,30 +5050,30 @@
       </c>
       <c r="D69" s="8">
         <f t="shared" si="6"/>
-        <v>1861403728794.7334</v>
+        <v>115792089237316.61</v>
       </c>
       <c r="E69">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" ref="F69:F95" si="7">ROUNDUP(D69,0)</f>
-        <v>1861403728795</v>
+        <v>115792089237317</v>
       </c>
       <c r="G69" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0001861403728795</v>
+        <v>0115792089237317</v>
       </c>
       <c r="H69" s="19">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="I69" s="19">
-        <v>8614</v>
+        <v>7920</v>
       </c>
       <c r="J69" s="19">
-        <v>372</v>
+        <v>8923</v>
       </c>
       <c r="K69" s="19">
-        <v>8795</v>
+        <v>7317</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -5051,7 +5085,7 @@
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>3_2,2_7921</v>
+        <v>3_185,2_2673</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
@@ -5059,30 +5093,30 @@
       </c>
       <c r="D70" s="8">
         <f t="shared" ref="D70:D95" si="8">D69*E69</f>
-        <v>2792105593192.1001</v>
+        <v>185267342779706.59</v>
       </c>
       <c r="E70">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="7"/>
-        <v>2792105593193</v>
+        <v>185267342779707</v>
       </c>
       <c r="G70" s="14" t="str">
         <f t="shared" ref="G70:G95" si="9">TEXT(F70,REPT("0", CEILING(LEN(F70)/4,1)*4))</f>
-        <v>0002792105593193</v>
+        <v>0185267342779707</v>
       </c>
       <c r="H70" s="19">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="I70" s="19">
-        <v>7921</v>
+        <v>2673</v>
       </c>
       <c r="J70" s="19">
-        <v>559</v>
+        <v>4277</v>
       </c>
       <c r="K70" s="19">
-        <v>3193</v>
+        <v>9707</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
@@ -5094,7 +5128,7 @@
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="str">
         <f t="shared" ref="B71:B95" si="10">IF(C71&gt;1,C71-1&amp;"_"&amp;H71&amp;","&amp;C71-2&amp;"_"&amp;I71,"0_"&amp;H71)</f>
-        <v>3_4,2_1881</v>
+        <v>3_296,2_4277</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C95" si="11">COUNTIF(H71:W71,"&gt;-1")</f>
@@ -5102,30 +5136,30 @@
       </c>
       <c r="D71" s="8">
         <f t="shared" si="8"/>
-        <v>4188158389788.1504</v>
+        <v>296427748447530.56</v>
       </c>
       <c r="E71">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="7"/>
-        <v>4188158389789</v>
+        <v>296427748447531</v>
       </c>
       <c r="G71" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0004188158389789</v>
+        <v>0296427748447531</v>
       </c>
       <c r="H71" s="19">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="I71" s="19">
-        <v>1881</v>
+        <v>4277</v>
       </c>
       <c r="J71" s="19">
-        <v>5838</v>
+        <v>4844</v>
       </c>
       <c r="K71" s="19">
-        <v>9789</v>
+        <v>7531</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
@@ -5137,7 +5171,7 @@
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f t="shared" si="10"/>
-        <v>3_6,2_2822</v>
+        <v>3_474,2_2843</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
@@ -5145,30 +5179,30 @@
       </c>
       <c r="D72" s="8">
         <f t="shared" si="8"/>
-        <v>6282237584682.2256</v>
+        <v>474284397516048.94</v>
       </c>
       <c r="E72">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="7"/>
-        <v>6282237584683</v>
+        <v>474284397516049</v>
       </c>
       <c r="G72" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0006282237584683</v>
+        <v>0474284397516049</v>
       </c>
       <c r="H72" s="19">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="I72" s="19">
-        <v>2822</v>
+        <v>2843</v>
       </c>
       <c r="J72" s="19">
-        <v>3758</v>
+        <v>9751</v>
       </c>
       <c r="K72" s="19">
-        <v>4683</v>
+        <v>6049</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5180,7 +5214,7 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="str">
         <f t="shared" si="10"/>
-        <v>3_9,2_4233</v>
+        <v>3_758,2_8550</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
@@ -5188,30 +5222,30 @@
       </c>
       <c r="D73" s="8">
         <f t="shared" si="8"/>
-        <v>9423356377023.3379</v>
+        <v>758855036025678.37</v>
       </c>
       <c r="E73">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="7"/>
-        <v>9423356377024</v>
+        <v>758855036025678</v>
       </c>
       <c r="G73" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0009423356377024</v>
+        <v>0758855036025678</v>
       </c>
       <c r="H73" s="19">
-        <v>9</v>
+        <v>758</v>
       </c>
       <c r="I73" s="19">
-        <v>4233</v>
+        <v>8550</v>
       </c>
       <c r="J73" s="19">
-        <v>5637</v>
+        <v>3602</v>
       </c>
       <c r="K73" s="19">
-        <v>7024</v>
+        <v>5678</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5223,7 +5257,7 @@
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="str">
         <f t="shared" si="10"/>
-        <v>3_14,2_1350</v>
+        <v>3_1214,2_1680</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
@@ -5231,30 +5265,30 @@
       </c>
       <c r="D74" s="8">
         <f t="shared" si="8"/>
-        <v>14135034565535.008</v>
+        <v>1214168057641085.5</v>
       </c>
       <c r="E74">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="7"/>
-        <v>14135034565535</v>
+        <v>1214168057641090</v>
       </c>
       <c r="G74" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0014135034565535</v>
+        <v>1214168057641090</v>
       </c>
       <c r="H74" s="19">
-        <v>14</v>
+        <v>1214</v>
       </c>
       <c r="I74" s="19">
-        <v>1350</v>
+        <v>1680</v>
       </c>
       <c r="J74" s="19">
-        <v>3456</v>
+        <v>5764</v>
       </c>
       <c r="K74" s="19">
-        <v>5535</v>
+        <v>1090</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5266,7 +5300,7 @@
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="str">
         <f t="shared" si="10"/>
-        <v>3_21,2_2025</v>
+        <v>3_1942,2_6688</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
@@ -5274,30 +5308,30 @@
       </c>
       <c r="D75" s="8">
         <f t="shared" si="8"/>
-        <v>21202551848302.512</v>
+        <v>1942668892225737</v>
       </c>
       <c r="E75">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" si="7"/>
-        <v>21202551848303</v>
+        <v>1942668892225740</v>
       </c>
       <c r="G75" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0021202551848303</v>
+        <v>1942668892225740</v>
       </c>
       <c r="H75" s="19">
-        <v>21</v>
+        <v>1942</v>
       </c>
       <c r="I75" s="19">
-        <v>2025</v>
+        <v>6688</v>
       </c>
       <c r="J75" s="19">
-        <v>5184</v>
+        <v>9222</v>
       </c>
       <c r="K75" s="19">
-        <v>8303</v>
+        <v>5740</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5309,7 +5343,7 @@
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" t="str">
         <f t="shared" si="10"/>
-        <v>3_31,2_8038</v>
+        <v>3_3108,2_2702</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
@@ -5317,30 +5351,30 @@
       </c>
       <c r="D76" s="8">
         <f t="shared" si="8"/>
-        <v>31803827772453.766</v>
+        <v>3108270227561179.5</v>
       </c>
       <c r="E76">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="7"/>
-        <v>31803827772454</v>
+        <v>3108270227561180</v>
       </c>
       <c r="G76" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0031803827772454</v>
+        <v>3108270227561180</v>
       </c>
       <c r="H76" s="19">
-        <v>31</v>
+        <v>3108</v>
       </c>
       <c r="I76" s="19">
-        <v>8038</v>
+        <v>2702</v>
       </c>
       <c r="J76" s="19">
-        <v>2777</v>
+        <v>2756</v>
       </c>
       <c r="K76" s="19">
-        <v>2454</v>
+        <v>1180</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5352,7 +5386,7 @@
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="str">
         <f t="shared" si="10"/>
-        <v>3_47,2_7057</v>
+        <v>3_4973,2_2323</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
@@ -5360,30 +5394,30 @@
       </c>
       <c r="D77" s="8">
         <f t="shared" si="8"/>
-        <v>47705741658680.648</v>
+        <v>4973232364097887</v>
       </c>
       <c r="E77">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="7"/>
-        <v>47705741658681</v>
+        <v>4973232364097890</v>
       </c>
       <c r="G77" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0047705741658681</v>
+        <v>4973232364097890</v>
       </c>
       <c r="H77" s="19">
-        <v>47</v>
+        <v>4973</v>
       </c>
       <c r="I77" s="19">
-        <v>7057</v>
+        <v>2323</v>
       </c>
       <c r="J77" s="19">
-        <v>4165</v>
+        <v>6409</v>
       </c>
       <c r="K77" s="19">
-        <v>8681</v>
+        <v>7890</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5395,7 +5429,7 @@
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="str">
         <f t="shared" si="10"/>
-        <v>3_71,2_5586</v>
+        <v>3_7957,2_1717</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
@@ -5403,30 +5437,30 @@
       </c>
       <c r="D78" s="8">
         <f t="shared" si="8"/>
-        <v>71558612488020.969</v>
+        <v>7957171782556620</v>
       </c>
       <c r="E78">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="7"/>
-        <v>71558612488021</v>
+        <v>7957171782556620</v>
       </c>
       <c r="G78" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0071558612488021</v>
+        <v>7957171782556620</v>
       </c>
       <c r="H78" s="19">
-        <v>71</v>
+        <v>7957</v>
       </c>
       <c r="I78" s="19">
-        <v>5586</v>
+        <v>1717</v>
       </c>
       <c r="J78" s="19">
-        <v>1248</v>
+        <v>8255</v>
       </c>
       <c r="K78" s="19">
-        <v>8021</v>
+        <v>6620</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -5438,38 +5472,41 @@
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="str">
         <f t="shared" si="10"/>
-        <v>3_107,2_3379</v>
+        <v>4_1,3_2731</v>
       </c>
       <c r="C79">
         <f>COUNTIF(H79:W79,"&gt;-1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="8"/>
-        <v>107337918732031.45</v>
+        <v>1.2731474852090592E+16</v>
       </c>
       <c r="E79">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="7"/>
-        <v>107337918732031</v>
+        <v>1.27314748520906E+16</v>
       </c>
       <c r="G79" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0107337918732031</v>
+        <v>00012731474852090600</v>
       </c>
       <c r="H79" s="15">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="I79" s="19">
-        <v>3379</v>
+        <v>2731</v>
       </c>
       <c r="J79" s="15">
-        <v>1873</v>
+        <v>4748</v>
       </c>
       <c r="K79" s="15">
-        <v>2031</v>
+        <v>5209</v>
+      </c>
+      <c r="L79" s="12">
+        <v>600</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -5480,414 +5517,447 @@
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="str">
         <f t="shared" si="10"/>
-        <v>3_161,2_68</v>
+        <v>4_2,3_370</v>
       </c>
       <c r="C80">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" s="8">
         <f t="shared" si="8"/>
-        <v>161006878098047.19</v>
+        <v>2.0370359763344948E+16</v>
       </c>
       <c r="E80">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="7"/>
-        <v>161006878098047</v>
+        <v>2.03703597633449E+16</v>
       </c>
       <c r="G80" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0161006878098047</v>
+        <v>00020370359763344900</v>
       </c>
       <c r="H80">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="I80" s="12">
-        <v>68</v>
+        <v>370</v>
       </c>
       <c r="J80" s="12">
-        <v>7809</v>
+        <v>3597</v>
       </c>
       <c r="K80" s="12">
-        <v>8047</v>
+        <v>6334</v>
+      </c>
+      <c r="L80" s="12">
+        <v>4900</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="str">
         <f t="shared" si="10"/>
-        <v>3_241,2_5103</v>
+        <v>4_3,3_2592</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="8"/>
-        <v>241510317147070.78</v>
+        <v>3.259257562135192E+16</v>
       </c>
       <c r="E81">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="7"/>
-        <v>241510317147071</v>
+        <v>3.25925756213519E+16</v>
       </c>
       <c r="G81" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0241510317147071</v>
+        <v>00032592575621351900</v>
       </c>
       <c r="H81" s="18">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="I81" s="12">
-        <v>5103</v>
+        <v>2592</v>
       </c>
       <c r="J81" s="12">
-        <v>1714</v>
+        <v>5756</v>
       </c>
       <c r="K81" s="12">
-        <v>7071</v>
+        <v>2135</v>
+      </c>
+      <c r="L81" s="12">
+        <v>1900</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" t="str">
         <f t="shared" si="10"/>
-        <v>3_362,2_2654</v>
+        <v>4_5,3_2148</v>
       </c>
       <c r="C82">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" s="8">
         <f t="shared" si="8"/>
-        <v>362265475720606.19</v>
+        <v>5.2148120994163072E+16</v>
       </c>
       <c r="E82">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="7"/>
-        <v>362265475720606</v>
+        <v>5.2148120994163104E+16</v>
       </c>
       <c r="G82" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0362265475720606</v>
+        <v>00052148120994163100</v>
       </c>
       <c r="H82">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="I82" s="12">
-        <v>2654</v>
+        <v>2148</v>
       </c>
       <c r="J82" s="12">
-        <v>7572</v>
+        <v>1209</v>
       </c>
       <c r="K82" s="12">
-        <v>606</v>
+        <v>9416</v>
+      </c>
+      <c r="L82" s="12">
+        <v>3100</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" t="str">
         <f t="shared" si="10"/>
-        <v>3_543,2_3982</v>
+        <v>4_8,3_3436</v>
       </c>
       <c r="C83">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="8"/>
-        <v>543398213580909.25</v>
+        <v>8.3436993590660912E+16</v>
       </c>
       <c r="E83">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="7"/>
-        <v>543398213580909</v>
+        <v>8.3436993590660896E+16</v>
       </c>
       <c r="G83" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0543398213580909</v>
+        <v>00083436993590660900</v>
       </c>
       <c r="H83">
-        <v>543</v>
+        <v>8</v>
       </c>
       <c r="I83" s="12">
-        <v>3982</v>
+        <v>3436</v>
       </c>
       <c r="J83" s="12">
-        <v>1358</v>
+        <v>9935</v>
       </c>
       <c r="K83" s="12">
-        <v>909</v>
+        <v>9066</v>
+      </c>
+      <c r="L83" s="12">
+        <v>900</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" t="str">
         <f t="shared" si="10"/>
-        <v>3_815,2_973</v>
+        <v>4_13,3_3499</v>
       </c>
       <c r="C84">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="8">
         <f t="shared" si="8"/>
-        <v>815097320371363.87</v>
+        <v>1.3349918974505747E+17</v>
       </c>
       <c r="E84">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>815097320371364</v>
+        <v>1.3349918974505699E+17</v>
       </c>
       <c r="G84" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>0815097320371364</v>
+        <v>00133499189745057000</v>
       </c>
       <c r="H84">
-        <v>815</v>
+        <v>13</v>
       </c>
       <c r="I84" s="12">
-        <v>973</v>
+        <v>3499</v>
       </c>
       <c r="J84" s="12">
-        <v>2037</v>
+        <v>1897</v>
       </c>
       <c r="K84" s="12">
-        <v>1364</v>
+        <v>4505</v>
+      </c>
+      <c r="L84" s="12">
+        <v>7000</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" t="str">
         <f t="shared" si="10"/>
-        <v>3_1222,2_6459</v>
+        <v>4_21,3_3598</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="8"/>
-        <v>1222645980557045.7</v>
+        <v>2.1359870359209197E+17</v>
       </c>
       <c r="E85">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" si="7"/>
-        <v>1222645980557050</v>
+        <v>2.13598703592092E+17</v>
       </c>
       <c r="G85" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>1222645980557050</v>
+        <v>00213598703592092000</v>
       </c>
       <c r="H85">
-        <v>1222</v>
+        <v>21</v>
       </c>
       <c r="I85" s="12">
-        <v>6459</v>
+        <v>3598</v>
       </c>
       <c r="J85" s="12">
-        <v>8055</v>
+        <v>7035</v>
       </c>
       <c r="K85" s="12">
-        <v>7050</v>
+        <v>9209</v>
+      </c>
+      <c r="L85" s="12">
+        <v>2000</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" t="str">
         <f t="shared" si="10"/>
-        <v>3_1833,2_9689</v>
+        <v>4_34,3_1757</v>
       </c>
       <c r="C86">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" s="8">
         <f t="shared" si="8"/>
-        <v>1833968970835568.5</v>
+        <v>3.4175792574734714E+17</v>
       </c>
       <c r="E86">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" si="7"/>
-        <v>1833968970835570</v>
+        <v>3.4175792574734701E+17</v>
       </c>
       <c r="G86" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>1833968970835570</v>
+        <v>00341757925747347000</v>
       </c>
       <c r="H86">
-        <v>1833</v>
+        <v>34</v>
       </c>
       <c r="I86" s="12">
-        <v>9689</v>
+        <v>1757</v>
       </c>
       <c r="J86" s="12">
-        <v>7083</v>
+        <v>9257</v>
       </c>
       <c r="K86" s="12">
-        <v>5570</v>
+        <v>4734</v>
+      </c>
+      <c r="L86" s="12">
+        <v>7000</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" t="str">
         <f t="shared" si="10"/>
-        <v>3_2750,2_9534</v>
+        <v>4_54,3_6812</v>
       </c>
       <c r="C87">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="8">
         <f t="shared" si="8"/>
-        <v>2750953456253353</v>
+        <v>5.4681268119575546E+17</v>
       </c>
       <c r="E87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" si="7"/>
-        <v>2750953456253350</v>
+        <v>5.4681268119575501E+17</v>
       </c>
       <c r="G87" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>2750953456253350</v>
+        <v>00546812681195755000</v>
       </c>
       <c r="H87">
-        <v>2750</v>
+        <v>54</v>
       </c>
       <c r="I87" s="12">
-        <v>9534</v>
+        <v>6812</v>
       </c>
       <c r="J87" s="12">
-        <v>5625</v>
+        <v>6811</v>
       </c>
       <c r="K87" s="12">
-        <v>3350</v>
+        <v>9575</v>
+      </c>
+      <c r="L87" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" t="str">
         <f t="shared" si="10"/>
-        <v>3_4126,2_4301</v>
+        <v>4_87,3_4900</v>
       </c>
       <c r="C88">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" s="8">
         <f t="shared" si="8"/>
-        <v>4126430184380029.5</v>
+        <v>8.7490028991320883E+17</v>
       </c>
       <c r="E88">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" si="7"/>
-        <v>4126430184380030</v>
+        <v>8.7490028991320896E+17</v>
       </c>
       <c r="G88" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>4126430184380030</v>
+        <v>00874900289913209000</v>
       </c>
       <c r="H88">
-        <v>4126</v>
+        <v>87</v>
       </c>
       <c r="I88" s="12">
-        <v>4301</v>
+        <v>4900</v>
       </c>
       <c r="J88" s="12">
-        <v>8438</v>
+        <v>2899</v>
       </c>
       <c r="K88" s="12">
-        <v>30</v>
+        <v>1320</v>
+      </c>
+      <c r="L88" s="12">
+        <v>9000</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" t="str">
         <f t="shared" si="10"/>
-        <v>3_6189,2_6452</v>
+        <v>4_139,3_9840</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" si="8"/>
-        <v>6189645276570044</v>
+        <v>1.3998404638611343E+18</v>
       </c>
       <c r="E89">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F89" s="9">
         <f t="shared" si="7"/>
-        <v>6189645276570040</v>
+        <v>1.39984046386113E+18</v>
       </c>
       <c r="G89" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>6189645276570040</v>
+        <v>01399840463861130000</v>
       </c>
       <c r="H89">
-        <v>6189</v>
+        <v>139</v>
       </c>
       <c r="I89" s="12">
-        <v>6452</v>
+        <v>9840</v>
       </c>
       <c r="J89" s="12">
-        <v>7657</v>
+        <v>4638</v>
       </c>
       <c r="K89" s="12">
-        <v>40</v>
+        <v>6113</v>
+      </c>
+      <c r="L89" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" t="str">
         <f t="shared" si="10"/>
-        <v>3_9284,2_4679</v>
+        <v>4_223,3_9744</v>
       </c>
       <c r="C90">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" si="8"/>
-        <v>9284467914855066</v>
+        <v>2.239744742177815E+18</v>
       </c>
       <c r="E90">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F90" s="9">
         <f t="shared" si="7"/>
-        <v>9284467914855070</v>
+        <v>2.2397447421778199E+18</v>
       </c>
       <c r="G90" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>9284467914855070</v>
+        <v>02239744742177820000</v>
       </c>
       <c r="H90">
-        <v>9284</v>
+        <v>223</v>
       </c>
       <c r="I90" s="12">
-        <v>4679</v>
+        <v>9744</v>
       </c>
       <c r="J90" s="12">
-        <v>1485</v>
+        <v>7421</v>
       </c>
       <c r="K90" s="12">
-        <v>5070</v>
+        <v>7782</v>
+      </c>
+      <c r="L90" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" t="str">
         <f t="shared" si="10"/>
-        <v>4_1,3_3926</v>
+        <v>4_358,3_3591</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
@@ -5895,39 +5965,39 @@
       </c>
       <c r="D91" s="8">
         <f t="shared" si="8"/>
-        <v>1.39267018722826E+16</v>
+        <v>3.5835915874845041E+18</v>
       </c>
       <c r="E91">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" si="7"/>
-        <v>1.39267018722826E+16</v>
+        <v>3.5835915874845E+18</v>
       </c>
       <c r="G91" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>00013926701872282600</v>
+        <v>03583591587484500000</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="I91" s="12">
-        <v>3926</v>
+        <v>3591</v>
       </c>
       <c r="J91" s="12">
-        <v>7018</v>
+        <v>5874</v>
       </c>
       <c r="K91" s="12">
-        <v>7228</v>
+        <v>8450</v>
       </c>
       <c r="L91" s="12">
-        <v>2600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" t="str">
         <f t="shared" si="10"/>
-        <v>4_2,3_890</v>
+        <v>4_573,3_3746</v>
       </c>
       <c r="C92">
         <f t="shared" si="11"/>
@@ -5935,39 +6005,39 @@
       </c>
       <c r="D92" s="8">
         <f t="shared" si="8"/>
-        <v>2.08900528084239E+16</v>
+        <v>5.7337465399752069E+18</v>
       </c>
       <c r="E92">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F92" s="9">
         <f t="shared" si="7"/>
-        <v>2.08900528084239E+16</v>
+        <v>5.73374653997521E+18</v>
       </c>
       <c r="G92" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>00020890052808423900</v>
+        <v>05733746539975210000</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>573</v>
       </c>
       <c r="I92" s="12">
-        <v>890</v>
+        <v>3746</v>
       </c>
       <c r="J92" s="12">
-        <v>528</v>
+        <v>5399</v>
       </c>
       <c r="K92" s="12">
-        <v>842</v>
+        <v>7521</v>
       </c>
       <c r="L92" s="12">
-        <v>3900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" t="str">
         <f t="shared" si="10"/>
-        <v>4_3,3_1335</v>
+        <v>4_917,3_3994</v>
       </c>
       <c r="C93">
         <f t="shared" si="11"/>
@@ -5975,39 +6045,39 @@
       </c>
       <c r="D93" s="8">
         <f t="shared" si="8"/>
-        <v>3.1335079212635848E+16</v>
+        <v>9.1739944639603313E+18</v>
       </c>
       <c r="E93">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F93" s="9">
         <f t="shared" si="7"/>
-        <v>3.13350792126358E+16</v>
+        <v>9.1739944639603302E+18</v>
       </c>
       <c r="G93" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>00031335079212635800</v>
+        <v>09173994463960330000</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>917</v>
       </c>
       <c r="I93" s="12">
-        <v>1335</v>
+        <v>3994</v>
       </c>
       <c r="J93" s="12">
-        <v>792</v>
+        <v>4639</v>
       </c>
       <c r="K93" s="12">
-        <v>1263</v>
+        <v>6033</v>
       </c>
       <c r="L93" s="12">
-        <v>5800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" t="str">
         <f t="shared" si="10"/>
-        <v>4_4,3_7002</v>
+        <v>4_1467,3_8391</v>
       </c>
       <c r="C94">
         <f t="shared" si="11"/>
@@ -6015,39 +6085,39 @@
       </c>
       <c r="D94" s="8">
         <f t="shared" si="8"/>
-        <v>4.7002618818953776E+16</v>
+        <v>1.467839114233653E+19</v>
       </c>
       <c r="E94">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="7"/>
-        <v>4.70026188189538E+16</v>
+        <v>1.46783911423365E+19</v>
       </c>
       <c r="G94" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>00047002618818953800</v>
+        <v>14678391142336500000</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1467</v>
       </c>
       <c r="I94" s="12">
-        <v>7002</v>
+        <v>8391</v>
       </c>
       <c r="J94" s="12">
-        <v>6188</v>
+        <v>1423</v>
       </c>
       <c r="K94" s="12">
-        <v>1895</v>
+        <v>3650</v>
       </c>
       <c r="L94" s="12">
-        <v>3800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" t="str">
         <f t="shared" si="10"/>
-        <v>4_7,3_503</v>
+        <v>4_2348,3_5425</v>
       </c>
       <c r="C95">
         <f t="shared" si="11"/>
@@ -6055,33 +6125,33 @@
       </c>
       <c r="D95" s="8">
         <f t="shared" si="8"/>
-        <v>7.0503928228430664E+16</v>
+        <v>2.3485425827738452E+19</v>
       </c>
       <c r="E95">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F95" s="9">
         <f t="shared" si="7"/>
-        <v>7.0503928228430704E+16</v>
+        <v>2.3485425827738501E+19</v>
       </c>
       <c r="G95" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>00070503928228430700</v>
+        <v>23485425827738500000</v>
       </c>
       <c r="H95">
-        <v>7</v>
+        <v>2348</v>
       </c>
       <c r="I95" s="12">
-        <v>503</v>
+        <v>5425</v>
       </c>
       <c r="J95" s="12">
-        <v>9282</v>
+        <v>8277</v>
       </c>
       <c r="K95" s="12">
-        <v>2843</v>
+        <v>3850</v>
       </c>
       <c r="L95" s="12">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
